--- a/Data/PFAN-Current.xlsx
+++ b/Data/PFAN-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAN0301 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAN0309 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
-    <t xml:space="preserve">PFAN for 03/01/2023  </t>
+    <t xml:space="preserve">PFAN for 03/09/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1724,13 +1724,13 @@
         <v>283.6</v>
       </c>
       <c r="O3" s="0">
-        <v>83.64</v>
+        <v>75.68</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.40418</v>
+        <v>0.3717</v>
       </c>
       <c r="R3" s="0">
         <v>0.40989</v>
@@ -1739,43 +1739,43 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>505</v>
+        <v>642</v>
       </c>
       <c r="U3" s="0">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="V3" s="0">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="W3" s="0">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="X3" s="0">
-        <v>9.85</v>
+        <v>11.36</v>
       </c>
       <c r="Y3" s="0">
-        <v>12.21</v>
+        <v>15.64</v>
       </c>
       <c r="Z3" s="0">
-        <v>12.21</v>
+        <v>15.64</v>
       </c>
       <c r="AA3" s="0">
-        <v>-2.015</v>
+        <v>-11.34</v>
       </c>
       <c r="AB3" s="0">
-        <v>-1.771</v>
+        <v>-11.156</v>
       </c>
       <c r="AC3" s="0">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="AD3" s="0">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AE3" s="0">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.13</v>
+        <v>-0.25</v>
       </c>
       <c r="AG3" s="0">
         <v>0.12</v>
@@ -1831,13 +1831,13 @@
         <v>850</v>
       </c>
       <c r="O4" s="0">
-        <v>97.64</v>
+        <v>99.26</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.41416</v>
+        <v>1.46115</v>
       </c>
       <c r="R4" s="0">
         <v>1.42079</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>12.41</v>
+        <v>9</v>
       </c>
       <c r="Z4" s="0">
-        <v>12.41</v>
+        <v>9</v>
       </c>
       <c r="AA4" s="0">
-        <v>-1.094</v>
+        <v>0.547</v>
       </c>
       <c r="AC4" s="0">
         <v>0.19</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>1043</v>
       </c>
       <c r="O5" s="0">
-        <v>91.32</v>
+        <v>90.58</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1.62294</v>
+        <v>1.63614</v>
       </c>
       <c r="R5" s="0">
         <v>1.61377</v>
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>17.7</v>
+        <v>19.14</v>
       </c>
       <c r="Z5" s="0">
-        <v>17.7</v>
+        <v>19.14</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.066</v>
+        <v>-0.875</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="AG5" s="0">
         <v>0.01</v>
@@ -2003,13 +2003,13 @@
         <v>575</v>
       </c>
       <c r="O6" s="0">
-        <v>85.36</v>
+        <v>82.72</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.83632</v>
+        <v>0.82372</v>
       </c>
       <c r="R6" s="0">
         <v>0.84235</v>
@@ -2018,43 +2018,43 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="U6" s="0">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="V6" s="0">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="W6" s="0">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="X6" s="0">
-        <v>9.82</v>
+        <v>10.48</v>
       </c>
       <c r="Y6" s="0">
-        <v>15.01</v>
+        <v>16.92</v>
       </c>
       <c r="Z6" s="0">
-        <v>15.01</v>
+        <v>16.92</v>
       </c>
       <c r="AA6" s="0">
-        <v>-1.341</v>
+        <v>-4.392</v>
       </c>
       <c r="AB6" s="0">
-        <v>-1.261</v>
+        <v>-4.24</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.52</v>
+        <v>0.23</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.27</v>
+        <v>-0.32</v>
       </c>
       <c r="AG6" s="0">
         <v>0.05</v>
@@ -2110,13 +2110,13 @@
         <v>402.5</v>
       </c>
       <c r="O7" s="0">
-        <v>89.3</v>
+        <v>87.68</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.61245</v>
+        <v>0.61118</v>
       </c>
       <c r="R7" s="0">
         <v>0.61254</v>
@@ -2125,43 +2125,43 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="U7" s="0">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="V7" s="0">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="W7" s="0">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="X7" s="0">
-        <v>9.72</v>
+        <v>10.2</v>
       </c>
       <c r="Y7" s="0">
-        <v>14.9</v>
+        <v>16.44</v>
       </c>
       <c r="Z7" s="0">
-        <v>14.9</v>
+        <v>16.44</v>
       </c>
       <c r="AA7" s="0">
-        <v>-0.645</v>
+        <v>-2.448</v>
       </c>
       <c r="AB7" s="0">
-        <v>-0.625</v>
+        <v>-2.348</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="AG7" s="0">
         <v>0.03</v>
@@ -2217,13 +2217,13 @@
         <v>325</v>
       </c>
       <c r="O8" s="0">
-        <v>101.88</v>
+        <v>100.92</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.56419</v>
+        <v>0.56802</v>
       </c>
       <c r="R8" s="0">
         <v>0.56063</v>
@@ -2253,10 +2253,10 @@
         <v>99.99</v>
       </c>
       <c r="AA8" s="0">
-        <v>0</v>
+        <v>-0.942</v>
       </c>
       <c r="AB8" s="0">
-        <v>-0.105</v>
+        <v>-1.046</v>
       </c>
       <c r="AC8" s="0">
         <v>-1.09</v>
@@ -2324,13 +2324,13 @@
         <v>1150</v>
       </c>
       <c r="O9" s="0">
-        <v>129.08</v>
+        <v>124.73</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.52935</v>
+        <v>2.48418</v>
       </c>
       <c r="R9" s="0">
         <v>2.48094</v>
@@ -2345,16 +2345,16 @@
         <v>-10</v>
       </c>
       <c r="AA9" s="0">
-        <v>1.309</v>
+        <v>-2.103</v>
       </c>
       <c r="AC9" s="0">
         <v>0.04</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2410,13 +2410,13 @@
         <v>350</v>
       </c>
       <c r="O10" s="0">
-        <v>92.96</v>
+        <v>92.64</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.55439</v>
+        <v>0.56153</v>
       </c>
       <c r="R10" s="0">
         <v>0.549</v>
@@ -2425,43 +2425,43 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="U10" s="0">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="0">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="W10" s="0">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="X10" s="0">
-        <v>9.25</v>
+        <v>9.47</v>
       </c>
       <c r="Y10" s="0">
-        <v>13.12</v>
+        <v>13.65</v>
       </c>
       <c r="Z10" s="0">
-        <v>13.12</v>
+        <v>13.65</v>
       </c>
       <c r="AA10" s="0">
-        <v>0.345</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.377</v>
+        <v>0.035</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="AD10" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AG10" s="0">
         <v>0.02</v>
@@ -2517,13 +2517,13 @@
         <v>287.5</v>
       </c>
       <c r="O11" s="0">
-        <v>97.48</v>
+        <v>95.36</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.47753</v>
+        <v>0.4748</v>
       </c>
       <c r="R11" s="0">
         <v>0.47453</v>
@@ -2532,43 +2532,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="U11" s="0">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="V11" s="0">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="W11" s="0">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="X11" s="0">
-        <v>7.43</v>
+        <v>8.04</v>
       </c>
       <c r="Y11" s="0">
-        <v>12.77</v>
+        <v>17.28</v>
       </c>
       <c r="Z11" s="0">
-        <v>12.77</v>
+        <v>17.28</v>
       </c>
       <c r="AA11" s="0">
-        <v>0</v>
+        <v>-2.175</v>
       </c>
       <c r="AB11" s="0">
-        <v>-0.056</v>
+        <v>-2.195</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.16</v>
+        <v>-0.5</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2624,13 +2624,13 @@
         <v>1150</v>
       </c>
       <c r="O12" s="0">
-        <v>54.14</v>
+        <v>54.06</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.06088</v>
+        <v>1.07666</v>
       </c>
       <c r="R12" s="0">
         <v>1.06394</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>70.31</v>
+        <v>72.06</v>
       </c>
       <c r="Z12" s="0">
-        <v>70.31</v>
+        <v>72.06</v>
       </c>
       <c r="AA12" s="0">
-        <v>-0.915</v>
+        <v>-1.061</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="AG12" s="0">
         <v>0.01</v>
@@ -2710,13 +2710,13 @@
         <v>1500</v>
       </c>
       <c r="O13" s="0">
-        <v>96.36</v>
+        <v>96.92</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.46273</v>
+        <v>2.51759</v>
       </c>
       <c r="R13" s="0">
         <v>2.45687</v>
@@ -2725,22 +2725,22 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>22.19</v>
+        <v>21.64</v>
       </c>
       <c r="Z13" s="0">
-        <v>22.19</v>
+        <v>21.64</v>
       </c>
       <c r="AA13" s="0">
-        <v>-0.393</v>
+        <v>0.186</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>350</v>
       </c>
       <c r="O14" s="0">
-        <v>65.68</v>
+        <v>61.24</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.3917</v>
+        <v>0.3712</v>
       </c>
       <c r="R14" s="0">
         <v>0.40203</v>
@@ -2811,49 +2811,49 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>300</v>
+        <v>371</v>
       </c>
       <c r="U14" s="0">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="V14" s="0">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="W14" s="0">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="X14" s="0">
-        <v>7.02</v>
+        <v>7.64</v>
       </c>
       <c r="Y14" s="0">
-        <v>7.15</v>
+        <v>7.69</v>
       </c>
       <c r="Z14" s="0">
-        <v>7.15</v>
+        <v>7.69</v>
       </c>
       <c r="AA14" s="0">
-        <v>-3.184</v>
+        <v>-9.729</v>
       </c>
       <c r="AB14" s="0">
-        <v>-2.223</v>
+        <v>-10.028</v>
       </c>
       <c r="AC14" s="0">
-        <v>12.52</v>
+        <v>12.1</v>
       </c>
       <c r="AD14" s="0">
-        <v>13.78</v>
+        <v>12.78</v>
       </c>
       <c r="AE14" s="0">
-        <v>13.78</v>
+        <v>12.78</v>
       </c>
       <c r="AF14" s="0">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AG14" s="0">
-        <v>3.89</v>
+        <v>3.36</v>
       </c>
       <c r="AH14" s="0">
-        <v>3.89</v>
+        <v>3.36</v>
       </c>
       <c r="AI14" s="0" t="s">
         <v>86</v>
@@ -2903,13 +2903,13 @@
         <v>260</v>
       </c>
       <c r="O15" s="0">
-        <v>69.4</v>
+        <v>62.68</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.30746</v>
+        <v>0.28223</v>
       </c>
       <c r="R15" s="0">
         <v>0.31327</v>
@@ -2918,49 +2918,49 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>293</v>
+        <v>393</v>
       </c>
       <c r="U15" s="0">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="V15" s="0">
-        <v>253</v>
+        <v>286</v>
       </c>
       <c r="W15" s="0">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="X15" s="0">
-        <v>6.94</v>
+        <v>7.87</v>
       </c>
       <c r="Y15" s="0">
-        <v>7.13</v>
+        <v>7.92</v>
       </c>
       <c r="Z15" s="0">
-        <v>7.13</v>
+        <v>7.92</v>
       </c>
       <c r="AA15" s="0">
-        <v>-2.473</v>
+        <v>-11.917</v>
       </c>
       <c r="AB15" s="0">
-        <v>-1.528</v>
+        <v>-12.196</v>
       </c>
       <c r="AC15" s="0">
-        <v>12.08</v>
+        <v>11.75</v>
       </c>
       <c r="AD15" s="0">
-        <v>13.82</v>
+        <v>12.39</v>
       </c>
       <c r="AE15" s="0">
-        <v>13.82</v>
+        <v>12.39</v>
       </c>
       <c r="AF15" s="0">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
       <c r="AG15" s="0">
-        <v>3.91</v>
+        <v>3.16</v>
       </c>
       <c r="AH15" s="0">
-        <v>3.91</v>
+        <v>3.16</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>86</v>
@@ -3010,13 +3010,13 @@
         <v>250</v>
       </c>
       <c r="O16" s="0">
-        <v>75.56</v>
+        <v>68.36</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.32187</v>
+        <v>0.29597</v>
       </c>
       <c r="R16" s="0">
         <v>0.3234</v>
@@ -3025,49 +3025,49 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>239</v>
+        <v>345</v>
       </c>
       <c r="U16" s="0">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="V16" s="0">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="W16" s="0">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="X16" s="0">
-        <v>6.39</v>
+        <v>7.38</v>
       </c>
       <c r="Y16" s="0">
-        <v>6.8</v>
+        <v>7.54</v>
       </c>
       <c r="Z16" s="0">
-        <v>6.8</v>
+        <v>7.54</v>
       </c>
       <c r="AA16" s="0">
-        <v>-1.099</v>
+        <v>-10.524</v>
       </c>
       <c r="AB16" s="0">
-        <v>-0.198</v>
+        <v>-10.769</v>
       </c>
       <c r="AC16" s="0">
-        <v>11.37</v>
+        <v>11.77</v>
       </c>
       <c r="AD16" s="0">
-        <v>14.41</v>
+        <v>13.06</v>
       </c>
       <c r="AE16" s="0">
-        <v>14.41</v>
+        <v>13.06</v>
       </c>
       <c r="AF16" s="0">
-        <v>1.21</v>
+        <v>1.63</v>
       </c>
       <c r="AG16" s="0">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="AH16" s="0">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>86</v>
@@ -3117,13 +3117,13 @@
         <v>300</v>
       </c>
       <c r="O17" s="0">
-        <v>77</v>
+        <v>68.56</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.39361</v>
+        <v>0.3562</v>
       </c>
       <c r="R17" s="0">
         <v>0.39011</v>
@@ -3132,49 +3132,49 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>237</v>
+        <v>359</v>
       </c>
       <c r="U17" s="0">
-        <v>-11</v>
+        <v>111</v>
       </c>
       <c r="V17" s="0">
-        <v>194</v>
+        <v>292</v>
       </c>
       <c r="W17" s="0">
-        <v>-6</v>
+        <v>92</v>
       </c>
       <c r="X17" s="0">
-        <v>6.36</v>
+        <v>7.52</v>
       </c>
       <c r="Y17" s="0">
-        <v>6.79</v>
+        <v>7.66</v>
       </c>
       <c r="Z17" s="0">
-        <v>6.79</v>
+        <v>7.66</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.26</v>
+        <v>-10.729</v>
       </c>
       <c r="AB17" s="0">
-        <v>1.164</v>
+        <v>-10.972</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.17</v>
+        <v>11.6</v>
       </c>
       <c r="AD17" s="0">
-        <v>14.44</v>
+        <v>12.75</v>
       </c>
       <c r="AE17" s="0">
-        <v>14.44</v>
+        <v>12.75</v>
       </c>
       <c r="AF17" s="0">
-        <v>1.23</v>
+        <v>2.06</v>
       </c>
       <c r="AG17" s="0">
-        <v>4.29</v>
+        <v>3.36</v>
       </c>
       <c r="AH17" s="0">
-        <v>4.29</v>
+        <v>3.36</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>86</v>
@@ -3224,13 +3224,13 @@
         <v>671.1</v>
       </c>
       <c r="O18" s="0">
-        <v>71.72</v>
+        <v>64.38</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.82012</v>
+        <v>0.74824</v>
       </c>
       <c r="R18" s="0">
         <v>0.83995</v>
@@ -3239,49 +3239,49 @@
         <v>-0</v>
       </c>
       <c r="T18" s="0">
-        <v>455</v>
+        <v>577</v>
       </c>
       <c r="U18" s="0">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="V18" s="0">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="W18" s="0">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="X18" s="0">
-        <v>8.61</v>
+        <v>9.75</v>
       </c>
       <c r="Y18" s="0">
-        <v>8.75</v>
+        <v>9.77</v>
       </c>
       <c r="Z18" s="0">
-        <v>8.75</v>
+        <v>9.77</v>
       </c>
       <c r="AA18" s="0">
-        <v>-2.976</v>
+        <v>-12.906</v>
       </c>
       <c r="AB18" s="0">
-        <v>-2.134</v>
+        <v>-13.108</v>
       </c>
       <c r="AC18" s="0">
-        <v>10.32</v>
+        <v>9.97</v>
       </c>
       <c r="AD18" s="0">
-        <v>11.38</v>
+        <v>10.16</v>
       </c>
       <c r="AE18" s="0">
-        <v>11.38</v>
+        <v>10.16</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="AG18" s="0">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="AH18" s="0">
-        <v>2.63</v>
+        <v>2.11</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3331,13 +3331,13 @@
         <v>1006.2</v>
       </c>
       <c r="O19" s="0">
-        <v>113.71</v>
+        <v>114.53</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.94955</v>
+        <v>1.9957</v>
       </c>
       <c r="R19" s="0">
         <v>1.93492</v>
@@ -3352,16 +3352,16 @@
         <v>-10</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.121</v>
+        <v>0.841</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>4.537</v>
       </c>
       <c r="F20" s="2">
-        <v>44986</v>
+        <v>44994</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>125</v>
@@ -3414,7 +3414,7 @@
         <v>124</v>
       </c>
       <c r="N20" s="0">
-        <v>0</v>
+        <v>4.469</v>
       </c>
       <c r="O20" s="0">
         <v>100</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0</v>
+        <v>0.00774</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>712.6</v>
       </c>
       <c r="O21" s="0">
-        <v>91.3</v>
+        <v>90.6</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1.10858</v>
+        <v>1.11809</v>
       </c>
       <c r="R21" s="0">
         <v>1.10884</v>
@@ -3539,49 +3539,49 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="U21" s="0">
-        <v>-2</v>
+        <v>18</v>
       </c>
       <c r="V21" s="0">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="W21" s="0">
-        <v>-3</v>
+        <v>9</v>
       </c>
       <c r="X21" s="0">
-        <v>10.09</v>
+        <v>10.19</v>
       </c>
       <c r="Y21" s="0">
-        <v>10.09</v>
+        <v>10.19</v>
       </c>
       <c r="Z21" s="0">
-        <v>10.09</v>
+        <v>10.19</v>
       </c>
       <c r="AA21" s="0">
-        <v>-0.653</v>
+        <v>-1.415</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.131</v>
+        <v>-1.596</v>
       </c>
       <c r="AC21" s="0">
-        <v>9.59</v>
+        <v>9.48</v>
       </c>
       <c r="AD21" s="0">
-        <v>9.95</v>
+        <v>9.83</v>
       </c>
       <c r="AE21" s="0">
-        <v>9.95</v>
+        <v>9.83</v>
       </c>
       <c r="AF21" s="0">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="AG21" s="0">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH21" s="0">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI21" s="0" t="s">
         <v>47</v>
@@ -3631,13 +3631,13 @@
         <v>492.5</v>
       </c>
       <c r="O22" s="0">
-        <v>101.8</v>
+        <v>101.84</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.85429</v>
+        <v>0.86862</v>
       </c>
       <c r="R22" s="0">
         <v>0.85725</v>
@@ -3646,43 +3646,43 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U22" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="V22" s="0">
-        <v>-25</v>
+        <v>-18</v>
       </c>
       <c r="W22" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="X22" s="0">
-        <v>4.96</v>
+        <v>5.01</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.37</v>
+        <v>6.44</v>
       </c>
       <c r="Z22" s="0">
-        <v>6.37</v>
+        <v>6.44</v>
       </c>
       <c r="AA22" s="0">
-        <v>-0.973</v>
+        <v>-0.934</v>
       </c>
       <c r="AB22" s="0">
-        <v>-0.875</v>
+        <v>-0.861</v>
       </c>
       <c r="AC22" s="0">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AE22" s="0">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AF22" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="0">
         <v>0.03</v>
@@ -3738,13 +3738,13 @@
         <v>420</v>
       </c>
       <c r="O23" s="0">
-        <v>101.76</v>
+        <v>101.28</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.72825</v>
+        <v>0.73667</v>
       </c>
       <c r="R23" s="0">
         <v>0.73105</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="U23" s="0">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="W23" s="0">
-        <v>229</v>
+        <v>323</v>
       </c>
       <c r="X23" s="0">
-        <v>5.16</v>
+        <v>5.73</v>
       </c>
       <c r="Y23" s="0">
-        <v>6.63</v>
+        <v>7.26</v>
       </c>
       <c r="Z23" s="0">
-        <v>6.63</v>
+        <v>7.26</v>
       </c>
       <c r="AA23" s="0">
-        <v>-1.012</v>
+        <v>-1.479</v>
       </c>
       <c r="AB23" s="0">
-        <v>-0.973</v>
+        <v>-1.46</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AD23" s="0">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AE23" s="0">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="AF23" s="0">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AG23" s="0">
         <v>0.02</v>
@@ -3845,13 +3845,13 @@
         <v>517.5</v>
       </c>
       <c r="O24" s="0">
-        <v>105</v>
+        <v>103.72</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.92587</v>
+        <v>0.92956</v>
       </c>
       <c r="R24" s="0">
         <v>0.92109</v>
@@ -3860,49 +3860,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>-32</v>
+        <v>17</v>
       </c>
       <c r="U24" s="0">
-        <v>-7</v>
+        <v>42</v>
       </c>
       <c r="V24" s="0">
-        <v>-16</v>
+        <v>33</v>
       </c>
       <c r="W24" s="0">
-        <v>-2</v>
+        <v>47</v>
       </c>
       <c r="X24" s="0">
-        <v>3.58</v>
+        <v>3.99</v>
       </c>
       <c r="Y24" s="0">
-        <v>5.45</v>
+        <v>6.25</v>
       </c>
       <c r="Z24" s="0">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA24" s="0">
-        <v>-0.114</v>
+        <v>-1.332</v>
       </c>
       <c r="AB24" s="0">
-        <v>0.177</v>
+        <v>-1.261</v>
       </c>
       <c r="AC24" s="0">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AE24" s="0">
-        <v>13.42</v>
+        <v>13.2</v>
       </c>
       <c r="AF24" s="0">
-        <v>-0.98</v>
+        <v>-0.89</v>
       </c>
       <c r="AG24" s="0">
         <v>0.04</v>
       </c>
       <c r="AH24" s="0">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3952,13 +3952,13 @@
         <v>536.5</v>
       </c>
       <c r="O25" s="0">
-        <v>103.96</v>
+        <v>103.6</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.95036</v>
+        <v>0.96257</v>
       </c>
       <c r="R25" s="0">
         <v>0.93965</v>
@@ -3967,49 +3967,49 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>-196</v>
+        <v>-145</v>
       </c>
       <c r="U25" s="0">
-        <v>-81</v>
+        <v>-30</v>
       </c>
       <c r="V25" s="0">
-        <v>-162</v>
+        <v>-117</v>
       </c>
       <c r="W25" s="0">
-        <v>-64</v>
+        <v>-19</v>
       </c>
       <c r="X25" s="0">
-        <v>1.86</v>
+        <v>2.3</v>
       </c>
       <c r="Y25" s="0">
-        <v>3.23</v>
+        <v>4.03</v>
       </c>
       <c r="Z25" s="0">
-        <v>7.75</v>
+        <v>7.79</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.503</v>
+        <v>0.155</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.534</v>
+        <v>0.118</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AE25" s="0">
-        <v>12.62</v>
+        <v>12.53</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.34</v>
+        <v>-0.43</v>
       </c>
       <c r="AG25" s="0">
         <v>0.01</v>
       </c>
       <c r="AH25" s="0">
-        <v>3.29</v>
+        <v>3.25</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -4059,13 +4059,13 @@
         <v>306.8</v>
       </c>
       <c r="O26" s="0">
-        <v>118.4</v>
+        <v>118.2</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.61895</v>
+        <v>0.62802</v>
       </c>
       <c r="R26" s="0">
         <v>0.62087</v>
@@ -4080,22 +4080,22 @@
         <v>-10</v>
       </c>
       <c r="Z26" s="0">
-        <v>6.89</v>
+        <v>6.92</v>
       </c>
       <c r="AA26" s="0">
-        <v>-0.937</v>
+        <v>-1.104</v>
       </c>
       <c r="AB26" s="0">
-        <v>-0.942</v>
+        <v>-1.163</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AE26" s="0">
-        <v>14.22</v>
+        <v>14.15</v>
       </c>
       <c r="AF26" s="0">
         <v>0.01</v>
@@ -4104,7 +4104,7 @@
         <v>0.01</v>
       </c>
       <c r="AH26" s="0">
-        <v>4.16</v>
+        <v>4.12</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -4154,13 +4154,13 @@
         <v>260</v>
       </c>
       <c r="O27" s="0">
-        <v>78.56</v>
+        <v>78.36</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.34804</v>
+        <v>0.35283</v>
       </c>
       <c r="R27" s="0">
         <v>0.35289</v>
@@ -4169,43 +4169,43 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="U27" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="V27" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="W27" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X27" s="0">
-        <v>11.48</v>
+        <v>11.67</v>
       </c>
       <c r="Y27" s="0">
-        <v>18.45</v>
+        <v>18.76</v>
       </c>
       <c r="Z27" s="0">
-        <v>18.45</v>
+        <v>18.76</v>
       </c>
       <c r="AA27" s="0">
-        <v>-1.996</v>
+        <v>-2.246</v>
       </c>
       <c r="AB27" s="0">
-        <v>-1.928</v>
+        <v>-2.054</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="AD27" s="0">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AE27" s="0">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="AG27" s="0">
         <v>0.06</v>
@@ -4261,13 +4261,13 @@
         <v>325</v>
       </c>
       <c r="O28" s="0">
-        <v>88.44</v>
+        <v>85.04</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.48976</v>
+        <v>0.47864</v>
       </c>
       <c r="R28" s="0">
         <v>0.49152</v>
@@ -4276,49 +4276,49 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>582</v>
+        <v>640</v>
       </c>
       <c r="U28" s="0">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="V28" s="0">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="W28" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="X28" s="0">
-        <v>11.32</v>
+        <v>12.18</v>
       </c>
       <c r="Y28" s="0">
-        <v>19.99</v>
+        <v>24.71</v>
       </c>
       <c r="Z28" s="0">
-        <v>19.99</v>
+        <v>24.71</v>
       </c>
       <c r="AA28" s="0">
-        <v>-0.985</v>
+        <v>-4.792</v>
       </c>
       <c r="AB28" s="0">
-        <v>-1.041</v>
+        <v>-4.755</v>
       </c>
       <c r="AC28" s="0">
-        <v>-0.18</v>
+        <v>-0.51</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="AF28" s="0">
-        <v>-0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AG28" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH28" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI28" s="0" t="s">
         <v>47</v>
@@ -4368,43 +4368,43 @@
         <v>1437.5</v>
       </c>
       <c r="O29" s="0">
-        <v>48.58</v>
+        <v>45.66</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.19004</v>
+        <v>1.13683</v>
       </c>
       <c r="R29" s="0">
         <v>1.07726</v>
       </c>
       <c r="S29" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>10.96</v>
+        <v>11.7</v>
       </c>
       <c r="Z29" s="0">
-        <v>10.96</v>
+        <v>11.7</v>
       </c>
       <c r="AA29" s="0">
-        <v>9.773</v>
+        <v>3.176</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AD29" s="0">
-        <v>9.01</v>
+        <v>8.41</v>
       </c>
       <c r="AE29" s="0">
-        <v>9.01</v>
+        <v>8.41</v>
       </c>
       <c r="AG29" s="0">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AH29" s="0">
-        <v>1.67</v>
+        <v>1.46</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4454,13 +4454,13 @@
         <v>280</v>
       </c>
       <c r="O30" s="0">
-        <v>97.26</v>
+        <v>95.8</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.46403</v>
+        <v>0.46454</v>
       </c>
       <c r="R30" s="0">
         <v>0.46575</v>
@@ -4469,49 +4469,49 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>-21</v>
+        <v>24</v>
       </c>
       <c r="U30" s="0">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="V30" s="0">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="W30" s="0">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="X30" s="0">
-        <v>3.72</v>
+        <v>4.09</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.14</v>
+        <v>6.25</v>
       </c>
       <c r="AA30" s="0">
-        <v>-0.998</v>
+        <v>-2.484</v>
       </c>
       <c r="AB30" s="0">
-        <v>-0.638</v>
+        <v>-2.504</v>
       </c>
       <c r="AC30" s="0">
-        <v>4.81</v>
+        <v>5.45</v>
       </c>
       <c r="AD30" s="0">
-        <v>15.53</v>
+        <v>15.29</v>
       </c>
       <c r="AE30" s="0">
-        <v>15.53</v>
+        <v>15.29</v>
       </c>
       <c r="AF30" s="0">
-        <v>-2.08</v>
+        <v>-1.9</v>
       </c>
       <c r="AG30" s="0">
-        <v>4.51</v>
+        <v>4.4</v>
       </c>
       <c r="AH30" s="0">
-        <v>4.51</v>
+        <v>4.4</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>56</v>
@@ -4561,13 +4561,13 @@
         <v>630</v>
       </c>
       <c r="O31" s="0">
-        <v>97.4</v>
+        <v>94.68</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1.04556</v>
+        <v>1.033</v>
       </c>
       <c r="R31" s="0">
         <v>1.04282</v>
@@ -4576,49 +4576,49 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>-45</v>
+        <v>35</v>
       </c>
       <c r="U31" s="0">
-        <v>-1</v>
+        <v>79</v>
       </c>
       <c r="V31" s="0">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="W31" s="0">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="X31" s="0">
-        <v>3.48</v>
+        <v>4.2</v>
       </c>
       <c r="Y31" s="0">
-        <v>6.08</v>
+        <v>6.27</v>
       </c>
       <c r="Z31" s="0">
-        <v>6.08</v>
+        <v>6.27</v>
       </c>
       <c r="AA31" s="0">
-        <v>-0.368</v>
+        <v>-3.151</v>
       </c>
       <c r="AB31" s="0">
-        <v>0.011</v>
+        <v>-3.159</v>
       </c>
       <c r="AC31" s="0">
-        <v>4.64</v>
+        <v>5.77</v>
       </c>
       <c r="AD31" s="0">
-        <v>15.78</v>
+        <v>15.37</v>
       </c>
       <c r="AE31" s="0">
-        <v>15.78</v>
+        <v>15.37</v>
       </c>
       <c r="AF31" s="0">
-        <v>-1.79</v>
+        <v>-1.65</v>
       </c>
       <c r="AG31" s="0">
-        <v>4.62</v>
+        <v>4.42</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.62</v>
+        <v>4.42</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>56</v>
@@ -4668,13 +4668,13 @@
         <v>977.5</v>
       </c>
       <c r="O32" s="0">
-        <v>70.64</v>
+        <v>69.16</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1.17657</v>
+        <v>1.17078</v>
       </c>
       <c r="R32" s="0">
         <v>1.24728</v>
@@ -4683,49 +4683,49 @@
         <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="U32" s="0">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="V32" s="0">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="W32" s="0">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="X32" s="0">
-        <v>9.39</v>
+        <v>9.65</v>
       </c>
       <c r="Y32" s="0">
-        <v>9.5</v>
+        <v>9.72</v>
       </c>
       <c r="Z32" s="0">
-        <v>9.5</v>
+        <v>9.72</v>
       </c>
       <c r="AA32" s="0">
-        <v>-6.263</v>
+        <v>-8.227</v>
       </c>
       <c r="AB32" s="0">
-        <v>-5.466</v>
+        <v>-8.409</v>
       </c>
       <c r="AC32" s="0">
-        <v>9.76</v>
+        <v>9.71</v>
       </c>
       <c r="AD32" s="0">
-        <v>10.37</v>
+        <v>10.15</v>
       </c>
       <c r="AE32" s="0">
-        <v>10.37</v>
+        <v>10.15</v>
       </c>
       <c r="AF32" s="0">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AG32" s="0">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AH32" s="0">
-        <v>1.99</v>
+        <v>1.92</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>62</v>
@@ -4775,13 +4775,13 @@
         <v>660</v>
       </c>
       <c r="O33" s="0">
-        <v>74.68</v>
+        <v>72.48</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.83985</v>
+        <v>0.82845</v>
       </c>
       <c r="R33" s="0">
         <v>0.87032</v>
@@ -4790,49 +4790,49 @@
         <v>0</v>
       </c>
       <c r="T33" s="0">
-        <v>527</v>
+        <v>572</v>
       </c>
       <c r="U33" s="0">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="V33" s="0">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="W33" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="X33" s="0">
-        <v>9.33</v>
+        <v>9.7</v>
       </c>
       <c r="Y33" s="0">
-        <v>9.48</v>
+        <v>9.8</v>
       </c>
       <c r="Z33" s="0">
-        <v>9.48</v>
+        <v>9.8</v>
       </c>
       <c r="AA33" s="0">
-        <v>-4.109</v>
+        <v>-6.934</v>
       </c>
       <c r="AB33" s="0">
-        <v>-3.342</v>
+        <v>-7.102</v>
       </c>
       <c r="AC33" s="0">
-        <v>9.35</v>
+        <v>9.32</v>
       </c>
       <c r="AD33" s="0">
-        <v>10.16</v>
+        <v>9.86</v>
       </c>
       <c r="AE33" s="0">
-        <v>10.16</v>
+        <v>9.86</v>
       </c>
       <c r="AF33" s="0">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="AG33" s="0">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="AH33" s="0">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>62</v>
@@ -4882,13 +4882,13 @@
         <v>292.3</v>
       </c>
       <c r="O34" s="0">
-        <v>85.16</v>
+        <v>83.84</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.42415</v>
+        <v>0.42441</v>
       </c>
       <c r="R34" s="0">
         <v>0.42524</v>
@@ -4897,49 +4897,49 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="U34" s="0">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="V34" s="0">
-        <v>323</v>
+        <v>429</v>
       </c>
       <c r="W34" s="0">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="X34" s="0">
-        <v>7.97</v>
+        <v>8.2</v>
       </c>
       <c r="Y34" s="0">
-        <v>8.55</v>
+        <v>8.7</v>
       </c>
       <c r="Z34" s="0">
-        <v>8.55</v>
+        <v>8.7</v>
       </c>
       <c r="AA34" s="0">
-        <v>-0.885</v>
+        <v>-2.421</v>
       </c>
       <c r="AB34" s="0">
-        <v>-0.181</v>
+        <v>-2.53</v>
       </c>
       <c r="AC34" s="0">
-        <v>8.28</v>
+        <v>8.45</v>
       </c>
       <c r="AD34" s="0">
-        <v>11.45</v>
+        <v>11.22</v>
       </c>
       <c r="AE34" s="0">
-        <v>11.45</v>
+        <v>11.22</v>
       </c>
       <c r="AF34" s="0">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AG34" s="0">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AH34" s="0">
-        <v>2.71</v>
+        <v>2.61</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4989,13 +4989,13 @@
         <v>324.7</v>
       </c>
       <c r="O35" s="0">
-        <v>85.52</v>
+        <v>83.2</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.47315</v>
+        <v>0.46785</v>
       </c>
       <c r="R35" s="0">
         <v>0.47281</v>
@@ -5004,49 +5004,49 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="U35" s="0">
-        <v>-2</v>
+        <v>47</v>
       </c>
       <c r="V35" s="0">
-        <v>322</v>
+        <v>435</v>
       </c>
       <c r="W35" s="0">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="X35" s="0">
-        <v>7.94</v>
+        <v>8.35</v>
       </c>
       <c r="Y35" s="0">
-        <v>8.54</v>
+        <v>8.8</v>
       </c>
       <c r="Z35" s="0">
-        <v>8.54</v>
+        <v>8.8</v>
       </c>
       <c r="AA35" s="0">
-        <v>-0.558</v>
+        <v>-3.256</v>
       </c>
       <c r="AB35" s="0">
-        <v>0.144</v>
+        <v>-3.364</v>
       </c>
       <c r="AC35" s="0">
-        <v>8.21</v>
+        <v>8.53</v>
       </c>
       <c r="AD35" s="0">
-        <v>11.46</v>
+        <v>11.09</v>
       </c>
       <c r="AE35" s="0">
-        <v>11.46</v>
+        <v>11.09</v>
       </c>
       <c r="AF35" s="0">
-        <v>-0.04</v>
+        <v>0.26</v>
       </c>
       <c r="AG35" s="0">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AH35" s="0">
-        <v>2.71</v>
+        <v>2.55</v>
       </c>
       <c r="AI35" s="0" t="s">
         <v>47</v>
@@ -5096,13 +5096,13 @@
         <v>350</v>
       </c>
       <c r="O36" s="0">
-        <v>51.6</v>
+        <v>52.8</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.30773</v>
+        <v>0.32004</v>
       </c>
       <c r="R36" s="0">
         <v>0.29441</v>
@@ -5111,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>823</v>
+        <v>808</v>
       </c>
       <c r="U36" s="0">
-        <v>-55</v>
+        <v>-70</v>
       </c>
       <c r="V36" s="0">
         <v>554</v>
@@ -5123,37 +5123,37 @@
         <v>-19</v>
       </c>
       <c r="X36" s="0">
-        <v>12.44</v>
+        <v>12.19</v>
       </c>
       <c r="Y36" s="0">
-        <v>12.44</v>
+        <v>12.19</v>
       </c>
       <c r="Z36" s="0">
-        <v>12.44</v>
+        <v>12.19</v>
       </c>
       <c r="AA36" s="0">
-        <v>3.865</v>
+        <v>6.28</v>
       </c>
       <c r="AB36" s="0">
-        <v>4.535</v>
+        <v>6.144</v>
       </c>
       <c r="AC36" s="0">
+        <v>8.4</v>
+      </c>
+      <c r="AD36" s="0">
         <v>8.3</v>
       </c>
-      <c r="AD36" s="0">
-        <v>8.21</v>
-      </c>
       <c r="AE36" s="0">
-        <v>8.21</v>
+        <v>8.3</v>
       </c>
       <c r="AF36" s="0">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AG36" s="0">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AH36" s="0">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>62</v>
@@ -5203,64 +5203,64 @@
         <v>250</v>
       </c>
       <c r="O37" s="0">
-        <v>55.28</v>
+        <v>56.4</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.23548</v>
+        <v>0.24419</v>
       </c>
       <c r="R37" s="0">
         <v>0.22689</v>
       </c>
       <c r="S37" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T37" s="0">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="U37" s="0">
-        <v>-45</v>
+        <v>-57</v>
       </c>
       <c r="V37" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="W37" s="0">
-        <v>-16</v>
+        <v>-14</v>
       </c>
       <c r="X37" s="0">
-        <v>12.18</v>
+        <v>11.98</v>
       </c>
       <c r="Y37" s="0">
-        <v>12.18</v>
+        <v>11.97</v>
       </c>
       <c r="Z37" s="0">
-        <v>12.18</v>
+        <v>11.97</v>
       </c>
       <c r="AA37" s="0">
-        <v>3.134</v>
+        <v>5.224</v>
       </c>
       <c r="AB37" s="0">
-        <v>3.815</v>
+        <v>5.087</v>
       </c>
       <c r="AC37" s="0">
-        <v>8.44</v>
+        <v>8.53</v>
       </c>
       <c r="AD37" s="0">
-        <v>8.36</v>
+        <v>8.45</v>
       </c>
       <c r="AE37" s="0">
-        <v>8.36</v>
+        <v>8.45</v>
       </c>
       <c r="AF37" s="0">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AG37" s="0">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AH37" s="0">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AI37" s="0" t="s">
         <v>62</v>
@@ -5310,13 +5310,13 @@
         <v>345</v>
       </c>
       <c r="O38" s="0">
-        <v>88.52</v>
+        <v>87.16</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.52037</v>
+        <v>0.52076</v>
       </c>
       <c r="R38" s="0">
         <v>0.52223</v>
@@ -5325,49 +5325,49 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="U38" s="0">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="V38" s="0">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="W38" s="0">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="X38" s="0">
-        <v>4.74</v>
+        <v>4.96</v>
       </c>
       <c r="Y38" s="0">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="Z38" s="0">
-        <v>5.95</v>
+        <v>6.05</v>
       </c>
       <c r="AA38" s="0">
-        <v>-0.984</v>
+        <v>-2.506</v>
       </c>
       <c r="AB38" s="0">
-        <v>-0.267</v>
+        <v>-2.628</v>
       </c>
       <c r="AC38" s="0">
-        <v>8.76</v>
+        <v>9.01</v>
       </c>
       <c r="AD38" s="0">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="AE38" s="0">
-        <v>16.6</v>
+        <v>16.3</v>
       </c>
       <c r="AF38" s="0">
-        <v>-0.79</v>
+        <v>-0.68</v>
       </c>
       <c r="AG38" s="0">
-        <v>5.62</v>
+        <v>5.43</v>
       </c>
       <c r="AH38" s="0">
-        <v>5.62</v>
+        <v>5.43</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5417,13 +5417,13 @@
         <v>280</v>
       </c>
       <c r="O39" s="0">
-        <v>80.76</v>
+        <v>77.48</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.38531</v>
+        <v>0.37571</v>
       </c>
       <c r="R39" s="0">
         <v>0.38383</v>
@@ -5432,49 +5432,49 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>69</v>
+        <v>121</v>
       </c>
       <c r="U39" s="0">
-        <v>-7</v>
+        <v>45</v>
       </c>
       <c r="V39" s="0">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="W39" s="0">
-        <v>-4</v>
+        <v>28</v>
       </c>
       <c r="X39" s="0">
-        <v>4.64</v>
+        <v>5.08</v>
       </c>
       <c r="Y39" s="0">
-        <v>5.51</v>
+        <v>5.76</v>
       </c>
       <c r="Z39" s="0">
-        <v>5.51</v>
+        <v>5.76</v>
       </c>
       <c r="AA39" s="0">
-        <v>-0.247</v>
+        <v>-4.298</v>
       </c>
       <c r="AB39" s="0">
-        <v>0.687</v>
+        <v>-4.544</v>
       </c>
       <c r="AC39" s="0">
-        <v>11.55</v>
+        <v>12.02</v>
       </c>
       <c r="AD39" s="0">
-        <v>17.69</v>
+        <v>17.05</v>
       </c>
       <c r="AE39" s="0">
-        <v>17.69</v>
+        <v>17.05</v>
       </c>
       <c r="AF39" s="0">
-        <v>0.64</v>
+        <v>0.92</v>
       </c>
       <c r="AG39" s="0">
-        <v>5.75</v>
+        <v>5.41</v>
       </c>
       <c r="AH39" s="0">
-        <v>5.75</v>
+        <v>5.41</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>56</v>
@@ -5524,13 +5524,13 @@
         <v>400</v>
       </c>
       <c r="O40" s="0">
-        <v>94.64</v>
+        <v>92.56</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.64504</v>
+        <v>0.64119</v>
       </c>
       <c r="R40" s="0">
         <v>0.64856</v>
@@ -5539,49 +5539,49 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>-50</v>
+        <v>2</v>
       </c>
       <c r="U40" s="0">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="V40" s="0">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="W40" s="0">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="X40" s="0">
-        <v>3.42</v>
+        <v>3.86</v>
       </c>
       <c r="Y40" s="0">
-        <v>5.6</v>
+        <v>5.74</v>
       </c>
       <c r="Z40" s="0">
-        <v>5.6</v>
+        <v>5.74</v>
       </c>
       <c r="AA40" s="0">
-        <v>-1.17</v>
+        <v>-3.342</v>
       </c>
       <c r="AB40" s="0">
-        <v>-0.706</v>
+        <v>-3.385</v>
       </c>
       <c r="AC40" s="0">
-        <v>5.97</v>
+        <v>6.86</v>
       </c>
       <c r="AD40" s="0">
-        <v>16.97</v>
+        <v>16.63</v>
       </c>
       <c r="AE40" s="0">
-        <v>16.97</v>
+        <v>16.63</v>
       </c>
       <c r="AF40" s="0">
-        <v>-2.1</v>
+        <v>-1.64</v>
       </c>
       <c r="AG40" s="0">
-        <v>5.21</v>
+        <v>5.05</v>
       </c>
       <c r="AH40" s="0">
-        <v>5.21</v>
+        <v>5.05</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>56</v>
@@ -5631,13 +5631,13 @@
         <v>500</v>
       </c>
       <c r="O41" s="0">
-        <v>100.08</v>
+        <v>98.72</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.85265</v>
+        <v>0.85483</v>
       </c>
       <c r="R41" s="0">
         <v>0.85168</v>
@@ -5646,49 +5646,49 @@
         <v>0</v>
       </c>
       <c r="T41" s="0">
-        <v>-137</v>
+        <v>-83</v>
       </c>
       <c r="U41" s="0">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="V41" s="0">
-        <v>-71</v>
+        <v>-23</v>
       </c>
       <c r="W41" s="0">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="X41" s="0">
-        <v>2.54</v>
+        <v>2.99</v>
       </c>
       <c r="Y41" s="0">
-        <v>5.73</v>
+        <v>5.82</v>
       </c>
       <c r="Z41" s="0">
-        <v>5.73</v>
+        <v>5.82</v>
       </c>
       <c r="AA41" s="0">
-        <v>-0.517</v>
+        <v>-1.869</v>
       </c>
       <c r="AB41" s="0">
-        <v>-0.283</v>
+        <v>-1.891</v>
       </c>
       <c r="AC41" s="0">
-        <v>3.33</v>
+        <v>4.12</v>
       </c>
       <c r="AD41" s="0">
-        <v>16.39</v>
+        <v>16.17</v>
       </c>
       <c r="AE41" s="0">
-        <v>16.39</v>
+        <v>16.17</v>
       </c>
       <c r="AF41" s="0">
-        <v>-2.18</v>
+        <v>-2.1</v>
       </c>
       <c r="AG41" s="0">
-        <v>4.96</v>
+        <v>4.86</v>
       </c>
       <c r="AH41" s="0">
-        <v>4.96</v>
+        <v>4.86</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>56</v>
@@ -5738,13 +5738,13 @@
         <v>1000</v>
       </c>
       <c r="O42" s="0">
-        <v>100</v>
+        <v>97.99</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.70393</v>
+        <v>1.69698</v>
       </c>
       <c r="R42" s="0">
         <v>1.702</v>
@@ -5753,49 +5753,49 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>-146</v>
+        <v>-76</v>
       </c>
       <c r="U42" s="0">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="V42" s="0">
-        <v>-103</v>
+        <v>-31</v>
       </c>
       <c r="W42" s="0">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="X42" s="0">
-        <v>2.38</v>
+        <v>3.02</v>
       </c>
       <c r="Y42" s="0">
-        <v>5.61</v>
+        <v>5.91</v>
       </c>
       <c r="Z42" s="0">
-        <v>5.78</v>
+        <v>5.91</v>
       </c>
       <c r="AA42" s="0">
-        <v>-0.517</v>
+        <v>-2.519</v>
       </c>
       <c r="AB42" s="0">
-        <v>-0.221</v>
+        <v>-2.494</v>
       </c>
       <c r="AC42" s="0">
-        <v>3.81</v>
+        <v>4.57</v>
       </c>
       <c r="AD42" s="0">
-        <v>1.22</v>
+        <v>16.83</v>
       </c>
       <c r="AE42" s="0">
-        <v>17.22</v>
+        <v>16.83</v>
       </c>
       <c r="AF42" s="0">
-        <v>-1.55</v>
+        <v>-1.59</v>
       </c>
       <c r="AG42" s="0">
-        <v>0.02</v>
+        <v>5.74</v>
       </c>
       <c r="AH42" s="0">
-        <v>6</v>
+        <v>5.74</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5845,13 +5845,13 @@
         <v>475</v>
       </c>
       <c r="O43" s="0">
-        <v>79.76</v>
+        <v>79.96</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.64555</v>
+        <v>0.65776</v>
       </c>
       <c r="R43" s="0">
         <v>0.64792</v>
@@ -5860,19 +5860,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="0">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="U43" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V43" s="0">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="W43" s="0">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X43" s="0">
-        <v>5.82</v>
+        <v>5.79</v>
       </c>
       <c r="Y43" s="0">
         <v>6.4</v>
@@ -5881,28 +5881,28 @@
         <v>6.4</v>
       </c>
       <c r="AA43" s="0">
-        <v>-0.993</v>
+        <v>-0.745</v>
       </c>
       <c r="AB43" s="0">
-        <v>-0.125</v>
+        <v>-0.966</v>
       </c>
       <c r="AC43" s="0">
-        <v>10.85</v>
+        <v>10.77</v>
       </c>
       <c r="AD43" s="0">
-        <v>15.29</v>
+        <v>15.28</v>
       </c>
       <c r="AE43" s="0">
-        <v>15.29</v>
+        <v>15.28</v>
       </c>
       <c r="AF43" s="0">
-        <v>0.48</v>
+        <v>0.41</v>
       </c>
       <c r="AG43" s="0">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="AH43" s="0">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>56</v>
@@ -5952,13 +5952,13 @@
         <v>325</v>
       </c>
       <c r="O44" s="0">
-        <v>79.87</v>
+        <v>82.16</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.44229</v>
+        <v>0.46243</v>
       </c>
       <c r="R44" s="0">
         <v>0.44309</v>
@@ -5967,43 +5967,43 @@
         <v>0</v>
       </c>
       <c r="T44" s="0">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="U44" s="0">
-        <v>7</v>
+        <v>-17</v>
       </c>
       <c r="V44" s="0">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="W44" s="0">
-        <v>3</v>
+        <v>-7</v>
       </c>
       <c r="X44" s="0">
-        <v>9.54</v>
+        <v>9.43</v>
       </c>
       <c r="Y44" s="0">
-        <v>16.02</v>
+        <v>14.86</v>
       </c>
       <c r="Z44" s="0">
-        <v>16.02</v>
+        <v>14.86</v>
       </c>
       <c r="AA44" s="0">
-        <v>-0.809</v>
+        <v>2.037</v>
       </c>
       <c r="AB44" s="0">
-        <v>-0.755</v>
+        <v>2.233</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.18</v>
+        <v>0.37</v>
       </c>
       <c r="AD44" s="0">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="AE44" s="0">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.48</v>
+        <v>-0.45</v>
       </c>
       <c r="AG44" s="0">
         <v>0.06</v>
@@ -6059,13 +6059,13 @@
         <v>300</v>
       </c>
       <c r="O45" s="0">
-        <v>90.6</v>
+        <v>92.72</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.46312</v>
+        <v>0.48172</v>
       </c>
       <c r="R45" s="0">
         <v>0.46732</v>
@@ -6074,43 +6074,43 @@
         <v>0</v>
       </c>
       <c r="T45" s="0">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="U45" s="0">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="V45" s="0">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="W45" s="0">
-        <v>11</v>
+        <v>-4</v>
       </c>
       <c r="X45" s="0">
-        <v>8.68</v>
+        <v>8.5</v>
       </c>
       <c r="Y45" s="0">
-        <v>9.61</v>
+        <v>8.81</v>
       </c>
       <c r="Z45" s="0">
-        <v>9.61</v>
+        <v>8.81</v>
       </c>
       <c r="AA45" s="0">
-        <v>-1.523</v>
+        <v>0.783</v>
       </c>
       <c r="AB45" s="0">
-        <v>-1.304</v>
+        <v>0.946</v>
       </c>
       <c r="AC45" s="0">
-        <v>2.03</v>
+        <v>2.18</v>
       </c>
       <c r="AD45" s="0">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AE45" s="0">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="AF45" s="0">
-        <v>-0.1</v>
+        <v>-0.06</v>
       </c>
       <c r="AG45" s="0">
         <v>0.09</v>
@@ -6166,13 +6166,13 @@
         <v>275</v>
       </c>
       <c r="O46" s="0">
-        <v>92.84</v>
+        <v>89.16</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.43503</v>
+        <v>0.42463</v>
       </c>
       <c r="R46" s="0">
         <v>0.43434</v>
@@ -6181,49 +6181,49 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="U46" s="0">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="V46" s="0">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="W46" s="0">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="X46" s="0">
-        <v>8.29</v>
+        <v>8.9</v>
       </c>
       <c r="Y46" s="0">
-        <v>14.89</v>
+        <v>19.74</v>
       </c>
       <c r="Z46" s="0">
-        <v>14.89</v>
+        <v>19.74</v>
       </c>
       <c r="AA46" s="0">
-        <v>-0.472</v>
+        <v>-4.417</v>
       </c>
       <c r="AB46" s="0">
-        <v>-0.528</v>
+        <v>-4.387</v>
       </c>
       <c r="AC46" s="0">
-        <v>-0.13</v>
+        <v>-0.61</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.27</v>
+        <v>-0.38</v>
       </c>
       <c r="AG46" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH46" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI46" s="0" t="s">
         <v>56</v>
@@ -6273,13 +6273,13 @@
         <v>600</v>
       </c>
       <c r="O47" s="0">
-        <v>100.08</v>
+        <v>100.16</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1.02317</v>
+        <v>1.04076</v>
       </c>
       <c r="R47" s="0">
         <v>1.01795</v>
@@ -6288,43 +6288,43 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="U47" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V47" s="0">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="W47" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X47" s="0">
-        <v>7.92</v>
+        <v>8.07</v>
       </c>
       <c r="Y47" s="0">
-        <v>12.97</v>
+        <v>15.17</v>
       </c>
       <c r="Z47" s="0">
-        <v>12.97</v>
+        <v>15.17</v>
       </c>
       <c r="AA47" s="0">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
       <c r="AB47" s="0">
-        <v>-0.148</v>
+        <v>-0.145</v>
       </c>
       <c r="AC47" s="0">
-        <v>-0.12</v>
+        <v>-0.17</v>
       </c>
       <c r="AD47" s="0">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AE47" s="0">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.07</v>
+        <v>-0.09</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -6380,58 +6380,58 @@
         <v>450</v>
       </c>
       <c r="O48" s="0">
-        <v>97.8</v>
+        <v>97.2</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.7499</v>
+        <v>0.7575</v>
       </c>
       <c r="R48" s="0">
         <v>0.74243</v>
       </c>
       <c r="S48" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="U48" s="0">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="V48" s="0">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="W48" s="0">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="X48" s="0">
-        <v>9.59</v>
+        <v>9.86</v>
       </c>
       <c r="Y48" s="0">
-        <v>21.01</v>
+        <v>27.59</v>
       </c>
       <c r="Z48" s="0">
-        <v>21.01</v>
+        <v>27.59</v>
       </c>
       <c r="AA48" s="0">
-        <v>0.369</v>
+        <v>-0.246</v>
       </c>
       <c r="AB48" s="0">
-        <v>0.308</v>
+        <v>-0.338</v>
       </c>
       <c r="AC48" s="0">
-        <v>-0.35</v>
+        <v>-0.48</v>
       </c>
       <c r="AD48" s="0">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AE48" s="0">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.14</v>
+        <v>-0.17</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -6487,13 +6487,13 @@
         <v>800</v>
       </c>
       <c r="O49" s="0">
-        <v>97.68</v>
+        <v>97.08</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1.33152</v>
+        <v>1.345</v>
       </c>
       <c r="R49" s="0">
         <v>1.31825</v>
@@ -6502,43 +6502,43 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="U49" s="0">
-        <v>-10</v>
+        <v>6</v>
       </c>
       <c r="V49" s="0">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="W49" s="0">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="X49" s="0">
-        <v>9.75</v>
+        <v>10.08</v>
       </c>
       <c r="Y49" s="0">
-        <v>10.11</v>
+        <v>10.89</v>
       </c>
       <c r="Z49" s="0">
-        <v>10.11</v>
+        <v>10.89</v>
       </c>
       <c r="AA49" s="0">
-        <v>0.37</v>
+        <v>-0.247</v>
       </c>
       <c r="AB49" s="0">
-        <v>0.401</v>
+        <v>-0.215</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="AD49" s="0">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AE49" s="0">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.04</v>
+        <v>-0.06</v>
       </c>
       <c r="AG49" s="0">
         <v>0.02</v>
@@ -6594,13 +6594,13 @@
         <v>445</v>
       </c>
       <c r="O50" s="0">
-        <v>97.84</v>
+        <v>96.88</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.74187</v>
+        <v>0.74662</v>
       </c>
       <c r="R50" s="0">
         <v>0.73237</v>
@@ -6609,43 +6609,43 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="U50" s="0">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="V50" s="0">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="W50" s="0">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="X50" s="0">
-        <v>9.65</v>
+        <v>9.99</v>
       </c>
       <c r="Y50" s="0">
-        <v>13.67</v>
+        <v>16.91</v>
       </c>
       <c r="Z50" s="0">
-        <v>13.67</v>
+        <v>16.91</v>
       </c>
       <c r="AA50" s="0">
-        <v>0.658</v>
+        <v>-0.329</v>
       </c>
       <c r="AB50" s="0">
-        <v>0.606</v>
+        <v>-0.386</v>
       </c>
       <c r="AC50" s="0">
-        <v>-0.03</v>
+        <v>-0.18</v>
       </c>
       <c r="AD50" s="0">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AE50" s="0">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AF50" s="0">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -6701,13 +6701,13 @@
         <v>410</v>
       </c>
       <c r="O51" s="0">
-        <v>89.16</v>
+        <v>85.24</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.62288</v>
+        <v>0.60524</v>
       </c>
       <c r="R51" s="0">
         <v>0.62062</v>
@@ -6716,49 +6716,49 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="U51" s="0">
-        <v>-6</v>
+        <v>67</v>
       </c>
       <c r="V51" s="0">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="W51" s="0">
-        <v>-4</v>
+        <v>49</v>
       </c>
       <c r="X51" s="0">
-        <v>4.08</v>
+        <v>4.74</v>
       </c>
       <c r="Y51" s="0">
-        <v>5.57</v>
+        <v>5.86</v>
       </c>
       <c r="Z51" s="0">
-        <v>5.57</v>
+        <v>5.86</v>
       </c>
       <c r="AA51" s="0">
-        <v>-0.268</v>
+        <v>-4.653</v>
       </c>
       <c r="AB51" s="0">
-        <v>0.433</v>
+        <v>-4.771</v>
       </c>
       <c r="AC51" s="0">
-        <v>8.33</v>
+        <v>9.47</v>
       </c>
       <c r="AD51" s="0">
-        <v>16.5</v>
+        <v>15.96</v>
       </c>
       <c r="AE51" s="0">
-        <v>16.5</v>
+        <v>15.96</v>
       </c>
       <c r="AF51" s="0">
-        <v>-1.16</v>
+        <v>-0.65</v>
       </c>
       <c r="AG51" s="0">
-        <v>4.64</v>
+        <v>4.4</v>
       </c>
       <c r="AH51" s="0">
-        <v>4.64</v>
+        <v>4.4</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>233</v>
@@ -6808,13 +6808,13 @@
         <v>270</v>
       </c>
       <c r="O52" s="0">
-        <v>89.28</v>
+        <v>84.32</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.41074</v>
+        <v>0.39427</v>
       </c>
       <c r="R52" s="0">
         <v>0.40889</v>
@@ -6823,49 +6823,49 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="U52" s="0">
-        <v>-8</v>
+        <v>82</v>
       </c>
       <c r="V52" s="0">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="W52" s="0">
-        <v>-5</v>
+        <v>59</v>
       </c>
       <c r="X52" s="0">
-        <v>4.06</v>
+        <v>4.88</v>
       </c>
       <c r="Y52" s="0">
-        <v>5.57</v>
+        <v>5.93</v>
       </c>
       <c r="Z52" s="0">
-        <v>5.57</v>
+        <v>5.93</v>
       </c>
       <c r="AA52" s="0">
-        <v>-0.179</v>
+        <v>-5.725</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.521</v>
+        <v>-5.841</v>
       </c>
       <c r="AC52" s="0">
-        <v>8.29</v>
+        <v>9.7</v>
       </c>
       <c r="AD52" s="0">
-        <v>16.52</v>
+        <v>15.83</v>
       </c>
       <c r="AE52" s="0">
-        <v>16.52</v>
+        <v>15.83</v>
       </c>
       <c r="AF52" s="0">
-        <v>-1.19</v>
+        <v>-0.4</v>
       </c>
       <c r="AG52" s="0">
-        <v>4.64</v>
+        <v>4.35</v>
       </c>
       <c r="AH52" s="0">
-        <v>4.64</v>
+        <v>4.35</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>233</v>
@@ -6915,13 +6915,13 @@
         <v>260</v>
       </c>
       <c r="O53" s="0">
-        <v>90.92</v>
+        <v>87.76</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.4028</v>
+        <v>0.39516</v>
       </c>
       <c r="R53" s="0">
         <v>0.40202</v>
@@ -6930,49 +6930,49 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="U53" s="0">
-        <v>-3</v>
+        <v>60</v>
       </c>
       <c r="V53" s="0">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="W53" s="0">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="X53" s="0">
-        <v>3.94</v>
+        <v>4.49</v>
       </c>
       <c r="Y53" s="0">
-        <v>5.54</v>
+        <v>5.76</v>
       </c>
       <c r="Z53" s="0">
-        <v>5.54</v>
+        <v>5.76</v>
       </c>
       <c r="AA53" s="0">
-        <v>-0.438</v>
+        <v>-3.898</v>
       </c>
       <c r="AB53" s="0">
-        <v>0.223</v>
+        <v>-4.002</v>
       </c>
       <c r="AC53" s="0">
-        <v>7.92</v>
+        <v>8.91</v>
       </c>
       <c r="AD53" s="0">
-        <v>16.42</v>
+        <v>15.97</v>
       </c>
       <c r="AE53" s="0">
-        <v>16.42</v>
+        <v>15.97</v>
       </c>
       <c r="AF53" s="0">
-        <v>-1.32</v>
+        <v>-0.88</v>
       </c>
       <c r="AG53" s="0">
-        <v>4.62</v>
+        <v>4.43</v>
       </c>
       <c r="AH53" s="0">
-        <v>4.62</v>
+        <v>4.43</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>233</v>
@@ -7022,13 +7022,13 @@
         <v>800</v>
       </c>
       <c r="O54" s="0">
-        <v>95.6</v>
+        <v>93.2</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.30316</v>
+        <v>1.29125</v>
       </c>
       <c r="R54" s="0">
         <v>1.29658</v>
@@ -7037,49 +7037,49 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="U54" s="0">
-        <v>-8</v>
+        <v>52</v>
       </c>
       <c r="V54" s="0">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="W54" s="0">
-        <v>-6</v>
+        <v>45</v>
       </c>
       <c r="X54" s="0">
-        <v>4.3</v>
+        <v>4.82</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.36</v>
+        <v>6.55</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.36</v>
+        <v>6.55</v>
       </c>
       <c r="AA54" s="0">
-        <v>-0.125</v>
+        <v>-2.633</v>
       </c>
       <c r="AB54" s="0">
-        <v>0.397</v>
+        <v>-2.649</v>
       </c>
       <c r="AC54" s="0">
-        <v>5.94</v>
+        <v>6.61</v>
       </c>
       <c r="AD54" s="0">
-        <v>14.15</v>
+        <v>13.87</v>
       </c>
       <c r="AE54" s="0">
-        <v>14.15</v>
+        <v>13.87</v>
       </c>
       <c r="AF54" s="0">
-        <v>-1.31</v>
+        <v>-1</v>
       </c>
       <c r="AG54" s="0">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="AH54" s="0">
-        <v>3.39</v>
+        <v>3.28</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>62</v>
@@ -7129,13 +7129,13 @@
         <v>750</v>
       </c>
       <c r="O55" s="0">
-        <v>96.36</v>
+        <v>95.2</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.23143</v>
+        <v>1.23652</v>
       </c>
       <c r="R55" s="0">
         <v>1.22926</v>
@@ -7144,49 +7144,49 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="U55" s="0">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="V55" s="0">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="W55" s="0">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="X55" s="0">
-        <v>4.29</v>
+        <v>4.55</v>
       </c>
       <c r="Y55" s="0">
-        <v>6.51</v>
+        <v>6.61</v>
       </c>
       <c r="Z55" s="0">
-        <v>6.51</v>
+        <v>6.61</v>
       </c>
       <c r="AA55" s="0">
-        <v>-0.455</v>
+        <v>-1.653</v>
       </c>
       <c r="AB55" s="0">
-        <v>-0.018</v>
+        <v>-1.659</v>
       </c>
       <c r="AC55" s="0">
-        <v>5.17</v>
+        <v>5.56</v>
       </c>
       <c r="AD55" s="0">
-        <v>13.82</v>
+        <v>13.67</v>
       </c>
       <c r="AE55" s="0">
-        <v>13.82</v>
+        <v>13.67</v>
       </c>
       <c r="AF55" s="0">
-        <v>-1.59</v>
+        <v>-1.51</v>
       </c>
       <c r="AG55" s="0">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="AH55" s="0">
-        <v>3.24</v>
+        <v>3.19</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>62</v>
@@ -7236,13 +7236,13 @@
         <v>600</v>
       </c>
       <c r="O56" s="0">
-        <v>97.52</v>
+        <v>94.68</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.997</v>
+        <v>0.98381</v>
       </c>
       <c r="R56" s="0">
         <v>0.9956</v>
@@ -7251,49 +7251,49 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="U56" s="0">
-        <v>-2</v>
+        <v>53</v>
       </c>
       <c r="V56" s="0">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="W56" s="0">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="X56" s="0">
-        <v>5.1</v>
+        <v>5.57</v>
       </c>
       <c r="Y56" s="0">
-        <v>6.76</v>
+        <v>6.99</v>
       </c>
       <c r="Z56" s="0">
-        <v>6.76</v>
+        <v>6.99</v>
       </c>
       <c r="AA56" s="0">
-        <v>-0.49</v>
+        <v>-3.388</v>
       </c>
       <c r="AB56" s="0">
-        <v>0.184</v>
+        <v>-3.436</v>
       </c>
       <c r="AC56" s="0">
-        <v>7.51</v>
+        <v>7.88</v>
       </c>
       <c r="AD56" s="0">
-        <v>13.62</v>
+        <v>13.29</v>
       </c>
       <c r="AE56" s="0">
-        <v>13.62</v>
+        <v>13.29</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.29</v>
+        <v>-0.11</v>
       </c>
       <c r="AG56" s="0">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="AH56" s="0">
-        <v>3.26</v>
+        <v>3.14</v>
       </c>
       <c r="AI56" s="0" t="s">
         <v>62</v>
@@ -7343,13 +7343,13 @@
         <v>258.2</v>
       </c>
       <c r="O57" s="0">
-        <v>83.36</v>
+        <v>78.28</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.36675</v>
+        <v>0.35003</v>
       </c>
       <c r="R57" s="0">
         <v>0.36986</v>
@@ -7358,49 +7358,49 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="U57" s="0">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="V57" s="0">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="W57" s="0">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X57" s="0">
-        <v>8.79</v>
+        <v>9.65</v>
       </c>
       <c r="Y57" s="0">
-        <v>9.21</v>
+        <v>9.84</v>
       </c>
       <c r="Z57" s="0">
-        <v>9.21</v>
+        <v>9.84</v>
       </c>
       <c r="AA57" s="0">
-        <v>-1.466</v>
+        <v>-7.47</v>
       </c>
       <c r="AB57" s="0">
-        <v>-0.761</v>
+        <v>-7.583</v>
       </c>
       <c r="AC57" s="0">
-        <v>8.33</v>
+        <v>8.76</v>
       </c>
       <c r="AD57" s="0">
-        <v>10.62</v>
+        <v>9.9</v>
       </c>
       <c r="AE57" s="0">
-        <v>10.62</v>
+        <v>9.9</v>
       </c>
       <c r="AF57" s="0">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="AG57" s="0">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="AH57" s="0">
-        <v>2.33</v>
+        <v>2.04</v>
       </c>
       <c r="AI57" s="0" t="s">
         <v>47</v>
@@ -7450,13 +7450,13 @@
         <v>584.9</v>
       </c>
       <c r="O58" s="0">
-        <v>134.9</v>
+        <v>143.64</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1.34445</v>
+        <v>1.45499</v>
       </c>
       <c r="R58" s="0">
         <v>1.32311</v>
@@ -7471,16 +7471,16 @@
         <v>-10</v>
       </c>
       <c r="AA58" s="0">
-        <v>0.973</v>
+        <v>7.515</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AE58" s="0">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -7536,13 +7536,13 @@
         <v>402.5</v>
       </c>
       <c r="O59" s="0">
-        <v>113.12</v>
+        <v>120.12</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.77581</v>
+        <v>0.83731</v>
       </c>
       <c r="R59" s="0">
         <v>0.76166</v>
@@ -7551,22 +7551,22 @@
         <v>-0</v>
       </c>
       <c r="Y59" s="0">
-        <v>1.84</v>
+        <v>-0.5</v>
       </c>
       <c r="Z59" s="0">
-        <v>1.84</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59" s="0">
-        <v>1.217</v>
+        <v>7.48</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AD59" s="0">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AE59" s="0">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AG59" s="0">
         <v>0.09</v>
@@ -7622,13 +7622,13 @@
         <v>425</v>
       </c>
       <c r="O60" s="0">
-        <v>56</v>
+        <v>53.48</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.40553</v>
+        <v>0.39363</v>
       </c>
       <c r="R60" s="0">
         <v>0.40701</v>
@@ -7637,49 +7637,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="U60" s="0">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="V60" s="0">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="W60" s="0">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="X60" s="0">
-        <v>8.7</v>
+        <v>9.14</v>
       </c>
       <c r="Y60" s="0">
-        <v>8.7</v>
+        <v>9.14</v>
       </c>
       <c r="Z60" s="0">
-        <v>8.7</v>
+        <v>9.14</v>
       </c>
       <c r="AA60" s="0">
-        <v>-0.99</v>
+        <v>-5.446</v>
       </c>
       <c r="AB60" s="0">
-        <v>-0.108</v>
+        <v>-5.699</v>
       </c>
       <c r="AC60" s="0">
-        <v>11.34</v>
+        <v>10.77</v>
       </c>
       <c r="AD60" s="0">
-        <v>11.21</v>
+        <v>10.63</v>
       </c>
       <c r="AE60" s="0">
-        <v>11.21</v>
+        <v>10.63</v>
       </c>
       <c r="AF60" s="0">
-        <v>2.65</v>
+        <v>2.39</v>
       </c>
       <c r="AG60" s="0">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AH60" s="0">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7729,13 +7729,13 @@
         <v>262.2</v>
       </c>
       <c r="O61" s="0">
-        <v>86.88</v>
+        <v>81.04</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.38815</v>
+        <v>0.36799</v>
       </c>
       <c r="R61" s="0">
         <v>0.38837</v>
@@ -7744,49 +7744,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="U61" s="0">
-        <v>-1</v>
+        <v>96</v>
       </c>
       <c r="V61" s="0">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="W61" s="0">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="X61" s="0">
-        <v>5.05</v>
+        <v>5.95</v>
       </c>
       <c r="Y61" s="0">
-        <v>6.14</v>
+        <v>6.6</v>
       </c>
       <c r="Z61" s="0">
-        <v>6.14</v>
+        <v>6.6</v>
       </c>
       <c r="AA61" s="0">
-        <v>-0.686</v>
+        <v>-7.362</v>
       </c>
       <c r="AB61" s="0">
-        <v>0.062</v>
+        <v>-7.502</v>
       </c>
       <c r="AC61" s="0">
-        <v>9.05</v>
+        <v>10.32</v>
       </c>
       <c r="AD61" s="0">
-        <v>16.05</v>
+        <v>14.89</v>
       </c>
       <c r="AE61" s="0">
-        <v>16.05</v>
+        <v>14.89</v>
       </c>
       <c r="AF61" s="0">
-        <v>-0.73</v>
+        <v>0.2</v>
       </c>
       <c r="AG61" s="0">
-        <v>5.27</v>
+        <v>4.55</v>
       </c>
       <c r="AH61" s="0">
-        <v>5.27</v>
+        <v>4.55</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7836,13 +7836,13 @@
         <v>327.8</v>
       </c>
       <c r="O62" s="0">
-        <v>79.68</v>
+        <v>76.44</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.44505</v>
+        <v>0.43394</v>
       </c>
       <c r="R62" s="0">
         <v>0.45956</v>
@@ -7851,49 +7851,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="U62" s="0">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="V62" s="0">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="W62" s="0">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="X62" s="0">
-        <v>7.81</v>
+        <v>8.32</v>
       </c>
       <c r="Y62" s="0">
-        <v>8.16</v>
+        <v>8.52</v>
       </c>
       <c r="Z62" s="0">
-        <v>8.16</v>
+        <v>8.52</v>
       </c>
       <c r="AA62" s="0">
-        <v>-3.768</v>
+        <v>-7.681</v>
       </c>
       <c r="AB62" s="0">
-        <v>-2.994</v>
+        <v>-7.826</v>
       </c>
       <c r="AC62" s="0">
-        <v>9.53</v>
+        <v>9.77</v>
       </c>
       <c r="AD62" s="0">
-        <v>12.25</v>
+        <v>11.7</v>
       </c>
       <c r="AE62" s="0">
-        <v>12.25</v>
+        <v>11.7</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="AG62" s="0">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="AH62" s="0">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7943,58 +7943,58 @@
         <v>275</v>
       </c>
       <c r="O63" s="0">
-        <v>78.76</v>
+        <v>76.6</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.36905</v>
+        <v>0.36481</v>
       </c>
       <c r="R63" s="0">
         <v>0.37194</v>
       </c>
       <c r="S63" s="0">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T63" s="0">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="U63" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="V63" s="0">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="W63" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X63" s="0">
-        <v>11.91</v>
+        <v>12.42</v>
       </c>
       <c r="Y63" s="0">
-        <v>20.39</v>
+        <v>21.05</v>
       </c>
       <c r="Z63" s="0">
-        <v>20.39</v>
+        <v>21.05</v>
       </c>
       <c r="AA63" s="0">
-        <v>-1.402</v>
+        <v>-2.072</v>
       </c>
       <c r="AB63" s="0">
-        <v>-1.369</v>
+        <v>-1.918</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.07</v>
+        <v>-0.04</v>
       </c>
       <c r="AD63" s="0">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AE63" s="0">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AF63" s="0">
-        <v>-0.32</v>
+        <v>-0.35</v>
       </c>
       <c r="AG63" s="0">
         <v>0.04</v>
@@ -8050,13 +8050,13 @@
         <v>608</v>
       </c>
       <c r="O64" s="0">
-        <v>293.8</v>
+        <v>288.64</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>3.04373</v>
+        <v>3.03923</v>
       </c>
       <c r="R64" s="0">
         <v>2.94797</v>
@@ -8071,16 +8071,16 @@
         <v>-10</v>
       </c>
       <c r="AA64" s="0">
-        <v>2.598</v>
+        <v>0.796</v>
       </c>
       <c r="AC64" s="0">
         <v>0.02</v>
       </c>
       <c r="AD64" s="0">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE64" s="0">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -8136,13 +8136,13 @@
         <v>687.5</v>
       </c>
       <c r="O65" s="0">
-        <v>99.86</v>
+        <v>97.4</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1.16976</v>
+        <v>1.15967</v>
       </c>
       <c r="R65" s="0">
         <v>1.17292</v>
@@ -8151,49 +8151,49 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>-144</v>
+        <v>-63</v>
       </c>
       <c r="U65" s="0">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="V65" s="0">
-        <v>-90</v>
+        <v>-11</v>
       </c>
       <c r="W65" s="0">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="X65" s="0">
-        <v>2.46</v>
+        <v>3.19</v>
       </c>
       <c r="Y65" s="0">
-        <v>5.7</v>
+        <v>5.86</v>
       </c>
       <c r="Z65" s="0">
-        <v>5.7</v>
+        <v>5.86</v>
       </c>
       <c r="AA65" s="0">
-        <v>-0.898</v>
+        <v>-3.335</v>
       </c>
       <c r="AB65" s="0">
-        <v>-0.601</v>
+        <v>-3.311</v>
       </c>
       <c r="AC65" s="0">
-        <v>3.98</v>
+        <v>4.95</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.67</v>
+        <v>16.3</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.67</v>
+        <v>16.3</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.68</v>
+        <v>-1.63</v>
       </c>
       <c r="AG65" s="0">
-        <v>5.08</v>
+        <v>4.89</v>
       </c>
       <c r="AH65" s="0">
-        <v>5.08</v>
+        <v>4.89</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>56</v>
@@ -8243,13 +8243,13 @@
         <v>2000</v>
       </c>
       <c r="O66" s="0">
-        <v>91.89</v>
+        <v>94.97</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>3.13148</v>
+        <v>3.28942</v>
       </c>
       <c r="R66" s="0">
         <v>3.14088</v>
@@ -8258,22 +8258,22 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>24.77</v>
+        <v>18.24</v>
       </c>
       <c r="Z66" s="0">
-        <v>24.77</v>
+        <v>18.24</v>
       </c>
       <c r="AA66" s="0">
-        <v>-0.927</v>
+        <v>2.394</v>
       </c>
       <c r="AC66" s="0">
         <v>0.01</v>
       </c>
       <c r="AD66" s="0">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AE66" s="0">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>2000</v>
       </c>
       <c r="O67" s="0">
-        <v>91.97</v>
+        <v>90.05</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>3.13421</v>
+        <v>3.11901</v>
       </c>
       <c r="R67" s="0">
         <v>3.14562</v>
@@ -8344,28 +8344,28 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>10.78</v>
+        <v>11.87</v>
       </c>
       <c r="Z67" s="0">
-        <v>10.78</v>
+        <v>11.87</v>
       </c>
       <c r="AA67" s="0">
-        <v>-0.99</v>
+        <v>-3.057</v>
       </c>
       <c r="AC67" s="0">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AD67" s="0">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AE67" s="0">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="AG67" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AH67" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AI67" s="0" t="s">
         <v>62</v>
@@ -8415,13 +8415,13 @@
         <v>314.6</v>
       </c>
       <c r="O68" s="0">
-        <v>93.08</v>
+        <v>97.04</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.49896</v>
+        <v>0.5287</v>
       </c>
       <c r="R68" s="0">
         <v>0.50924</v>
@@ -8451,10 +8451,10 @@
         <v>99.99</v>
       </c>
       <c r="AA68" s="0">
-        <v>-2.636</v>
+        <v>1.506</v>
       </c>
       <c r="AB68" s="0">
-        <v>-3.09</v>
+        <v>1.254</v>
       </c>
       <c r="AC68" s="0">
         <v>-4.56</v>
@@ -8522,13 +8522,13 @@
         <v>500</v>
       </c>
       <c r="O69" s="0">
-        <v>100.16</v>
+        <v>95.88</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.85333</v>
+        <v>0.83023</v>
       </c>
       <c r="R69" s="0">
         <v>0.85032</v>
@@ -8537,43 +8537,43 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>89</v>
+        <v>334</v>
       </c>
       <c r="U69" s="0">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="V69" s="0">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="W69" s="0">
-        <v>39</v>
+        <v>279</v>
       </c>
       <c r="X69" s="0">
-        <v>5.01</v>
+        <v>7.56</v>
       </c>
       <c r="Y69" s="0">
-        <v>6.15</v>
+        <v>10.89</v>
       </c>
       <c r="Z69" s="0">
-        <v>6.15</v>
+        <v>10.89</v>
       </c>
       <c r="AA69" s="0">
-        <v>-0.279</v>
+        <v>-4.54</v>
       </c>
       <c r="AB69" s="0">
-        <v>-0.243</v>
+        <v>-4.526</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.98</v>
+        <v>0.62</v>
       </c>
       <c r="AD69" s="0">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="AE69" s="0">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="AF69" s="0">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
       <c r="AG69" s="0">
         <v>0.02</v>
@@ -8629,37 +8629,37 @@
         <v>862.5</v>
       </c>
       <c r="O70" s="0">
-        <v>102.64</v>
+        <v>105.11</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>1.50844</v>
+        <v>1.57002</v>
       </c>
       <c r="R70" s="0">
         <v>1.52361</v>
       </c>
       <c r="S70" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y70" s="0">
-        <v>4.19</v>
+        <v>0.94</v>
       </c>
       <c r="Z70" s="0">
-        <v>4.19</v>
+        <v>0.94</v>
       </c>
       <c r="AA70" s="0">
-        <v>-1.62</v>
+        <v>0.748</v>
       </c>
       <c r="AC70" s="0">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AD70" s="0">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AE70" s="0">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="AG70" s="0">
         <v>0.01</v>
@@ -8688,7 +8688,7 @@
         <v>6.5</v>
       </c>
       <c r="F71" s="2">
-        <v>45016</v>
+        <v>109939</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>40</v>
@@ -8715,13 +8715,13 @@
         <v>425</v>
       </c>
       <c r="O71" s="0">
-        <v>97.12</v>
+        <v>93.4</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>0.70331</v>
+        <v>0.68745</v>
       </c>
       <c r="R71" s="0">
         <v>0.70925</v>
@@ -8751,10 +8751,10 @@
         <v>24.48</v>
       </c>
       <c r="AA71" s="0">
-        <v>-1.461</v>
+        <v>-5.235</v>
       </c>
       <c r="AB71" s="0">
-        <v>-1.518</v>
+        <v>-5.336</v>
       </c>
       <c r="AC71" s="0">
         <v>-0.5</v>
@@ -8822,13 +8822,13 @@
         <v>442.5</v>
       </c>
       <c r="O72" s="0">
-        <v>96.16</v>
+        <v>94.04</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>0.72504</v>
+        <v>0.72066</v>
       </c>
       <c r="R72" s="0">
         <v>0.73126</v>
@@ -8837,43 +8837,43 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="U72" s="0">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="V72" s="0">
-        <v>353</v>
+        <v>412</v>
       </c>
       <c r="W72" s="0">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="X72" s="0">
-        <v>7.84</v>
+        <v>8.72</v>
       </c>
       <c r="Y72" s="0">
-        <v>9.55</v>
+        <v>11.58</v>
       </c>
       <c r="Z72" s="0">
-        <v>9.55</v>
+        <v>11.58</v>
       </c>
       <c r="AA72" s="0">
-        <v>-1.475</v>
+        <v>-3.648</v>
       </c>
       <c r="AB72" s="0">
-        <v>-1.42</v>
+        <v>-3.596</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.86</v>
+        <v>0.55</v>
       </c>
       <c r="AD72" s="0">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AE72" s="0">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AF72" s="0">
-        <v>-0.07</v>
+        <v>-0.17</v>
       </c>
       <c r="AG72" s="0">
         <v>0.02</v>
@@ -8929,13 +8929,13 @@
         <v>720</v>
       </c>
       <c r="O73" s="0">
-        <v>100.16</v>
+        <v>97.84</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>1.22879</v>
+        <v>1.21998</v>
       </c>
       <c r="R73" s="0">
         <v>1.22105</v>
@@ -8965,10 +8965,10 @@
         <v>41.35</v>
       </c>
       <c r="AA73" s="0">
-        <v>0</v>
+        <v>-2.316</v>
       </c>
       <c r="AB73" s="0">
-        <v>-0.074</v>
+        <v>-2.415</v>
       </c>
       <c r="AC73" s="0">
         <v>-0.7</v>
@@ -9036,13 +9036,13 @@
         <v>402.5</v>
       </c>
       <c r="O74" s="0">
-        <v>103.2</v>
+        <v>103.44</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>0.70778</v>
+        <v>0.72104</v>
       </c>
       <c r="R74" s="0">
         <v>0.70605</v>
@@ -9072,10 +9072,10 @@
         <v>0.02</v>
       </c>
       <c r="AA74" s="0">
-        <v>-0.386</v>
+        <v>-0.154</v>
       </c>
       <c r="AB74" s="0">
-        <v>-0.393</v>
+        <v>-0.226</v>
       </c>
       <c r="AC74" s="0">
         <v>0.35</v>
@@ -9143,13 +9143,13 @@
         <v>385</v>
       </c>
       <c r="O75" s="0">
-        <v>95.04</v>
+        <v>94.36</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>0.62347</v>
+        <v>0.62915</v>
       </c>
       <c r="R75" s="0">
         <v>0.63389</v>
@@ -9179,10 +9179,10 @@
         <v>10.93</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.262</v>
+        <v>-2.962</v>
       </c>
       <c r="AB75" s="0">
-        <v>-2.337</v>
+        <v>-3.075</v>
       </c>
       <c r="AC75" s="0">
         <v>-0.69</v>
@@ -9250,13 +9250,13 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>31.2</v>
+        <v>30.53</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>0.53163</v>
+        <v>0.52879</v>
       </c>
       <c r="R76" s="0">
         <v>0.52851</v>
@@ -9271,16 +9271,16 @@
         <v>99.99</v>
       </c>
       <c r="AA76" s="0">
-        <v>-0.044</v>
+        <v>-2.179</v>
       </c>
       <c r="AC76" s="0">
         <v>0.13</v>
       </c>
       <c r="AD76" s="0">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AE76" s="0">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AG76" s="0">
         <v>0.01</v>
@@ -9336,13 +9336,13 @@
         <v>425</v>
       </c>
       <c r="O77" s="0">
-        <v>72.52</v>
+        <v>70.68</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>0.52517</v>
+        <v>0.52022</v>
       </c>
       <c r="R77" s="0">
         <v>0.53855</v>
@@ -9351,49 +9351,49 @@
         <v>0</v>
       </c>
       <c r="T77" s="0">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="U77" s="0">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="V77" s="0">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="W77" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="X77" s="0">
-        <v>9.92</v>
+        <v>10.25</v>
       </c>
       <c r="Y77" s="0">
-        <v>9.97</v>
+        <v>10.27</v>
       </c>
       <c r="Z77" s="0">
-        <v>9.97</v>
+        <v>10.27</v>
       </c>
       <c r="AA77" s="0">
-        <v>-3.1</v>
+        <v>-5.559</v>
       </c>
       <c r="AB77" s="0">
-        <v>-2.365</v>
+        <v>-5.718</v>
       </c>
       <c r="AC77" s="0">
-        <v>8.94</v>
+        <v>8.9</v>
       </c>
       <c r="AD77" s="0">
-        <v>9.17</v>
+        <v>9</v>
       </c>
       <c r="AE77" s="0">
-        <v>9.17</v>
+        <v>9</v>
       </c>
       <c r="AF77" s="0">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="AG77" s="0">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AH77" s="0">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AI77" s="0" t="s">
         <v>62</v>
@@ -9443,13 +9443,13 @@
         <v>1600</v>
       </c>
       <c r="O78" s="0">
-        <v>137.27</v>
+        <v>141.77</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>3.74237</v>
+        <v>3.92841</v>
       </c>
       <c r="R78" s="0">
         <v>3.7289</v>
@@ -9464,16 +9464,16 @@
         <v>-10</v>
       </c>
       <c r="AA78" s="0">
-        <v>-0.271</v>
+        <v>3.001</v>
       </c>
       <c r="AC78" s="0">
         <v>0</v>
       </c>
       <c r="AD78" s="0">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AE78" s="0">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AG78" s="0">
         <v>0</v>
@@ -9529,13 +9529,13 @@
         <v>250</v>
       </c>
       <c r="O79" s="0">
-        <v>74.92</v>
+        <v>69.4</v>
       </c>
       <c r="P79" s="0">
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>0.31915</v>
+        <v>0.30047</v>
       </c>
       <c r="R79" s="0">
         <v>0.3256</v>
@@ -9544,49 +9544,49 @@
         <v>0</v>
       </c>
       <c r="T79" s="0">
+        <v>434</v>
+      </c>
+      <c r="U79" s="0">
+        <v>107</v>
+      </c>
+      <c r="V79" s="0">
         <v>346</v>
       </c>
-      <c r="U79" s="0">
-        <v>19</v>
-      </c>
-      <c r="V79" s="0">
-        <v>315</v>
-      </c>
       <c r="W79" s="0">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="X79" s="0">
-        <v>7.49</v>
+        <v>8.29</v>
       </c>
       <c r="Y79" s="0">
-        <v>7.76</v>
+        <v>8.4</v>
       </c>
       <c r="Z79" s="0">
-        <v>7.76</v>
+        <v>8.4</v>
       </c>
       <c r="AA79" s="0">
-        <v>-2.6</v>
+        <v>-9.776</v>
       </c>
       <c r="AB79" s="0">
-        <v>-1.74</v>
+        <v>-9.99</v>
       </c>
       <c r="AC79" s="0">
-        <v>10.65</v>
+        <v>10.81</v>
       </c>
       <c r="AD79" s="0">
-        <v>12.64</v>
+        <v>11.63</v>
       </c>
       <c r="AE79" s="0">
-        <v>12.64</v>
+        <v>11.63</v>
       </c>
       <c r="AF79" s="0">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="AG79" s="0">
-        <v>3.29</v>
+        <v>2.8</v>
       </c>
       <c r="AH79" s="0">
-        <v>3.29</v>
+        <v>2.8</v>
       </c>
       <c r="AI79" s="0" t="s">
         <v>47</v>
@@ -9636,13 +9636,13 @@
         <v>250</v>
       </c>
       <c r="O80" s="0">
-        <v>78.91</v>
+        <v>72.04</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.33616</v>
+        <v>0.3119</v>
       </c>
       <c r="R80" s="0">
         <v>0.33965</v>
@@ -9651,49 +9651,49 @@
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>424</v>
+        <v>538</v>
       </c>
       <c r="U80" s="0">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="V80" s="0">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="W80" s="0">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="X80" s="0">
-        <v>8.28</v>
+        <v>9.36</v>
       </c>
       <c r="Y80" s="0">
-        <v>8.62</v>
+        <v>9.47</v>
       </c>
       <c r="Z80" s="0">
-        <v>8.62</v>
+        <v>9.47</v>
       </c>
       <c r="AA80" s="0">
-        <v>-1.654</v>
+        <v>-10.219</v>
       </c>
       <c r="AB80" s="0">
-        <v>-0.876</v>
+        <v>-10.373</v>
       </c>
       <c r="AC80" s="0">
-        <v>9.42</v>
+        <v>9.72</v>
       </c>
       <c r="AD80" s="0">
-        <v>11.52</v>
+        <v>10.46</v>
       </c>
       <c r="AE80" s="0">
-        <v>11.52</v>
+        <v>10.46</v>
       </c>
       <c r="AF80" s="0">
-        <v>0.83</v>
+        <v>1.26</v>
       </c>
       <c r="AG80" s="0">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="AH80" s="0">
-        <v>2.7</v>
+        <v>2.23</v>
       </c>
       <c r="AI80" s="0" t="s">
         <v>47</v>
@@ -9743,13 +9743,13 @@
         <v>282.5</v>
       </c>
       <c r="O81" s="0">
-        <v>69.88</v>
+        <v>68.28</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.33637</v>
+        <v>0.33405</v>
       </c>
       <c r="R81" s="0">
         <v>0.33559</v>
@@ -9758,49 +9758,49 @@
         <v>0</v>
       </c>
       <c r="T81" s="0">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="U81" s="0">
-        <v>-5</v>
+        <v>25</v>
       </c>
       <c r="V81" s="0">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="W81" s="0">
-        <v>-2</v>
+        <v>44</v>
       </c>
       <c r="X81" s="0">
-        <v>5.28</v>
+        <v>5.48</v>
       </c>
       <c r="Y81" s="0">
-        <v>5.64</v>
+        <v>5.78</v>
       </c>
       <c r="Z81" s="0">
-        <v>5.64</v>
+        <v>5.78</v>
       </c>
       <c r="AA81" s="0">
-        <v>-0.399</v>
+        <v>-2.68</v>
       </c>
       <c r="AB81" s="0">
-        <v>0.663</v>
+        <v>-3.034</v>
       </c>
       <c r="AC81" s="0">
-        <v>13.69</v>
+        <v>13.84</v>
       </c>
       <c r="AD81" s="0">
-        <v>17.45</v>
+        <v>16.99</v>
       </c>
       <c r="AE81" s="0">
-        <v>17.45</v>
+        <v>16.99</v>
       </c>
       <c r="AF81" s="0">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AG81" s="0">
-        <v>6.24</v>
+        <v>5.92</v>
       </c>
       <c r="AH81" s="0">
-        <v>6.24</v>
+        <v>5.92</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9850,13 +9850,13 @@
         <v>603.8</v>
       </c>
       <c r="O82" s="0">
-        <v>73.08</v>
+        <v>71.2</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.75187</v>
+        <v>0.74452</v>
       </c>
       <c r="R82" s="0">
         <v>0.75163</v>
@@ -9865,49 +9865,49 @@
         <v>0</v>
       </c>
       <c r="T82" s="0">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="U82" s="0">
-        <v>-4</v>
+        <v>29</v>
       </c>
       <c r="V82" s="0">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="W82" s="0">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="X82" s="0">
-        <v>5.09</v>
+        <v>5.33</v>
       </c>
       <c r="Y82" s="0">
-        <v>5.56</v>
+        <v>5.72</v>
       </c>
       <c r="Z82" s="0">
-        <v>5.56</v>
+        <v>5.72</v>
       </c>
       <c r="AA82" s="0">
-        <v>-0.598</v>
+        <v>-3.156</v>
       </c>
       <c r="AB82" s="0">
-        <v>0.433</v>
+        <v>-3.48</v>
       </c>
       <c r="AC82" s="0">
-        <v>13.08</v>
+        <v>13.27</v>
       </c>
       <c r="AD82" s="0">
-        <v>17.69</v>
+        <v>17.17</v>
       </c>
       <c r="AE82" s="0">
-        <v>17.69</v>
+        <v>17.17</v>
       </c>
       <c r="AF82" s="0">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AG82" s="0">
-        <v>6.4</v>
+        <v>6.05</v>
       </c>
       <c r="AH82" s="0">
-        <v>6.4</v>
+        <v>6.05</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9957,13 +9957,13 @@
         <v>435</v>
       </c>
       <c r="O83" s="0">
-        <v>72.24</v>
+        <v>69.94</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.53545</v>
+        <v>0.52689</v>
       </c>
       <c r="R83" s="0">
         <v>0.53178</v>
@@ -9972,49 +9972,49 @@
         <v>0</v>
       </c>
       <c r="T83" s="0">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="U83" s="0">
-        <v>-8</v>
+        <v>29</v>
       </c>
       <c r="V83" s="0">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="W83" s="0">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="X83" s="0">
-        <v>5.2</v>
+        <v>5.49</v>
       </c>
       <c r="Y83" s="0">
-        <v>5.63</v>
+        <v>5.83</v>
       </c>
       <c r="Z83" s="0">
-        <v>5.63</v>
+        <v>5.83</v>
       </c>
       <c r="AA83" s="0">
-        <v>0.055</v>
+        <v>-3.13</v>
       </c>
       <c r="AB83" s="0">
-        <v>1.096</v>
+        <v>-3.465</v>
       </c>
       <c r="AC83" s="0">
-        <v>13.2</v>
+        <v>13.44</v>
       </c>
       <c r="AD83" s="0">
-        <v>17.48</v>
+        <v>16.86</v>
       </c>
       <c r="AE83" s="0">
-        <v>17.48</v>
+        <v>16.86</v>
       </c>
       <c r="AF83" s="0">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="AG83" s="0">
-        <v>6.25</v>
+        <v>5.83</v>
       </c>
       <c r="AH83" s="0">
-        <v>6.25</v>
+        <v>5.83</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10064,13 +10064,13 @@
         <v>250</v>
       </c>
       <c r="O84" s="0">
-        <v>72.98</v>
+        <v>70.56</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.31088</v>
+        <v>0.30549</v>
       </c>
       <c r="R84" s="0">
         <v>0.31036</v>
@@ -10079,49 +10079,49 @@
         <v>0</v>
       </c>
       <c r="T84" s="0">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="U84" s="0">
-        <v>-4</v>
+        <v>35</v>
       </c>
       <c r="V84" s="0">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="W84" s="0">
-        <v>-2</v>
+        <v>55</v>
       </c>
       <c r="X84" s="0">
-        <v>5.27</v>
+        <v>5.58</v>
       </c>
       <c r="Y84" s="0">
-        <v>5.71</v>
+        <v>5.92</v>
       </c>
       <c r="Z84" s="0">
-        <v>5.71</v>
+        <v>5.92</v>
       </c>
       <c r="AA84" s="0">
-        <v>-0.464</v>
+        <v>-3.764</v>
       </c>
       <c r="AB84" s="0">
-        <v>0.561</v>
+        <v>-4.086</v>
       </c>
       <c r="AC84" s="0">
-        <v>12.97</v>
+        <v>13.2</v>
       </c>
       <c r="AD84" s="0">
-        <v>17.22</v>
+        <v>16.58</v>
       </c>
       <c r="AE84" s="0">
-        <v>17.22</v>
+        <v>16.58</v>
       </c>
       <c r="AF84" s="0">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="AG84" s="0">
-        <v>6.07</v>
+        <v>5.64</v>
       </c>
       <c r="AH84" s="0">
-        <v>6.07</v>
+        <v>5.64</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10171,13 +10171,13 @@
         <v>565</v>
       </c>
       <c r="O85" s="0">
-        <v>81.72</v>
+        <v>79.92</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.78673</v>
+        <v>0.782</v>
       </c>
       <c r="R85" s="0">
         <v>0.78446</v>
@@ -10186,49 +10186,49 @@
         <v>0</v>
       </c>
       <c r="T85" s="0">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="U85" s="0">
-        <v>-6</v>
+        <v>28</v>
       </c>
       <c r="V85" s="0">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="W85" s="0">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="X85" s="0">
-        <v>4.95</v>
+        <v>5.2</v>
       </c>
       <c r="Y85" s="0">
-        <v>5.76</v>
+        <v>5.9</v>
       </c>
       <c r="Z85" s="0">
-        <v>5.76</v>
+        <v>5.9</v>
       </c>
       <c r="AA85" s="0">
-        <v>-0.341</v>
+        <v>-2.537</v>
       </c>
       <c r="AB85" s="0">
-        <v>0.542</v>
+        <v>-2.759</v>
       </c>
       <c r="AC85" s="0">
-        <v>10.88</v>
+        <v>11.18</v>
       </c>
       <c r="AD85" s="0">
-        <v>17.08</v>
+        <v>16.65</v>
       </c>
       <c r="AE85" s="0">
-        <v>17.08</v>
+        <v>16.65</v>
       </c>
       <c r="AF85" s="0">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="AG85" s="0">
-        <v>5.98</v>
+        <v>5.69</v>
       </c>
       <c r="AH85" s="0">
-        <v>5.98</v>
+        <v>5.69</v>
       </c>
       <c r="AI85" s="0" t="s">
         <v>47</v>
@@ -10278,13 +10278,13 @@
         <v>258.8</v>
       </c>
       <c r="O86" s="0">
-        <v>84.44</v>
+        <v>82</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.37236</v>
+        <v>0.36752</v>
       </c>
       <c r="R86" s="0">
         <v>0.37159</v>
@@ -10293,49 +10293,49 @@
         <v>0</v>
       </c>
       <c r="T86" s="0">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="U86" s="0">
-        <v>-4</v>
+        <v>40</v>
       </c>
       <c r="V86" s="0">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="W86" s="0">
-        <v>-2</v>
+        <v>25</v>
       </c>
       <c r="X86" s="0">
-        <v>4.66</v>
+        <v>5.02</v>
       </c>
       <c r="Y86" s="0">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="Z86" s="0">
-        <v>5.66</v>
+        <v>5.84</v>
       </c>
       <c r="AA86" s="0">
-        <v>-0.425</v>
+        <v>-3.302</v>
       </c>
       <c r="AB86" s="0">
-        <v>0.403</v>
+        <v>-3.492</v>
       </c>
       <c r="AC86" s="0">
-        <v>10.15</v>
+        <v>10.65</v>
       </c>
       <c r="AD86" s="0">
-        <v>17.38</v>
+        <v>16.82</v>
       </c>
       <c r="AE86" s="0">
-        <v>17.38</v>
+        <v>16.82</v>
       </c>
       <c r="AF86" s="0">
-        <v>-0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AG86" s="0">
-        <v>6.18</v>
+        <v>5.8</v>
       </c>
       <c r="AH86" s="0">
-        <v>6.18</v>
+        <v>5.8</v>
       </c>
       <c r="AI86" s="0" t="s">
         <v>47</v>
@@ -10385,13 +10385,13 @@
         <v>316.2</v>
       </c>
       <c r="O87" s="0">
-        <v>86.8</v>
+        <v>83.76</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.46766</v>
+        <v>0.45867</v>
       </c>
       <c r="R87" s="0">
         <v>0.46729</v>
@@ -10400,49 +10400,49 @@
         <v>0</v>
       </c>
       <c r="T87" s="0">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="U87" s="0">
-        <v>-2</v>
+        <v>52</v>
       </c>
       <c r="V87" s="0">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="W87" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="X87" s="0">
-        <v>4.56</v>
+        <v>5.02</v>
       </c>
       <c r="Y87" s="0">
-        <v>5.71</v>
+        <v>5.93</v>
       </c>
       <c r="Z87" s="0">
-        <v>5.71</v>
+        <v>5.93</v>
       </c>
       <c r="AA87" s="0">
-        <v>-0.55</v>
+        <v>-4.033</v>
       </c>
       <c r="AB87" s="0">
-        <v>0.222</v>
+        <v>-4.189</v>
       </c>
       <c r="AC87" s="0">
-        <v>9.4</v>
+        <v>10.09</v>
       </c>
       <c r="AD87" s="0">
-        <v>17.22</v>
+        <v>16.55</v>
       </c>
       <c r="AE87" s="0">
-        <v>17.22</v>
+        <v>16.55</v>
       </c>
       <c r="AF87" s="0">
-        <v>-0.69</v>
+        <v>0.02</v>
       </c>
       <c r="AG87" s="0">
-        <v>6.07</v>
+        <v>5.62</v>
       </c>
       <c r="AH87" s="0">
-        <v>6.07</v>
+        <v>5.62</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10492,13 +10492,13 @@
         <v>300</v>
       </c>
       <c r="O88" s="0">
-        <v>92.28</v>
+        <v>89.08</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.47172</v>
+        <v>0.46281</v>
       </c>
       <c r="R88" s="0">
         <v>0.47118</v>
@@ -10507,49 +10507,49 @@
         <v>0</v>
       </c>
       <c r="T88" s="0">
-        <v>-8</v>
+        <v>57</v>
       </c>
       <c r="U88" s="0">
-        <v>-2</v>
+        <v>63</v>
       </c>
       <c r="V88" s="0">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="W88" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="X88" s="0">
-        <v>3.84</v>
+        <v>4.41</v>
       </c>
       <c r="Y88" s="0">
-        <v>5.56</v>
+        <v>5.77</v>
       </c>
       <c r="Z88" s="0">
-        <v>5.56</v>
+        <v>5.77</v>
       </c>
       <c r="AA88" s="0">
-        <v>-0.517</v>
+        <v>-3.967</v>
       </c>
       <c r="AB88" s="0">
-        <v>0.108</v>
+        <v>-4.054</v>
       </c>
       <c r="AC88" s="0">
-        <v>7.46</v>
+        <v>8.51</v>
       </c>
       <c r="AD88" s="0">
-        <v>17.69</v>
+        <v>17.01</v>
       </c>
       <c r="AE88" s="0">
-        <v>17.69</v>
+        <v>17.01</v>
       </c>
       <c r="AF88" s="0">
-        <v>-1.69</v>
+        <v>-1.04</v>
       </c>
       <c r="AG88" s="0">
-        <v>6.4</v>
+        <v>5.93</v>
       </c>
       <c r="AH88" s="0">
-        <v>6.4</v>
+        <v>5.93</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10599,13 +10599,13 @@
         <v>280</v>
       </c>
       <c r="O89" s="0">
-        <v>92.48</v>
+        <v>90.85</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.44122</v>
+        <v>0.44055</v>
       </c>
       <c r="R89" s="0">
         <v>0.44261</v>
@@ -10614,49 +10614,49 @@
         <v>0</v>
       </c>
       <c r="T89" s="0">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="U89" s="0">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="V89" s="0">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="W89" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="X89" s="0">
-        <v>3.94</v>
+        <v>4.23</v>
       </c>
       <c r="Y89" s="0">
-        <v>5.66</v>
+        <v>5.77</v>
       </c>
       <c r="Z89" s="0">
-        <v>5.66</v>
+        <v>5.77</v>
       </c>
       <c r="AA89" s="0">
-        <v>-0.943</v>
+        <v>-2.687</v>
       </c>
       <c r="AB89" s="0">
-        <v>-0.342</v>
+        <v>-2.765</v>
       </c>
       <c r="AC89" s="0">
-        <v>7.34</v>
+        <v>7.8</v>
       </c>
       <c r="AD89" s="0">
-        <v>17.37</v>
+        <v>17.01</v>
       </c>
       <c r="AE89" s="0">
-        <v>17.37</v>
+        <v>17.01</v>
       </c>
       <c r="AF89" s="0">
-        <v>-1.68</v>
+        <v>-1.13</v>
       </c>
       <c r="AG89" s="0">
-        <v>6.18</v>
+        <v>5.93</v>
       </c>
       <c r="AH89" s="0">
-        <v>6.18</v>
+        <v>5.93</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10706,13 +10706,13 @@
         <v>285</v>
       </c>
       <c r="O90" s="0">
-        <v>99.2</v>
+        <v>97.28</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>0.48173</v>
+        <v>0.48014</v>
       </c>
       <c r="R90" s="0">
         <v>0.47909</v>
@@ -10721,49 +10721,49 @@
         <v>0</v>
       </c>
       <c r="T90" s="0">
-        <v>-105</v>
+        <v>-44</v>
       </c>
       <c r="U90" s="0">
-        <v>-10</v>
+        <v>51</v>
       </c>
       <c r="V90" s="0">
-        <v>-52</v>
+        <v>2</v>
       </c>
       <c r="W90" s="0">
-        <v>-6</v>
+        <v>48</v>
       </c>
       <c r="X90" s="0">
-        <v>2.82</v>
+        <v>3.36</v>
       </c>
       <c r="Y90" s="0">
-        <v>5.74</v>
+        <v>5.86</v>
       </c>
       <c r="Z90" s="0">
-        <v>5.74</v>
+        <v>5.86</v>
       </c>
       <c r="AA90" s="0">
-        <v>-0.081</v>
+        <v>-2.015</v>
       </c>
       <c r="AB90" s="0">
-        <v>0.28</v>
+        <v>-2.022</v>
       </c>
       <c r="AC90" s="0">
-        <v>4.3</v>
+        <v>5.13</v>
       </c>
       <c r="AD90" s="0">
-        <v>17.13</v>
+        <v>16.74</v>
       </c>
       <c r="AE90" s="0">
-        <v>17.13</v>
+        <v>16.74</v>
       </c>
       <c r="AF90" s="0">
-        <v>-1.81</v>
+        <v>-1.87</v>
       </c>
       <c r="AG90" s="0">
-        <v>6.01</v>
+        <v>5.75</v>
       </c>
       <c r="AH90" s="0">
-        <v>6.01</v>
+        <v>5.75</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10813,13 +10813,13 @@
         <v>1266.8</v>
       </c>
       <c r="O91" s="0">
-        <v>43.85</v>
+        <v>40.64</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>0.94652</v>
+        <v>0.89159</v>
       </c>
       <c r="R91" s="0">
         <v>1.07805</v>
@@ -10828,49 +10828,49 @@
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>2023</v>
+        <v>2223</v>
       </c>
       <c r="U91" s="0">
-        <v>298</v>
+        <v>498</v>
       </c>
       <c r="V91" s="0">
-        <v>1227</v>
+        <v>1284</v>
       </c>
       <c r="W91" s="0">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="X91" s="0">
-        <v>24.42</v>
+        <v>26.37</v>
       </c>
       <c r="Y91" s="0">
-        <v>24.42</v>
+        <v>26.37</v>
       </c>
       <c r="Z91" s="0">
-        <v>24.42</v>
+        <v>26.37</v>
       </c>
       <c r="AA91" s="0">
-        <v>-12.754</v>
+        <v>-19.14</v>
       </c>
       <c r="AB91" s="0">
-        <v>-12.284</v>
+        <v>-19.083</v>
       </c>
       <c r="AC91" s="0">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="AD91" s="0">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="AE91" s="0">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="AF91" s="0">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AG91" s="0">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AH91" s="0">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AI91" s="0" t="s">
         <v>47</v>
@@ -10920,13 +10920,13 @@
         <v>500.2</v>
       </c>
       <c r="O92" s="0">
-        <v>55</v>
+        <v>48.56</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.46877</v>
+        <v>0.42065</v>
       </c>
       <c r="R92" s="0">
         <v>0.48072</v>
@@ -10935,49 +10935,49 @@
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>743</v>
+        <v>905</v>
       </c>
       <c r="U92" s="0">
-        <v>27</v>
+        <v>189</v>
       </c>
       <c r="V92" s="0">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="W92" s="0">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="X92" s="0">
-        <v>11.53</v>
+        <v>13.1</v>
       </c>
       <c r="Y92" s="0">
-        <v>11.53</v>
+        <v>13.1</v>
       </c>
       <c r="Z92" s="0">
-        <v>11.53</v>
+        <v>13.1</v>
       </c>
       <c r="AA92" s="0">
-        <v>-3.101</v>
+        <v>-14.447</v>
       </c>
       <c r="AB92" s="0">
-        <v>-2.353</v>
+        <v>-14.603</v>
       </c>
       <c r="AC92" s="0">
-        <v>8.8</v>
+        <v>7.72</v>
       </c>
       <c r="AD92" s="0">
-        <v>8.7</v>
+        <v>7.62</v>
       </c>
       <c r="AE92" s="0">
-        <v>8.7</v>
+        <v>7.62</v>
       </c>
       <c r="AF92" s="0">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AG92" s="0">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AH92" s="0">
-        <v>1.54</v>
+        <v>1.2</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>233</v>
@@ -11027,13 +11027,13 @@
         <v>460</v>
       </c>
       <c r="O93" s="0">
-        <v>114.03</v>
+        <v>111.54</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.89378</v>
+        <v>0.88857</v>
       </c>
       <c r="R93" s="0">
         <v>0.87984</v>
@@ -11042,28 +11042,28 @@
         <v>0</v>
       </c>
       <c r="Y93" s="0">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="Z93" s="0">
-        <v>4.43</v>
+        <v>4.54</v>
       </c>
       <c r="AA93" s="0">
-        <v>0.944</v>
+        <v>-1.261</v>
       </c>
       <c r="AC93" s="0">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="AD93" s="0">
-        <v>22.29</v>
+        <v>21.75</v>
       </c>
       <c r="AE93" s="0">
-        <v>22.29</v>
+        <v>21.75</v>
       </c>
       <c r="AG93" s="0">
-        <v>10.06</v>
+        <v>9.6</v>
       </c>
       <c r="AH93" s="0">
-        <v>10.06</v>
+        <v>9.6</v>
       </c>
       <c r="AI93" s="0" t="s">
         <v>47</v>
@@ -11113,13 +11113,13 @@
         <v>398.2</v>
       </c>
       <c r="O94" s="0">
-        <v>80.36</v>
+        <v>77.88</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.54525</v>
+        <v>0.53707</v>
       </c>
       <c r="R94" s="0">
         <v>0.5526</v>
@@ -11128,43 +11128,43 @@
         <v>0</v>
       </c>
       <c r="T94" s="0">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="U94" s="0">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="V94" s="0">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="W94" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="X94" s="0">
-        <v>11.19</v>
+        <v>11.82</v>
       </c>
       <c r="Y94" s="0">
-        <v>19.25</v>
+        <v>21.41</v>
       </c>
       <c r="Z94" s="0">
-        <v>19.25</v>
+        <v>21.41</v>
       </c>
       <c r="AA94" s="0">
-        <v>-1.952</v>
+        <v>-4.978</v>
       </c>
       <c r="AB94" s="0">
-        <v>-1.921</v>
+        <v>-4.831</v>
       </c>
       <c r="AC94" s="0">
-        <v>0.03</v>
+        <v>-0.25</v>
       </c>
       <c r="AD94" s="0">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AE94" s="0">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AF94" s="0">
-        <v>-0.34</v>
+        <v>-0.37</v>
       </c>
       <c r="AG94" s="0">
         <v>0.04</v>
@@ -11220,13 +11220,13 @@
         <v>465</v>
       </c>
       <c r="O95" s="0">
-        <v>85.36</v>
+        <v>81.4</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>0.67633</v>
+        <v>0.65551</v>
       </c>
       <c r="R95" s="0">
         <v>0.68089</v>
@@ -11235,43 +11235,43 @@
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="U95" s="0">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="V95" s="0">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="W95" s="0">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="X95" s="0">
-        <v>10.05</v>
+        <v>10.81</v>
       </c>
       <c r="Y95" s="0">
-        <v>12.25</v>
+        <v>13.92</v>
       </c>
       <c r="Z95" s="0">
-        <v>12.25</v>
+        <v>13.92</v>
       </c>
       <c r="AA95" s="0">
-        <v>-1.295</v>
+        <v>-5.874</v>
       </c>
       <c r="AB95" s="0">
-        <v>-1.13</v>
+        <v>-5.745</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="AD95" s="0">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="AE95" s="0">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="AF95" s="0">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="AG95" s="0">
         <v>0.12</v>
@@ -11327,13 +11327,13 @@
         <v>282.5</v>
       </c>
       <c r="O96" s="0">
-        <v>90.8</v>
+        <v>88.96</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>0.43707</v>
+        <v>0.43523</v>
       </c>
       <c r="R96" s="0">
         <v>0.43738</v>
@@ -11342,43 +11342,43 @@
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="U96" s="0">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="V96" s="0">
-        <v>536</v>
+        <v>554</v>
       </c>
       <c r="W96" s="0">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X96" s="0">
-        <v>10.29</v>
+        <v>10.85</v>
       </c>
       <c r="Y96" s="0">
-        <v>14.78</v>
+        <v>16.66</v>
       </c>
       <c r="Z96" s="0">
-        <v>14.78</v>
+        <v>16.66</v>
       </c>
       <c r="AA96" s="0">
-        <v>-0.7</v>
+        <v>-2.712</v>
       </c>
       <c r="AB96" s="0">
-        <v>-0.687</v>
+        <v>-2.637</v>
       </c>
       <c r="AC96" s="0">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="AD96" s="0">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AE96" s="0">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AF96" s="0">
-        <v>-0.18</v>
+        <v>-0.22</v>
       </c>
       <c r="AG96" s="0">
         <v>0.03</v>
@@ -11434,13 +11434,13 @@
         <v>322</v>
       </c>
       <c r="O97" s="0">
-        <v>101</v>
+        <v>99.72</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.55415</v>
+        <v>0.55608</v>
       </c>
       <c r="R97" s="0">
         <v>0.55284</v>
@@ -11449,28 +11449,28 @@
         <v>0</v>
       </c>
       <c r="Y97" s="0">
-        <v>7.85</v>
+        <v>7.97</v>
       </c>
       <c r="Z97" s="0">
-        <v>7.85</v>
+        <v>7.97</v>
       </c>
       <c r="AA97" s="0">
-        <v>-0.394</v>
+        <v>-1.657</v>
       </c>
       <c r="AC97" s="0">
-        <v>13.51</v>
+        <v>14.63</v>
       </c>
       <c r="AD97" s="0">
-        <v>12.53</v>
+        <v>12.32</v>
       </c>
       <c r="AE97" s="0">
-        <v>12.53</v>
+        <v>12.32</v>
       </c>
       <c r="AG97" s="0">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="AH97" s="0">
-        <v>3.22</v>
+        <v>3.12</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11520,13 +11520,13 @@
         <v>329</v>
       </c>
       <c r="O98" s="0">
-        <v>70.41</v>
+        <v>66</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>0.39471</v>
+        <v>0.37605</v>
       </c>
       <c r="R98" s="0">
         <v>0.39813</v>
@@ -11535,16 +11535,16 @@
         <v>0</v>
       </c>
       <c r="Y98" s="0">
-        <v>94.91</v>
+        <v>99.99</v>
       </c>
       <c r="Z98" s="0">
-        <v>94.91</v>
+        <v>99.99</v>
       </c>
       <c r="AA98" s="0">
-        <v>-1.483</v>
+        <v>-7.654</v>
       </c>
       <c r="AC98" s="0">
-        <v>0.07</v>
+        <v>0.06</v>
       </c>
       <c r="AD98" s="0">
         <v>0.33</v>
@@ -11606,13 +11606,13 @@
         <v>750</v>
       </c>
       <c r="O99" s="0">
-        <v>77.32</v>
+        <v>76.32</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>0.98811</v>
+        <v>0.99129</v>
       </c>
       <c r="R99" s="0">
         <v>0.98899</v>
@@ -11621,49 +11621,49 @@
         <v>0</v>
       </c>
       <c r="T99" s="0">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="U99" s="0">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="V99" s="0">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="W99" s="0">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="X99" s="0">
-        <v>5.08</v>
+        <v>5.22</v>
       </c>
       <c r="Y99" s="0">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="Z99" s="0">
-        <v>5.74</v>
+        <v>5.83</v>
       </c>
       <c r="AA99" s="0">
-        <v>-0.719</v>
+        <v>-2.003</v>
       </c>
       <c r="AB99" s="0">
-        <v>0.212</v>
+        <v>-2.27</v>
       </c>
       <c r="AC99" s="0">
-        <v>11.74</v>
+        <v>11.85</v>
       </c>
       <c r="AD99" s="0">
-        <v>15.99</v>
+        <v>15.82</v>
       </c>
       <c r="AE99" s="0">
-        <v>15.99</v>
+        <v>15.82</v>
       </c>
       <c r="AF99" s="0">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="AG99" s="0">
-        <v>4.21</v>
+        <v>4.15</v>
       </c>
       <c r="AH99" s="0">
-        <v>4.21</v>
+        <v>4.15</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>56</v>
@@ -11713,13 +11713,13 @@
         <v>1000</v>
       </c>
       <c r="O100" s="0">
-        <v>86.8</v>
+        <v>84.6</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>1.47901</v>
+        <v>1.46512</v>
       </c>
       <c r="R100" s="0">
         <v>1.48053</v>
@@ -11728,49 +11728,49 @@
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="U100" s="0">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="V100" s="0">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="W100" s="0">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="X100" s="0">
-        <v>4.63</v>
+        <v>4.97</v>
       </c>
       <c r="Y100" s="0">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="Z100" s="0">
-        <v>5.81</v>
+        <v>5.97</v>
       </c>
       <c r="AA100" s="0">
-        <v>-0.732</v>
+        <v>-3.248</v>
       </c>
       <c r="AB100" s="0">
-        <v>0.037</v>
+        <v>-3.393</v>
       </c>
       <c r="AC100" s="0">
-        <v>9.34</v>
+        <v>9.78</v>
       </c>
       <c r="AD100" s="0">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="AE100" s="0">
-        <v>16.6</v>
+        <v>16.2</v>
       </c>
       <c r="AF100" s="0">
-        <v>-0.67</v>
+        <v>-0.21</v>
       </c>
       <c r="AG100" s="0">
-        <v>5.11</v>
+        <v>4.91</v>
       </c>
       <c r="AH100" s="0">
-        <v>5.11</v>
+        <v>4.91</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>56</v>
@@ -11820,13 +11820,13 @@
         <v>270</v>
       </c>
       <c r="O101" s="0">
-        <v>91.8</v>
+        <v>91.08</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.42234</v>
+        <v>0.42588</v>
       </c>
       <c r="R101" s="0">
         <v>0.42242</v>
@@ -11835,49 +11835,49 @@
         <v>0</v>
       </c>
       <c r="T101" s="0">
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="U101" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="V101" s="0">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="W101" s="0">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X101" s="0">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="Y101" s="0">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="Z101" s="0">
-        <v>5.56</v>
+        <v>5.62</v>
       </c>
       <c r="AA101" s="0">
-        <v>-0.649</v>
+        <v>-1.429</v>
       </c>
       <c r="AB101" s="0">
-        <v>-0.015</v>
+        <v>-1.521</v>
       </c>
       <c r="AC101" s="0">
-        <v>7.63</v>
+        <v>7.78</v>
       </c>
       <c r="AD101" s="0">
-        <v>16.99</v>
+        <v>16.84</v>
       </c>
       <c r="AE101" s="0">
-        <v>16.99</v>
+        <v>16.84</v>
       </c>
       <c r="AF101" s="0">
-        <v>-1.59</v>
+        <v>-1.33</v>
       </c>
       <c r="AG101" s="0">
-        <v>5.26</v>
+        <v>5.19</v>
       </c>
       <c r="AH101" s="0">
-        <v>5.26</v>
+        <v>5.19</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>56</v>
@@ -11927,13 +11927,13 @@
         <v>450</v>
       </c>
       <c r="O102" s="0">
-        <v>95.32</v>
+        <v>93.52</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.73088</v>
+        <v>0.72882</v>
       </c>
       <c r="R102" s="0">
         <v>0.72994</v>
@@ -11942,49 +11942,49 @@
         <v>0</v>
       </c>
       <c r="T102" s="0">
-        <v>-67</v>
+        <v>-19</v>
       </c>
       <c r="U102" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="V102" s="0">
-        <v>-8</v>
+        <v>33</v>
       </c>
       <c r="W102" s="0">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="X102" s="0">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="Y102" s="0">
-        <v>5.56</v>
+        <v>5.68</v>
       </c>
       <c r="Z102" s="0">
-        <v>5.56</v>
+        <v>5.68</v>
       </c>
       <c r="AA102" s="0">
-        <v>-0.501</v>
+        <v>-2.38</v>
       </c>
       <c r="AB102" s="0">
-        <v>-0.039</v>
+        <v>-2.423</v>
       </c>
       <c r="AC102" s="0">
-        <v>5.64</v>
+        <v>6.41</v>
       </c>
       <c r="AD102" s="0">
-        <v>17.06</v>
+        <v>16.77</v>
       </c>
       <c r="AE102" s="0">
-        <v>17.06</v>
+        <v>16.77</v>
       </c>
       <c r="AF102" s="0">
-        <v>-2.33</v>
+        <v>-1.8</v>
       </c>
       <c r="AG102" s="0">
-        <v>5.26</v>
+        <v>5.12</v>
       </c>
       <c r="AH102" s="0">
-        <v>5.26</v>
+        <v>5.12</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>56</v>
@@ -12034,13 +12034,13 @@
         <v>250</v>
       </c>
       <c r="O103" s="0">
-        <v>98.04</v>
+        <v>94.76</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.41763</v>
+        <v>0.41027</v>
       </c>
       <c r="R103" s="0">
         <v>0.41873</v>
@@ -12049,49 +12049,49 @@
         <v>0</v>
       </c>
       <c r="T103" s="0">
-        <v>-44</v>
+        <v>45</v>
       </c>
       <c r="U103" s="0">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="V103" s="0">
-        <v>-3</v>
+        <v>74</v>
       </c>
       <c r="W103" s="0">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="X103" s="0">
-        <v>3.46</v>
+        <v>4.29</v>
       </c>
       <c r="Y103" s="0">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="Z103" s="0">
-        <v>6.08</v>
+        <v>6.3</v>
       </c>
       <c r="AA103" s="0">
-        <v>-0.89</v>
+        <v>-4.205</v>
       </c>
       <c r="AB103" s="0">
-        <v>-0.486</v>
+        <v>-4.196</v>
       </c>
       <c r="AC103" s="0">
-        <v>4.98</v>
+        <v>6.11</v>
       </c>
       <c r="AD103" s="0">
-        <v>16.28</v>
+        <v>15.68</v>
       </c>
       <c r="AE103" s="0">
-        <v>16.28</v>
+        <v>15.68</v>
       </c>
       <c r="AF103" s="0">
-        <v>-1.52</v>
+        <v>-1.33</v>
       </c>
       <c r="AG103" s="0">
-        <v>5.39</v>
+        <v>5.01</v>
       </c>
       <c r="AH103" s="0">
-        <v>5.39</v>
+        <v>5.01</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12141,13 +12141,13 @@
         <v>757.5</v>
       </c>
       <c r="O104" s="0">
-        <v>95.84</v>
+        <v>95.04</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>1.23703</v>
+        <v>1.24679</v>
       </c>
       <c r="R104" s="0">
         <v>1.23745</v>
@@ -12156,49 +12156,49 @@
         <v>0</v>
       </c>
       <c r="T104" s="0">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="U104" s="0">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="V104" s="0">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="W104" s="0">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="X104" s="0">
-        <v>4.08</v>
+        <v>4.22</v>
       </c>
       <c r="Y104" s="0">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="Z104" s="0">
-        <v>6.12</v>
+        <v>6.18</v>
       </c>
       <c r="AA104" s="0">
-        <v>-0.663</v>
+        <v>-1.493</v>
       </c>
       <c r="AB104" s="0">
-        <v>-0.14</v>
+        <v>-1.52</v>
       </c>
       <c r="AC104" s="0">
-        <v>6.16</v>
+        <v>6.35</v>
       </c>
       <c r="AD104" s="0">
-        <v>15.59</v>
+        <v>15.44</v>
       </c>
       <c r="AE104" s="0">
-        <v>15.59</v>
+        <v>15.44</v>
       </c>
       <c r="AF104" s="0">
-        <v>-1.37</v>
+        <v>-1.23</v>
       </c>
       <c r="AG104" s="0">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="AH104" s="0">
-        <v>4.57</v>
+        <v>4.5</v>
       </c>
       <c r="AI104" s="0" t="s">
         <v>56</v>
@@ -12248,13 +12248,13 @@
         <v>1750</v>
       </c>
       <c r="O105" s="0">
-        <v>79</v>
+        <v>76.6</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>2.35568</v>
+        <v>2.32151</v>
       </c>
       <c r="R105" s="0">
         <v>2.36455</v>
@@ -12263,49 +12263,49 @@
         <v>0</v>
       </c>
       <c r="T105" s="0">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="U105" s="0">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="V105" s="0">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="W105" s="0">
+        <v>25</v>
+      </c>
+      <c r="X105" s="0">
+        <v>5.79</v>
+      </c>
+      <c r="Y105" s="0">
+        <v>6.29</v>
+      </c>
+      <c r="Z105" s="0">
+        <v>6.29</v>
+      </c>
+      <c r="AA105" s="0">
+        <v>-4.01</v>
+      </c>
+      <c r="AB105" s="0">
+        <v>-4.243</v>
+      </c>
+      <c r="AC105" s="0">
+        <v>11.55</v>
+      </c>
+      <c r="AD105" s="0">
+        <v>15.67</v>
+      </c>
+      <c r="AE105" s="0">
+        <v>15.67</v>
+      </c>
+      <c r="AF105" s="0">
         <v>1</v>
       </c>
-      <c r="X105" s="0">
-        <v>5.46</v>
-      </c>
-      <c r="Y105" s="0">
-        <v>6.09</v>
-      </c>
-      <c r="Z105" s="0">
-        <v>6.09</v>
-      </c>
-      <c r="AA105" s="0">
-        <v>-1.003</v>
-      </c>
-      <c r="AB105" s="0">
-        <v>-0.108</v>
-      </c>
-      <c r="AC105" s="0">
-        <v>11.23</v>
-      </c>
-      <c r="AD105" s="0">
-        <v>16.22</v>
-      </c>
-      <c r="AE105" s="0">
-        <v>16.22</v>
-      </c>
-      <c r="AF105" s="0">
-        <v>0.41</v>
-      </c>
       <c r="AG105" s="0">
-        <v>5.37</v>
+        <v>5.02</v>
       </c>
       <c r="AH105" s="0">
-        <v>5.37</v>
+        <v>5.02</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12355,13 +12355,13 @@
         <v>1200</v>
       </c>
       <c r="O106" s="0">
-        <v>83.88</v>
+        <v>81.16</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>1.71511</v>
+        <v>1.68665</v>
       </c>
       <c r="R106" s="0">
         <v>1.71893</v>
@@ -12370,49 +12370,49 @@
         <v>0</v>
       </c>
       <c r="T106" s="0">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="U106" s="0">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="V106" s="0">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="W106" s="0">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X106" s="0">
-        <v>5.13</v>
+        <v>5.53</v>
       </c>
       <c r="Y106" s="0">
-        <v>6.04</v>
+        <v>6.25</v>
       </c>
       <c r="Z106" s="0">
-        <v>6.04</v>
+        <v>6.25</v>
       </c>
       <c r="AA106" s="0">
-        <v>-0.851</v>
+        <v>-4.066</v>
       </c>
       <c r="AB106" s="0">
-        <v>-0.039</v>
+        <v>-4.244</v>
       </c>
       <c r="AC106" s="0">
-        <v>9.98</v>
+        <v>10.51</v>
       </c>
       <c r="AD106" s="0">
-        <v>16.36</v>
+        <v>15.77</v>
       </c>
       <c r="AE106" s="0">
-        <v>16.36</v>
+        <v>15.77</v>
       </c>
       <c r="AF106" s="0">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AG106" s="0">
-        <v>5.46</v>
+        <v>5.09</v>
       </c>
       <c r="AH106" s="0">
-        <v>5.46</v>
+        <v>5.09</v>
       </c>
       <c r="AI106" s="0" t="s">
         <v>47</v>
@@ -12462,13 +12462,13 @@
         <v>1322.5</v>
       </c>
       <c r="O107" s="0">
-        <v>93.28</v>
+        <v>91.32</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>2.10201</v>
+        <v>2.09153</v>
       </c>
       <c r="R107" s="0">
         <v>2.104</v>
@@ -12477,49 +12477,49 @@
         <v>0</v>
       </c>
       <c r="T107" s="0">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="U107" s="0">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="V107" s="0">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="W107" s="0">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="X107" s="0">
-        <v>3.99</v>
+        <v>4.38</v>
       </c>
       <c r="Y107" s="0">
-        <v>5.85</v>
+        <v>5.99</v>
       </c>
       <c r="Z107" s="0">
-        <v>5.85</v>
+        <v>5.99</v>
       </c>
       <c r="AA107" s="0">
-        <v>-0.724</v>
+        <v>-2.81</v>
       </c>
       <c r="AB107" s="0">
-        <v>-0.17</v>
+        <v>-2.871</v>
       </c>
       <c r="AC107" s="0">
-        <v>6.72</v>
+        <v>7.37</v>
       </c>
       <c r="AD107" s="0">
-        <v>15.72</v>
+        <v>15.44</v>
       </c>
       <c r="AE107" s="0">
-        <v>15.72</v>
+        <v>15.44</v>
       </c>
       <c r="AF107" s="0">
-        <v>-1.63</v>
+        <v>-1.45</v>
       </c>
       <c r="AG107" s="0">
-        <v>4.29</v>
+        <v>4.17</v>
       </c>
       <c r="AH107" s="0">
-        <v>4.29</v>
+        <v>4.17</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>62</v>
@@ -12569,13 +12569,13 @@
         <v>825</v>
       </c>
       <c r="O108" s="0">
-        <v>99</v>
+        <v>96.68</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.39168</v>
+        <v>1.38132</v>
       </c>
       <c r="R108" s="0">
         <v>1.38795</v>
@@ -12584,49 +12584,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>-123</v>
+        <v>-39</v>
       </c>
       <c r="U108" s="0">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="V108" s="0">
-        <v>-63</v>
+        <v>11</v>
       </c>
       <c r="W108" s="0">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="X108" s="0">
-        <v>2.67</v>
+        <v>3.43</v>
       </c>
       <c r="Y108" s="0">
-        <v>5.76</v>
+        <v>5.92</v>
       </c>
       <c r="Z108" s="0">
-        <v>5.76</v>
+        <v>5.92</v>
       </c>
       <c r="AA108" s="0">
-        <v>-0.362</v>
+        <v>-2.697</v>
       </c>
       <c r="AB108" s="0">
-        <v>-0.102</v>
+        <v>-2.723</v>
       </c>
       <c r="AC108" s="0">
-        <v>3.46</v>
+        <v>4.88</v>
       </c>
       <c r="AD108" s="0">
-        <v>15.82</v>
+        <v>15.51</v>
       </c>
       <c r="AE108" s="0">
-        <v>15.82</v>
+        <v>15.51</v>
       </c>
       <c r="AF108" s="0">
-        <v>-2.3</v>
+        <v>-2.17</v>
       </c>
       <c r="AG108" s="0">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="AH108" s="0">
-        <v>4.35</v>
+        <v>4.22</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>62</v>
@@ -12676,13 +12676,13 @@
         <v>690</v>
       </c>
       <c r="O109" s="0">
-        <v>67.2</v>
+        <v>63.72</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>0.79008</v>
+        <v>0.76143</v>
       </c>
       <c r="R109" s="0">
         <v>0.7851</v>
@@ -12691,49 +12691,49 @@
         <v>0</v>
       </c>
       <c r="T109" s="0">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="U109" s="0">
-        <v>-8</v>
+        <v>57</v>
       </c>
       <c r="V109" s="0">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="W109" s="0">
-        <v>-4</v>
+        <v>15</v>
       </c>
       <c r="X109" s="0">
-        <v>9.13</v>
+        <v>9.7</v>
       </c>
       <c r="Y109" s="0">
-        <v>9.17</v>
+        <v>9.71</v>
       </c>
       <c r="Z109" s="0">
-        <v>9.17</v>
+        <v>9.71</v>
       </c>
       <c r="AA109" s="0">
-        <v>0</v>
+        <v>-5.179</v>
       </c>
       <c r="AB109" s="0">
-        <v>0.819</v>
+        <v>-5.386</v>
       </c>
       <c r="AC109" s="0">
-        <v>10.22</v>
+        <v>9.89</v>
       </c>
       <c r="AD109" s="0">
-        <v>10.62</v>
+        <v>10</v>
       </c>
       <c r="AE109" s="0">
-        <v>10.62</v>
+        <v>10</v>
       </c>
       <c r="AF109" s="0">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="AG109" s="0">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="AH109" s="0">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12783,13 +12783,13 @@
         <v>420</v>
       </c>
       <c r="O110" s="0">
-        <v>74.68</v>
+        <v>71.36</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>0.53445</v>
+        <v>0.51905</v>
       </c>
       <c r="R110" s="0">
         <v>0.52852</v>
@@ -12798,49 +12798,49 @@
         <v>0</v>
       </c>
       <c r="T110" s="0">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="U110" s="0">
-        <v>-14</v>
+        <v>47</v>
       </c>
       <c r="V110" s="0">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="W110" s="0">
-        <v>-6</v>
+        <v>15</v>
       </c>
       <c r="X110" s="0">
-        <v>8.96</v>
+        <v>9.49</v>
       </c>
       <c r="Y110" s="0">
-        <v>9.11</v>
+        <v>9.57</v>
       </c>
       <c r="Z110" s="0">
-        <v>9.11</v>
+        <v>9.57</v>
       </c>
       <c r="AA110" s="0">
-        <v>0.484</v>
+        <v>-3.983</v>
       </c>
       <c r="AB110" s="0">
-        <v>1.277</v>
+        <v>-4.167</v>
       </c>
       <c r="AC110" s="0">
-        <v>9.68</v>
+        <v>9.64</v>
       </c>
       <c r="AD110" s="0">
-        <v>10.69</v>
+        <v>10.15</v>
       </c>
       <c r="AE110" s="0">
-        <v>10.69</v>
+        <v>10.15</v>
       </c>
       <c r="AF110" s="0">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AG110" s="0">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AH110" s="0">
-        <v>2.37</v>
+        <v>2.15</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12890,13 +12890,13 @@
         <v>256</v>
       </c>
       <c r="O111" s="0">
-        <v>85.56</v>
+        <v>84.48</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>0.37322</v>
+        <v>0.37454</v>
       </c>
       <c r="R111" s="0">
         <v>0.37104</v>
@@ -12926,10 +12926,10 @@
         <v>8.15</v>
       </c>
       <c r="AA111" s="0">
-        <v>-0.047</v>
+        <v>-1.308</v>
       </c>
       <c r="AB111" s="0">
-        <v>-0.057</v>
+        <v>-1.407</v>
       </c>
       <c r="AC111" s="0">
         <v>-0.06</v>
@@ -12997,13 +12997,13 @@
         <v>295</v>
       </c>
       <c r="O112" s="0">
-        <v>85.4</v>
+        <v>84.8</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.42927</v>
+        <v>0.43323</v>
       </c>
       <c r="R112" s="0">
         <v>0.43356</v>
@@ -13012,43 +13012,43 @@
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="U112" s="0">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="V112" s="0">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="W112" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="X112" s="0">
-        <v>10.61</v>
+        <v>10.88</v>
       </c>
       <c r="Y112" s="0">
-        <v>17.16</v>
+        <v>17.83</v>
       </c>
       <c r="Z112" s="0">
-        <v>17.16</v>
+        <v>17.83</v>
       </c>
       <c r="AA112" s="0">
-        <v>-1.613</v>
+        <v>-2.304</v>
       </c>
       <c r="AB112" s="0">
-        <v>-1.57</v>
+        <v>-2.171</v>
       </c>
       <c r="AC112" s="0">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="AD112" s="0">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AE112" s="0">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AF112" s="0">
-        <v>-0.28</v>
+        <v>-0.3</v>
       </c>
       <c r="AG112" s="0">
         <v>0.04</v>
@@ -13104,13 +13104,13 @@
         <v>287.5</v>
       </c>
       <c r="O113" s="0">
-        <v>84.48</v>
+        <v>82.2</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>0.41385</v>
+        <v>0.40927</v>
       </c>
       <c r="R113" s="0">
         <v>0.41884</v>
@@ -13119,43 +13119,43 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>548</v>
+        <v>589</v>
       </c>
       <c r="U113" s="0">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="V113" s="0">
-        <v>542</v>
+        <v>559</v>
       </c>
       <c r="W113" s="0">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="X113" s="0">
-        <v>10.55</v>
+        <v>11.09</v>
       </c>
       <c r="Y113" s="0">
-        <v>12.67</v>
+        <v>13.55</v>
       </c>
       <c r="Z113" s="0">
-        <v>12.67</v>
+        <v>13.55</v>
       </c>
       <c r="AA113" s="0">
-        <v>-1.813</v>
+        <v>-4.463</v>
       </c>
       <c r="AB113" s="0">
-        <v>-1.532</v>
+        <v>-4.292</v>
       </c>
       <c r="AC113" s="0">
-        <v>2.39</v>
+        <v>2.19</v>
       </c>
       <c r="AD113" s="0">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="AE113" s="0">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="AF113" s="0">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="AG113" s="0">
         <v>0.16</v>
@@ -13211,13 +13211,13 @@
         <v>500</v>
       </c>
       <c r="O114" s="0">
-        <v>65.4</v>
+        <v>66</v>
       </c>
       <c r="P114" s="0">
         <v>0</v>
       </c>
       <c r="Q114" s="0">
-        <v>0.55718</v>
+        <v>0.5715</v>
       </c>
       <c r="R114" s="0">
         <v>0.55842</v>
@@ -13226,49 +13226,49 @@
         <v>0</v>
       </c>
       <c r="T114" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="U114" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V114" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="W114" s="0">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="X114" s="0">
-        <v>8.51</v>
+        <v>8.44</v>
       </c>
       <c r="Y114" s="0">
-        <v>8.59</v>
+        <v>8.53</v>
       </c>
       <c r="Z114" s="0">
-        <v>8.59</v>
+        <v>8.53</v>
       </c>
       <c r="AA114" s="0">
-        <v>-0.849</v>
+        <v>0.061</v>
       </c>
       <c r="AB114" s="0">
-        <v>0.029</v>
+        <v>-0.179</v>
       </c>
       <c r="AC114" s="0">
-        <v>11.05</v>
+        <v>11.04</v>
       </c>
       <c r="AD114" s="0">
-        <v>11.65</v>
+        <v>11.7</v>
       </c>
       <c r="AE114" s="0">
-        <v>11.65</v>
+        <v>11.7</v>
       </c>
       <c r="AF114" s="0">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="AG114" s="0">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AH114" s="0">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AI114" s="0" t="s">
         <v>62</v>
@@ -13318,13 +13318,13 @@
         <v>500</v>
       </c>
       <c r="O115" s="0">
-        <v>65.48</v>
+        <v>65.8</v>
       </c>
       <c r="P115" s="0">
         <v>0</v>
       </c>
       <c r="Q115" s="0">
-        <v>0.55787</v>
+        <v>0.56977</v>
       </c>
       <c r="R115" s="0">
         <v>0.5574</v>
@@ -13333,43 +13333,43 @@
         <v>0</v>
       </c>
       <c r="T115" s="0">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="U115" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="V115" s="0">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="W115" s="0">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="X115" s="0">
-        <v>8.5</v>
+        <v>8.47</v>
       </c>
       <c r="Y115" s="0">
-        <v>8.58</v>
+        <v>8.55</v>
       </c>
       <c r="Z115" s="0">
-        <v>8.58</v>
+        <v>8.55</v>
       </c>
       <c r="AA115" s="0">
-        <v>-0.547</v>
+        <v>-0.061</v>
       </c>
       <c r="AB115" s="0">
-        <v>0.331</v>
+        <v>-0.3</v>
       </c>
       <c r="AC115" s="0">
-        <v>11.05</v>
+        <v>11.03</v>
       </c>
       <c r="AD115" s="0">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="AE115" s="0">
-        <v>11.66</v>
+        <v>11.67</v>
       </c>
       <c r="AF115" s="0">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="AG115" s="0">
         <v>2.66</v>
@@ -13425,13 +13425,13 @@
         <v>500</v>
       </c>
       <c r="O116" s="0">
-        <v>72</v>
+        <v>72.6</v>
       </c>
       <c r="P116" s="0">
         <v>0</v>
       </c>
       <c r="Q116" s="0">
-        <v>0.61341</v>
+        <v>0.62865</v>
       </c>
       <c r="R116" s="0">
         <v>0.61327</v>
@@ -13440,49 +13440,49 @@
         <v>0</v>
       </c>
       <c r="T116" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="U116" s="0">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V116" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="W116" s="0">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="X116" s="0">
-        <v>8.68</v>
+        <v>8.61</v>
       </c>
       <c r="Y116" s="0">
-        <v>8.84</v>
+        <v>8.78</v>
       </c>
       <c r="Z116" s="0">
-        <v>8.84</v>
+        <v>8.78</v>
       </c>
       <c r="AA116" s="0">
-        <v>-0.607</v>
+        <v>0.221</v>
       </c>
       <c r="AB116" s="0">
-        <v>0.223</v>
+        <v>0.018</v>
       </c>
       <c r="AC116" s="0">
-        <v>10.19</v>
+        <v>10.16</v>
       </c>
       <c r="AD116" s="0">
-        <v>11.23</v>
+        <v>11.27</v>
       </c>
       <c r="AE116" s="0">
-        <v>11.23</v>
+        <v>11.27</v>
       </c>
       <c r="AF116" s="0">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
       <c r="AG116" s="0">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AH116" s="0">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="AI116" s="0" t="s">
         <v>62</v>
@@ -13532,13 +13532,13 @@
         <v>300</v>
       </c>
       <c r="O117" s="0">
-        <v>56.68</v>
+        <v>53.56</v>
       </c>
       <c r="P117" s="0">
         <v>0</v>
       </c>
       <c r="Q117" s="0">
-        <v>0.28974</v>
+        <v>0.27827</v>
       </c>
       <c r="R117" s="0">
         <v>0.29929</v>
@@ -13547,49 +13547,49 @@
         <v>0</v>
       </c>
       <c r="T117" s="0">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="U117" s="0">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="V117" s="0">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="W117" s="0">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="X117" s="0">
-        <v>8.03</v>
+        <v>8.53</v>
       </c>
       <c r="Y117" s="0">
-        <v>8.04</v>
+        <v>8.53</v>
       </c>
       <c r="Z117" s="0">
-        <v>8.04</v>
+        <v>8.53</v>
       </c>
       <c r="AA117" s="0">
-        <v>-3.802</v>
+        <v>-9.097</v>
       </c>
       <c r="AB117" s="0">
-        <v>-2.84</v>
+        <v>-9.396</v>
       </c>
       <c r="AC117" s="0">
-        <v>12.06</v>
+        <v>11.58</v>
       </c>
       <c r="AD117" s="0">
-        <v>12.16</v>
+        <v>11.42</v>
       </c>
       <c r="AE117" s="0">
-        <v>12.16</v>
+        <v>11.42</v>
       </c>
       <c r="AF117" s="0">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="AG117" s="0">
-        <v>3.06</v>
+        <v>2.7</v>
       </c>
       <c r="AH117" s="0">
-        <v>3.06</v>
+        <v>2.7</v>
       </c>
       <c r="AI117" s="0" t="s">
         <v>47</v>
@@ -13639,13 +13639,13 @@
         <v>300</v>
       </c>
       <c r="O118" s="0">
-        <v>64.76</v>
+        <v>61.6</v>
       </c>
       <c r="P118" s="0">
         <v>0</v>
       </c>
       <c r="Q118" s="0">
-        <v>0.33104</v>
+        <v>0.32004</v>
       </c>
       <c r="R118" s="0">
         <v>0.33038</v>
@@ -13654,49 +13654,49 @@
         <v>0</v>
       </c>
       <c r="T118" s="0">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="U118" s="0">
-        <v>-4</v>
+        <v>54</v>
       </c>
       <c r="V118" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="W118" s="0">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="X118" s="0">
-        <v>8.25</v>
+        <v>8.74</v>
       </c>
       <c r="Y118" s="0">
-        <v>8.3</v>
+        <v>8.76</v>
       </c>
       <c r="Z118" s="0">
-        <v>8.3</v>
+        <v>8.76</v>
       </c>
       <c r="AA118" s="0">
-        <v>-0.431</v>
+        <v>-5.289</v>
       </c>
       <c r="AB118" s="0">
-        <v>0.452</v>
+        <v>-5.538</v>
       </c>
       <c r="AC118" s="0">
-        <v>11.19</v>
+        <v>10.88</v>
       </c>
       <c r="AD118" s="0">
-        <v>11.76</v>
+        <v>11.11</v>
       </c>
       <c r="AE118" s="0">
-        <v>11.76</v>
+        <v>11.11</v>
       </c>
       <c r="AF118" s="0">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="AG118" s="0">
-        <v>2.86</v>
+        <v>2.57</v>
       </c>
       <c r="AH118" s="0">
-        <v>2.86</v>
+        <v>2.57</v>
       </c>
       <c r="AI118" s="0" t="s">
         <v>47</v>
@@ -13746,13 +13746,13 @@
         <v>319.5</v>
       </c>
       <c r="O119" s="0">
-        <v>64.76</v>
+        <v>61.52</v>
       </c>
       <c r="P119" s="0">
         <v>0</v>
       </c>
       <c r="Q119" s="0">
-        <v>0.35256</v>
+        <v>0.3404</v>
       </c>
       <c r="R119" s="0">
         <v>0.35034</v>
@@ -13761,49 +13761,49 @@
         <v>0</v>
       </c>
       <c r="T119" s="0">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="U119" s="0">
-        <v>-8</v>
+        <v>51</v>
       </c>
       <c r="V119" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="W119" s="0">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="X119" s="0">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y119" s="0">
-        <v>8.3</v>
+        <v>8.77</v>
       </c>
       <c r="Z119" s="0">
-        <v>8.3</v>
+        <v>8.77</v>
       </c>
       <c r="AA119" s="0">
-        <v>0</v>
+        <v>-5.003</v>
       </c>
       <c r="AB119" s="0">
-        <v>0.883</v>
+        <v>-5.252</v>
       </c>
       <c r="AC119" s="0">
-        <v>11.19</v>
+        <v>10.88</v>
       </c>
       <c r="AD119" s="0">
-        <v>11.76</v>
+        <v>11.1</v>
       </c>
       <c r="AE119" s="0">
-        <v>11.76</v>
+        <v>11.1</v>
       </c>
       <c r="AF119" s="0">
-        <v>2.29</v>
+        <v>2.07</v>
       </c>
       <c r="AG119" s="0">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AH119" s="0">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AI119" s="0" t="s">
         <v>47</v>
@@ -13853,13 +13853,13 @@
         <v>300</v>
       </c>
       <c r="O120" s="0">
-        <v>67.42</v>
+        <v>62.4</v>
       </c>
       <c r="P120" s="0">
         <v>0</v>
       </c>
       <c r="Q120" s="0">
-        <v>0.34464</v>
+        <v>0.3242</v>
       </c>
       <c r="R120" s="0">
         <v>0.34724</v>
@@ -13868,49 +13868,49 @@
         <v>0</v>
       </c>
       <c r="T120" s="0">
-        <v>407</v>
+        <v>491</v>
       </c>
       <c r="U120" s="0">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="V120" s="0">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="W120" s="0">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="X120" s="0">
-        <v>8.11</v>
+        <v>8.88</v>
       </c>
       <c r="Y120" s="0">
-        <v>8.2</v>
+        <v>8.9</v>
       </c>
       <c r="Z120" s="0">
-        <v>8.2</v>
+        <v>8.9</v>
       </c>
       <c r="AA120" s="0">
-        <v>-1.375</v>
+        <v>-8.719</v>
       </c>
       <c r="AB120" s="0">
-        <v>-0.495</v>
+        <v>-8.963</v>
       </c>
       <c r="AC120" s="0">
-        <v>11.17</v>
+        <v>10.69</v>
       </c>
       <c r="AD120" s="0">
-        <v>11.91</v>
+        <v>10.94</v>
       </c>
       <c r="AE120" s="0">
-        <v>11.91</v>
+        <v>10.94</v>
       </c>
       <c r="AF120" s="0">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="AG120" s="0">
-        <v>2.93</v>
+        <v>2.49</v>
       </c>
       <c r="AH120" s="0">
-        <v>2.93</v>
+        <v>2.49</v>
       </c>
       <c r="AI120" s="0" t="s">
         <v>47</v>
@@ -13960,13 +13960,13 @@
         <v>540.3</v>
       </c>
       <c r="O121" s="0">
-        <v>109.84</v>
+        <v>109.96</v>
       </c>
       <c r="P121" s="0">
         <v>0</v>
       </c>
       <c r="Q121" s="0">
-        <v>1.01122</v>
+        <v>1.02888</v>
       </c>
       <c r="R121" s="0">
         <v>1.01254</v>
@@ -13975,40 +13975,40 @@
         <v>0</v>
       </c>
       <c r="T121" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U121" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V121" s="0">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="W121" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="X121" s="0">
-        <v>5.74</v>
+        <v>5.66</v>
       </c>
       <c r="Y121" s="0">
-        <v>6.9</v>
+        <v>6.92</v>
       </c>
       <c r="Z121" s="0">
-        <v>6.9</v>
+        <v>6.92</v>
       </c>
       <c r="AA121" s="0">
-        <v>-0.759</v>
+        <v>-0.652</v>
       </c>
       <c r="AB121" s="0">
-        <v>-0.574</v>
+        <v>-0.536</v>
       </c>
       <c r="AC121" s="0">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AD121" s="0">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AE121" s="0">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AF121" s="0">
         <v>0.05</v>

--- a/Data/PFAN-Current.xlsx
+++ b/Data/PFAN-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAN0309 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAN0313 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
-    <t xml:space="preserve">PFAN for 03/09/2023  </t>
+    <t xml:space="preserve">PFAN for 03/13/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1724,13 +1724,13 @@
         <v>283.6</v>
       </c>
       <c r="O3" s="0">
-        <v>75.68</v>
+        <v>73.6</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.3717</v>
+        <v>0.37166</v>
       </c>
       <c r="R3" s="0">
         <v>0.40989</v>
@@ -1739,49 +1739,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="U3" s="0">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="V3" s="0">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="W3" s="0">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="X3" s="0">
-        <v>11.36</v>
+        <v>11.78</v>
       </c>
       <c r="Y3" s="0">
-        <v>15.64</v>
+        <v>16.65</v>
       </c>
       <c r="Z3" s="0">
-        <v>15.64</v>
+        <v>16.65</v>
       </c>
       <c r="AA3" s="0">
-        <v>-11.34</v>
+        <v>-13.777</v>
       </c>
       <c r="AB3" s="0">
-        <v>-11.156</v>
+        <v>-15.522</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="AD3" s="0">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.25</v>
+        <v>-0.31</v>
       </c>
       <c r="AG3" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH3" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AI3" s="0" t="s">
         <v>47</v>
@@ -1831,37 +1831,37 @@
         <v>850</v>
       </c>
       <c r="O4" s="0">
-        <v>99.26</v>
+        <v>99.54</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.46115</v>
+        <v>1.50651</v>
       </c>
       <c r="R4" s="0">
         <v>1.42079</v>
       </c>
       <c r="S4" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y4" s="0">
-        <v>9</v>
+        <v>8.54</v>
       </c>
       <c r="Z4" s="0">
-        <v>9</v>
+        <v>8.54</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.547</v>
+        <v>0.831</v>
       </c>
       <c r="AC4" s="0">
         <v>0.19</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>1043</v>
       </c>
       <c r="O5" s="0">
-        <v>90.58</v>
+        <v>86.9</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1.63614</v>
+        <v>1.61384</v>
       </c>
       <c r="R5" s="0">
         <v>1.61377</v>
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>19.14</v>
+        <v>24.54</v>
       </c>
       <c r="Z5" s="0">
-        <v>19.14</v>
+        <v>24.54</v>
       </c>
       <c r="AA5" s="0">
-        <v>-0.875</v>
+        <v>-4.903</v>
       </c>
       <c r="AC5" s="0">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="AG5" s="0">
         <v>0.01</v>
@@ -2003,13 +2003,13 @@
         <v>575</v>
       </c>
       <c r="O6" s="0">
-        <v>82.72</v>
+        <v>79</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.82372</v>
+        <v>0.80882</v>
       </c>
       <c r="R6" s="0">
         <v>0.84235</v>
@@ -2018,43 +2018,43 @@
         <v>0</v>
       </c>
       <c r="T6" s="0">
-        <v>503</v>
+        <v>580</v>
       </c>
       <c r="U6" s="0">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="V6" s="0">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="W6" s="0">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="X6" s="0">
-        <v>10.48</v>
+        <v>10.97</v>
       </c>
       <c r="Y6" s="0">
-        <v>16.92</v>
+        <v>19.62</v>
       </c>
       <c r="Z6" s="0">
-        <v>16.92</v>
+        <v>19.62</v>
       </c>
       <c r="AA6" s="0">
-        <v>-4.392</v>
+        <v>-8.692</v>
       </c>
       <c r="AB6" s="0">
-        <v>-4.24</v>
+        <v>-9.804</v>
       </c>
       <c r="AC6" s="0">
-        <v>0.23</v>
+        <v>-0.27</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.32</v>
+        <v>-0.42</v>
       </c>
       <c r="AG6" s="0">
         <v>0.05</v>
@@ -2110,13 +2110,13 @@
         <v>402.5</v>
       </c>
       <c r="O7" s="0">
-        <v>87.68</v>
+        <v>84.8</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.61118</v>
+        <v>0.60774</v>
       </c>
       <c r="R7" s="0">
         <v>0.61254</v>
@@ -2125,43 +2125,43 @@
         <v>0</v>
       </c>
       <c r="T7" s="0">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="U7" s="0">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="V7" s="0">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="W7" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="X7" s="0">
-        <v>10.2</v>
+        <v>10.57</v>
       </c>
       <c r="Y7" s="0">
-        <v>16.44</v>
+        <v>19</v>
       </c>
       <c r="Z7" s="0">
-        <v>16.44</v>
+        <v>19</v>
       </c>
       <c r="AA7" s="0">
-        <v>-2.448</v>
+        <v>-5.652</v>
       </c>
       <c r="AB7" s="0">
-        <v>-2.348</v>
+        <v>-6.465</v>
       </c>
       <c r="AC7" s="0">
-        <v>0.16</v>
+        <v>-0.26</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF7" s="0">
-        <v>-0.26</v>
+        <v>-0.34</v>
       </c>
       <c r="AG7" s="0">
         <v>0.03</v>
@@ -2217,13 +2217,13 @@
         <v>325</v>
       </c>
       <c r="O8" s="0">
-        <v>100.92</v>
+        <v>99.24</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.56802</v>
+        <v>0.57428</v>
       </c>
       <c r="R8" s="0">
         <v>0.56063</v>
@@ -2253,10 +2253,10 @@
         <v>99.99</v>
       </c>
       <c r="AA8" s="0">
-        <v>-0.942</v>
+        <v>-2.591</v>
       </c>
       <c r="AB8" s="0">
-        <v>-1.046</v>
+        <v>-2.449</v>
       </c>
       <c r="AC8" s="0">
         <v>-1.09</v>
@@ -2324,13 +2324,13 @@
         <v>1150</v>
       </c>
       <c r="O9" s="0">
-        <v>124.73</v>
+        <v>121.63</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.48418</v>
+        <v>2.49062</v>
       </c>
       <c r="R9" s="0">
         <v>2.48094</v>
@@ -2345,7 +2345,7 @@
         <v>-10</v>
       </c>
       <c r="AA9" s="0">
-        <v>-2.103</v>
+        <v>-4.535</v>
       </c>
       <c r="AC9" s="0">
         <v>0.04</v>
@@ -2410,13 +2410,13 @@
         <v>350</v>
       </c>
       <c r="O10" s="0">
-        <v>92.64</v>
+        <v>93.68</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.56153</v>
+        <v>0.58381</v>
       </c>
       <c r="R10" s="0">
         <v>0.549</v>
@@ -2425,34 +2425,34 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="U10" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="W10" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X10" s="0">
-        <v>9.47</v>
+        <v>9.09</v>
       </c>
       <c r="Y10" s="0">
-        <v>13.65</v>
+        <v>12.82</v>
       </c>
       <c r="Z10" s="0">
-        <v>13.65</v>
+        <v>12.82</v>
       </c>
       <c r="AA10" s="0">
-        <v>0</v>
+        <v>1.123</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.035</v>
+        <v>0.367</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AD10" s="0">
         <v>1.17</v>
@@ -2461,7 +2461,7 @@
         <v>1.17</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AG10" s="0">
         <v>0.02</v>
@@ -2517,13 +2517,13 @@
         <v>287.5</v>
       </c>
       <c r="O11" s="0">
-        <v>95.36</v>
+        <v>90</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.4748</v>
+        <v>0.46072</v>
       </c>
       <c r="R11" s="0">
         <v>0.47453</v>
@@ -2532,43 +2532,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>279</v>
+        <v>360</v>
       </c>
       <c r="U11" s="0">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="V11" s="0">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="W11" s="0">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="X11" s="0">
-        <v>8.04</v>
+        <v>8.74</v>
       </c>
       <c r="Y11" s="0">
-        <v>17.28</v>
+        <v>28.79</v>
       </c>
       <c r="Z11" s="0">
-        <v>17.28</v>
+        <v>28.79</v>
       </c>
       <c r="AA11" s="0">
-        <v>-2.175</v>
+        <v>-7.673</v>
       </c>
       <c r="AB11" s="0">
-        <v>-2.195</v>
+        <v>-7.949</v>
       </c>
       <c r="AC11" s="0">
-        <v>-0.5</v>
+        <v>-1.23</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.26</v>
+        <v>-0.4</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2624,13 +2624,13 @@
         <v>1150</v>
       </c>
       <c r="O12" s="0">
-        <v>54.06</v>
+        <v>53.32</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.07666</v>
+        <v>1.0918</v>
       </c>
       <c r="R12" s="0">
         <v>1.06394</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>72.06</v>
+        <v>74.53</v>
       </c>
       <c r="Z12" s="0">
-        <v>72.06</v>
+        <v>74.53</v>
       </c>
       <c r="AA12" s="0">
-        <v>-1.061</v>
+        <v>-2.416</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="AG12" s="0">
         <v>0.01</v>
@@ -2710,13 +2710,13 @@
         <v>1500</v>
       </c>
       <c r="O13" s="0">
-        <v>96.92</v>
+        <v>96.51</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.51759</v>
+        <v>2.57776</v>
       </c>
       <c r="R13" s="0">
         <v>2.45687</v>
@@ -2725,22 +2725,22 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>21.64</v>
+        <v>24.99</v>
       </c>
       <c r="Z13" s="0">
-        <v>21.64</v>
+        <v>24.99</v>
       </c>
       <c r="AA13" s="0">
-        <v>0.186</v>
+        <v>-0.227</v>
       </c>
       <c r="AC13" s="0">
         <v>0.08</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>350</v>
       </c>
       <c r="O14" s="0">
-        <v>61.24</v>
+        <v>59</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.3712</v>
+        <v>0.36769</v>
       </c>
       <c r="R14" s="0">
         <v>0.40203</v>
@@ -2811,49 +2811,49 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>371</v>
+        <v>431</v>
       </c>
       <c r="U14" s="0">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="V14" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="W14" s="0">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="X14" s="0">
-        <v>7.64</v>
+        <v>7.99</v>
       </c>
       <c r="Y14" s="0">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="Z14" s="0">
-        <v>7.69</v>
+        <v>7.99</v>
       </c>
       <c r="AA14" s="0">
-        <v>-9.729</v>
+        <v>-13.031</v>
       </c>
       <c r="AB14" s="0">
-        <v>-10.028</v>
+        <v>-16.829</v>
       </c>
       <c r="AC14" s="0">
-        <v>12.1</v>
+        <v>12.01</v>
       </c>
       <c r="AD14" s="0">
-        <v>12.78</v>
+        <v>12.27</v>
       </c>
       <c r="AE14" s="0">
-        <v>12.78</v>
+        <v>12.27</v>
       </c>
       <c r="AF14" s="0">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="AG14" s="0">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="AH14" s="0">
-        <v>3.36</v>
+        <v>3.1</v>
       </c>
       <c r="AI14" s="0" t="s">
         <v>86</v>
@@ -2903,13 +2903,13 @@
         <v>260</v>
       </c>
       <c r="O15" s="0">
-        <v>62.68</v>
+        <v>59.76</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.28223</v>
+        <v>0.27666</v>
       </c>
       <c r="R15" s="0">
         <v>0.31327</v>
@@ -2918,49 +2918,49 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>393</v>
+        <v>464</v>
       </c>
       <c r="U15" s="0">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="V15" s="0">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="W15" s="0">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="X15" s="0">
-        <v>7.87</v>
+        <v>8.32</v>
       </c>
       <c r="Y15" s="0">
-        <v>7.92</v>
+        <v>8.32</v>
       </c>
       <c r="Z15" s="0">
-        <v>7.92</v>
+        <v>8.32</v>
       </c>
       <c r="AA15" s="0">
-        <v>-11.917</v>
+        <v>-16.02</v>
       </c>
       <c r="AB15" s="0">
-        <v>-12.196</v>
+        <v>-19.785</v>
       </c>
       <c r="AC15" s="0">
-        <v>11.75</v>
+        <v>11.58</v>
       </c>
       <c r="AD15" s="0">
-        <v>12.39</v>
+        <v>11.77</v>
       </c>
       <c r="AE15" s="0">
-        <v>12.39</v>
+        <v>11.77</v>
       </c>
       <c r="AF15" s="0">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="AG15" s="0">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="AH15" s="0">
-        <v>3.16</v>
+        <v>2.86</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>86</v>
@@ -3010,13 +3010,13 @@
         <v>250</v>
       </c>
       <c r="O16" s="0">
-        <v>68.36</v>
+        <v>65.28</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.29597</v>
+        <v>0.29059</v>
       </c>
       <c r="R16" s="0">
         <v>0.3234</v>
@@ -3025,49 +3025,49 @@
         <v>0</v>
       </c>
       <c r="T16" s="0">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="U16" s="0">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="V16" s="0">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="W16" s="0">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="X16" s="0">
-        <v>7.38</v>
+        <v>7.83</v>
       </c>
       <c r="Y16" s="0">
-        <v>7.54</v>
+        <v>7.91</v>
       </c>
       <c r="Z16" s="0">
-        <v>7.54</v>
+        <v>7.91</v>
       </c>
       <c r="AA16" s="0">
-        <v>-10.524</v>
+        <v>-14.555</v>
       </c>
       <c r="AB16" s="0">
-        <v>-10.769</v>
+        <v>-18.181</v>
       </c>
       <c r="AC16" s="0">
-        <v>11.77</v>
+        <v>11.79</v>
       </c>
       <c r="AD16" s="0">
-        <v>13.06</v>
+        <v>12.45</v>
       </c>
       <c r="AE16" s="0">
-        <v>13.06</v>
+        <v>12.45</v>
       </c>
       <c r="AF16" s="0">
-        <v>1.63</v>
+        <v>2.55</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.41</v>
+        <v>3.14</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.41</v>
+        <v>3.14</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>86</v>
@@ -3117,13 +3117,13 @@
         <v>300</v>
       </c>
       <c r="O17" s="0">
-        <v>68.56</v>
+        <v>64.32</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.3562</v>
+        <v>0.34358</v>
       </c>
       <c r="R17" s="0">
         <v>0.39011</v>
@@ -3132,49 +3132,49 @@
         <v>0</v>
       </c>
       <c r="T17" s="0">
-        <v>359</v>
+        <v>446</v>
       </c>
       <c r="U17" s="0">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="V17" s="0">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="W17" s="0">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="X17" s="0">
-        <v>7.52</v>
+        <v>8.15</v>
       </c>
       <c r="Y17" s="0">
-        <v>7.66</v>
+        <v>8.18</v>
       </c>
       <c r="Z17" s="0">
-        <v>7.66</v>
+        <v>8.18</v>
       </c>
       <c r="AA17" s="0">
-        <v>-10.729</v>
+        <v>-16.25</v>
       </c>
       <c r="AB17" s="0">
-        <v>-10.972</v>
+        <v>-19.884</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.6</v>
+        <v>11.35</v>
       </c>
       <c r="AD17" s="0">
-        <v>12.75</v>
+        <v>11.9</v>
       </c>
       <c r="AE17" s="0">
-        <v>12.75</v>
+        <v>11.9</v>
       </c>
       <c r="AF17" s="0">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="AG17" s="0">
-        <v>3.36</v>
+        <v>2.94</v>
       </c>
       <c r="AH17" s="0">
-        <v>3.36</v>
+        <v>2.94</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>86</v>
@@ -3224,64 +3224,64 @@
         <v>671.1</v>
       </c>
       <c r="O18" s="0">
-        <v>64.38</v>
+        <v>62.12</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.74824</v>
+        <v>0.74229</v>
       </c>
       <c r="R18" s="0">
         <v>0.83995</v>
       </c>
       <c r="S18" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>577</v>
+        <v>644</v>
       </c>
       <c r="U18" s="0">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="V18" s="0">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="W18" s="0">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="X18" s="0">
-        <v>9.75</v>
+        <v>10.14</v>
       </c>
       <c r="Y18" s="0">
-        <v>9.77</v>
+        <v>10.14</v>
       </c>
       <c r="Z18" s="0">
-        <v>9.77</v>
+        <v>10.14</v>
       </c>
       <c r="AA18" s="0">
-        <v>-12.906</v>
+        <v>-15.963</v>
       </c>
       <c r="AB18" s="0">
-        <v>-13.108</v>
+        <v>-19.414</v>
       </c>
       <c r="AC18" s="0">
-        <v>9.97</v>
+        <v>9.81</v>
       </c>
       <c r="AD18" s="0">
-        <v>10.16</v>
+        <v>9.78</v>
       </c>
       <c r="AE18" s="0">
-        <v>10.16</v>
+        <v>9.78</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AG18" s="0">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="AH18" s="0">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3331,13 +3331,13 @@
         <v>1006.2</v>
       </c>
       <c r="O19" s="0">
-        <v>114.53</v>
+        <v>115.42</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1.9957</v>
+        <v>2.0679</v>
       </c>
       <c r="R19" s="0">
         <v>1.93492</v>
@@ -3352,16 +3352,16 @@
         <v>-10</v>
       </c>
       <c r="AA19" s="0">
-        <v>0.841</v>
+        <v>1.629</v>
       </c>
       <c r="AC19" s="0">
         <v>0.03</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>4.537</v>
       </c>
       <c r="F20" s="2">
-        <v>44994</v>
+        <v>44998</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>125</v>
@@ -3414,7 +3414,7 @@
         <v>124</v>
       </c>
       <c r="N20" s="0">
-        <v>4.469</v>
+        <v>40.983</v>
       </c>
       <c r="O20" s="0">
         <v>100</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.00774</v>
+        <v>0.07297</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>712.6</v>
       </c>
       <c r="O21" s="0">
-        <v>90.6</v>
+        <v>90.3</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1.11809</v>
+        <v>1.14575</v>
       </c>
       <c r="R21" s="0">
         <v>1.10884</v>
@@ -3539,49 +3539,49 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="U21" s="0">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="V21" s="0">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="W21" s="0">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="X21" s="0">
-        <v>10.19</v>
+        <v>10.24</v>
       </c>
       <c r="Y21" s="0">
-        <v>10.19</v>
+        <v>10.24</v>
       </c>
       <c r="Z21" s="0">
-        <v>10.19</v>
+        <v>10.24</v>
       </c>
       <c r="AA21" s="0">
-        <v>-1.415</v>
+        <v>-1.741</v>
       </c>
       <c r="AB21" s="0">
-        <v>-1.596</v>
+        <v>-4.987</v>
       </c>
       <c r="AC21" s="0">
-        <v>9.48</v>
+        <v>9.38</v>
       </c>
       <c r="AD21" s="0">
-        <v>9.83</v>
+        <v>9.78</v>
       </c>
       <c r="AE21" s="0">
-        <v>9.83</v>
+        <v>9.78</v>
       </c>
       <c r="AF21" s="0">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AG21" s="0">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AH21" s="0">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AI21" s="0" t="s">
         <v>47</v>
@@ -3631,13 +3631,13 @@
         <v>492.5</v>
       </c>
       <c r="O22" s="0">
-        <v>101.84</v>
+        <v>99.32</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.86862</v>
+        <v>0.87096</v>
       </c>
       <c r="R22" s="0">
         <v>0.85725</v>
@@ -3646,43 +3646,43 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="U22" s="0">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="V22" s="0">
-        <v>-18</v>
+        <v>265</v>
       </c>
       <c r="W22" s="0">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="X22" s="0">
-        <v>5.01</v>
+        <v>6.55</v>
       </c>
       <c r="Y22" s="0">
-        <v>6.44</v>
+        <v>8.27</v>
       </c>
       <c r="Z22" s="0">
-        <v>6.44</v>
+        <v>8.27</v>
       </c>
       <c r="AA22" s="0">
-        <v>-0.934</v>
+        <v>-3.385</v>
       </c>
       <c r="AB22" s="0">
-        <v>-0.861</v>
+        <v>-4.456</v>
       </c>
       <c r="AC22" s="0">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AE22" s="0">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AF22" s="0">
-        <v>0</v>
+        <v>-0.12</v>
       </c>
       <c r="AG22" s="0">
         <v>0.03</v>
@@ -3738,13 +3738,13 @@
         <v>420</v>
       </c>
       <c r="O23" s="0">
-        <v>101.28</v>
+        <v>100.4</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.73667</v>
+        <v>0.75083</v>
       </c>
       <c r="R23" s="0">
         <v>0.73105</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="T23" s="0">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="U23" s="0">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="V23" s="0">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="W23" s="0">
-        <v>323</v>
+        <v>493</v>
       </c>
       <c r="X23" s="0">
-        <v>5.73</v>
+        <v>6.51</v>
       </c>
       <c r="Y23" s="0">
-        <v>7.26</v>
+        <v>8.25</v>
       </c>
       <c r="Z23" s="0">
-        <v>7.26</v>
+        <v>8.25</v>
       </c>
       <c r="AA23" s="0">
-        <v>-1.479</v>
+        <v>-2.335</v>
       </c>
       <c r="AB23" s="0">
-        <v>-1.46</v>
+        <v>-3.079</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AF23" s="0">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AG23" s="0">
         <v>0.02</v>
@@ -3845,13 +3845,13 @@
         <v>517.5</v>
       </c>
       <c r="O24" s="0">
-        <v>103.72</v>
+        <v>103.2</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.92956</v>
+        <v>0.95093</v>
       </c>
       <c r="R24" s="0">
         <v>0.92109</v>
@@ -3860,49 +3860,49 @@
         <v>0</v>
       </c>
       <c r="T24" s="0">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="U24" s="0">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="V24" s="0">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="W24" s="0">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="X24" s="0">
-        <v>3.99</v>
+        <v>4.42</v>
       </c>
       <c r="Y24" s="0">
-        <v>6.25</v>
+        <v>6.6</v>
       </c>
       <c r="Z24" s="0">
-        <v>7.4</v>
+        <v>7.45</v>
       </c>
       <c r="AA24" s="0">
-        <v>-1.332</v>
+        <v>-1.826</v>
       </c>
       <c r="AB24" s="0">
-        <v>-1.261</v>
+        <v>-3.591</v>
       </c>
       <c r="AC24" s="0">
-        <v>3.5</v>
+        <v>3.98</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AE24" s="0">
-        <v>13.2</v>
+        <v>13.11</v>
       </c>
       <c r="AF24" s="0">
-        <v>-0.89</v>
+        <v>-0.98</v>
       </c>
       <c r="AG24" s="0">
         <v>0.04</v>
       </c>
       <c r="AH24" s="0">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3952,13 +3952,13 @@
         <v>536.5</v>
       </c>
       <c r="O25" s="0">
-        <v>103.6</v>
+        <v>103.12</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.96257</v>
+        <v>0.98507</v>
       </c>
       <c r="R25" s="0">
         <v>0.93965</v>
@@ -3967,49 +3967,49 @@
         <v>0</v>
       </c>
       <c r="T25" s="0">
-        <v>-145</v>
+        <v>-47</v>
       </c>
       <c r="U25" s="0">
-        <v>-30</v>
+        <v>68</v>
       </c>
       <c r="V25" s="0">
-        <v>-117</v>
+        <v>-17</v>
       </c>
       <c r="W25" s="0">
-        <v>-19</v>
+        <v>81</v>
       </c>
       <c r="X25" s="0">
-        <v>2.3</v>
+        <v>3.12</v>
       </c>
       <c r="Y25" s="0">
-        <v>4.03</v>
+        <v>5.03</v>
       </c>
       <c r="Z25" s="0">
-        <v>7.79</v>
+        <v>7.83</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.155</v>
+        <v>-0.309</v>
       </c>
       <c r="AB25" s="0">
-        <v>0.118</v>
+        <v>-0.895</v>
       </c>
       <c r="AC25" s="0">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="AE25" s="0">
-        <v>12.53</v>
+        <v>12.45</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.43</v>
+        <v>-0.84</v>
       </c>
       <c r="AG25" s="0">
         <v>0.01</v>
       </c>
       <c r="AH25" s="0">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -4059,13 +4059,13 @@
         <v>306.8</v>
       </c>
       <c r="O26" s="0">
-        <v>118.2</v>
+        <v>117.6</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.62802</v>
+        <v>0.64242</v>
       </c>
       <c r="R26" s="0">
         <v>0.62087</v>
@@ -4080,31 +4080,31 @@
         <v>-10</v>
       </c>
       <c r="Z26" s="0">
-        <v>6.92</v>
+        <v>6.96</v>
       </c>
       <c r="AA26" s="0">
-        <v>-1.104</v>
+        <v>-1.606</v>
       </c>
       <c r="AB26" s="0">
-        <v>-1.163</v>
+        <v>-2.006</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.87</v>
+        <v>0.58</v>
       </c>
       <c r="AE26" s="0">
-        <v>14.15</v>
+        <v>14.05</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="0">
         <v>0.01</v>
       </c>
       <c r="AH26" s="0">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -4154,13 +4154,13 @@
         <v>260</v>
       </c>
       <c r="O27" s="0">
-        <v>78.36</v>
+        <v>74.2</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.35283</v>
+        <v>0.34351</v>
       </c>
       <c r="R27" s="0">
         <v>0.35289</v>
@@ -4169,43 +4169,43 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>602</v>
+        <v>688</v>
       </c>
       <c r="U27" s="0">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="V27" s="0">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="W27" s="0">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="X27" s="0">
-        <v>11.67</v>
+        <v>12.23</v>
       </c>
       <c r="Y27" s="0">
-        <v>18.76</v>
+        <v>21.46</v>
       </c>
       <c r="Z27" s="0">
-        <v>18.76</v>
+        <v>21.46</v>
       </c>
       <c r="AA27" s="0">
-        <v>-2.246</v>
+        <v>-7.435</v>
       </c>
       <c r="AB27" s="0">
-        <v>-2.054</v>
+        <v>-8.576</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.22</v>
+        <v>-0.28</v>
       </c>
       <c r="AD27" s="0">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AE27" s="0">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.37</v>
+        <v>-0.46</v>
       </c>
       <c r="AG27" s="0">
         <v>0.06</v>
@@ -4261,13 +4261,13 @@
         <v>325</v>
       </c>
       <c r="O28" s="0">
-        <v>85.04</v>
+        <v>80.08</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.47864</v>
+        <v>0.46341</v>
       </c>
       <c r="R28" s="0">
         <v>0.49152</v>
@@ -4276,43 +4276,43 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>640</v>
+        <v>731</v>
       </c>
       <c r="U28" s="0">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="V28" s="0">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="W28" s="0">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="X28" s="0">
-        <v>12.18</v>
+        <v>12.89</v>
       </c>
       <c r="Y28" s="0">
-        <v>24.71</v>
+        <v>31.78</v>
       </c>
       <c r="Z28" s="0">
-        <v>24.71</v>
+        <v>31.78</v>
       </c>
       <c r="AA28" s="0">
-        <v>-4.792</v>
+        <v>-10.345</v>
       </c>
       <c r="AB28" s="0">
-        <v>-4.755</v>
+        <v>-10.758</v>
       </c>
       <c r="AC28" s="0">
-        <v>-0.51</v>
+        <v>-1.04</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="AF28" s="0">
-        <v>-0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="AG28" s="0">
         <v>0.01</v>
@@ -4368,13 +4368,13 @@
         <v>1437.5</v>
       </c>
       <c r="O29" s="0">
-        <v>45.66</v>
+        <v>43.79</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.13683</v>
+        <v>1.12071</v>
       </c>
       <c r="R29" s="0">
         <v>1.07726</v>
@@ -4383,28 +4383,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>11.7</v>
+        <v>12.22</v>
       </c>
       <c r="Z29" s="0">
-        <v>11.7</v>
+        <v>12.22</v>
       </c>
       <c r="AA29" s="0">
-        <v>3.176</v>
+        <v>-1.071</v>
       </c>
       <c r="AC29" s="0">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="AD29" s="0">
-        <v>8.41</v>
+        <v>8.03</v>
       </c>
       <c r="AE29" s="0">
-        <v>8.41</v>
+        <v>8.03</v>
       </c>
       <c r="AG29" s="0">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AH29" s="0">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4454,13 +4454,13 @@
         <v>280</v>
       </c>
       <c r="O30" s="0">
-        <v>95.8</v>
+        <v>93.68</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.46454</v>
+        <v>0.46705</v>
       </c>
       <c r="R30" s="0">
         <v>0.46575</v>
@@ -4469,49 +4469,49 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="U30" s="0">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="V30" s="0">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="W30" s="0">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="X30" s="0">
-        <v>4.09</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="AA30" s="0">
-        <v>-2.484</v>
+        <v>-4.642</v>
       </c>
       <c r="AB30" s="0">
-        <v>-2.504</v>
+        <v>-6.509</v>
       </c>
       <c r="AC30" s="0">
-        <v>5.45</v>
+        <v>6.49</v>
       </c>
       <c r="AD30" s="0">
-        <v>15.29</v>
+        <v>14.97</v>
       </c>
       <c r="AE30" s="0">
-        <v>15.29</v>
+        <v>14.97</v>
       </c>
       <c r="AF30" s="0">
-        <v>-1.9</v>
+        <v>-1.63</v>
       </c>
       <c r="AG30" s="0">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AH30" s="0">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>56</v>
@@ -4561,13 +4561,13 @@
         <v>630</v>
       </c>
       <c r="O31" s="0">
-        <v>94.68</v>
+        <v>93.52</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1.033</v>
+        <v>1.04906</v>
       </c>
       <c r="R31" s="0">
         <v>1.04282</v>
@@ -4576,49 +4576,49 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="U31" s="0">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="V31" s="0">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="W31" s="0">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="X31" s="0">
-        <v>4.2</v>
+        <v>4.57</v>
       </c>
       <c r="Y31" s="0">
-        <v>6.27</v>
+        <v>6.36</v>
       </c>
       <c r="Z31" s="0">
-        <v>6.27</v>
+        <v>6.36</v>
       </c>
       <c r="AA31" s="0">
-        <v>-3.151</v>
+        <v>-4.337</v>
       </c>
       <c r="AB31" s="0">
-        <v>-3.159</v>
+        <v>-6.305</v>
       </c>
       <c r="AC31" s="0">
-        <v>5.77</v>
+        <v>6.45</v>
       </c>
       <c r="AD31" s="0">
-        <v>15.37</v>
+        <v>15.18</v>
       </c>
       <c r="AE31" s="0">
-        <v>15.37</v>
+        <v>15.18</v>
       </c>
       <c r="AF31" s="0">
-        <v>-1.65</v>
+        <v>-1.45</v>
       </c>
       <c r="AG31" s="0">
-        <v>4.42</v>
+        <v>4.33</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.42</v>
+        <v>4.33</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>56</v>
@@ -4668,13 +4668,13 @@
         <v>977.5</v>
       </c>
       <c r="O32" s="0">
-        <v>69.16</v>
+        <v>67.12</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1.17078</v>
+        <v>1.16822</v>
       </c>
       <c r="R32" s="0">
         <v>1.24728</v>
@@ -4683,49 +4683,49 @@
         <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="U32" s="0">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="V32" s="0">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="W32" s="0">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="X32" s="0">
-        <v>9.65</v>
+        <v>10</v>
       </c>
       <c r="Y32" s="0">
-        <v>9.72</v>
+        <v>10.03</v>
       </c>
       <c r="Z32" s="0">
-        <v>9.72</v>
+        <v>10.03</v>
       </c>
       <c r="AA32" s="0">
-        <v>-8.227</v>
+        <v>-10.934</v>
       </c>
       <c r="AB32" s="0">
-        <v>-8.409</v>
+        <v>-14.231</v>
       </c>
       <c r="AC32" s="0">
-        <v>9.71</v>
+        <v>9.67</v>
       </c>
       <c r="AD32" s="0">
-        <v>10.15</v>
+        <v>9.88</v>
       </c>
       <c r="AE32" s="0">
-        <v>10.15</v>
+        <v>9.88</v>
       </c>
       <c r="AF32" s="0">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AG32" s="0">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AH32" s="0">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>62</v>
@@ -4775,58 +4775,58 @@
         <v>660</v>
       </c>
       <c r="O33" s="0">
-        <v>72.48</v>
+        <v>69.72</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.82845</v>
+        <v>0.81933</v>
       </c>
       <c r="R33" s="0">
         <v>0.87032</v>
       </c>
       <c r="S33" s="0">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T33" s="0">
-        <v>572</v>
+        <v>621</v>
       </c>
       <c r="U33" s="0">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="V33" s="0">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="W33" s="0">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="X33" s="0">
-        <v>9.7</v>
+        <v>9.9</v>
       </c>
       <c r="Y33" s="0">
-        <v>9.8</v>
+        <v>9.96</v>
       </c>
       <c r="Z33" s="0">
-        <v>9.8</v>
+        <v>9.96</v>
       </c>
       <c r="AA33" s="0">
-        <v>-6.934</v>
+        <v>-8.311</v>
       </c>
       <c r="AB33" s="0">
-        <v>-7.102</v>
+        <v>-11.504</v>
       </c>
       <c r="AC33" s="0">
-        <v>9.32</v>
+        <v>9.58</v>
       </c>
       <c r="AD33" s="0">
-        <v>9.86</v>
+        <v>9.94</v>
       </c>
       <c r="AE33" s="0">
-        <v>9.86</v>
+        <v>9.94</v>
       </c>
       <c r="AF33" s="0">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AG33" s="0">
         <v>1.86</v>
@@ -4882,13 +4882,13 @@
         <v>292.3</v>
       </c>
       <c r="O34" s="0">
-        <v>83.84</v>
+        <v>76.16</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.42441</v>
+        <v>0.39638</v>
       </c>
       <c r="R34" s="0">
         <v>0.42524</v>
@@ -4897,49 +4897,49 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>425</v>
+        <v>579</v>
       </c>
       <c r="U34" s="0">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="V34" s="0">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="W34" s="0">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="X34" s="0">
-        <v>8.2</v>
+        <v>9.48</v>
       </c>
       <c r="Y34" s="0">
-        <v>8.7</v>
+        <v>9.61</v>
       </c>
       <c r="Z34" s="0">
-        <v>8.7</v>
+        <v>9.61</v>
       </c>
       <c r="AA34" s="0">
-        <v>-2.421</v>
+        <v>-11.359</v>
       </c>
       <c r="AB34" s="0">
-        <v>-2.53</v>
+        <v>-14.385</v>
       </c>
       <c r="AC34" s="0">
-        <v>8.45</v>
+        <v>9.26</v>
       </c>
       <c r="AD34" s="0">
-        <v>11.22</v>
+        <v>10.13</v>
       </c>
       <c r="AE34" s="0">
-        <v>11.22</v>
+        <v>10.13</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.12</v>
+        <v>1.14</v>
       </c>
       <c r="AG34" s="0">
-        <v>2.61</v>
+        <v>2.13</v>
       </c>
       <c r="AH34" s="0">
-        <v>2.61</v>
+        <v>2.13</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4989,13 +4989,13 @@
         <v>324.7</v>
       </c>
       <c r="O35" s="0">
-        <v>83.2</v>
+        <v>77.73</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.46785</v>
+        <v>0.4494</v>
       </c>
       <c r="R35" s="0">
         <v>0.47281</v>
@@ -5004,49 +5004,49 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="U35" s="0">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="V35" s="0">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="W35" s="0">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="X35" s="0">
-        <v>8.35</v>
+        <v>9.27</v>
       </c>
       <c r="Y35" s="0">
-        <v>8.8</v>
+        <v>9.45</v>
       </c>
       <c r="Z35" s="0">
-        <v>8.8</v>
+        <v>9.45</v>
       </c>
       <c r="AA35" s="0">
-        <v>-3.256</v>
+        <v>-9.614</v>
       </c>
       <c r="AB35" s="0">
-        <v>-3.364</v>
+        <v>-12.633</v>
       </c>
       <c r="AC35" s="0">
-        <v>8.53</v>
+        <v>9.17</v>
       </c>
       <c r="AD35" s="0">
-        <v>11.09</v>
+        <v>10.31</v>
       </c>
       <c r="AE35" s="0">
-        <v>11.09</v>
+        <v>10.31</v>
       </c>
       <c r="AF35" s="0">
-        <v>0.26</v>
+        <v>1.04</v>
       </c>
       <c r="AG35" s="0">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AH35" s="0">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="AI35" s="0" t="s">
         <v>47</v>
@@ -5096,13 +5096,13 @@
         <v>350</v>
       </c>
       <c r="O36" s="0">
-        <v>52.8</v>
+        <v>51.44</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.32004</v>
+        <v>0.32057</v>
       </c>
       <c r="R36" s="0">
         <v>0.29441</v>
@@ -5111,49 +5111,49 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>808</v>
+        <v>875</v>
       </c>
       <c r="U36" s="0">
-        <v>-70</v>
+        <v>-3</v>
       </c>
       <c r="V36" s="0">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="W36" s="0">
-        <v>-19</v>
+        <v>7</v>
       </c>
       <c r="X36" s="0">
-        <v>12.19</v>
+        <v>12.52</v>
       </c>
       <c r="Y36" s="0">
-        <v>12.19</v>
+        <v>12.52</v>
       </c>
       <c r="Z36" s="0">
-        <v>12.19</v>
+        <v>12.52</v>
       </c>
       <c r="AA36" s="0">
-        <v>6.28</v>
+        <v>3.543</v>
       </c>
       <c r="AB36" s="0">
-        <v>6.144</v>
+        <v>0.555</v>
       </c>
       <c r="AC36" s="0">
-        <v>8.4</v>
+        <v>8.26</v>
       </c>
       <c r="AD36" s="0">
-        <v>8.3</v>
+        <v>8.14</v>
       </c>
       <c r="AE36" s="0">
-        <v>8.3</v>
+        <v>8.14</v>
       </c>
       <c r="AF36" s="0">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AG36" s="0">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AH36" s="0">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>62</v>
@@ -5203,64 +5203,64 @@
         <v>250</v>
       </c>
       <c r="O37" s="0">
-        <v>56.4</v>
+        <v>54.14</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.24419</v>
+        <v>0.241</v>
       </c>
       <c r="R37" s="0">
         <v>0.22689</v>
       </c>
       <c r="S37" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>786</v>
+        <v>869</v>
       </c>
       <c r="U37" s="0">
-        <v>-57</v>
+        <v>26</v>
       </c>
       <c r="V37" s="0">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="W37" s="0">
-        <v>-14</v>
+        <v>15</v>
       </c>
       <c r="X37" s="0">
-        <v>11.98</v>
+        <v>12.48</v>
       </c>
       <c r="Y37" s="0">
-        <v>11.97</v>
+        <v>12.48</v>
       </c>
       <c r="Z37" s="0">
-        <v>11.97</v>
+        <v>12.48</v>
       </c>
       <c r="AA37" s="0">
-        <v>5.224</v>
+        <v>1.007</v>
       </c>
       <c r="AB37" s="0">
-        <v>5.087</v>
+        <v>-1.978</v>
       </c>
       <c r="AC37" s="0">
-        <v>8.53</v>
+        <v>8.27</v>
       </c>
       <c r="AD37" s="0">
-        <v>8.45</v>
+        <v>8.17</v>
       </c>
       <c r="AE37" s="0">
-        <v>8.45</v>
+        <v>8.17</v>
       </c>
       <c r="AF37" s="0">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AG37" s="0">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AH37" s="0">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AI37" s="0" t="s">
         <v>62</v>
@@ -5310,13 +5310,13 @@
         <v>345</v>
       </c>
       <c r="O38" s="0">
-        <v>87.16</v>
+        <v>85.28</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.52076</v>
+        <v>0.52387</v>
       </c>
       <c r="R38" s="0">
         <v>0.52223</v>
@@ -5325,49 +5325,49 @@
         <v>0</v>
       </c>
       <c r="T38" s="0">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="U38" s="0">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="V38" s="0">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="W38" s="0">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="X38" s="0">
-        <v>4.96</v>
+        <v>5.34</v>
       </c>
       <c r="Y38" s="0">
-        <v>6.05</v>
+        <v>6.19</v>
       </c>
       <c r="Z38" s="0">
-        <v>6.05</v>
+        <v>6.19</v>
       </c>
       <c r="AA38" s="0">
-        <v>-2.506</v>
+        <v>-4.609</v>
       </c>
       <c r="AB38" s="0">
-        <v>-2.628</v>
+        <v>-7.693</v>
       </c>
       <c r="AC38" s="0">
-        <v>9.01</v>
+        <v>9.68</v>
       </c>
       <c r="AD38" s="0">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="AE38" s="0">
-        <v>16.3</v>
+        <v>15.91</v>
       </c>
       <c r="AF38" s="0">
-        <v>-0.68</v>
+        <v>0.05</v>
       </c>
       <c r="AG38" s="0">
-        <v>5.43</v>
+        <v>5.18</v>
       </c>
       <c r="AH38" s="0">
-        <v>5.43</v>
+        <v>5.18</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5417,13 +5417,13 @@
         <v>280</v>
       </c>
       <c r="O39" s="0">
-        <v>77.48</v>
+        <v>75.52</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.37571</v>
+        <v>0.37651</v>
       </c>
       <c r="R39" s="0">
         <v>0.38383</v>
@@ -5432,49 +5432,49 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="U39" s="0">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="V39" s="0">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="W39" s="0">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="X39" s="0">
-        <v>5.08</v>
+        <v>5.38</v>
       </c>
       <c r="Y39" s="0">
-        <v>5.76</v>
+        <v>5.91</v>
       </c>
       <c r="Z39" s="0">
-        <v>5.76</v>
+        <v>5.91</v>
       </c>
       <c r="AA39" s="0">
-        <v>-4.298</v>
+        <v>-6.719</v>
       </c>
       <c r="AB39" s="0">
-        <v>-4.544</v>
+        <v>-10.478</v>
       </c>
       <c r="AC39" s="0">
-        <v>12.02</v>
+        <v>12.42</v>
       </c>
       <c r="AD39" s="0">
-        <v>17.05</v>
+        <v>16.66</v>
       </c>
       <c r="AE39" s="0">
-        <v>17.05</v>
+        <v>16.66</v>
       </c>
       <c r="AF39" s="0">
-        <v>0.92</v>
+        <v>1.58</v>
       </c>
       <c r="AG39" s="0">
-        <v>5.41</v>
+        <v>5.21</v>
       </c>
       <c r="AH39" s="0">
-        <v>5.41</v>
+        <v>5.21</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>56</v>
@@ -5524,13 +5524,13 @@
         <v>400</v>
       </c>
       <c r="O40" s="0">
-        <v>92.56</v>
+        <v>91.16</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.64119</v>
+        <v>0.64926</v>
       </c>
       <c r="R40" s="0">
         <v>0.64856</v>
@@ -5539,49 +5539,49 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="U40" s="0">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="V40" s="0">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="W40" s="0">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="X40" s="0">
-        <v>3.86</v>
+        <v>4.24</v>
       </c>
       <c r="Y40" s="0">
-        <v>5.74</v>
+        <v>5.84</v>
       </c>
       <c r="Z40" s="0">
-        <v>5.74</v>
+        <v>5.84</v>
       </c>
       <c r="AA40" s="0">
-        <v>-3.342</v>
+        <v>-4.804</v>
       </c>
       <c r="AB40" s="0">
-        <v>-3.385</v>
+        <v>-7.038</v>
       </c>
       <c r="AC40" s="0">
-        <v>6.86</v>
+        <v>7.47</v>
       </c>
       <c r="AD40" s="0">
-        <v>16.63</v>
+        <v>16.41</v>
       </c>
       <c r="AE40" s="0">
-        <v>16.63</v>
+        <v>16.41</v>
       </c>
       <c r="AF40" s="0">
-        <v>-1.64</v>
+        <v>-1.36</v>
       </c>
       <c r="AG40" s="0">
-        <v>5.05</v>
+        <v>4.94</v>
       </c>
       <c r="AH40" s="0">
-        <v>5.05</v>
+        <v>4.94</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>56</v>
@@ -5631,64 +5631,64 @@
         <v>500</v>
       </c>
       <c r="O41" s="0">
-        <v>98.72</v>
+        <v>96.6</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.85483</v>
+        <v>0.86001</v>
       </c>
       <c r="R41" s="0">
         <v>0.85168</v>
       </c>
       <c r="S41" s="0">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="T41" s="0">
-        <v>-83</v>
+        <v>-32</v>
       </c>
       <c r="U41" s="0">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="V41" s="0">
-        <v>-23</v>
+        <v>25</v>
       </c>
       <c r="W41" s="0">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="X41" s="0">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="Y41" s="0">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="Z41" s="0">
-        <v>5.82</v>
+        <v>5.87</v>
       </c>
       <c r="AA41" s="0">
-        <v>-1.869</v>
+        <v>-2.578</v>
       </c>
       <c r="AB41" s="0">
-        <v>-1.891</v>
+        <v>-3.964</v>
       </c>
       <c r="AC41" s="0">
-        <v>4.12</v>
+        <v>4.66</v>
       </c>
       <c r="AD41" s="0">
-        <v>16.17</v>
+        <v>16.28</v>
       </c>
       <c r="AE41" s="0">
-        <v>16.17</v>
+        <v>16.28</v>
       </c>
       <c r="AF41" s="0">
-        <v>-2.1</v>
+        <v>-2.18</v>
       </c>
       <c r="AG41" s="0">
-        <v>4.86</v>
+        <v>4.87</v>
       </c>
       <c r="AH41" s="0">
-        <v>4.86</v>
+        <v>4.87</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>56</v>
@@ -5738,13 +5738,13 @@
         <v>1000</v>
       </c>
       <c r="O42" s="0">
-        <v>97.99</v>
+        <v>97.64</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.69698</v>
+        <v>1.73854</v>
       </c>
       <c r="R42" s="0">
         <v>1.702</v>
@@ -5753,49 +5753,49 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>-76</v>
+        <v>-33</v>
       </c>
       <c r="U42" s="0">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="V42" s="0">
-        <v>-31</v>
+        <v>15</v>
       </c>
       <c r="W42" s="0">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="X42" s="0">
-        <v>3.02</v>
+        <v>3.26</v>
       </c>
       <c r="Y42" s="0">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="Z42" s="0">
-        <v>5.91</v>
+        <v>5.93</v>
       </c>
       <c r="AA42" s="0">
-        <v>-2.519</v>
+        <v>-2.865</v>
       </c>
       <c r="AB42" s="0">
-        <v>-2.494</v>
+        <v>-4.585</v>
       </c>
       <c r="AC42" s="0">
-        <v>4.57</v>
+        <v>5.02</v>
       </c>
       <c r="AD42" s="0">
-        <v>16.83</v>
+        <v>16.74</v>
       </c>
       <c r="AE42" s="0">
-        <v>16.83</v>
+        <v>16.74</v>
       </c>
       <c r="AF42" s="0">
-        <v>-1.59</v>
+        <v>-1.55</v>
       </c>
       <c r="AG42" s="0">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="AH42" s="0">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5845,64 +5845,64 @@
         <v>475</v>
       </c>
       <c r="O43" s="0">
-        <v>79.96</v>
+        <v>77.92</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.65776</v>
+        <v>0.65902</v>
       </c>
       <c r="R43" s="0">
         <v>0.64792</v>
       </c>
       <c r="S43" s="0">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T43" s="0">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="U43" s="0">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="V43" s="0">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="W43" s="0">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="X43" s="0">
-        <v>5.79</v>
+        <v>5.96</v>
       </c>
       <c r="Y43" s="0">
-        <v>6.4</v>
+        <v>6.47</v>
       </c>
       <c r="Z43" s="0">
-        <v>6.4</v>
+        <v>6.47</v>
       </c>
       <c r="AA43" s="0">
-        <v>-0.745</v>
+        <v>-1.725</v>
       </c>
       <c r="AB43" s="0">
-        <v>-0.966</v>
+        <v>-5.259</v>
       </c>
       <c r="AC43" s="0">
-        <v>10.77</v>
+        <v>11.24</v>
       </c>
       <c r="AD43" s="0">
-        <v>15.28</v>
+        <v>15.34</v>
       </c>
       <c r="AE43" s="0">
-        <v>15.28</v>
+        <v>15.34</v>
       </c>
       <c r="AF43" s="0">
-        <v>0.41</v>
+        <v>0.87</v>
       </c>
       <c r="AG43" s="0">
-        <v>4.82</v>
+        <v>4.78</v>
       </c>
       <c r="AH43" s="0">
-        <v>4.82</v>
+        <v>4.78</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>56</v>
@@ -5952,49 +5952,49 @@
         <v>325</v>
       </c>
       <c r="O44" s="0">
-        <v>82.16</v>
+        <v>78</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.46243</v>
+        <v>0.45137</v>
       </c>
       <c r="R44" s="0">
         <v>0.44309</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T44" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="U44" s="0">
-        <v>-17</v>
+        <v>26</v>
       </c>
       <c r="V44" s="0">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="W44" s="0">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="X44" s="0">
-        <v>9.43</v>
+        <v>9.66</v>
       </c>
       <c r="Y44" s="0">
-        <v>14.86</v>
+        <v>16.57</v>
       </c>
       <c r="Z44" s="0">
-        <v>14.86</v>
+        <v>16.57</v>
       </c>
       <c r="AA44" s="0">
-        <v>2.037</v>
+        <v>-1.461</v>
       </c>
       <c r="AB44" s="0">
-        <v>2.233</v>
+        <v>-2.549</v>
       </c>
       <c r="AC44" s="0">
-        <v>0.37</v>
+        <v>-0.24</v>
       </c>
       <c r="AD44" s="0">
         <v>2.15</v>
@@ -6003,7 +6003,7 @@
         <v>2.15</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.45</v>
+        <v>-0.61</v>
       </c>
       <c r="AG44" s="0">
         <v>0.06</v>
@@ -6059,58 +6059,58 @@
         <v>300</v>
       </c>
       <c r="O45" s="0">
-        <v>92.72</v>
+        <v>88.28</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.48172</v>
+        <v>0.47156</v>
       </c>
       <c r="R45" s="0">
         <v>0.46732</v>
       </c>
       <c r="S45" s="0">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T45" s="0">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="U45" s="0">
-        <v>-10</v>
+        <v>49</v>
       </c>
       <c r="V45" s="0">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="W45" s="0">
-        <v>-4</v>
+        <v>30</v>
       </c>
       <c r="X45" s="0">
-        <v>8.5</v>
+        <v>8.91</v>
       </c>
       <c r="Y45" s="0">
-        <v>8.81</v>
+        <v>10.14</v>
       </c>
       <c r="Z45" s="0">
-        <v>8.81</v>
+        <v>10.14</v>
       </c>
       <c r="AA45" s="0">
-        <v>0.783</v>
+        <v>-2.562</v>
       </c>
       <c r="AB45" s="0">
-        <v>0.946</v>
+        <v>-4.218</v>
       </c>
       <c r="AC45" s="0">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="AD45" s="0">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AE45" s="0">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
       <c r="AF45" s="0">
-        <v>-0.06</v>
+        <v>-0.21</v>
       </c>
       <c r="AG45" s="0">
         <v>0.09</v>
@@ -6166,58 +6166,58 @@
         <v>275</v>
       </c>
       <c r="O46" s="0">
-        <v>89.16</v>
+        <v>83.12</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.42463</v>
+        <v>0.407</v>
       </c>
       <c r="R46" s="0">
         <v>0.43434</v>
       </c>
       <c r="S46" s="0">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T46" s="0">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="U46" s="0">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="V46" s="0">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="W46" s="0">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="X46" s="0">
-        <v>8.9</v>
+        <v>9.31</v>
       </c>
       <c r="Y46" s="0">
-        <v>19.74</v>
+        <v>26.12</v>
       </c>
       <c r="Z46" s="0">
-        <v>19.74</v>
+        <v>26.12</v>
       </c>
       <c r="AA46" s="0">
-        <v>-4.417</v>
+        <v>-9.351</v>
       </c>
       <c r="AB46" s="0">
-        <v>-4.387</v>
+        <v>-9.747</v>
       </c>
       <c r="AC46" s="0">
-        <v>-0.61</v>
+        <v>-1.41</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.38</v>
+        <v>-0.57</v>
       </c>
       <c r="AG46" s="0">
         <v>0.01</v>
@@ -6273,13 +6273,13 @@
         <v>600</v>
       </c>
       <c r="O47" s="0">
-        <v>100.16</v>
+        <v>100.92</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1.04076</v>
+        <v>1.07816</v>
       </c>
       <c r="R47" s="0">
         <v>1.01795</v>
@@ -6288,43 +6288,43 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="U47" s="0">
-        <v>6</v>
+        <v>-267</v>
       </c>
       <c r="V47" s="0">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="W47" s="0">
-        <v>7</v>
+        <v>-342</v>
       </c>
       <c r="X47" s="0">
-        <v>8.07</v>
+        <v>7.88</v>
       </c>
       <c r="Y47" s="0">
-        <v>15.17</v>
+        <v>7.88</v>
       </c>
       <c r="Z47" s="0">
-        <v>15.17</v>
+        <v>7.88</v>
       </c>
       <c r="AA47" s="0">
-        <v>-0.04</v>
+        <v>0.719</v>
       </c>
       <c r="AB47" s="0">
-        <v>-0.145</v>
+        <v>0.543</v>
       </c>
       <c r="AC47" s="0">
-        <v>-0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AD47" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AE47" s="0">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF47" s="0">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="0">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>450</v>
       </c>
       <c r="O48" s="0">
-        <v>97.2</v>
+        <v>94.28</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.7575</v>
+        <v>0.75542</v>
       </c>
       <c r="R48" s="0">
         <v>0.74243</v>
@@ -6395,43 +6395,43 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="U48" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="V48" s="0">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="W48" s="0">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="X48" s="0">
-        <v>9.86</v>
+        <v>9.97</v>
       </c>
       <c r="Y48" s="0">
-        <v>27.59</v>
+        <v>51.15</v>
       </c>
       <c r="Z48" s="0">
-        <v>27.59</v>
+        <v>51.15</v>
       </c>
       <c r="AA48" s="0">
-        <v>-0.246</v>
+        <v>-3.243</v>
       </c>
       <c r="AB48" s="0">
-        <v>-0.338</v>
+        <v>-3.325</v>
       </c>
       <c r="AC48" s="0">
-        <v>-0.48</v>
+        <v>-0.83</v>
       </c>
       <c r="AD48" s="0">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="AE48" s="0">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.17</v>
+        <v>-0.22</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -6487,13 +6487,13 @@
         <v>800</v>
       </c>
       <c r="O49" s="0">
-        <v>97.08</v>
+        <v>92.72</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1.345</v>
+        <v>1.32075</v>
       </c>
       <c r="R49" s="0">
         <v>1.31825</v>
@@ -6502,43 +6502,43 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="U49" s="0">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="V49" s="0">
-        <v>493</v>
+        <v>533</v>
       </c>
       <c r="W49" s="0">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="X49" s="0">
-        <v>10.08</v>
+        <v>10.6</v>
       </c>
       <c r="Y49" s="0">
-        <v>10.89</v>
+        <v>15.36</v>
       </c>
       <c r="Z49" s="0">
-        <v>10.89</v>
+        <v>15.36</v>
       </c>
       <c r="AA49" s="0">
-        <v>-0.247</v>
+        <v>-4.727</v>
       </c>
       <c r="AB49" s="0">
-        <v>-0.215</v>
+        <v>-5.47</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="AD49" s="0">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AE49" s="0">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.06</v>
+        <v>-0.19</v>
       </c>
       <c r="AG49" s="0">
         <v>0.02</v>
@@ -6594,13 +6594,13 @@
         <v>445</v>
       </c>
       <c r="O50" s="0">
-        <v>96.88</v>
+        <v>92.56</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.74662</v>
+        <v>0.7334</v>
       </c>
       <c r="R50" s="0">
         <v>0.73237</v>
@@ -6609,43 +6609,43 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="U50" s="0">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="V50" s="0">
-        <v>472</v>
+        <v>497</v>
       </c>
       <c r="W50" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="X50" s="0">
-        <v>9.99</v>
+        <v>10.3</v>
       </c>
       <c r="Y50" s="0">
-        <v>16.91</v>
+        <v>29.67</v>
       </c>
       <c r="Z50" s="0">
-        <v>16.91</v>
+        <v>29.67</v>
       </c>
       <c r="AA50" s="0">
-        <v>-0.329</v>
+        <v>-4.774</v>
       </c>
       <c r="AB50" s="0">
-        <v>-0.386</v>
+        <v>-4.988</v>
       </c>
       <c r="AC50" s="0">
-        <v>-0.18</v>
+        <v>-0.7</v>
       </c>
       <c r="AD50" s="0">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AE50" s="0">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AF50" s="0">
-        <v>-0.16</v>
+        <v>-0.25</v>
       </c>
       <c r="AG50" s="0">
         <v>0</v>
@@ -6701,13 +6701,13 @@
         <v>410</v>
       </c>
       <c r="O51" s="0">
-        <v>85.24</v>
+        <v>85.59</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.60524</v>
+        <v>0.62484</v>
       </c>
       <c r="R51" s="0">
         <v>0.62062</v>
@@ -6716,49 +6716,49 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="U51" s="0">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="V51" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="W51" s="0">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="X51" s="0">
         <v>4.74</v>
       </c>
       <c r="Y51" s="0">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="Z51" s="0">
-        <v>5.86</v>
+        <v>5.84</v>
       </c>
       <c r="AA51" s="0">
-        <v>-4.653</v>
+        <v>-4.261</v>
       </c>
       <c r="AB51" s="0">
-        <v>-4.771</v>
+        <v>-7.298</v>
       </c>
       <c r="AC51" s="0">
-        <v>9.47</v>
+        <v>9.52</v>
       </c>
       <c r="AD51" s="0">
-        <v>15.96</v>
+        <v>15.99</v>
       </c>
       <c r="AE51" s="0">
-        <v>15.96</v>
+        <v>15.99</v>
       </c>
       <c r="AF51" s="0">
-        <v>-0.65</v>
+        <v>-0.54</v>
       </c>
       <c r="AG51" s="0">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="AH51" s="0">
-        <v>4.4</v>
+        <v>4.41</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>233</v>
@@ -6808,13 +6808,13 @@
         <v>270</v>
       </c>
       <c r="O52" s="0">
-        <v>84.32</v>
+        <v>84.48</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.39427</v>
+        <v>0.40614</v>
       </c>
       <c r="R52" s="0">
         <v>0.40889</v>
@@ -6823,43 +6823,43 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="U52" s="0">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="V52" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="W52" s="0">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="X52" s="0">
-        <v>4.88</v>
+        <v>4.92</v>
       </c>
       <c r="Y52" s="0">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="Z52" s="0">
-        <v>5.93</v>
+        <v>5.92</v>
       </c>
       <c r="AA52" s="0">
-        <v>-5.725</v>
+        <v>-5.546</v>
       </c>
       <c r="AB52" s="0">
-        <v>-5.841</v>
+        <v>-8.578</v>
       </c>
       <c r="AC52" s="0">
-        <v>9.7</v>
+        <v>9.83</v>
       </c>
       <c r="AD52" s="0">
-        <v>15.83</v>
+        <v>15.84</v>
       </c>
       <c r="AE52" s="0">
-        <v>15.83</v>
+        <v>15.84</v>
       </c>
       <c r="AF52" s="0">
-        <v>-0.4</v>
+        <v>-0.22</v>
       </c>
       <c r="AG52" s="0">
         <v>4.35</v>
@@ -6915,13 +6915,13 @@
         <v>260</v>
       </c>
       <c r="O53" s="0">
-        <v>87.76</v>
+        <v>88.28</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.39516</v>
+        <v>0.40869</v>
       </c>
       <c r="R53" s="0">
         <v>0.40202</v>
@@ -6930,49 +6930,49 @@
         <v>0</v>
       </c>
       <c r="T53" s="0">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="U53" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="V53" s="0">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="W53" s="0">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="X53" s="0">
-        <v>4.49</v>
+        <v>4.47</v>
       </c>
       <c r="Y53" s="0">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="Z53" s="0">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="AA53" s="0">
-        <v>-3.898</v>
+        <v>-3.329</v>
       </c>
       <c r="AB53" s="0">
-        <v>-4.002</v>
+        <v>-6.231</v>
       </c>
       <c r="AC53" s="0">
-        <v>8.91</v>
+        <v>8.9</v>
       </c>
       <c r="AD53" s="0">
-        <v>15.97</v>
+        <v>16.02</v>
       </c>
       <c r="AE53" s="0">
-        <v>15.97</v>
+        <v>16.02</v>
       </c>
       <c r="AF53" s="0">
-        <v>-0.88</v>
+        <v>-1.07</v>
       </c>
       <c r="AG53" s="0">
-        <v>4.43</v>
+        <v>4.46</v>
       </c>
       <c r="AH53" s="0">
-        <v>4.43</v>
+        <v>4.46</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>233</v>
@@ -7022,13 +7022,13 @@
         <v>800</v>
       </c>
       <c r="O54" s="0">
-        <v>93.2</v>
+        <v>89</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.29125</v>
+        <v>1.26776</v>
       </c>
       <c r="R54" s="0">
         <v>1.29658</v>
@@ -7037,49 +7037,49 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>96</v>
+        <v>211</v>
       </c>
       <c r="U54" s="0">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="V54" s="0">
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="W54" s="0">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="X54" s="0">
-        <v>4.82</v>
+        <v>5.76</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.55</v>
+        <v>6.89</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.55</v>
+        <v>6.89</v>
       </c>
       <c r="AA54" s="0">
-        <v>-2.633</v>
+        <v>-7.02</v>
       </c>
       <c r="AB54" s="0">
-        <v>-2.649</v>
+        <v>-9.515</v>
       </c>
       <c r="AC54" s="0">
-        <v>6.61</v>
+        <v>8.03</v>
       </c>
       <c r="AD54" s="0">
-        <v>13.87</v>
+        <v>13.41</v>
       </c>
       <c r="AE54" s="0">
-        <v>13.87</v>
+        <v>13.41</v>
       </c>
       <c r="AF54" s="0">
-        <v>-1</v>
+        <v>-0.6</v>
       </c>
       <c r="AG54" s="0">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="AH54" s="0">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>62</v>
@@ -7129,13 +7129,13 @@
         <v>750</v>
       </c>
       <c r="O55" s="0">
-        <v>95.2</v>
+        <v>89.64</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.23652</v>
+        <v>1.19707</v>
       </c>
       <c r="R55" s="0">
         <v>1.22926</v>
@@ -7144,49 +7144,49 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="U55" s="0">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="V55" s="0">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c r="W55" s="0">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="X55" s="0">
-        <v>4.55</v>
+        <v>5.89</v>
       </c>
       <c r="Y55" s="0">
-        <v>6.61</v>
+        <v>7.07</v>
       </c>
       <c r="Z55" s="0">
-        <v>6.61</v>
+        <v>7.07</v>
       </c>
       <c r="AA55" s="0">
-        <v>-1.653</v>
+        <v>-7.397</v>
       </c>
       <c r="AB55" s="0">
-        <v>-1.659</v>
+        <v>-9.584</v>
       </c>
       <c r="AC55" s="0">
-        <v>5.56</v>
+        <v>7.59</v>
       </c>
       <c r="AD55" s="0">
-        <v>13.67</v>
+        <v>13.09</v>
       </c>
       <c r="AE55" s="0">
-        <v>13.67</v>
+        <v>13.09</v>
       </c>
       <c r="AF55" s="0">
-        <v>-1.51</v>
+        <v>-0.75</v>
       </c>
       <c r="AG55" s="0">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="AH55" s="0">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>62</v>
@@ -7236,13 +7236,13 @@
         <v>600</v>
       </c>
       <c r="O56" s="0">
-        <v>94.68</v>
+        <v>90.68</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.98381</v>
+        <v>0.96877</v>
       </c>
       <c r="R56" s="0">
         <v>0.9956</v>
@@ -7251,49 +7251,49 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>169</v>
+        <v>267</v>
       </c>
       <c r="U56" s="0">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="V56" s="0">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="W56" s="0">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="X56" s="0">
-        <v>5.57</v>
+        <v>6.33</v>
       </c>
       <c r="Y56" s="0">
-        <v>6.99</v>
+        <v>7.32</v>
       </c>
       <c r="Z56" s="0">
-        <v>6.99</v>
+        <v>7.32</v>
       </c>
       <c r="AA56" s="0">
-        <v>-3.388</v>
+        <v>-7.469</v>
       </c>
       <c r="AB56" s="0">
-        <v>-3.436</v>
+        <v>-10.441</v>
       </c>
       <c r="AC56" s="0">
-        <v>7.88</v>
+        <v>8.63</v>
       </c>
       <c r="AD56" s="0">
-        <v>13.29</v>
+        <v>12.84</v>
       </c>
       <c r="AE56" s="0">
-        <v>13.29</v>
+        <v>12.84</v>
       </c>
       <c r="AF56" s="0">
-        <v>-0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AG56" s="0">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="AH56" s="0">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="AI56" s="0" t="s">
         <v>62</v>
@@ -7343,13 +7343,13 @@
         <v>258.2</v>
       </c>
       <c r="O57" s="0">
-        <v>78.28</v>
+        <v>75.4</v>
       </c>
       <c r="P57" s="0">
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.35003</v>
+        <v>0.34664</v>
       </c>
       <c r="R57" s="0">
         <v>0.36986</v>
@@ -7358,49 +7358,49 @@
         <v>0</v>
       </c>
       <c r="T57" s="0">
-        <v>566</v>
+        <v>645</v>
       </c>
       <c r="U57" s="0">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="V57" s="0">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="W57" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="X57" s="0">
-        <v>9.65</v>
+        <v>10.15</v>
       </c>
       <c r="Y57" s="0">
-        <v>9.84</v>
+        <v>10.24</v>
       </c>
       <c r="Z57" s="0">
-        <v>9.84</v>
+        <v>10.24</v>
       </c>
       <c r="AA57" s="0">
-        <v>-7.47</v>
+        <v>-10.875</v>
       </c>
       <c r="AB57" s="0">
-        <v>-7.583</v>
+        <v>-13.894</v>
       </c>
       <c r="AC57" s="0">
-        <v>8.76</v>
+        <v>8.92</v>
       </c>
       <c r="AD57" s="0">
-        <v>9.9</v>
+        <v>9.49</v>
       </c>
       <c r="AE57" s="0">
-        <v>9.9</v>
+        <v>9.49</v>
       </c>
       <c r="AF57" s="0">
-        <v>0.85</v>
+        <v>1.12</v>
       </c>
       <c r="AG57" s="0">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AH57" s="0">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="AI57" s="0" t="s">
         <v>47</v>
@@ -7450,13 +7450,13 @@
         <v>584.9</v>
       </c>
       <c r="O58" s="0">
-        <v>143.64</v>
+        <v>139.2</v>
       </c>
       <c r="P58" s="0">
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1.45499</v>
+        <v>1.4497</v>
       </c>
       <c r="R58" s="0">
         <v>1.32311</v>
@@ -7465,22 +7465,22 @@
         <v>0</v>
       </c>
       <c r="Y58" s="0">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>7.515</v>
+        <v>4.192</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
       </c>
       <c r="AD58" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -7536,43 +7536,43 @@
         <v>402.5</v>
       </c>
       <c r="O59" s="0">
-        <v>120.12</v>
+        <v>101.76</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.83731</v>
+        <v>0.72929</v>
       </c>
       <c r="R59" s="0">
         <v>0.76166</v>
       </c>
       <c r="S59" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>-0.5</v>
+        <v>6.1</v>
       </c>
       <c r="Z59" s="0">
-        <v>-0.5</v>
+        <v>6.1</v>
       </c>
       <c r="AA59" s="0">
-        <v>7.48</v>
+        <v>-8.948</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="AD59" s="0">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AE59" s="0">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="AG59" s="0">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AH59" s="0">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AI59" s="0" t="s">
         <v>47</v>
@@ -7622,13 +7622,13 @@
         <v>425</v>
       </c>
       <c r="O60" s="0">
-        <v>53.48</v>
+        <v>46.4</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.39363</v>
+        <v>0.35113</v>
       </c>
       <c r="R60" s="0">
         <v>0.40701</v>
@@ -7637,49 +7637,49 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>517</v>
+        <v>689</v>
       </c>
       <c r="U60" s="0">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="V60" s="0">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="W60" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="X60" s="0">
-        <v>9.14</v>
+        <v>10.6</v>
       </c>
       <c r="Y60" s="0">
-        <v>9.14</v>
+        <v>10.59</v>
       </c>
       <c r="Z60" s="0">
-        <v>9.14</v>
+        <v>10.59</v>
       </c>
       <c r="AA60" s="0">
-        <v>-5.446</v>
+        <v>-17.963</v>
       </c>
       <c r="AB60" s="0">
-        <v>-5.699</v>
+        <v>-21.505</v>
       </c>
       <c r="AC60" s="0">
-        <v>10.77</v>
+        <v>9.2</v>
       </c>
       <c r="AD60" s="0">
-        <v>10.63</v>
+        <v>9.12</v>
       </c>
       <c r="AE60" s="0">
-        <v>10.63</v>
+        <v>9.12</v>
       </c>
       <c r="AF60" s="0">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="AG60" s="0">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="AH60" s="0">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7729,13 +7729,13 @@
         <v>262.2</v>
       </c>
       <c r="O61" s="0">
-        <v>81.04</v>
+        <v>80.12</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.36799</v>
+        <v>0.37405</v>
       </c>
       <c r="R61" s="0">
         <v>0.38837</v>
@@ -7744,49 +7744,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="U61" s="0">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="V61" s="0">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="W61" s="0">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="X61" s="0">
-        <v>5.95</v>
+        <v>6.14</v>
       </c>
       <c r="Y61" s="0">
-        <v>6.6</v>
+        <v>6.68</v>
       </c>
       <c r="Z61" s="0">
-        <v>6.6</v>
+        <v>6.68</v>
       </c>
       <c r="AA61" s="0">
-        <v>-7.362</v>
+        <v>-8.413</v>
       </c>
       <c r="AB61" s="0">
-        <v>-7.502</v>
+        <v>-11.59</v>
       </c>
       <c r="AC61" s="0">
-        <v>10.32</v>
+        <v>10.65</v>
       </c>
       <c r="AD61" s="0">
-        <v>14.89</v>
+        <v>14.69</v>
       </c>
       <c r="AE61" s="0">
-        <v>14.89</v>
+        <v>14.69</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.2</v>
+        <v>0.57</v>
       </c>
       <c r="AG61" s="0">
-        <v>4.55</v>
+        <v>4.44</v>
       </c>
       <c r="AH61" s="0">
-        <v>4.55</v>
+        <v>4.44</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7836,13 +7836,13 @@
         <v>327.8</v>
       </c>
       <c r="O62" s="0">
-        <v>76.44</v>
+        <v>68.8</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.43394</v>
+        <v>0.40156</v>
       </c>
       <c r="R62" s="0">
         <v>0.45956</v>
@@ -7851,49 +7851,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>437</v>
+        <v>582</v>
       </c>
       <c r="U62" s="0">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c r="V62" s="0">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="W62" s="0">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="X62" s="0">
-        <v>8.32</v>
+        <v>9.51</v>
       </c>
       <c r="Y62" s="0">
-        <v>8.52</v>
+        <v>9.48</v>
       </c>
       <c r="Z62" s="0">
-        <v>8.52</v>
+        <v>9.48</v>
       </c>
       <c r="AA62" s="0">
-        <v>-7.681</v>
+        <v>-16.908</v>
       </c>
       <c r="AB62" s="0">
-        <v>-7.826</v>
+        <v>-20.162</v>
       </c>
       <c r="AC62" s="0">
-        <v>9.77</v>
+        <v>9.95</v>
       </c>
       <c r="AD62" s="0">
-        <v>11.7</v>
+        <v>10.51</v>
       </c>
       <c r="AE62" s="0">
-        <v>11.7</v>
+        <v>10.51</v>
       </c>
       <c r="AF62" s="0">
-        <v>0.97</v>
+        <v>1.79</v>
       </c>
       <c r="AG62" s="0">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="AH62" s="0">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7943,13 +7943,13 @@
         <v>275</v>
       </c>
       <c r="O63" s="0">
-        <v>76.6</v>
+        <v>71.8</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.36481</v>
+        <v>0.35157</v>
       </c>
       <c r="R63" s="0">
         <v>0.37194</v>
@@ -7958,43 +7958,43 @@
         <v>1.63</v>
       </c>
       <c r="T63" s="0">
-        <v>659</v>
+        <v>757</v>
       </c>
       <c r="U63" s="0">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="V63" s="0">
-        <v>583</v>
+        <v>611</v>
       </c>
       <c r="W63" s="0">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="X63" s="0">
-        <v>12.42</v>
+        <v>13.12</v>
       </c>
       <c r="Y63" s="0">
-        <v>21.05</v>
+        <v>24.95</v>
       </c>
       <c r="Z63" s="0">
-        <v>21.05</v>
+        <v>24.95</v>
       </c>
       <c r="AA63" s="0">
-        <v>-2.072</v>
+        <v>-8.081</v>
       </c>
       <c r="AB63" s="0">
-        <v>-1.918</v>
+        <v>-9.027</v>
       </c>
       <c r="AC63" s="0">
-        <v>-0.04</v>
+        <v>-0.6</v>
       </c>
       <c r="AD63" s="0">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AE63" s="0">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AF63" s="0">
-        <v>-0.35</v>
+        <v>-0.44</v>
       </c>
       <c r="AG63" s="0">
         <v>0.04</v>
@@ -8050,13 +8050,13 @@
         <v>608</v>
       </c>
       <c r="O64" s="0">
-        <v>288.64</v>
+        <v>271.04</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>3.03923</v>
+        <v>2.93423</v>
       </c>
       <c r="R64" s="0">
         <v>2.94797</v>
@@ -8071,7 +8071,7 @@
         <v>-10</v>
       </c>
       <c r="AA64" s="0">
-        <v>0.796</v>
+        <v>-5.35</v>
       </c>
       <c r="AC64" s="0">
         <v>0.02</v>
@@ -8136,13 +8136,13 @@
         <v>687.5</v>
       </c>
       <c r="O65" s="0">
-        <v>97.4</v>
+        <v>97</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1.15967</v>
+        <v>1.18741</v>
       </c>
       <c r="R65" s="0">
         <v>1.17292</v>
@@ -8151,49 +8151,49 @@
         <v>0</v>
       </c>
       <c r="T65" s="0">
-        <v>-63</v>
+        <v>-20</v>
       </c>
       <c r="U65" s="0">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="V65" s="0">
-        <v>-11</v>
+        <v>34</v>
       </c>
       <c r="W65" s="0">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="X65" s="0">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="Y65" s="0">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="Z65" s="0">
-        <v>5.86</v>
+        <v>5.89</v>
       </c>
       <c r="AA65" s="0">
-        <v>-3.335</v>
+        <v>-3.732</v>
       </c>
       <c r="AB65" s="0">
-        <v>-3.311</v>
+        <v>-5.451</v>
       </c>
       <c r="AC65" s="0">
-        <v>4.95</v>
+        <v>5.39</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.3</v>
+        <v>16.22</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.3</v>
+        <v>16.22</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.63</v>
+        <v>-1.73</v>
       </c>
       <c r="AG65" s="0">
-        <v>4.89</v>
+        <v>4.86</v>
       </c>
       <c r="AH65" s="0">
-        <v>4.89</v>
+        <v>4.86</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>56</v>
@@ -8243,13 +8243,13 @@
         <v>2000</v>
       </c>
       <c r="O66" s="0">
-        <v>94.97</v>
+        <v>94.45</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>3.28942</v>
+        <v>3.36348</v>
       </c>
       <c r="R66" s="0">
         <v>3.14088</v>
@@ -8258,22 +8258,22 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>18.24</v>
+        <v>20.01</v>
       </c>
       <c r="Z66" s="0">
-        <v>18.24</v>
+        <v>20.01</v>
       </c>
       <c r="AA66" s="0">
-        <v>2.394</v>
+        <v>1.833</v>
       </c>
       <c r="AC66" s="0">
         <v>0.01</v>
       </c>
       <c r="AD66" s="0">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AE66" s="0">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -8329,13 +8329,13 @@
         <v>2000</v>
       </c>
       <c r="O67" s="0">
-        <v>90.05</v>
+        <v>89.73</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>3.11901</v>
+        <v>3.19539</v>
       </c>
       <c r="R67" s="0">
         <v>3.14562</v>
@@ -8344,22 +8344,22 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>11.87</v>
+        <v>12.09</v>
       </c>
       <c r="Z67" s="0">
-        <v>11.87</v>
+        <v>12.09</v>
       </c>
       <c r="AA67" s="0">
-        <v>-3.057</v>
+        <v>-3.402</v>
       </c>
       <c r="AC67" s="0">
         <v>0.62</v>
       </c>
       <c r="AD67" s="0">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AE67" s="0">
-        <v>2.15</v>
+        <v>2.14</v>
       </c>
       <c r="AG67" s="0">
         <v>0.06</v>
@@ -8415,13 +8415,13 @@
         <v>314.6</v>
       </c>
       <c r="O68" s="0">
-        <v>97.04</v>
+        <v>90.8</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.5287</v>
+        <v>0.50863</v>
       </c>
       <c r="R68" s="0">
         <v>0.50924</v>
@@ -8451,10 +8451,10 @@
         <v>99.99</v>
       </c>
       <c r="AA68" s="0">
-        <v>1.506</v>
+        <v>-5.021</v>
       </c>
       <c r="AB68" s="0">
-        <v>1.254</v>
+        <v>-3.305</v>
       </c>
       <c r="AC68" s="0">
         <v>-4.56</v>
@@ -8522,13 +8522,13 @@
         <v>500</v>
       </c>
       <c r="O69" s="0">
-        <v>95.88</v>
+        <v>96.2</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.83023</v>
+        <v>0.85645</v>
       </c>
       <c r="R69" s="0">
         <v>0.85032</v>
@@ -8537,43 +8537,43 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="U69" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="V69" s="0">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="W69" s="0">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="X69" s="0">
-        <v>7.56</v>
+        <v>7.14</v>
       </c>
       <c r="Y69" s="0">
-        <v>10.89</v>
+        <v>10.66</v>
       </c>
       <c r="Z69" s="0">
-        <v>10.89</v>
+        <v>10.66</v>
       </c>
       <c r="AA69" s="0">
-        <v>-4.54</v>
+        <v>-4.221</v>
       </c>
       <c r="AB69" s="0">
-        <v>-4.526</v>
+        <v>-4.95</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="AD69" s="0">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AE69" s="0">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="AG69" s="0">
         <v>0.02</v>
@@ -8629,37 +8629,37 @@
         <v>862.5</v>
       </c>
       <c r="O70" s="0">
-        <v>105.11</v>
+        <v>102.57</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>1.57002</v>
+        <v>1.5752</v>
       </c>
       <c r="R70" s="0">
         <v>1.52361</v>
       </c>
       <c r="S70" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="0">
-        <v>0.94</v>
+        <v>4.5</v>
       </c>
       <c r="Z70" s="0">
-        <v>0.94</v>
+        <v>4.5</v>
       </c>
       <c r="AA70" s="0">
-        <v>0.748</v>
+        <v>-1.687</v>
       </c>
       <c r="AC70" s="0">
         <v>0.22</v>
       </c>
       <c r="AD70" s="0">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AE70" s="0">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AG70" s="0">
         <v>0.01</v>
@@ -8715,13 +8715,13 @@
         <v>425</v>
       </c>
       <c r="O71" s="0">
-        <v>93.4</v>
+        <v>90.44</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>0.68745</v>
+        <v>0.68439</v>
       </c>
       <c r="R71" s="0">
         <v>0.70925</v>
@@ -8751,10 +8751,10 @@
         <v>24.48</v>
       </c>
       <c r="AA71" s="0">
-        <v>-5.235</v>
+        <v>-8.239</v>
       </c>
       <c r="AB71" s="0">
-        <v>-5.336</v>
+        <v>-8.3</v>
       </c>
       <c r="AC71" s="0">
         <v>-0.5</v>
@@ -8822,13 +8822,13 @@
         <v>442.5</v>
       </c>
       <c r="O72" s="0">
-        <v>94.04</v>
+        <v>90.4</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>0.72066</v>
+        <v>0.71226</v>
       </c>
       <c r="R72" s="0">
         <v>0.73126</v>
@@ -8837,43 +8837,43 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>355</v>
+        <v>449</v>
       </c>
       <c r="U72" s="0">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="V72" s="0">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="W72" s="0">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="X72" s="0">
-        <v>8.72</v>
+        <v>9.53</v>
       </c>
       <c r="Y72" s="0">
-        <v>11.58</v>
+        <v>15.05</v>
       </c>
       <c r="Z72" s="0">
-        <v>11.58</v>
+        <v>15.05</v>
       </c>
       <c r="AA72" s="0">
-        <v>-3.648</v>
+        <v>-7.377</v>
       </c>
       <c r="AB72" s="0">
-        <v>-3.596</v>
+        <v>-8.246</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.55</v>
+        <v>0.01</v>
       </c>
       <c r="AD72" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AE72" s="0">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF72" s="0">
-        <v>-0.17</v>
+        <v>-0.25</v>
       </c>
       <c r="AG72" s="0">
         <v>0.02</v>
@@ -8929,13 +8929,13 @@
         <v>720</v>
       </c>
       <c r="O73" s="0">
-        <v>97.84</v>
+        <v>94.4</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>1.21998</v>
+        <v>1.21021</v>
       </c>
       <c r="R73" s="0">
         <v>1.22105</v>
@@ -8965,10 +8965,10 @@
         <v>41.35</v>
       </c>
       <c r="AA73" s="0">
-        <v>-2.316</v>
+        <v>-5.751</v>
       </c>
       <c r="AB73" s="0">
-        <v>-2.415</v>
+        <v>-5.746</v>
       </c>
       <c r="AC73" s="0">
         <v>-0.7</v>
@@ -9036,13 +9036,13 @@
         <v>402.5</v>
       </c>
       <c r="O74" s="0">
-        <v>103.44</v>
+        <v>101.44</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>0.72104</v>
+        <v>0.727</v>
       </c>
       <c r="R74" s="0">
         <v>0.70605</v>
@@ -9072,10 +9072,10 @@
         <v>0.02</v>
       </c>
       <c r="AA74" s="0">
-        <v>-0.154</v>
+        <v>-2.085</v>
       </c>
       <c r="AB74" s="0">
-        <v>-0.226</v>
+        <v>-2.438</v>
       </c>
       <c r="AC74" s="0">
         <v>0.35</v>
@@ -9143,13 +9143,13 @@
         <v>385</v>
       </c>
       <c r="O75" s="0">
-        <v>94.36</v>
+        <v>89.6</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>0.62915</v>
+        <v>0.61422</v>
       </c>
       <c r="R75" s="0">
         <v>0.63389</v>
@@ -9179,10 +9179,10 @@
         <v>10.93</v>
       </c>
       <c r="AA75" s="0">
-        <v>-2.962</v>
+        <v>-7.857</v>
       </c>
       <c r="AB75" s="0">
-        <v>-3.075</v>
+        <v>-7.821</v>
       </c>
       <c r="AC75" s="0">
         <v>-0.69</v>
@@ -9250,13 +9250,13 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>30.53</v>
+        <v>28.75</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>0.52879</v>
+        <v>0.512</v>
       </c>
       <c r="R76" s="0">
         <v>0.52851</v>
@@ -9271,16 +9271,16 @@
         <v>99.99</v>
       </c>
       <c r="AA76" s="0">
-        <v>-2.179</v>
+        <v>-7.878</v>
       </c>
       <c r="AC76" s="0">
         <v>0.13</v>
       </c>
       <c r="AD76" s="0">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AE76" s="0">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AG76" s="0">
         <v>0.01</v>
@@ -9336,13 +9336,13 @@
         <v>425</v>
       </c>
       <c r="O77" s="0">
-        <v>70.68</v>
+        <v>71.24</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>0.52022</v>
+        <v>0.5391</v>
       </c>
       <c r="R77" s="0">
         <v>0.53855</v>
@@ -9351,49 +9351,49 @@
         <v>0</v>
       </c>
       <c r="T77" s="0">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="U77" s="0">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="V77" s="0">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="W77" s="0">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="X77" s="0">
-        <v>10.25</v>
+        <v>10.18</v>
       </c>
       <c r="Y77" s="0">
-        <v>10.27</v>
+        <v>10.2</v>
       </c>
       <c r="Z77" s="0">
-        <v>10.27</v>
+        <v>10.2</v>
       </c>
       <c r="AA77" s="0">
-        <v>-5.559</v>
+        <v>-4.81</v>
       </c>
       <c r="AB77" s="0">
-        <v>-5.718</v>
+        <v>-8.032</v>
       </c>
       <c r="AC77" s="0">
-        <v>8.9</v>
+        <v>8.96</v>
       </c>
       <c r="AD77" s="0">
-        <v>9</v>
+        <v>9.03</v>
       </c>
       <c r="AE77" s="0">
-        <v>9</v>
+        <v>9.03</v>
       </c>
       <c r="AF77" s="0">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AG77" s="0">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AH77" s="0">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AI77" s="0" t="s">
         <v>62</v>
@@ -9443,13 +9443,13 @@
         <v>1600</v>
       </c>
       <c r="O78" s="0">
-        <v>141.77</v>
+        <v>137.85</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>3.92841</v>
+        <v>3.92714</v>
       </c>
       <c r="R78" s="0">
         <v>3.7289</v>
@@ -9464,7 +9464,7 @@
         <v>-10</v>
       </c>
       <c r="AA78" s="0">
-        <v>3.001</v>
+        <v>0.149</v>
       </c>
       <c r="AC78" s="0">
         <v>0</v>
@@ -9529,13 +9529,13 @@
         <v>250</v>
       </c>
       <c r="O79" s="0">
-        <v>69.4</v>
+        <v>69.6</v>
       </c>
       <c r="P79" s="0">
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>0.30047</v>
+        <v>0.30982</v>
       </c>
       <c r="R79" s="0">
         <v>0.3256</v>
@@ -9544,49 +9544,49 @@
         <v>0</v>
       </c>
       <c r="T79" s="0">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="U79" s="0">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="V79" s="0">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="W79" s="0">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="X79" s="0">
         <v>8.29</v>
       </c>
       <c r="Y79" s="0">
-        <v>8.4</v>
+        <v>8.39</v>
       </c>
       <c r="Z79" s="0">
-        <v>8.4</v>
+        <v>8.39</v>
       </c>
       <c r="AA79" s="0">
-        <v>-9.776</v>
+        <v>-9.516</v>
       </c>
       <c r="AB79" s="0">
-        <v>-9.99</v>
+        <v>-13.018</v>
       </c>
       <c r="AC79" s="0">
-        <v>10.81</v>
+        <v>10.87</v>
       </c>
       <c r="AD79" s="0">
-        <v>11.63</v>
+        <v>11.65</v>
       </c>
       <c r="AE79" s="0">
-        <v>11.63</v>
+        <v>11.65</v>
       </c>
       <c r="AF79" s="0">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="AG79" s="0">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AH79" s="0">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="AI79" s="0" t="s">
         <v>47</v>
@@ -9636,13 +9636,13 @@
         <v>250</v>
       </c>
       <c r="O80" s="0">
-        <v>72.04</v>
+        <v>67</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.3119</v>
+        <v>0.29824</v>
       </c>
       <c r="R80" s="0">
         <v>0.33965</v>
@@ -9651,49 +9651,49 @@
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>538</v>
+        <v>648</v>
       </c>
       <c r="U80" s="0">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="V80" s="0">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="W80" s="0">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="X80" s="0">
-        <v>9.36</v>
+        <v>10.18</v>
       </c>
       <c r="Y80" s="0">
-        <v>9.47</v>
+        <v>10.2</v>
       </c>
       <c r="Z80" s="0">
-        <v>9.47</v>
+        <v>10.2</v>
       </c>
       <c r="AA80" s="0">
-        <v>-10.219</v>
+        <v>-16.5</v>
       </c>
       <c r="AB80" s="0">
-        <v>-10.373</v>
+        <v>-19.753</v>
       </c>
       <c r="AC80" s="0">
-        <v>9.72</v>
+        <v>9.51</v>
       </c>
       <c r="AD80" s="0">
-        <v>10.46</v>
+        <v>9.69</v>
       </c>
       <c r="AE80" s="0">
-        <v>10.46</v>
+        <v>9.69</v>
       </c>
       <c r="AF80" s="0">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="AG80" s="0">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="AH80" s="0">
-        <v>2.23</v>
+        <v>1.92</v>
       </c>
       <c r="AI80" s="0" t="s">
         <v>47</v>
@@ -9743,13 +9743,13 @@
         <v>282.5</v>
       </c>
       <c r="O81" s="0">
-        <v>68.28</v>
+        <v>67.08</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.33405</v>
+        <v>0.33742</v>
       </c>
       <c r="R81" s="0">
         <v>0.33559</v>
@@ -9758,49 +9758,49 @@
         <v>0</v>
       </c>
       <c r="T81" s="0">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="U81" s="0">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="V81" s="0">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="W81" s="0">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="X81" s="0">
-        <v>5.48</v>
+        <v>5.65</v>
       </c>
       <c r="Y81" s="0">
-        <v>5.78</v>
+        <v>5.89</v>
       </c>
       <c r="Z81" s="0">
-        <v>5.78</v>
+        <v>5.89</v>
       </c>
       <c r="AA81" s="0">
-        <v>-2.68</v>
+        <v>-4.39</v>
       </c>
       <c r="AB81" s="0">
-        <v>-3.034</v>
+        <v>-8.522</v>
       </c>
       <c r="AC81" s="0">
-        <v>13.84</v>
+        <v>14.09</v>
       </c>
       <c r="AD81" s="0">
-        <v>16.99</v>
+        <v>16.66</v>
       </c>
       <c r="AE81" s="0">
-        <v>16.99</v>
+        <v>16.66</v>
       </c>
       <c r="AF81" s="0">
-        <v>1.51</v>
+        <v>2.59</v>
       </c>
       <c r="AG81" s="0">
-        <v>5.92</v>
+        <v>5.7</v>
       </c>
       <c r="AH81" s="0">
-        <v>5.92</v>
+        <v>5.7</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9850,13 +9850,13 @@
         <v>603.8</v>
       </c>
       <c r="O82" s="0">
-        <v>71.2</v>
+        <v>69.84</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.74452</v>
+        <v>0.75085</v>
       </c>
       <c r="R82" s="0">
         <v>0.75163</v>
@@ -9865,49 +9865,49 @@
         <v>0</v>
       </c>
       <c r="T82" s="0">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="U82" s="0">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="V82" s="0">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="W82" s="0">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="X82" s="0">
-        <v>5.33</v>
+        <v>5.54</v>
       </c>
       <c r="Y82" s="0">
-        <v>5.72</v>
+        <v>5.84</v>
       </c>
       <c r="Z82" s="0">
-        <v>5.72</v>
+        <v>5.84</v>
       </c>
       <c r="AA82" s="0">
-        <v>-3.156</v>
+        <v>-5.005</v>
       </c>
       <c r="AB82" s="0">
-        <v>-3.48</v>
+        <v>-9.043</v>
       </c>
       <c r="AC82" s="0">
-        <v>13.27</v>
+        <v>13.65</v>
       </c>
       <c r="AD82" s="0">
-        <v>17.17</v>
+        <v>16.81</v>
       </c>
       <c r="AE82" s="0">
-        <v>17.17</v>
+        <v>16.81</v>
       </c>
       <c r="AF82" s="0">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AG82" s="0">
-        <v>6.05</v>
+        <v>5.8</v>
       </c>
       <c r="AH82" s="0">
-        <v>6.05</v>
+        <v>5.8</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9957,13 +9957,13 @@
         <v>435</v>
       </c>
       <c r="O83" s="0">
-        <v>69.94</v>
+        <v>68.96</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.52689</v>
+        <v>0.53413</v>
       </c>
       <c r="R83" s="0">
         <v>0.53178</v>
@@ -9972,49 +9972,49 @@
         <v>0</v>
       </c>
       <c r="T83" s="0">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="U83" s="0">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="V83" s="0">
-        <v>132</v>
+        <v>188</v>
       </c>
       <c r="W83" s="0">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="X83" s="0">
-        <v>5.49</v>
+        <v>5.65</v>
       </c>
       <c r="Y83" s="0">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="Z83" s="0">
-        <v>5.83</v>
+        <v>5.91</v>
       </c>
       <c r="AA83" s="0">
-        <v>-3.13</v>
+        <v>-4.488</v>
       </c>
       <c r="AB83" s="0">
-        <v>-3.465</v>
+        <v>-8.552</v>
       </c>
       <c r="AC83" s="0">
-        <v>13.44</v>
+        <v>13.72</v>
       </c>
       <c r="AD83" s="0">
-        <v>16.86</v>
+        <v>16.59</v>
       </c>
       <c r="AE83" s="0">
-        <v>16.86</v>
+        <v>16.59</v>
       </c>
       <c r="AF83" s="0">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="AG83" s="0">
-        <v>5.83</v>
+        <v>5.65</v>
       </c>
       <c r="AH83" s="0">
-        <v>5.83</v>
+        <v>5.65</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10064,13 +10064,13 @@
         <v>250</v>
       </c>
       <c r="O84" s="0">
-        <v>70.56</v>
+        <v>69.36</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.30549</v>
+        <v>0.30875</v>
       </c>
       <c r="R84" s="0">
         <v>0.31036</v>
@@ -10079,49 +10079,49 @@
         <v>0</v>
       </c>
       <c r="T84" s="0">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="U84" s="0">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="V84" s="0">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="W84" s="0">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="X84" s="0">
-        <v>5.58</v>
+        <v>5.77</v>
       </c>
       <c r="Y84" s="0">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="Z84" s="0">
-        <v>5.92</v>
+        <v>6.03</v>
       </c>
       <c r="AA84" s="0">
-        <v>-3.764</v>
+        <v>-5.401</v>
       </c>
       <c r="AB84" s="0">
-        <v>-4.086</v>
+        <v>-9.416</v>
       </c>
       <c r="AC84" s="0">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD84" s="0">
-        <v>16.58</v>
+        <v>16.27</v>
       </c>
       <c r="AE84" s="0">
-        <v>16.58</v>
+        <v>16.27</v>
       </c>
       <c r="AF84" s="0">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AG84" s="0">
-        <v>5.64</v>
+        <v>5.44</v>
       </c>
       <c r="AH84" s="0">
-        <v>5.64</v>
+        <v>5.44</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10171,13 +10171,13 @@
         <v>565</v>
       </c>
       <c r="O85" s="0">
-        <v>79.92</v>
+        <v>77.92</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.782</v>
+        <v>0.78389</v>
       </c>
       <c r="R85" s="0">
         <v>0.78446</v>
@@ -10186,49 +10186,49 @@
         <v>0</v>
       </c>
       <c r="T85" s="0">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="U85" s="0">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="V85" s="0">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="W85" s="0">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="X85" s="0">
-        <v>5.2</v>
+        <v>5.52</v>
       </c>
       <c r="Y85" s="0">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="Z85" s="0">
-        <v>5.9</v>
+        <v>6.05</v>
       </c>
       <c r="AA85" s="0">
-        <v>-2.537</v>
+        <v>-4.976</v>
       </c>
       <c r="AB85" s="0">
-        <v>-2.759</v>
+        <v>-8.57</v>
       </c>
       <c r="AC85" s="0">
-        <v>11.18</v>
+        <v>11.68</v>
       </c>
       <c r="AD85" s="0">
-        <v>16.65</v>
+        <v>16.2</v>
       </c>
       <c r="AE85" s="0">
-        <v>16.65</v>
+        <v>16.2</v>
       </c>
       <c r="AF85" s="0">
-        <v>0.28</v>
+        <v>1.08</v>
       </c>
       <c r="AG85" s="0">
-        <v>5.69</v>
+        <v>5.39</v>
       </c>
       <c r="AH85" s="0">
-        <v>5.69</v>
+        <v>5.39</v>
       </c>
       <c r="AI85" s="0" t="s">
         <v>47</v>
@@ -10278,13 +10278,13 @@
         <v>258.8</v>
       </c>
       <c r="O86" s="0">
-        <v>82</v>
+        <v>79.56</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.36752</v>
+        <v>0.36662</v>
       </c>
       <c r="R86" s="0">
         <v>0.37159</v>
@@ -10293,49 +10293,49 @@
         <v>0</v>
       </c>
       <c r="T86" s="0">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="U86" s="0">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="V86" s="0">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="W86" s="0">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="X86" s="0">
-        <v>5.02</v>
+        <v>5.42</v>
       </c>
       <c r="Y86" s="0">
-        <v>5.84</v>
+        <v>6.02</v>
       </c>
       <c r="Z86" s="0">
-        <v>5.84</v>
+        <v>6.02</v>
       </c>
       <c r="AA86" s="0">
-        <v>-3.302</v>
+        <v>-6.179</v>
       </c>
       <c r="AB86" s="0">
-        <v>-3.492</v>
+        <v>-9.598</v>
       </c>
       <c r="AC86" s="0">
-        <v>10.65</v>
+        <v>11.33</v>
       </c>
       <c r="AD86" s="0">
-        <v>16.82</v>
+        <v>16.28</v>
       </c>
       <c r="AE86" s="0">
-        <v>16.82</v>
+        <v>16.28</v>
       </c>
       <c r="AF86" s="0">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="AG86" s="0">
-        <v>5.8</v>
+        <v>5.44</v>
       </c>
       <c r="AH86" s="0">
-        <v>5.8</v>
+        <v>5.44</v>
       </c>
       <c r="AI86" s="0" t="s">
         <v>47</v>
@@ -10385,13 +10385,13 @@
         <v>316.2</v>
       </c>
       <c r="O87" s="0">
-        <v>83.76</v>
+        <v>81.48</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.45867</v>
+        <v>0.45874</v>
       </c>
       <c r="R87" s="0">
         <v>0.46729</v>
@@ -10400,49 +10400,49 @@
         <v>0</v>
       </c>
       <c r="T87" s="0">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="U87" s="0">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="V87" s="0">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="W87" s="0">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="X87" s="0">
-        <v>5.02</v>
+        <v>5.42</v>
       </c>
       <c r="Y87" s="0">
-        <v>5.93</v>
+        <v>6.1</v>
       </c>
       <c r="Z87" s="0">
-        <v>5.93</v>
+        <v>6.1</v>
       </c>
       <c r="AA87" s="0">
-        <v>-4.033</v>
+        <v>-6.645</v>
       </c>
       <c r="AB87" s="0">
-        <v>-4.189</v>
+        <v>-9.895</v>
       </c>
       <c r="AC87" s="0">
-        <v>10.09</v>
+        <v>10.79</v>
       </c>
       <c r="AD87" s="0">
-        <v>16.55</v>
+        <v>16.06</v>
       </c>
       <c r="AE87" s="0">
-        <v>16.55</v>
+        <v>16.06</v>
       </c>
       <c r="AF87" s="0">
-        <v>0.02</v>
+        <v>0.07</v>
       </c>
       <c r="AG87" s="0">
-        <v>5.62</v>
+        <v>5.3</v>
       </c>
       <c r="AH87" s="0">
-        <v>5.62</v>
+        <v>5.3</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10492,13 +10492,13 @@
         <v>300</v>
       </c>
       <c r="O88" s="0">
-        <v>89.08</v>
+        <v>87.68</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.46281</v>
+        <v>0.46836</v>
       </c>
       <c r="R88" s="0">
         <v>0.47118</v>
@@ -10507,49 +10507,49 @@
         <v>0</v>
       </c>
       <c r="T88" s="0">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="U88" s="0">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="V88" s="0">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="W88" s="0">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="X88" s="0">
-        <v>4.41</v>
+        <v>4.73</v>
       </c>
       <c r="Y88" s="0">
-        <v>5.77</v>
+        <v>5.87</v>
       </c>
       <c r="Z88" s="0">
-        <v>5.77</v>
+        <v>5.87</v>
       </c>
       <c r="AA88" s="0">
-        <v>-3.967</v>
+        <v>-5.476</v>
       </c>
       <c r="AB88" s="0">
-        <v>-4.054</v>
+        <v>-8.263</v>
       </c>
       <c r="AC88" s="0">
-        <v>8.51</v>
+        <v>9.06</v>
       </c>
       <c r="AD88" s="0">
-        <v>17.01</v>
+        <v>16.71</v>
       </c>
       <c r="AE88" s="0">
-        <v>17.01</v>
+        <v>16.71</v>
       </c>
       <c r="AF88" s="0">
-        <v>-1.04</v>
+        <v>-0.83</v>
       </c>
       <c r="AG88" s="0">
-        <v>5.93</v>
+        <v>5.73</v>
       </c>
       <c r="AH88" s="0">
-        <v>5.93</v>
+        <v>5.73</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10599,13 +10599,13 @@
         <v>280</v>
       </c>
       <c r="O89" s="0">
-        <v>90.85</v>
+        <v>89.2</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.44055</v>
+        <v>0.44471</v>
       </c>
       <c r="R89" s="0">
         <v>0.44261</v>
@@ -10614,49 +10614,49 @@
         <v>0</v>
       </c>
       <c r="T89" s="0">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="U89" s="0">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="V89" s="0">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="W89" s="0">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="X89" s="0">
-        <v>4.23</v>
+        <v>4.62</v>
       </c>
       <c r="Y89" s="0">
-        <v>5.77</v>
+        <v>5.89</v>
       </c>
       <c r="Z89" s="0">
-        <v>5.77</v>
+        <v>5.89</v>
       </c>
       <c r="AA89" s="0">
-        <v>-2.687</v>
+        <v>-4.456</v>
       </c>
       <c r="AB89" s="0">
-        <v>-2.765</v>
+        <v>-7.16</v>
       </c>
       <c r="AC89" s="0">
-        <v>7.8</v>
+        <v>8.59</v>
       </c>
       <c r="AD89" s="0">
-        <v>17.01</v>
+        <v>16.67</v>
       </c>
       <c r="AE89" s="0">
-        <v>17.01</v>
+        <v>16.67</v>
       </c>
       <c r="AF89" s="0">
-        <v>-1.13</v>
+        <v>-1.26</v>
       </c>
       <c r="AG89" s="0">
-        <v>5.93</v>
+        <v>5.7</v>
       </c>
       <c r="AH89" s="0">
-        <v>5.93</v>
+        <v>5.7</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10706,13 +10706,13 @@
         <v>285</v>
       </c>
       <c r="O90" s="0">
-        <v>97.28</v>
+        <v>95.08</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>0.48014</v>
+        <v>0.48249</v>
       </c>
       <c r="R90" s="0">
         <v>0.47909</v>
@@ -10721,49 +10721,49 @@
         <v>0</v>
       </c>
       <c r="T90" s="0">
-        <v>-44</v>
+        <v>42</v>
       </c>
       <c r="U90" s="0">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="V90" s="0">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="W90" s="0">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="X90" s="0">
-        <v>3.36</v>
+        <v>4.04</v>
       </c>
       <c r="Y90" s="0">
-        <v>5.86</v>
+        <v>6.01</v>
       </c>
       <c r="Z90" s="0">
-        <v>5.86</v>
+        <v>6.01</v>
       </c>
       <c r="AA90" s="0">
-        <v>-2.015</v>
+        <v>-4.23</v>
       </c>
       <c r="AB90" s="0">
-        <v>-2.022</v>
+        <v>-6.133</v>
       </c>
       <c r="AC90" s="0">
-        <v>5.13</v>
+        <v>6.29</v>
       </c>
       <c r="AD90" s="0">
-        <v>16.74</v>
+        <v>16.33</v>
       </c>
       <c r="AE90" s="0">
-        <v>16.74</v>
+        <v>16.33</v>
       </c>
       <c r="AF90" s="0">
-        <v>-1.87</v>
+        <v>-1.5</v>
       </c>
       <c r="AG90" s="0">
-        <v>5.75</v>
+        <v>5.48</v>
       </c>
       <c r="AH90" s="0">
-        <v>5.75</v>
+        <v>5.48</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10813,13 +10813,13 @@
         <v>1266.8</v>
       </c>
       <c r="O91" s="0">
-        <v>40.64</v>
+        <v>40.16</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>0.89159</v>
+        <v>0.90585</v>
       </c>
       <c r="R91" s="0">
         <v>1.07805</v>
@@ -10828,40 +10828,40 @@
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>2223</v>
+        <v>2305</v>
       </c>
       <c r="U91" s="0">
-        <v>498</v>
+        <v>580</v>
       </c>
       <c r="V91" s="0">
-        <v>1284</v>
+        <v>1316</v>
       </c>
       <c r="W91" s="0">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="X91" s="0">
-        <v>26.37</v>
+        <v>26.73</v>
       </c>
       <c r="Y91" s="0">
-        <v>26.37</v>
+        <v>26.73</v>
       </c>
       <c r="Z91" s="0">
-        <v>26.37</v>
+        <v>26.73</v>
       </c>
       <c r="AA91" s="0">
-        <v>-19.14</v>
+        <v>-20.096</v>
       </c>
       <c r="AB91" s="0">
-        <v>-19.083</v>
+        <v>-22.32</v>
       </c>
       <c r="AC91" s="0">
-        <v>4.09</v>
+        <v>4.07</v>
       </c>
       <c r="AD91" s="0">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="AE91" s="0">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="AF91" s="0">
         <v>0.25</v>
@@ -10920,13 +10920,13 @@
         <v>500.2</v>
       </c>
       <c r="O92" s="0">
-        <v>48.56</v>
+        <v>47.04</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.42065</v>
+        <v>0.41896</v>
       </c>
       <c r="R92" s="0">
         <v>0.48072</v>
@@ -10935,49 +10935,49 @@
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>905</v>
+        <v>983</v>
       </c>
       <c r="U92" s="0">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="V92" s="0">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="W92" s="0">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="X92" s="0">
-        <v>13.1</v>
+        <v>13.54</v>
       </c>
       <c r="Y92" s="0">
-        <v>13.1</v>
+        <v>13.54</v>
       </c>
       <c r="Z92" s="0">
-        <v>13.1</v>
+        <v>13.54</v>
       </c>
       <c r="AA92" s="0">
-        <v>-14.447</v>
+        <v>-17.125</v>
       </c>
       <c r="AB92" s="0">
-        <v>-14.603</v>
+        <v>-20.255</v>
       </c>
       <c r="AC92" s="0">
-        <v>7.72</v>
+        <v>7.42</v>
       </c>
       <c r="AD92" s="0">
-        <v>7.62</v>
+        <v>7.35</v>
       </c>
       <c r="AE92" s="0">
-        <v>7.62</v>
+        <v>7.35</v>
       </c>
       <c r="AF92" s="0">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AG92" s="0">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AH92" s="0">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>233</v>
@@ -11027,13 +11027,13 @@
         <v>460</v>
       </c>
       <c r="O93" s="0">
-        <v>111.54</v>
+        <v>106.22</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.88857</v>
+        <v>0.87001</v>
       </c>
       <c r="R93" s="0">
         <v>0.87984</v>
@@ -11042,28 +11042,28 @@
         <v>0</v>
       </c>
       <c r="Y93" s="0">
-        <v>4.54</v>
+        <v>4.77</v>
       </c>
       <c r="Z93" s="0">
-        <v>4.54</v>
+        <v>4.77</v>
       </c>
       <c r="AA93" s="0">
-        <v>-1.261</v>
+        <v>-5.969</v>
       </c>
       <c r="AC93" s="0">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="AD93" s="0">
-        <v>21.75</v>
+        <v>20.67</v>
       </c>
       <c r="AE93" s="0">
-        <v>21.75</v>
+        <v>20.67</v>
       </c>
       <c r="AG93" s="0">
-        <v>9.6</v>
+        <v>8.69</v>
       </c>
       <c r="AH93" s="0">
-        <v>9.6</v>
+        <v>8.69</v>
       </c>
       <c r="AI93" s="0" t="s">
         <v>47</v>
@@ -11113,13 +11113,13 @@
         <v>398.2</v>
       </c>
       <c r="O94" s="0">
-        <v>77.88</v>
+        <v>71.6</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.53707</v>
+        <v>0.50766</v>
       </c>
       <c r="R94" s="0">
         <v>0.5526</v>
@@ -11128,43 +11128,43 @@
         <v>0</v>
       </c>
       <c r="T94" s="0">
-        <v>611</v>
+        <v>731</v>
       </c>
       <c r="U94" s="0">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="V94" s="0">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="W94" s="0">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="X94" s="0">
-        <v>11.82</v>
+        <v>12.78</v>
       </c>
       <c r="Y94" s="0">
-        <v>21.41</v>
+        <v>26.81</v>
       </c>
       <c r="Z94" s="0">
-        <v>21.41</v>
+        <v>26.81</v>
       </c>
       <c r="AA94" s="0">
-        <v>-4.978</v>
+        <v>-12.64</v>
       </c>
       <c r="AB94" s="0">
-        <v>-4.831</v>
+        <v>-13.565</v>
       </c>
       <c r="AC94" s="0">
-        <v>-0.25</v>
+        <v>-0.96</v>
       </c>
       <c r="AD94" s="0">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AE94" s="0">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AF94" s="0">
-        <v>-0.37</v>
+        <v>-0.49</v>
       </c>
       <c r="AG94" s="0">
         <v>0.04</v>
@@ -11220,13 +11220,13 @@
         <v>465</v>
       </c>
       <c r="O95" s="0">
-        <v>81.4</v>
+        <v>75</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>0.65551</v>
+        <v>0.62097</v>
       </c>
       <c r="R95" s="0">
         <v>0.68089</v>
@@ -11235,49 +11235,49 @@
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>645</v>
+        <v>776</v>
       </c>
       <c r="U95" s="0">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="V95" s="0">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="W95" s="0">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="X95" s="0">
-        <v>10.81</v>
+        <v>11.65</v>
       </c>
       <c r="Y95" s="0">
-        <v>13.92</v>
+        <v>16.74</v>
       </c>
       <c r="Z95" s="0">
-        <v>13.92</v>
+        <v>16.74</v>
       </c>
       <c r="AA95" s="0">
-        <v>-5.874</v>
+        <v>-13.275</v>
       </c>
       <c r="AB95" s="0">
-        <v>-5.745</v>
+        <v>-14.949</v>
       </c>
       <c r="AC95" s="0">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="AD95" s="0">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AE95" s="0">
-        <v>2.99</v>
+        <v>2.92</v>
       </c>
       <c r="AF95" s="0">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AG95" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AH95" s="0">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AI95" s="0" t="s">
         <v>47</v>
@@ -11327,13 +11327,13 @@
         <v>282.5</v>
       </c>
       <c r="O96" s="0">
-        <v>88.96</v>
+        <v>84.16</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>0.43523</v>
+        <v>0.42333</v>
       </c>
       <c r="R96" s="0">
         <v>0.43738</v>
@@ -11342,49 +11342,49 @@
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="U96" s="0">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="V96" s="0">
-        <v>554</v>
+        <v>595</v>
       </c>
       <c r="W96" s="0">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="X96" s="0">
-        <v>10.85</v>
+        <v>11.61</v>
       </c>
       <c r="Y96" s="0">
-        <v>16.66</v>
+        <v>21.3</v>
       </c>
       <c r="Z96" s="0">
-        <v>16.66</v>
+        <v>21.3</v>
       </c>
       <c r="AA96" s="0">
-        <v>-2.712</v>
+        <v>-7.962</v>
       </c>
       <c r="AB96" s="0">
-        <v>-2.637</v>
+        <v>-8.711</v>
       </c>
       <c r="AC96" s="0">
-        <v>0.21</v>
+        <v>-0.33</v>
       </c>
       <c r="AD96" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AE96" s="0">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF96" s="0">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="AG96" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AH96" s="0">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI96" s="0" t="s">
         <v>47</v>
@@ -11434,13 +11434,13 @@
         <v>322</v>
       </c>
       <c r="O97" s="0">
-        <v>99.72</v>
+        <v>96.47</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.55608</v>
+        <v>0.55308</v>
       </c>
       <c r="R97" s="0">
         <v>0.55284</v>
@@ -11449,28 +11449,28 @@
         <v>0</v>
       </c>
       <c r="Y97" s="0">
-        <v>7.97</v>
+        <v>8.25</v>
       </c>
       <c r="Z97" s="0">
-        <v>7.97</v>
+        <v>8.25</v>
       </c>
       <c r="AA97" s="0">
-        <v>-1.657</v>
+        <v>-4.865</v>
       </c>
       <c r="AC97" s="0">
-        <v>14.63</v>
+        <v>14</v>
       </c>
       <c r="AD97" s="0">
-        <v>12.32</v>
+        <v>11.88</v>
       </c>
       <c r="AE97" s="0">
-        <v>12.32</v>
+        <v>11.88</v>
       </c>
       <c r="AG97" s="0">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="AH97" s="0">
-        <v>3.12</v>
+        <v>2.91</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11520,13 +11520,13 @@
         <v>329</v>
       </c>
       <c r="O98" s="0">
-        <v>66</v>
+        <v>61.74</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>0.37605</v>
+        <v>0.36168</v>
       </c>
       <c r="R98" s="0">
         <v>0.39813</v>
@@ -11541,16 +11541,16 @@
         <v>99.99</v>
       </c>
       <c r="AA98" s="0">
-        <v>-7.654</v>
+        <v>-13.614</v>
       </c>
       <c r="AC98" s="0">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AD98" s="0">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AE98" s="0">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="AG98" s="0">
         <v>0</v>
@@ -11606,13 +11606,13 @@
         <v>750</v>
       </c>
       <c r="O99" s="0">
-        <v>76.32</v>
+        <v>75.88</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>0.99129</v>
+        <v>1.01332</v>
       </c>
       <c r="R99" s="0">
         <v>0.98899</v>
@@ -11621,49 +11621,49 @@
         <v>0</v>
       </c>
       <c r="T99" s="0">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="U99" s="0">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="V99" s="0">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="W99" s="0">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="X99" s="0">
-        <v>5.22</v>
+        <v>5.32</v>
       </c>
       <c r="Y99" s="0">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="Z99" s="0">
-        <v>5.83</v>
+        <v>5.87</v>
       </c>
       <c r="AA99" s="0">
-        <v>-2.003</v>
+        <v>-2.568</v>
       </c>
       <c r="AB99" s="0">
-        <v>-2.27</v>
+        <v>-6.294</v>
       </c>
       <c r="AC99" s="0">
-        <v>11.85</v>
+        <v>12.11</v>
       </c>
       <c r="AD99" s="0">
-        <v>15.82</v>
+        <v>15.75</v>
       </c>
       <c r="AE99" s="0">
-        <v>15.82</v>
+        <v>15.75</v>
       </c>
       <c r="AF99" s="0">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="AG99" s="0">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="AH99" s="0">
-        <v>4.15</v>
+        <v>4.12</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>56</v>
@@ -11713,13 +11713,13 @@
         <v>1000</v>
       </c>
       <c r="O100" s="0">
-        <v>84.6</v>
+        <v>84.04</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>1.46512</v>
+        <v>1.49638</v>
       </c>
       <c r="R100" s="0">
         <v>1.48053</v>
@@ -11728,49 +11728,49 @@
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="U100" s="0">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="V100" s="0">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="W100" s="0">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="X100" s="0">
-        <v>4.97</v>
+        <v>5.12</v>
       </c>
       <c r="Y100" s="0">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="Z100" s="0">
-        <v>5.97</v>
+        <v>6.02</v>
       </c>
       <c r="AA100" s="0">
-        <v>-3.248</v>
+        <v>-3.888</v>
       </c>
       <c r="AB100" s="0">
-        <v>-3.393</v>
+        <v>-7.141</v>
       </c>
       <c r="AC100" s="0">
-        <v>9.78</v>
+        <v>10.14</v>
       </c>
       <c r="AD100" s="0">
-        <v>16.2</v>
+        <v>16.09</v>
       </c>
       <c r="AE100" s="0">
-        <v>16.2</v>
+        <v>16.09</v>
       </c>
       <c r="AF100" s="0">
-        <v>-0.21</v>
+        <v>0.01</v>
       </c>
       <c r="AG100" s="0">
-        <v>4.91</v>
+        <v>4.86</v>
       </c>
       <c r="AH100" s="0">
-        <v>4.91</v>
+        <v>4.86</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>56</v>
@@ -11820,13 +11820,13 @@
         <v>270</v>
       </c>
       <c r="O101" s="0">
-        <v>91.08</v>
+        <v>91.76</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.42588</v>
+        <v>0.44114</v>
       </c>
       <c r="R101" s="0">
         <v>0.42242</v>
@@ -11835,49 +11835,49 @@
         <v>0</v>
       </c>
       <c r="T101" s="0">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="U101" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="V101" s="0">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="W101" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="X101" s="0">
-        <v>4</v>
+        <v>3.94</v>
       </c>
       <c r="Y101" s="0">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="Z101" s="0">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="AA101" s="0">
-        <v>-1.429</v>
+        <v>-0.693</v>
       </c>
       <c r="AB101" s="0">
-        <v>-1.521</v>
+        <v>-3.507</v>
       </c>
       <c r="AC101" s="0">
-        <v>7.78</v>
+        <v>7.62</v>
       </c>
       <c r="AD101" s="0">
-        <v>16.84</v>
+        <v>16.92</v>
       </c>
       <c r="AE101" s="0">
-        <v>16.84</v>
+        <v>16.92</v>
       </c>
       <c r="AF101" s="0">
-        <v>-1.33</v>
+        <v>-1.38</v>
       </c>
       <c r="AG101" s="0">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="AH101" s="0">
-        <v>5.19</v>
+        <v>5.24</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>56</v>
@@ -11927,13 +11927,13 @@
         <v>450</v>
       </c>
       <c r="O102" s="0">
-        <v>93.52</v>
+        <v>92.52</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.72882</v>
+        <v>0.74132</v>
       </c>
       <c r="R102" s="0">
         <v>0.72994</v>
@@ -11942,49 +11942,49 @@
         <v>0</v>
       </c>
       <c r="T102" s="0">
-        <v>-19</v>
+        <v>32</v>
       </c>
       <c r="U102" s="0">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="V102" s="0">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="W102" s="0">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="X102" s="0">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="Y102" s="0">
-        <v>5.68</v>
+        <v>5.75</v>
       </c>
       <c r="Z102" s="0">
-        <v>5.68</v>
+        <v>5.75</v>
       </c>
       <c r="AA102" s="0">
-        <v>-2.38</v>
+        <v>-3.424</v>
       </c>
       <c r="AB102" s="0">
-        <v>-2.423</v>
+        <v>-5.65</v>
       </c>
       <c r="AC102" s="0">
-        <v>6.41</v>
+        <v>6.95</v>
       </c>
       <c r="AD102" s="0">
-        <v>16.77</v>
+        <v>16.6</v>
       </c>
       <c r="AE102" s="0">
-        <v>16.77</v>
+        <v>16.6</v>
       </c>
       <c r="AF102" s="0">
-        <v>-1.8</v>
+        <v>-1.84</v>
       </c>
       <c r="AG102" s="0">
-        <v>5.12</v>
+        <v>5.03</v>
       </c>
       <c r="AH102" s="0">
-        <v>5.12</v>
+        <v>5.03</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>56</v>
@@ -12034,13 +12034,13 @@
         <v>250</v>
       </c>
       <c r="O103" s="0">
-        <v>94.76</v>
+        <v>93</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.41027</v>
+        <v>0.41398</v>
       </c>
       <c r="R103" s="0">
         <v>0.41873</v>
@@ -12049,49 +12049,49 @@
         <v>0</v>
       </c>
       <c r="T103" s="0">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="U103" s="0">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="V103" s="0">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="W103" s="0">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="X103" s="0">
-        <v>4.29</v>
+        <v>4.8</v>
       </c>
       <c r="Y103" s="0">
-        <v>6.3</v>
+        <v>6.43</v>
       </c>
       <c r="Z103" s="0">
-        <v>6.3</v>
+        <v>6.43</v>
       </c>
       <c r="AA103" s="0">
-        <v>-4.205</v>
+        <v>-5.985</v>
       </c>
       <c r="AB103" s="0">
-        <v>-4.196</v>
+        <v>-8.076</v>
       </c>
       <c r="AC103" s="0">
-        <v>6.11</v>
+        <v>6.96</v>
       </c>
       <c r="AD103" s="0">
-        <v>15.68</v>
+        <v>15.36</v>
       </c>
       <c r="AE103" s="0">
-        <v>15.68</v>
+        <v>15.36</v>
       </c>
       <c r="AF103" s="0">
-        <v>-1.33</v>
+        <v>-1.16</v>
       </c>
       <c r="AG103" s="0">
-        <v>5.01</v>
+        <v>4.82</v>
       </c>
       <c r="AH103" s="0">
-        <v>5.01</v>
+        <v>4.82</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12141,13 +12141,13 @@
         <v>757.5</v>
       </c>
       <c r="O104" s="0">
-        <v>95.04</v>
+        <v>92</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>1.24679</v>
+        <v>1.24087</v>
       </c>
       <c r="R104" s="0">
         <v>1.23745</v>
@@ -12156,49 +12156,49 @@
         <v>0</v>
       </c>
       <c r="T104" s="0">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="U104" s="0">
-        <v>27</v>
+        <v>122</v>
       </c>
       <c r="V104" s="0">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="W104" s="0">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="X104" s="0">
-        <v>4.22</v>
+        <v>4.96</v>
       </c>
       <c r="Y104" s="0">
-        <v>6.18</v>
+        <v>6.4</v>
       </c>
       <c r="Z104" s="0">
-        <v>6.18</v>
+        <v>6.4</v>
       </c>
       <c r="AA104" s="0">
-        <v>-1.493</v>
+        <v>-4.643</v>
       </c>
       <c r="AB104" s="0">
-        <v>-1.52</v>
+        <v>-7.125</v>
       </c>
       <c r="AC104" s="0">
-        <v>6.35</v>
+        <v>7.53</v>
       </c>
       <c r="AD104" s="0">
-        <v>15.44</v>
+        <v>14.98</v>
       </c>
       <c r="AE104" s="0">
-        <v>15.44</v>
+        <v>14.98</v>
       </c>
       <c r="AF104" s="0">
-        <v>-1.23</v>
+        <v>-0.78</v>
       </c>
       <c r="AG104" s="0">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="AH104" s="0">
-        <v>4.5</v>
+        <v>4.28</v>
       </c>
       <c r="AI104" s="0" t="s">
         <v>56</v>
@@ -12248,13 +12248,13 @@
         <v>1750</v>
       </c>
       <c r="O105" s="0">
-        <v>76.6</v>
+        <v>75.16</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>2.32151</v>
+        <v>2.34197</v>
       </c>
       <c r="R105" s="0">
         <v>2.36455</v>
@@ -12263,49 +12263,49 @@
         <v>0</v>
       </c>
       <c r="T105" s="0">
-        <v>190</v>
+        <v>237</v>
       </c>
       <c r="U105" s="0">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="V105" s="0">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="W105" s="0">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="X105" s="0">
-        <v>5.79</v>
+        <v>6.03</v>
       </c>
       <c r="Y105" s="0">
-        <v>6.29</v>
+        <v>6.42</v>
       </c>
       <c r="Z105" s="0">
-        <v>6.29</v>
+        <v>6.42</v>
       </c>
       <c r="AA105" s="0">
-        <v>-4.01</v>
+        <v>-5.815</v>
       </c>
       <c r="AB105" s="0">
-        <v>-4.243</v>
+        <v>-9.437</v>
       </c>
       <c r="AC105" s="0">
-        <v>11.55</v>
+        <v>11.89</v>
       </c>
       <c r="AD105" s="0">
-        <v>15.67</v>
+        <v>15.34</v>
       </c>
       <c r="AE105" s="0">
-        <v>15.67</v>
+        <v>15.34</v>
       </c>
       <c r="AF105" s="0">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="AG105" s="0">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="AH105" s="0">
-        <v>5.02</v>
+        <v>4.82</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12355,13 +12355,13 @@
         <v>1200</v>
       </c>
       <c r="O106" s="0">
-        <v>81.16</v>
+        <v>80.16</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>1.68665</v>
+        <v>1.71276</v>
       </c>
       <c r="R106" s="0">
         <v>1.71893</v>
@@ -12370,49 +12370,49 @@
         <v>0</v>
       </c>
       <c r="T106" s="0">
-        <v>165</v>
+        <v>208</v>
       </c>
       <c r="U106" s="0">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="V106" s="0">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="W106" s="0">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="X106" s="0">
-        <v>5.53</v>
+        <v>5.73</v>
       </c>
       <c r="Y106" s="0">
-        <v>6.25</v>
+        <v>6.33</v>
       </c>
       <c r="Z106" s="0">
-        <v>6.25</v>
+        <v>6.33</v>
       </c>
       <c r="AA106" s="0">
-        <v>-4.066</v>
+        <v>-5.248</v>
       </c>
       <c r="AB106" s="0">
-        <v>-4.244</v>
+        <v>-8.62</v>
       </c>
       <c r="AC106" s="0">
-        <v>10.51</v>
+        <v>10.89</v>
       </c>
       <c r="AD106" s="0">
-        <v>15.77</v>
+        <v>15.55</v>
       </c>
       <c r="AE106" s="0">
-        <v>15.77</v>
+        <v>15.55</v>
       </c>
       <c r="AF106" s="0">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="AG106" s="0">
-        <v>5.09</v>
+        <v>4.95</v>
       </c>
       <c r="AH106" s="0">
-        <v>5.09</v>
+        <v>4.95</v>
       </c>
       <c r="AI106" s="0" t="s">
         <v>47</v>
@@ -12462,13 +12462,13 @@
         <v>1322.5</v>
       </c>
       <c r="O107" s="0">
-        <v>91.32</v>
+        <v>89.68</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>2.09153</v>
+        <v>2.11178</v>
       </c>
       <c r="R107" s="0">
         <v>2.104</v>
@@ -12477,49 +12477,49 @@
         <v>0</v>
       </c>
       <c r="T107" s="0">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="U107" s="0">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="V107" s="0">
+        <v>131</v>
+      </c>
+      <c r="W107" s="0">
         <v>86</v>
       </c>
-      <c r="W107" s="0">
-        <v>41</v>
-      </c>
       <c r="X107" s="0">
-        <v>4.38</v>
+        <v>4.77</v>
       </c>
       <c r="Y107" s="0">
-        <v>5.99</v>
+        <v>6.11</v>
       </c>
       <c r="Z107" s="0">
-        <v>5.99</v>
+        <v>6.11</v>
       </c>
       <c r="AA107" s="0">
-        <v>-2.81</v>
+        <v>-4.555</v>
       </c>
       <c r="AB107" s="0">
-        <v>-2.871</v>
+        <v>-7.102</v>
       </c>
       <c r="AC107" s="0">
-        <v>7.37</v>
+        <v>8.09</v>
       </c>
       <c r="AD107" s="0">
-        <v>15.44</v>
+        <v>15.22</v>
       </c>
       <c r="AE107" s="0">
-        <v>15.44</v>
+        <v>15.22</v>
       </c>
       <c r="AF107" s="0">
-        <v>-1.45</v>
+        <v>-1.09</v>
       </c>
       <c r="AG107" s="0">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="AH107" s="0">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>62</v>
@@ -12569,13 +12569,13 @@
         <v>825</v>
       </c>
       <c r="O108" s="0">
-        <v>96.68</v>
+        <v>95.28</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.38132</v>
+        <v>1.39963</v>
       </c>
       <c r="R108" s="0">
         <v>1.38795</v>
@@ -12584,49 +12584,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>-39</v>
+        <v>28</v>
       </c>
       <c r="U108" s="0">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="V108" s="0">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="W108" s="0">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="X108" s="0">
-        <v>3.43</v>
+        <v>3.9</v>
       </c>
       <c r="Y108" s="0">
-        <v>5.92</v>
+        <v>6.02</v>
       </c>
       <c r="Z108" s="0">
-        <v>5.92</v>
+        <v>6.02</v>
       </c>
       <c r="AA108" s="0">
-        <v>-2.697</v>
+        <v>-4.106</v>
       </c>
       <c r="AB108" s="0">
-        <v>-2.723</v>
+        <v>-5.584</v>
       </c>
       <c r="AC108" s="0">
-        <v>4.88</v>
+        <v>5.64</v>
       </c>
       <c r="AD108" s="0">
-        <v>15.51</v>
+        <v>15.33</v>
       </c>
       <c r="AE108" s="0">
-        <v>15.51</v>
+        <v>15.33</v>
       </c>
       <c r="AF108" s="0">
-        <v>-2.17</v>
+        <v>-1.99</v>
       </c>
       <c r="AG108" s="0">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="AH108" s="0">
-        <v>4.22</v>
+        <v>4.14</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>62</v>
@@ -12676,13 +12676,13 @@
         <v>690</v>
       </c>
       <c r="O109" s="0">
-        <v>63.72</v>
+        <v>59.32</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>0.76143</v>
+        <v>0.7288</v>
       </c>
       <c r="R109" s="0">
         <v>0.7851</v>
@@ -12691,49 +12691,49 @@
         <v>0</v>
       </c>
       <c r="T109" s="0">
-        <v>571</v>
+        <v>676</v>
       </c>
       <c r="U109" s="0">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="V109" s="0">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="W109" s="0">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="X109" s="0">
-        <v>9.7</v>
+        <v>10.46</v>
       </c>
       <c r="Y109" s="0">
-        <v>9.71</v>
+        <v>10.46</v>
       </c>
       <c r="Z109" s="0">
-        <v>9.71</v>
+        <v>10.46</v>
       </c>
       <c r="AA109" s="0">
-        <v>-5.179</v>
+        <v>-11.726</v>
       </c>
       <c r="AB109" s="0">
-        <v>-5.386</v>
+        <v>-15.077</v>
       </c>
       <c r="AC109" s="0">
-        <v>9.89</v>
+        <v>9.33</v>
       </c>
       <c r="AD109" s="0">
-        <v>10</v>
+        <v>9.24</v>
       </c>
       <c r="AE109" s="0">
-        <v>10</v>
+        <v>9.24</v>
       </c>
       <c r="AF109" s="0">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AG109" s="0">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="AH109" s="0">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12783,13 +12783,13 @@
         <v>420</v>
       </c>
       <c r="O110" s="0">
-        <v>71.36</v>
+        <v>67.48</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>0.51905</v>
+        <v>0.50464</v>
       </c>
       <c r="R110" s="0">
         <v>0.52852</v>
@@ -12798,49 +12798,49 @@
         <v>0</v>
       </c>
       <c r="T110" s="0">
-        <v>551</v>
+        <v>643</v>
       </c>
       <c r="U110" s="0">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="V110" s="0">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="W110" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="X110" s="0">
-        <v>9.49</v>
+        <v>10.13</v>
       </c>
       <c r="Y110" s="0">
-        <v>9.57</v>
+        <v>10.14</v>
       </c>
       <c r="Z110" s="0">
-        <v>9.57</v>
+        <v>10.14</v>
       </c>
       <c r="AA110" s="0">
-        <v>-3.983</v>
+        <v>-9.203</v>
       </c>
       <c r="AB110" s="0">
-        <v>-4.167</v>
+        <v>-12.478</v>
       </c>
       <c r="AC110" s="0">
-        <v>9.64</v>
+        <v>9.39</v>
       </c>
       <c r="AD110" s="0">
-        <v>10.15</v>
+        <v>9.54</v>
       </c>
       <c r="AE110" s="0">
-        <v>10.15</v>
+        <v>9.54</v>
       </c>
       <c r="AF110" s="0">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AG110" s="0">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AH110" s="0">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12890,13 +12890,13 @@
         <v>256</v>
       </c>
       <c r="O111" s="0">
-        <v>84.48</v>
+        <v>85.56</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>0.37454</v>
+        <v>0.39</v>
       </c>
       <c r="R111" s="0">
         <v>0.37104</v>
@@ -12926,10 +12926,10 @@
         <v>8.15</v>
       </c>
       <c r="AA111" s="0">
-        <v>-1.308</v>
+        <v>-0.047</v>
       </c>
       <c r="AB111" s="0">
-        <v>-1.407</v>
+        <v>-0.315</v>
       </c>
       <c r="AC111" s="0">
         <v>-0.06</v>
@@ -12997,13 +12997,13 @@
         <v>295</v>
       </c>
       <c r="O112" s="0">
-        <v>84.8</v>
+        <v>81.16</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.43323</v>
+        <v>0.42631</v>
       </c>
       <c r="R112" s="0">
         <v>0.43356</v>
@@ -13012,43 +13012,43 @@
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>538</v>
+        <v>615</v>
       </c>
       <c r="U112" s="0">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="V112" s="0">
-        <v>519</v>
+        <v>548</v>
       </c>
       <c r="W112" s="0">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="X112" s="0">
-        <v>10.88</v>
+        <v>11.35</v>
       </c>
       <c r="Y112" s="0">
-        <v>17.83</v>
+        <v>20.73</v>
       </c>
       <c r="Z112" s="0">
-        <v>17.83</v>
+        <v>20.73</v>
       </c>
       <c r="AA112" s="0">
-        <v>-2.304</v>
+        <v>-6.498</v>
       </c>
       <c r="AB112" s="0">
-        <v>-2.171</v>
+        <v>-7.444</v>
       </c>
       <c r="AC112" s="0">
-        <v>0.14</v>
+        <v>-0.33</v>
       </c>
       <c r="AD112" s="0">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AE112" s="0">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AF112" s="0">
-        <v>-0.3</v>
+        <v>-0.38</v>
       </c>
       <c r="AG112" s="0">
         <v>0.04</v>
@@ -13104,13 +13104,13 @@
         <v>287.5</v>
       </c>
       <c r="O113" s="0">
-        <v>82.2</v>
+        <v>77.88</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>0.40927</v>
+        <v>0.39868</v>
       </c>
       <c r="R113" s="0">
         <v>0.41884</v>
@@ -13119,49 +13119,49 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>589</v>
+        <v>684</v>
       </c>
       <c r="U113" s="0">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="V113" s="0">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="W113" s="0">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="X113" s="0">
-        <v>11.09</v>
+        <v>11.72</v>
       </c>
       <c r="Y113" s="0">
-        <v>13.55</v>
+        <v>15.2</v>
       </c>
       <c r="Z113" s="0">
-        <v>13.55</v>
+        <v>15.2</v>
       </c>
       <c r="AA113" s="0">
-        <v>-4.463</v>
+        <v>-9.484</v>
       </c>
       <c r="AB113" s="0">
-        <v>-4.292</v>
+        <v>-11.295</v>
       </c>
       <c r="AC113" s="0">
-        <v>2.19</v>
+        <v>1.79</v>
       </c>
       <c r="AD113" s="0">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AE113" s="0">
-        <v>3.41</v>
+        <v>3.35</v>
       </c>
       <c r="AF113" s="0">
-        <v>-0.16</v>
+        <v>-0.24</v>
       </c>
       <c r="AG113" s="0">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AH113" s="0">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="AI113" s="0" t="s">
         <v>47</v>
@@ -13211,13 +13211,13 @@
         <v>500</v>
       </c>
       <c r="O114" s="0">
-        <v>66</v>
+        <v>60.2</v>
       </c>
       <c r="P114" s="0">
         <v>0</v>
       </c>
       <c r="Q114" s="0">
-        <v>0.5715</v>
+        <v>0.53595</v>
       </c>
       <c r="R114" s="0">
         <v>0.55842</v>
@@ -13226,49 +13226,49 @@
         <v>0</v>
       </c>
       <c r="T114" s="0">
-        <v>449</v>
+        <v>566</v>
       </c>
       <c r="U114" s="0">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="V114" s="0">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="W114" s="0">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="X114" s="0">
-        <v>8.44</v>
+        <v>9.35</v>
       </c>
       <c r="Y114" s="0">
-        <v>8.53</v>
+        <v>9.36</v>
       </c>
       <c r="Z114" s="0">
-        <v>8.53</v>
+        <v>9.36</v>
       </c>
       <c r="AA114" s="0">
-        <v>0.061</v>
+        <v>-8.733</v>
       </c>
       <c r="AB114" s="0">
-        <v>-0.179</v>
+        <v>-12.275</v>
       </c>
       <c r="AC114" s="0">
-        <v>11.04</v>
+        <v>10.6</v>
       </c>
       <c r="AD114" s="0">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="AE114" s="0">
-        <v>11.7</v>
+        <v>10.7</v>
       </c>
       <c r="AF114" s="0">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="AG114" s="0">
-        <v>2.67</v>
+        <v>2.28</v>
       </c>
       <c r="AH114" s="0">
-        <v>2.67</v>
+        <v>2.28</v>
       </c>
       <c r="AI114" s="0" t="s">
         <v>62</v>
@@ -13318,13 +13318,13 @@
         <v>500</v>
       </c>
       <c r="O115" s="0">
-        <v>65.8</v>
+        <v>60.28</v>
       </c>
       <c r="P115" s="0">
         <v>0</v>
       </c>
       <c r="Q115" s="0">
-        <v>0.56977</v>
+        <v>0.53666</v>
       </c>
       <c r="R115" s="0">
         <v>0.5574</v>
@@ -13333,49 +13333,49 @@
         <v>0</v>
       </c>
       <c r="T115" s="0">
-        <v>452</v>
+        <v>564</v>
       </c>
       <c r="U115" s="0">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="V115" s="0">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="W115" s="0">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="X115" s="0">
-        <v>8.47</v>
+        <v>9.33</v>
       </c>
       <c r="Y115" s="0">
-        <v>8.55</v>
+        <v>9.34</v>
       </c>
       <c r="Z115" s="0">
-        <v>8.55</v>
+        <v>9.34</v>
       </c>
       <c r="AA115" s="0">
-        <v>-0.061</v>
+        <v>-8.445</v>
       </c>
       <c r="AB115" s="0">
-        <v>-0.3</v>
+        <v>-11.986</v>
       </c>
       <c r="AC115" s="0">
-        <v>11.03</v>
+        <v>10.61</v>
       </c>
       <c r="AD115" s="0">
-        <v>11.67</v>
+        <v>10.72</v>
       </c>
       <c r="AE115" s="0">
-        <v>11.67</v>
+        <v>10.72</v>
       </c>
       <c r="AF115" s="0">
-        <v>1.69</v>
+        <v>2.18</v>
       </c>
       <c r="AG115" s="0">
-        <v>2.66</v>
+        <v>2.29</v>
       </c>
       <c r="AH115" s="0">
-        <v>2.66</v>
+        <v>2.29</v>
       </c>
       <c r="AI115" s="0" t="s">
         <v>62</v>
@@ -13425,13 +13425,13 @@
         <v>500</v>
       </c>
       <c r="O116" s="0">
-        <v>72.6</v>
+        <v>66</v>
       </c>
       <c r="P116" s="0">
         <v>0</v>
       </c>
       <c r="Q116" s="0">
-        <v>0.62865</v>
+        <v>0.58758</v>
       </c>
       <c r="R116" s="0">
         <v>0.61327</v>
@@ -13440,49 +13440,49 @@
         <v>0</v>
       </c>
       <c r="T116" s="0">
-        <v>465</v>
+        <v>595</v>
       </c>
       <c r="U116" s="0">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="V116" s="0">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="W116" s="0">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="X116" s="0">
-        <v>8.61</v>
+        <v>9.65</v>
       </c>
       <c r="Y116" s="0">
-        <v>8.78</v>
+        <v>9.68</v>
       </c>
       <c r="Z116" s="0">
-        <v>8.78</v>
+        <v>9.68</v>
       </c>
       <c r="AA116" s="0">
-        <v>0.221</v>
+        <v>-8.89</v>
       </c>
       <c r="AB116" s="0">
-        <v>0.018</v>
+        <v>-12.297</v>
       </c>
       <c r="AC116" s="0">
-        <v>10.16</v>
+        <v>10.07</v>
       </c>
       <c r="AD116" s="0">
-        <v>11.27</v>
+        <v>10.27</v>
       </c>
       <c r="AE116" s="0">
-        <v>11.27</v>
+        <v>10.27</v>
       </c>
       <c r="AF116" s="0">
-        <v>1.39</v>
+        <v>1.8</v>
       </c>
       <c r="AG116" s="0">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="AH116" s="0">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="AI116" s="0" t="s">
         <v>62</v>
@@ -13532,13 +13532,13 @@
         <v>300</v>
       </c>
       <c r="O117" s="0">
-        <v>53.56</v>
+        <v>51.12</v>
       </c>
       <c r="P117" s="0">
         <v>0</v>
       </c>
       <c r="Q117" s="0">
-        <v>0.27827</v>
+        <v>0.27307</v>
       </c>
       <c r="R117" s="0">
         <v>0.29929</v>
@@ -13547,49 +13547,49 @@
         <v>0</v>
       </c>
       <c r="T117" s="0">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="U117" s="0">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="V117" s="0">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="W117" s="0">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="X117" s="0">
-        <v>8.53</v>
+        <v>8.95</v>
       </c>
       <c r="Y117" s="0">
-        <v>8.53</v>
+        <v>8.96</v>
       </c>
       <c r="Z117" s="0">
-        <v>8.53</v>
+        <v>8.96</v>
       </c>
       <c r="AA117" s="0">
-        <v>-9.097</v>
+        <v>-13.238</v>
       </c>
       <c r="AB117" s="0">
-        <v>-9.396</v>
+        <v>-17.05</v>
       </c>
       <c r="AC117" s="0">
-        <v>11.58</v>
+        <v>10.96</v>
       </c>
       <c r="AD117" s="0">
-        <v>11.42</v>
+        <v>10.85</v>
       </c>
       <c r="AE117" s="0">
-        <v>11.42</v>
+        <v>10.85</v>
       </c>
       <c r="AF117" s="0">
-        <v>2.76</v>
+        <v>2.47</v>
       </c>
       <c r="AG117" s="0">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AH117" s="0">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AI117" s="0" t="s">
         <v>47</v>
@@ -13639,13 +13639,13 @@
         <v>300</v>
       </c>
       <c r="O118" s="0">
-        <v>61.6</v>
+        <v>58.36</v>
       </c>
       <c r="P118" s="0">
         <v>0</v>
       </c>
       <c r="Q118" s="0">
-        <v>0.32004</v>
+        <v>0.31174</v>
       </c>
       <c r="R118" s="0">
         <v>0.33038</v>
@@ -13654,49 +13654,49 @@
         <v>0</v>
       </c>
       <c r="T118" s="0">
-        <v>478</v>
+        <v>557</v>
       </c>
       <c r="U118" s="0">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="V118" s="0">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="W118" s="0">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="X118" s="0">
-        <v>8.74</v>
+        <v>9.26</v>
       </c>
       <c r="Y118" s="0">
-        <v>8.76</v>
+        <v>9.27</v>
       </c>
       <c r="Z118" s="0">
-        <v>8.76</v>
+        <v>9.27</v>
       </c>
       <c r="AA118" s="0">
-        <v>-5.289</v>
+        <v>-10.271</v>
       </c>
       <c r="AB118" s="0">
-        <v>-5.538</v>
+        <v>-13.822</v>
       </c>
       <c r="AC118" s="0">
-        <v>10.88</v>
+        <v>10.58</v>
       </c>
       <c r="AD118" s="0">
-        <v>11.11</v>
+        <v>10.48</v>
       </c>
       <c r="AE118" s="0">
-        <v>11.11</v>
+        <v>10.48</v>
       </c>
       <c r="AF118" s="0">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="AG118" s="0">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="AH118" s="0">
-        <v>2.57</v>
+        <v>2.29</v>
       </c>
       <c r="AI118" s="0" t="s">
         <v>47</v>
@@ -13746,13 +13746,13 @@
         <v>319.5</v>
       </c>
       <c r="O119" s="0">
-        <v>61.52</v>
+        <v>58.4</v>
       </c>
       <c r="P119" s="0">
         <v>0</v>
       </c>
       <c r="Q119" s="0">
-        <v>0.3404</v>
+        <v>0.33223</v>
       </c>
       <c r="R119" s="0">
         <v>0.35034</v>
@@ -13761,49 +13761,49 @@
         <v>0</v>
       </c>
       <c r="T119" s="0">
-        <v>479</v>
+        <v>556</v>
       </c>
       <c r="U119" s="0">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="V119" s="0">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="W119" s="0">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="X119" s="0">
-        <v>8.75</v>
+        <v>9.26</v>
       </c>
       <c r="Y119" s="0">
-        <v>8.77</v>
+        <v>9.26</v>
       </c>
       <c r="Z119" s="0">
-        <v>8.77</v>
+        <v>9.26</v>
       </c>
       <c r="AA119" s="0">
-        <v>-5.003</v>
+        <v>-9.821</v>
       </c>
       <c r="AB119" s="0">
-        <v>-5.252</v>
+        <v>-13.372</v>
       </c>
       <c r="AC119" s="0">
-        <v>10.88</v>
+        <v>10.59</v>
       </c>
       <c r="AD119" s="0">
-        <v>11.1</v>
+        <v>10.48</v>
       </c>
       <c r="AE119" s="0">
-        <v>11.1</v>
+        <v>10.48</v>
       </c>
       <c r="AF119" s="0">
-        <v>2.07</v>
+        <v>2.31</v>
       </c>
       <c r="AG119" s="0">
-        <v>2.56</v>
+        <v>2.29</v>
       </c>
       <c r="AH119" s="0">
-        <v>2.56</v>
+        <v>2.29</v>
       </c>
       <c r="AI119" s="0" t="s">
         <v>47</v>
@@ -13853,13 +13853,13 @@
         <v>300</v>
       </c>
       <c r="O120" s="0">
-        <v>62.4</v>
+        <v>60.08</v>
       </c>
       <c r="P120" s="0">
         <v>0</v>
       </c>
       <c r="Q120" s="0">
-        <v>0.3242</v>
+        <v>0.32093</v>
       </c>
       <c r="R120" s="0">
         <v>0.34724</v>
@@ -13868,49 +13868,49 @@
         <v>0</v>
       </c>
       <c r="T120" s="0">
-        <v>491</v>
+        <v>556</v>
       </c>
       <c r="U120" s="0">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="V120" s="0">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="W120" s="0">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="X120" s="0">
-        <v>8.88</v>
+        <v>9.25</v>
       </c>
       <c r="Y120" s="0">
-        <v>8.9</v>
+        <v>9.26</v>
       </c>
       <c r="Z120" s="0">
-        <v>8.9</v>
+        <v>9.26</v>
       </c>
       <c r="AA120" s="0">
-        <v>-8.719</v>
+        <v>-12.112</v>
       </c>
       <c r="AB120" s="0">
-        <v>-8.963</v>
+        <v>-15.65</v>
       </c>
       <c r="AC120" s="0">
-        <v>10.69</v>
+        <v>10.56</v>
       </c>
       <c r="AD120" s="0">
-        <v>10.94</v>
+        <v>10.49</v>
       </c>
       <c r="AE120" s="0">
-        <v>10.94</v>
+        <v>10.49</v>
       </c>
       <c r="AF120" s="0">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="AG120" s="0">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="AH120" s="0">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="AI120" s="0" t="s">
         <v>47</v>
@@ -13960,13 +13960,13 @@
         <v>540.3</v>
       </c>
       <c r="O121" s="0">
-        <v>109.96</v>
+        <v>109.32</v>
       </c>
       <c r="P121" s="0">
         <v>0</v>
       </c>
       <c r="Q121" s="0">
-        <v>1.02888</v>
+        <v>1.0517</v>
       </c>
       <c r="R121" s="0">
         <v>1.01254</v>
@@ -13975,40 +13975,40 @@
         <v>0</v>
       </c>
       <c r="T121" s="0">
-        <v>182</v>
+        <v>292</v>
       </c>
       <c r="U121" s="0">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="V121" s="0">
-        <v>393</v>
+        <v>600</v>
       </c>
       <c r="W121" s="0">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="X121" s="0">
-        <v>5.66</v>
+        <v>6.43</v>
       </c>
       <c r="Y121" s="0">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="Z121" s="0">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="AA121" s="0">
-        <v>-0.652</v>
+        <v>-1.229</v>
       </c>
       <c r="AB121" s="0">
-        <v>-0.536</v>
+        <v>-2.691</v>
       </c>
       <c r="AC121" s="0">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="AD121" s="0">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AE121" s="0">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AF121" s="0">
         <v>0.05</v>

--- a/Data/PFAN-Current.xlsx
+++ b/Data/PFAN-Current.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PFAN0313 " sheetId="1" r:id="rId2"/>
+    <sheet name="PFAN0330 " sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="479">
   <si>
-    <t xml:space="preserve">PFAN for 03/13/2023  </t>
+    <t xml:space="preserve">PFAN for 03/30/2023  </t>
   </si>
   <si>
     <t>Cusip</t>
@@ -1724,13 +1724,13 @@
         <v>283.6</v>
       </c>
       <c r="O3" s="0">
-        <v>73.6</v>
+        <v>68.64</v>
       </c>
       <c r="P3" s="0">
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>0.37166</v>
+        <v>0.33964</v>
       </c>
       <c r="R3" s="0">
         <v>0.40989</v>
@@ -1739,43 +1739,43 @@
         <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="U3" s="0">
-        <v>213</v>
+        <v>300</v>
       </c>
       <c r="V3" s="0">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="W3" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="X3" s="0">
-        <v>11.78</v>
+        <v>12.95</v>
       </c>
       <c r="Y3" s="0">
-        <v>16.65</v>
+        <v>19.34</v>
       </c>
       <c r="Z3" s="0">
-        <v>16.65</v>
+        <v>19.34</v>
       </c>
       <c r="AA3" s="0">
-        <v>-13.777</v>
+        <v>-19.588</v>
       </c>
       <c r="AB3" s="0">
-        <v>-15.522</v>
+        <v>-21.437</v>
       </c>
       <c r="AC3" s="0">
-        <v>1.19</v>
+        <v>0.77</v>
       </c>
       <c r="AD3" s="0">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AE3" s="0">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="AF3" s="0">
-        <v>-0.31</v>
+        <v>-0.37</v>
       </c>
       <c r="AG3" s="0">
         <v>0.11</v>
@@ -1831,37 +1831,37 @@
         <v>850</v>
       </c>
       <c r="O4" s="0">
-        <v>99.54</v>
+        <v>100.54</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>1.50651</v>
+        <v>1.49104</v>
       </c>
       <c r="R4" s="0">
         <v>1.42079</v>
       </c>
       <c r="S4" s="0">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>8.54</v>
+        <v>6.84</v>
       </c>
       <c r="Z4" s="0">
-        <v>8.54</v>
+        <v>6.84</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.831</v>
+        <v>1.844</v>
       </c>
       <c r="AC4" s="0">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AD4" s="0">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AE4" s="0">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AG4" s="0">
         <v>0</v>
@@ -1917,13 +1917,13 @@
         <v>1043</v>
       </c>
       <c r="O5" s="0">
-        <v>86.9</v>
+        <v>88.83</v>
       </c>
       <c r="P5" s="0">
         <v>0</v>
       </c>
       <c r="Q5" s="0">
-        <v>1.61384</v>
+        <v>1.6165</v>
       </c>
       <c r="R5" s="0">
         <v>1.61377</v>
@@ -1932,22 +1932,22 @@
         <v>0</v>
       </c>
       <c r="Y5" s="0">
-        <v>24.54</v>
+        <v>23.08</v>
       </c>
       <c r="Z5" s="0">
-        <v>24.54</v>
+        <v>23.08</v>
       </c>
       <c r="AA5" s="0">
-        <v>-4.903</v>
+        <v>-2.791</v>
       </c>
       <c r="AC5" s="0">
         <v>0.23</v>
       </c>
       <c r="AD5" s="0">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AE5" s="0">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AG5" s="0">
         <v>0.01</v>
@@ -2003,64 +2003,64 @@
         <v>575</v>
       </c>
       <c r="O6" s="0">
-        <v>79</v>
+        <v>78.32</v>
       </c>
       <c r="P6" s="0">
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0.80882</v>
+        <v>0.78573</v>
       </c>
       <c r="R6" s="0">
         <v>0.84235</v>
       </c>
       <c r="S6" s="0">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T6" s="0">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="U6" s="0">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="V6" s="0">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="W6" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="X6" s="0">
-        <v>10.97</v>
+        <v>11.32</v>
       </c>
       <c r="Y6" s="0">
-        <v>19.62</v>
+        <v>20.64</v>
       </c>
       <c r="Z6" s="0">
-        <v>19.62</v>
+        <v>20.64</v>
       </c>
       <c r="AA6" s="0">
-        <v>-8.692</v>
+        <v>-7.708</v>
       </c>
       <c r="AB6" s="0">
-        <v>-9.804</v>
+        <v>-8.932</v>
       </c>
       <c r="AC6" s="0">
-        <v>-0.27</v>
+        <v>-0.25</v>
       </c>
       <c r="AD6" s="0">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AE6" s="0">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="AF6" s="0">
-        <v>-0.42</v>
+        <v>-0.43</v>
       </c>
       <c r="AG6" s="0">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AH6" s="0">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AI6" s="0" t="s">
         <v>47</v>
@@ -2110,25 +2110,25 @@
         <v>402.5</v>
       </c>
       <c r="O7" s="0">
-        <v>84.8</v>
+        <v>83.12</v>
       </c>
       <c r="P7" s="0">
         <v>0</v>
       </c>
       <c r="Q7" s="0">
-        <v>0.60774</v>
+        <v>0.58372</v>
       </c>
       <c r="R7" s="0">
         <v>0.61254</v>
       </c>
       <c r="S7" s="0">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="T7" s="0">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="U7" s="0">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V7" s="0">
         <v>522</v>
@@ -2137,28 +2137,28 @@
         <v>46</v>
       </c>
       <c r="X7" s="0">
-        <v>10.57</v>
+        <v>11.08</v>
       </c>
       <c r="Y7" s="0">
-        <v>19</v>
+        <v>21.17</v>
       </c>
       <c r="Z7" s="0">
-        <v>19</v>
+        <v>21.17</v>
       </c>
       <c r="AA7" s="0">
-        <v>-5.652</v>
+        <v>-5.713</v>
       </c>
       <c r="AB7" s="0">
-        <v>-6.465</v>
+        <v>-6.632</v>
       </c>
       <c r="AC7" s="0">
-        <v>-0.26</v>
+        <v>-0.32</v>
       </c>
       <c r="AD7" s="0">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AE7" s="0">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="AF7" s="0">
         <v>-0.34</v>
@@ -2217,19 +2217,19 @@
         <v>325</v>
       </c>
       <c r="O8" s="0">
-        <v>99.24</v>
+        <v>95.76</v>
       </c>
       <c r="P8" s="0">
         <v>0</v>
       </c>
       <c r="Q8" s="0">
-        <v>0.57428</v>
+        <v>0.543</v>
       </c>
       <c r="R8" s="0">
         <v>0.56063</v>
       </c>
       <c r="S8" s="0">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="T8" s="0">
         <v>463</v>
@@ -2253,10 +2253,10 @@
         <v>99.99</v>
       </c>
       <c r="AA8" s="0">
-        <v>-2.591</v>
+        <v>-3.568</v>
       </c>
       <c r="AB8" s="0">
-        <v>-2.449</v>
+        <v>-3.726</v>
       </c>
       <c r="AC8" s="0">
         <v>-1.09</v>
@@ -2324,13 +2324,13 @@
         <v>1150</v>
       </c>
       <c r="O9" s="0">
-        <v>121.63</v>
+        <v>120.53</v>
       </c>
       <c r="P9" s="0">
         <v>0</v>
       </c>
       <c r="Q9" s="0">
-        <v>2.49062</v>
+        <v>2.41838</v>
       </c>
       <c r="R9" s="0">
         <v>2.48094</v>
@@ -2345,16 +2345,16 @@
         <v>-10</v>
       </c>
       <c r="AA9" s="0">
-        <v>-4.535</v>
+        <v>-5.402</v>
       </c>
       <c r="AC9" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AD9" s="0">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AE9" s="0">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="AG9" s="0">
         <v>0</v>
@@ -2410,58 +2410,58 @@
         <v>350</v>
       </c>
       <c r="O10" s="0">
-        <v>93.68</v>
+        <v>93.04</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
       </c>
       <c r="Q10" s="0">
-        <v>0.58381</v>
+        <v>0.56816</v>
       </c>
       <c r="R10" s="0">
         <v>0.549</v>
       </c>
       <c r="S10" s="0">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="T10" s="0">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="U10" s="0">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="V10" s="0">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="W10" s="0">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="X10" s="0">
-        <v>9.09</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" s="0">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="Z10" s="0">
-        <v>12.82</v>
+        <v>12.48</v>
       </c>
       <c r="AA10" s="0">
-        <v>1.123</v>
+        <v>2.105</v>
       </c>
       <c r="AB10" s="0">
-        <v>0.367</v>
+        <v>1.301</v>
       </c>
       <c r="AC10" s="0">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="AD10" s="0">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AE10" s="0">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF10" s="0">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG10" s="0">
         <v>0.02</v>
@@ -2517,13 +2517,13 @@
         <v>287.5</v>
       </c>
       <c r="O11" s="0">
-        <v>90</v>
+        <v>94.28</v>
       </c>
       <c r="P11" s="0">
         <v>0</v>
       </c>
       <c r="Q11" s="0">
-        <v>0.46072</v>
+        <v>0.47292</v>
       </c>
       <c r="R11" s="0">
         <v>0.47453</v>
@@ -2532,43 +2532,43 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="U11" s="0">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="V11" s="0">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="W11" s="0">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="X11" s="0">
-        <v>8.74</v>
+        <v>8.31</v>
       </c>
       <c r="Y11" s="0">
-        <v>28.79</v>
+        <v>21.63</v>
       </c>
       <c r="Z11" s="0">
-        <v>28.79</v>
+        <v>21.63</v>
       </c>
       <c r="AA11" s="0">
-        <v>-7.673</v>
+        <v>-3.283</v>
       </c>
       <c r="AB11" s="0">
-        <v>-7.949</v>
+        <v>-3.73</v>
       </c>
       <c r="AC11" s="0">
-        <v>-1.23</v>
+        <v>-0.82</v>
       </c>
       <c r="AD11" s="0">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AF11" s="0">
-        <v>-0.4</v>
+        <v>-0.31</v>
       </c>
       <c r="AG11" s="0">
         <v>0.01</v>
@@ -2624,13 +2624,13 @@
         <v>1150</v>
       </c>
       <c r="O12" s="0">
-        <v>53.32</v>
+        <v>60.76</v>
       </c>
       <c r="P12" s="0">
         <v>0</v>
       </c>
       <c r="Q12" s="0">
-        <v>1.0918</v>
+        <v>1.21912</v>
       </c>
       <c r="R12" s="0">
         <v>1.06394</v>
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="Y12" s="0">
-        <v>74.53</v>
+        <v>58.43</v>
       </c>
       <c r="Z12" s="0">
-        <v>74.53</v>
+        <v>58.43</v>
       </c>
       <c r="AA12" s="0">
-        <v>-2.416</v>
+        <v>11.201</v>
       </c>
       <c r="AC12" s="0">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="AD12" s="0">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AE12" s="0">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="AG12" s="0">
         <v>0.01</v>
@@ -2710,13 +2710,13 @@
         <v>1500</v>
       </c>
       <c r="O13" s="0">
-        <v>96.51</v>
+        <v>99.83</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>2.57776</v>
+        <v>2.6128</v>
       </c>
       <c r="R13" s="0">
         <v>2.45687</v>
@@ -2725,22 +2725,22 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>24.99</v>
+        <v>10.17</v>
       </c>
       <c r="Z13" s="0">
-        <v>24.99</v>
+        <v>10.17</v>
       </c>
       <c r="AA13" s="0">
-        <v>-0.227</v>
+        <v>3.205</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AD13" s="0">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AE13" s="0">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="AG13" s="0">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>350</v>
       </c>
       <c r="O14" s="0">
-        <v>59</v>
+        <v>61.64</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
       </c>
       <c r="Q14" s="0">
-        <v>0.36769</v>
+        <v>0.37641</v>
       </c>
       <c r="R14" s="0">
         <v>0.40203</v>
@@ -2811,49 +2811,49 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="U14" s="0">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="V14" s="0">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="W14" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="X14" s="0">
-        <v>7.99</v>
+        <v>7.64</v>
       </c>
       <c r="Y14" s="0">
-        <v>7.99</v>
+        <v>7.67</v>
       </c>
       <c r="Z14" s="0">
-        <v>7.99</v>
+        <v>7.67</v>
       </c>
       <c r="AA14" s="0">
-        <v>-13.031</v>
+        <v>-9.139</v>
       </c>
       <c r="AB14" s="0">
-        <v>-16.829</v>
+        <v>-12.327</v>
       </c>
       <c r="AC14" s="0">
-        <v>12.01</v>
+        <v>12.16</v>
       </c>
       <c r="AD14" s="0">
-        <v>12.27</v>
+        <v>12.76</v>
       </c>
       <c r="AE14" s="0">
-        <v>12.27</v>
+        <v>12.76</v>
       </c>
       <c r="AF14" s="0">
-        <v>2.1</v>
+        <v>2.68</v>
       </c>
       <c r="AG14" s="0">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="AH14" s="0">
-        <v>3.1</v>
+        <v>3.36</v>
       </c>
       <c r="AI14" s="0" t="s">
         <v>86</v>
@@ -2903,13 +2903,13 @@
         <v>260</v>
       </c>
       <c r="O15" s="0">
-        <v>59.76</v>
+        <v>61</v>
       </c>
       <c r="P15" s="0">
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.27666</v>
+        <v>0.27672</v>
       </c>
       <c r="R15" s="0">
         <v>0.31327</v>
@@ -2918,49 +2918,49 @@
         <v>0</v>
       </c>
       <c r="T15" s="0">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="U15" s="0">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="V15" s="0">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="W15" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="X15" s="0">
-        <v>8.32</v>
+        <v>8.17</v>
       </c>
       <c r="Y15" s="0">
-        <v>8.32</v>
+        <v>8.18</v>
       </c>
       <c r="Z15" s="0">
-        <v>8.32</v>
+        <v>8.18</v>
       </c>
       <c r="AA15" s="0">
-        <v>-16.02</v>
+        <v>-14.278</v>
       </c>
       <c r="AB15" s="0">
-        <v>-19.785</v>
+        <v>-17.464</v>
       </c>
       <c r="AC15" s="0">
-        <v>11.58</v>
+        <v>11.63</v>
       </c>
       <c r="AD15" s="0">
-        <v>11.77</v>
+        <v>11.94</v>
       </c>
       <c r="AE15" s="0">
-        <v>11.77</v>
+        <v>11.94</v>
       </c>
       <c r="AF15" s="0">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AG15" s="0">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AH15" s="0">
-        <v>2.86</v>
+        <v>2.95</v>
       </c>
       <c r="AI15" s="0" t="s">
         <v>86</v>
@@ -3010,64 +3010,64 @@
         <v>250</v>
       </c>
       <c r="O16" s="0">
-        <v>65.28</v>
+        <v>72.96</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.29059</v>
+        <v>0.31824</v>
       </c>
       <c r="R16" s="0">
         <v>0.3234</v>
       </c>
       <c r="S16" s="0">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T16" s="0">
-        <v>415</v>
+        <v>296</v>
       </c>
       <c r="U16" s="0">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="V16" s="0">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="W16" s="0">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="X16" s="0">
-        <v>7.83</v>
+        <v>6.68</v>
       </c>
       <c r="Y16" s="0">
-        <v>7.91</v>
+        <v>6.96</v>
       </c>
       <c r="Z16" s="0">
-        <v>7.91</v>
+        <v>6.96</v>
       </c>
       <c r="AA16" s="0">
-        <v>-14.555</v>
+        <v>-2.866</v>
       </c>
       <c r="AB16" s="0">
-        <v>-18.181</v>
+        <v>-5.981</v>
       </c>
       <c r="AC16" s="0">
-        <v>11.79</v>
+        <v>11.93</v>
       </c>
       <c r="AD16" s="0">
-        <v>12.45</v>
+        <v>14.27</v>
       </c>
       <c r="AE16" s="0">
-        <v>12.45</v>
+        <v>14.27</v>
       </c>
       <c r="AF16" s="0">
-        <v>2.55</v>
+        <v>1.61</v>
       </c>
       <c r="AG16" s="0">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="AH16" s="0">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="AI16" s="0" t="s">
         <v>86</v>
@@ -3117,64 +3117,64 @@
         <v>300</v>
       </c>
       <c r="O17" s="0">
-        <v>64.32</v>
+        <v>74.76</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.34358</v>
+        <v>0.39131</v>
       </c>
       <c r="R17" s="0">
         <v>0.39011</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T17" s="0">
-        <v>446</v>
+        <v>289</v>
       </c>
       <c r="U17" s="0">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="V17" s="0">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="W17" s="0">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="X17" s="0">
-        <v>8.15</v>
+        <v>6.61</v>
       </c>
       <c r="Y17" s="0">
-        <v>8.18</v>
+        <v>6.91</v>
       </c>
       <c r="Z17" s="0">
-        <v>8.18</v>
+        <v>6.91</v>
       </c>
       <c r="AA17" s="0">
-        <v>-16.25</v>
+        <v>-0.988</v>
       </c>
       <c r="AB17" s="0">
-        <v>-19.884</v>
+        <v>-4.115</v>
       </c>
       <c r="AC17" s="0">
-        <v>11.35</v>
+        <v>11.68</v>
       </c>
       <c r="AD17" s="0">
-        <v>11.9</v>
+        <v>14.34</v>
       </c>
       <c r="AE17" s="0">
-        <v>11.9</v>
+        <v>14.34</v>
       </c>
       <c r="AF17" s="0">
-        <v>2.34</v>
+        <v>1.46</v>
       </c>
       <c r="AG17" s="0">
-        <v>2.94</v>
+        <v>4.18</v>
       </c>
       <c r="AH17" s="0">
-        <v>2.94</v>
+        <v>4.18</v>
       </c>
       <c r="AI17" s="0" t="s">
         <v>86</v>
@@ -3224,64 +3224,64 @@
         <v>671.1</v>
       </c>
       <c r="O18" s="0">
-        <v>62.12</v>
+        <v>65.8</v>
       </c>
       <c r="P18" s="0">
         <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.74229</v>
+        <v>0.77045</v>
       </c>
       <c r="R18" s="0">
         <v>0.83995</v>
       </c>
       <c r="S18" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T18" s="0">
-        <v>644</v>
+        <v>585</v>
       </c>
       <c r="U18" s="0">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="V18" s="0">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="W18" s="0">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="X18" s="0">
-        <v>10.14</v>
+        <v>9.6</v>
       </c>
       <c r="Y18" s="0">
-        <v>10.14</v>
+        <v>9.61</v>
       </c>
       <c r="Z18" s="0">
-        <v>10.14</v>
+        <v>9.61</v>
       </c>
       <c r="AA18" s="0">
-        <v>-15.963</v>
+        <v>-10.985</v>
       </c>
       <c r="AB18" s="0">
-        <v>-19.414</v>
+        <v>-14.008</v>
       </c>
       <c r="AC18" s="0">
-        <v>9.81</v>
+        <v>10.06</v>
       </c>
       <c r="AD18" s="0">
-        <v>9.78</v>
+        <v>10.28</v>
       </c>
       <c r="AE18" s="0">
-        <v>9.78</v>
+        <v>10.28</v>
       </c>
       <c r="AF18" s="0">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AG18" s="0">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="AH18" s="0">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="AI18" s="0" t="s">
         <v>47</v>
@@ -3331,19 +3331,19 @@
         <v>1006.2</v>
       </c>
       <c r="O19" s="0">
-        <v>115.42</v>
+        <v>119.78</v>
       </c>
       <c r="P19" s="0">
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>2.0679</v>
+        <v>2.1028</v>
       </c>
       <c r="R19" s="0">
         <v>1.93492</v>
       </c>
       <c r="S19" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y19" s="0">
         <v>-10</v>
@@ -3352,16 +3352,16 @@
         <v>-10</v>
       </c>
       <c r="AA19" s="0">
-        <v>1.629</v>
+        <v>5.466</v>
       </c>
       <c r="AC19" s="0">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AD19" s="0">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AE19" s="0">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="AG19" s="0">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>4.537</v>
       </c>
       <c r="F20" s="2">
-        <v>44998</v>
+        <v>45015</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>125</v>
@@ -3414,7 +3414,7 @@
         <v>124</v>
       </c>
       <c r="N20" s="0">
-        <v>40.983</v>
+        <v>1106.546</v>
       </c>
       <c r="O20" s="0">
         <v>100</v>
@@ -3423,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="0">
-        <v>0.07297</v>
+        <v>1.93064</v>
       </c>
       <c r="R20" s="0">
         <v>0</v>
@@ -3524,13 +3524,13 @@
         <v>712.6</v>
       </c>
       <c r="O21" s="0">
-        <v>90.3</v>
+        <v>89.4</v>
       </c>
       <c r="P21" s="0">
         <v>0</v>
       </c>
       <c r="Q21" s="0">
-        <v>1.14575</v>
+        <v>1.11152</v>
       </c>
       <c r="R21" s="0">
         <v>1.10884</v>
@@ -3539,49 +3539,49 @@
         <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="U21" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="V21" s="0">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="W21" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="X21" s="0">
-        <v>10.24</v>
+        <v>10.39</v>
       </c>
       <c r="Y21" s="0">
-        <v>10.24</v>
+        <v>10.39</v>
       </c>
       <c r="Z21" s="0">
-        <v>10.24</v>
+        <v>10.39</v>
       </c>
       <c r="AA21" s="0">
-        <v>-1.741</v>
+        <v>-2.72</v>
       </c>
       <c r="AB21" s="0">
-        <v>-4.987</v>
+        <v>-5.584</v>
       </c>
       <c r="AC21" s="0">
-        <v>9.38</v>
+        <v>9.18</v>
       </c>
       <c r="AD21" s="0">
-        <v>9.78</v>
+        <v>9.59</v>
       </c>
       <c r="AE21" s="0">
-        <v>9.78</v>
+        <v>9.59</v>
       </c>
       <c r="AF21" s="0">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AG21" s="0">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AH21" s="0">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AI21" s="0" t="s">
         <v>47</v>
@@ -3631,55 +3631,55 @@
         <v>492.5</v>
       </c>
       <c r="O22" s="0">
-        <v>99.32</v>
+        <v>98.16</v>
       </c>
       <c r="P22" s="0">
         <v>0</v>
       </c>
       <c r="Q22" s="0">
-        <v>0.87096</v>
+        <v>0.84348</v>
       </c>
       <c r="R22" s="0">
         <v>0.85725</v>
       </c>
       <c r="S22" s="0">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="T22" s="0">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="U22" s="0">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="V22" s="0">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="W22" s="0">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="X22" s="0">
-        <v>6.55</v>
+        <v>6.71</v>
       </c>
       <c r="Y22" s="0">
-        <v>8.27</v>
+        <v>8.15</v>
       </c>
       <c r="Z22" s="0">
-        <v>8.27</v>
+        <v>8.15</v>
       </c>
       <c r="AA22" s="0">
-        <v>-3.385</v>
+        <v>-2.872</v>
       </c>
       <c r="AB22" s="0">
-        <v>-4.456</v>
+        <v>-3.993</v>
       </c>
       <c r="AC22" s="0">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AD22" s="0">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AE22" s="0">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF22" s="0">
         <v>-0.12</v>
@@ -3738,58 +3738,58 @@
         <v>420</v>
       </c>
       <c r="O23" s="0">
-        <v>100.4</v>
+        <v>98.36</v>
       </c>
       <c r="P23" s="0">
         <v>0</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.75083</v>
+        <v>0.72078</v>
       </c>
       <c r="R23" s="0">
         <v>0.73105</v>
       </c>
       <c r="S23" s="0">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T23" s="0">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="U23" s="0">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="V23" s="0">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="W23" s="0">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="X23" s="0">
-        <v>6.51</v>
+        <v>7.03</v>
       </c>
       <c r="Y23" s="0">
-        <v>8.25</v>
+        <v>8.93</v>
       </c>
       <c r="Z23" s="0">
-        <v>8.25</v>
+        <v>8.93</v>
       </c>
       <c r="AA23" s="0">
-        <v>-2.335</v>
+        <v>-2.592</v>
       </c>
       <c r="AB23" s="0">
-        <v>-3.079</v>
+        <v>-3.412</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.58</v>
+        <v>0.48</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AE23" s="0">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="AF23" s="0">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="AG23" s="0">
         <v>0.02</v>
@@ -3845,64 +3845,64 @@
         <v>517.5</v>
       </c>
       <c r="O24" s="0">
-        <v>103.2</v>
+        <v>101.52</v>
       </c>
       <c r="P24" s="0">
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>0.95093</v>
+        <v>0.91663</v>
       </c>
       <c r="R24" s="0">
         <v>0.92109</v>
       </c>
       <c r="S24" s="0">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T24" s="0">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="U24" s="0">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="V24" s="0">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="W24" s="0">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="X24" s="0">
-        <v>4.42</v>
+        <v>4.64</v>
       </c>
       <c r="Y24" s="0">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
       <c r="Z24" s="0">
-        <v>7.45</v>
+        <v>7.46</v>
       </c>
       <c r="AA24" s="0">
-        <v>-1.826</v>
+        <v>-1.641</v>
       </c>
       <c r="AB24" s="0">
-        <v>-3.591</v>
+        <v>-3.403</v>
       </c>
       <c r="AC24" s="0">
-        <v>3.98</v>
+        <v>3.95</v>
       </c>
       <c r="AD24" s="0">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AE24" s="0">
-        <v>13.11</v>
+        <v>13.29</v>
       </c>
       <c r="AF24" s="0">
-        <v>-0.98</v>
+        <v>-1.13</v>
       </c>
       <c r="AG24" s="0">
         <v>0.04</v>
       </c>
       <c r="AH24" s="0">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AI24" s="0" t="s">
         <v>47</v>
@@ -3952,64 +3952,64 @@
         <v>536.5</v>
       </c>
       <c r="O25" s="0">
-        <v>103.12</v>
+        <v>103.44</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
       </c>
       <c r="Q25" s="0">
-        <v>0.98507</v>
+        <v>0.96826</v>
       </c>
       <c r="R25" s="0">
         <v>0.93965</v>
       </c>
       <c r="S25" s="0">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="T25" s="0">
-        <v>-47</v>
+        <v>-393</v>
       </c>
       <c r="U25" s="0">
-        <v>68</v>
+        <v>-278</v>
       </c>
       <c r="V25" s="0">
-        <v>-17</v>
+        <v>-429</v>
       </c>
       <c r="W25" s="0">
-        <v>81</v>
+        <v>-331</v>
       </c>
       <c r="X25" s="0">
-        <v>3.12</v>
+        <v>-0.5</v>
       </c>
       <c r="Y25" s="0">
-        <v>5.03</v>
+        <v>0.82</v>
       </c>
       <c r="Z25" s="0">
-        <v>7.83</v>
+        <v>7.69</v>
       </c>
       <c r="AA25" s="0">
-        <v>-0.309</v>
+        <v>1.903</v>
       </c>
       <c r="AB25" s="0">
-        <v>-0.895</v>
+        <v>1.201</v>
       </c>
       <c r="AC25" s="0">
-        <v>1.27</v>
+        <v>0.48</v>
       </c>
       <c r="AD25" s="0">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="AE25" s="0">
-        <v>12.45</v>
+        <v>12.89</v>
       </c>
       <c r="AF25" s="0">
-        <v>-0.84</v>
+        <v>0.01</v>
       </c>
       <c r="AG25" s="0">
         <v>0.01</v>
       </c>
       <c r="AH25" s="0">
-        <v>3.21</v>
+        <v>3.39</v>
       </c>
       <c r="AI25" s="0" t="s">
         <v>47</v>
@@ -4059,19 +4059,19 @@
         <v>306.8</v>
       </c>
       <c r="O26" s="0">
-        <v>117.6</v>
+        <v>116.4</v>
       </c>
       <c r="P26" s="0">
         <v>0</v>
       </c>
       <c r="Q26" s="0">
-        <v>0.64242</v>
+        <v>0.62308</v>
       </c>
       <c r="R26" s="0">
         <v>0.62087</v>
       </c>
       <c r="S26" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X26" s="0">
         <v>-8.51</v>
@@ -4080,22 +4080,22 @@
         <v>-10</v>
       </c>
       <c r="Z26" s="0">
-        <v>6.96</v>
+        <v>6.93</v>
       </c>
       <c r="AA26" s="0">
-        <v>-1.606</v>
+        <v>-0.937</v>
       </c>
       <c r="AB26" s="0">
-        <v>-2.006</v>
+        <v>-1.483</v>
       </c>
       <c r="AC26" s="0">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="AD26" s="0">
-        <v>0.58</v>
+        <v>0.81</v>
       </c>
       <c r="AE26" s="0">
-        <v>14.05</v>
+        <v>14.3</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0.01</v>
       </c>
       <c r="AH26" s="0">
-        <v>4.07</v>
+        <v>4.16</v>
       </c>
       <c r="AI26" s="0" t="s">
         <v>47</v>
@@ -4154,13 +4154,13 @@
         <v>260</v>
       </c>
       <c r="O27" s="0">
-        <v>74.2</v>
+        <v>72.64</v>
       </c>
       <c r="P27" s="0">
         <v>0</v>
       </c>
       <c r="Q27" s="0">
-        <v>0.34351</v>
+        <v>0.32952</v>
       </c>
       <c r="R27" s="0">
         <v>0.35289</v>
@@ -4169,43 +4169,43 @@
         <v>0</v>
       </c>
       <c r="T27" s="0">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="U27" s="0">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="V27" s="0">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="W27" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="X27" s="0">
-        <v>12.23</v>
+        <v>12.84</v>
       </c>
       <c r="Y27" s="0">
-        <v>21.46</v>
+        <v>22.95</v>
       </c>
       <c r="Z27" s="0">
-        <v>21.46</v>
+        <v>22.95</v>
       </c>
       <c r="AA27" s="0">
-        <v>-7.435</v>
+        <v>-9.381</v>
       </c>
       <c r="AB27" s="0">
-        <v>-8.576</v>
+        <v>-10.647</v>
       </c>
       <c r="AC27" s="0">
-        <v>-0.28</v>
+        <v>-0.46</v>
       </c>
       <c r="AD27" s="0">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="AE27" s="0">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="AF27" s="0">
-        <v>-0.46</v>
+        <v>-0.48</v>
       </c>
       <c r="AG27" s="0">
         <v>0.06</v>
@@ -4261,13 +4261,13 @@
         <v>325</v>
       </c>
       <c r="O28" s="0">
-        <v>80.08</v>
+        <v>78.84</v>
       </c>
       <c r="P28" s="0">
         <v>0</v>
       </c>
       <c r="Q28" s="0">
-        <v>0.46341</v>
+        <v>0.44706</v>
       </c>
       <c r="R28" s="0">
         <v>0.49152</v>
@@ -4276,43 +4276,43 @@
         <v>0</v>
       </c>
       <c r="T28" s="0">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="U28" s="0">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="V28" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="W28" s="0">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="X28" s="0">
-        <v>12.89</v>
+        <v>13.49</v>
       </c>
       <c r="Y28" s="0">
-        <v>31.78</v>
+        <v>35.24</v>
       </c>
       <c r="Z28" s="0">
-        <v>31.78</v>
+        <v>35.24</v>
       </c>
       <c r="AA28" s="0">
-        <v>-10.345</v>
+        <v>-11.733</v>
       </c>
       <c r="AB28" s="0">
-        <v>-10.758</v>
+        <v>-12.277</v>
       </c>
       <c r="AC28" s="0">
-        <v>-1.04</v>
+        <v>-1.2</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AE28" s="0">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="AF28" s="0">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="AG28" s="0">
         <v>0.01</v>
@@ -4368,13 +4368,13 @@
         <v>1437.5</v>
       </c>
       <c r="O29" s="0">
-        <v>43.79</v>
+        <v>41.35</v>
       </c>
       <c r="P29" s="0">
         <v>0</v>
       </c>
       <c r="Q29" s="0">
-        <v>1.12071</v>
+        <v>1.03711</v>
       </c>
       <c r="R29" s="0">
         <v>1.07726</v>
@@ -4383,28 +4383,28 @@
         <v>0</v>
       </c>
       <c r="Y29" s="0">
-        <v>12.22</v>
+        <v>13.04</v>
       </c>
       <c r="Z29" s="0">
-        <v>12.22</v>
+        <v>13.04</v>
       </c>
       <c r="AA29" s="0">
-        <v>-1.071</v>
+        <v>-6.572</v>
       </c>
       <c r="AC29" s="0">
         <v>1.74</v>
       </c>
       <c r="AD29" s="0">
-        <v>8.03</v>
+        <v>7.47</v>
       </c>
       <c r="AE29" s="0">
-        <v>8.03</v>
+        <v>7.47</v>
       </c>
       <c r="AG29" s="0">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AH29" s="0">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="AI29" s="0" t="s">
         <v>47</v>
@@ -4454,64 +4454,64 @@
         <v>280</v>
       </c>
       <c r="O30" s="0">
-        <v>93.68</v>
+        <v>95.76</v>
       </c>
       <c r="P30" s="0">
         <v>0</v>
       </c>
       <c r="Q30" s="0">
-        <v>0.46705</v>
+        <v>0.46782</v>
       </c>
       <c r="R30" s="0">
         <v>0.46575</v>
       </c>
       <c r="S30" s="0">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="T30" s="0">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="U30" s="0">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="V30" s="0">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="W30" s="0">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="X30" s="0">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="Y30" s="0">
-        <v>6.4</v>
+        <v>6.28</v>
       </c>
       <c r="Z30" s="0">
-        <v>6.4</v>
+        <v>6.28</v>
       </c>
       <c r="AA30" s="0">
-        <v>-4.642</v>
+        <v>-1.029</v>
       </c>
       <c r="AB30" s="0">
-        <v>-6.509</v>
+        <v>-2.838</v>
       </c>
       <c r="AC30" s="0">
-        <v>6.49</v>
+        <v>5.14</v>
       </c>
       <c r="AD30" s="0">
-        <v>14.97</v>
+        <v>15.18</v>
       </c>
       <c r="AE30" s="0">
-        <v>14.97</v>
+        <v>15.18</v>
       </c>
       <c r="AF30" s="0">
-        <v>-1.63</v>
+        <v>-2.22</v>
       </c>
       <c r="AG30" s="0">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="AH30" s="0">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="AI30" s="0" t="s">
         <v>56</v>
@@ -4561,13 +4561,13 @@
         <v>630</v>
       </c>
       <c r="O31" s="0">
-        <v>93.52</v>
+        <v>96.16</v>
       </c>
       <c r="P31" s="0">
         <v>0</v>
       </c>
       <c r="Q31" s="0">
-        <v>1.04906</v>
+        <v>1.05698</v>
       </c>
       <c r="R31" s="0">
         <v>1.04282</v>
@@ -4576,49 +4576,49 @@
         <v>0</v>
       </c>
       <c r="T31" s="0">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="U31" s="0">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="V31" s="0">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="W31" s="0">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="X31" s="0">
-        <v>4.57</v>
+        <v>4.16</v>
       </c>
       <c r="Y31" s="0">
-        <v>6.36</v>
+        <v>6.2</v>
       </c>
       <c r="Z31" s="0">
-        <v>6.36</v>
+        <v>6.2</v>
       </c>
       <c r="AA31" s="0">
-        <v>-4.337</v>
+        <v>-1.637</v>
       </c>
       <c r="AB31" s="0">
-        <v>-6.305</v>
+        <v>-3.53</v>
       </c>
       <c r="AC31" s="0">
-        <v>6.45</v>
+        <v>5.53</v>
       </c>
       <c r="AD31" s="0">
-        <v>15.18</v>
+        <v>15.47</v>
       </c>
       <c r="AE31" s="0">
-        <v>15.18</v>
+        <v>15.47</v>
       </c>
       <c r="AF31" s="0">
-        <v>-1.45</v>
+        <v>-1.88</v>
       </c>
       <c r="AG31" s="0">
-        <v>4.33</v>
+        <v>4.48</v>
       </c>
       <c r="AH31" s="0">
-        <v>4.33</v>
+        <v>4.48</v>
       </c>
       <c r="AI31" s="0" t="s">
         <v>56</v>
@@ -4668,13 +4668,13 @@
         <v>977.5</v>
       </c>
       <c r="O32" s="0">
-        <v>67.12</v>
+        <v>56.92</v>
       </c>
       <c r="P32" s="0">
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1.16822</v>
+        <v>0.97076</v>
       </c>
       <c r="R32" s="0">
         <v>1.24728</v>
@@ -4683,49 +4683,49 @@
         <v>0</v>
       </c>
       <c r="T32" s="0">
-        <v>631</v>
+        <v>815</v>
       </c>
       <c r="U32" s="0">
-        <v>161</v>
+        <v>345</v>
       </c>
       <c r="V32" s="0">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="W32" s="0">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="X32" s="0">
-        <v>10</v>
+        <v>11.89</v>
       </c>
       <c r="Y32" s="0">
-        <v>10.03</v>
+        <v>11.89</v>
       </c>
       <c r="Z32" s="0">
-        <v>10.03</v>
+        <v>11.89</v>
       </c>
       <c r="AA32" s="0">
-        <v>-10.934</v>
+        <v>-24.469</v>
       </c>
       <c r="AB32" s="0">
-        <v>-14.231</v>
+        <v>-27.39</v>
       </c>
       <c r="AC32" s="0">
-        <v>9.67</v>
+        <v>8.48</v>
       </c>
       <c r="AD32" s="0">
-        <v>9.88</v>
+        <v>8.42</v>
       </c>
       <c r="AE32" s="0">
-        <v>9.88</v>
+        <v>8.42</v>
       </c>
       <c r="AF32" s="0">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AG32" s="0">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="AH32" s="0">
-        <v>1.84</v>
+        <v>1.41</v>
       </c>
       <c r="AI32" s="0" t="s">
         <v>62</v>
@@ -4775,13 +4775,13 @@
         <v>660</v>
       </c>
       <c r="O33" s="0">
-        <v>69.72</v>
+        <v>58.56</v>
       </c>
       <c r="P33" s="0">
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>0.81933</v>
+        <v>0.67434</v>
       </c>
       <c r="R33" s="0">
         <v>0.87032</v>
@@ -4790,49 +4790,49 @@
         <v>1.69</v>
       </c>
       <c r="T33" s="0">
-        <v>621</v>
+        <v>817</v>
       </c>
       <c r="U33" s="0">
-        <v>134</v>
+        <v>330</v>
       </c>
       <c r="V33" s="0">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="W33" s="0">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="X33" s="0">
-        <v>9.9</v>
+        <v>11.92</v>
       </c>
       <c r="Y33" s="0">
-        <v>9.96</v>
+        <v>11.92</v>
       </c>
       <c r="Z33" s="0">
-        <v>9.96</v>
+        <v>11.92</v>
       </c>
       <c r="AA33" s="0">
-        <v>-8.311</v>
+        <v>-22.641</v>
       </c>
       <c r="AB33" s="0">
-        <v>-11.504</v>
+        <v>-25.491</v>
       </c>
       <c r="AC33" s="0">
-        <v>9.58</v>
+        <v>8.46</v>
       </c>
       <c r="AD33" s="0">
-        <v>9.94</v>
+        <v>8.41</v>
       </c>
       <c r="AE33" s="0">
-        <v>9.94</v>
+        <v>8.41</v>
       </c>
       <c r="AF33" s="0">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AG33" s="0">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AH33" s="0">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AI33" s="0" t="s">
         <v>62</v>
@@ -4882,13 +4882,13 @@
         <v>292.3</v>
       </c>
       <c r="O34" s="0">
-        <v>76.16</v>
+        <v>73.2</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
       </c>
       <c r="Q34" s="0">
-        <v>0.39638</v>
+        <v>0.37331</v>
       </c>
       <c r="R34" s="0">
         <v>0.42524</v>
@@ -4897,49 +4897,49 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="U34" s="0">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="V34" s="0">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="W34" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="X34" s="0">
-        <v>9.48</v>
+        <v>10</v>
       </c>
       <c r="Y34" s="0">
-        <v>9.61</v>
+        <v>10.06</v>
       </c>
       <c r="Z34" s="0">
-        <v>9.61</v>
+        <v>10.06</v>
       </c>
       <c r="AA34" s="0">
-        <v>-11.359</v>
+        <v>-14.804</v>
       </c>
       <c r="AB34" s="0">
-        <v>-14.385</v>
+        <v>-17.567</v>
       </c>
       <c r="AC34" s="0">
-        <v>9.26</v>
+        <v>9.23</v>
       </c>
       <c r="AD34" s="0">
-        <v>10.13</v>
+        <v>9.62</v>
       </c>
       <c r="AE34" s="0">
-        <v>10.13</v>
+        <v>9.62</v>
       </c>
       <c r="AF34" s="0">
-        <v>1.14</v>
+        <v>1.48</v>
       </c>
       <c r="AG34" s="0">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AH34" s="0">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="AI34" s="0" t="s">
         <v>47</v>
@@ -4989,13 +4989,13 @@
         <v>324.7</v>
       </c>
       <c r="O35" s="0">
-        <v>77.73</v>
+        <v>73.64</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
       </c>
       <c r="Q35" s="0">
-        <v>0.4494</v>
+        <v>0.41718</v>
       </c>
       <c r="R35" s="0">
         <v>0.47281</v>
@@ -5004,49 +5004,49 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="U35" s="0">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="V35" s="0">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="W35" s="0">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X35" s="0">
-        <v>9.27</v>
+        <v>9.97</v>
       </c>
       <c r="Y35" s="0">
-        <v>9.45</v>
+        <v>10.03</v>
       </c>
       <c r="Z35" s="0">
-        <v>9.45</v>
+        <v>10.03</v>
       </c>
       <c r="AA35" s="0">
-        <v>-9.614</v>
+        <v>-14.372</v>
       </c>
       <c r="AB35" s="0">
-        <v>-12.633</v>
+        <v>-17.131</v>
       </c>
       <c r="AC35" s="0">
-        <v>9.17</v>
+        <v>9.22</v>
       </c>
       <c r="AD35" s="0">
-        <v>10.31</v>
+        <v>9.64</v>
       </c>
       <c r="AE35" s="0">
-        <v>10.31</v>
+        <v>9.64</v>
       </c>
       <c r="AF35" s="0">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="AG35" s="0">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="AH35" s="0">
-        <v>2.21</v>
+        <v>1.95</v>
       </c>
       <c r="AI35" s="0" t="s">
         <v>47</v>
@@ -5096,13 +5096,13 @@
         <v>350</v>
       </c>
       <c r="O36" s="0">
-        <v>51.44</v>
+        <v>49.2</v>
       </c>
       <c r="P36" s="0">
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0.32057</v>
+        <v>0.30045</v>
       </c>
       <c r="R36" s="0">
         <v>0.29441</v>
@@ -5111,49 +5111,49 @@
         <v>0</v>
       </c>
       <c r="T36" s="0">
-        <v>875</v>
+        <v>933</v>
       </c>
       <c r="U36" s="0">
-        <v>-3</v>
+        <v>55</v>
       </c>
       <c r="V36" s="0">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="W36" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="X36" s="0">
-        <v>12.52</v>
+        <v>13.15</v>
       </c>
       <c r="Y36" s="0">
-        <v>12.52</v>
+        <v>13.15</v>
       </c>
       <c r="Z36" s="0">
-        <v>12.52</v>
+        <v>13.15</v>
       </c>
       <c r="AA36" s="0">
-        <v>3.543</v>
+        <v>-0.966</v>
       </c>
       <c r="AB36" s="0">
-        <v>0.555</v>
+        <v>-3.703</v>
       </c>
       <c r="AC36" s="0">
-        <v>8.26</v>
+        <v>7.93</v>
       </c>
       <c r="AD36" s="0">
-        <v>8.14</v>
+        <v>7.82</v>
       </c>
       <c r="AE36" s="0">
-        <v>8.14</v>
+        <v>7.82</v>
       </c>
       <c r="AF36" s="0">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AG36" s="0">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AH36" s="0">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AI36" s="0" t="s">
         <v>62</v>
@@ -5203,13 +5203,13 @@
         <v>250</v>
       </c>
       <c r="O37" s="0">
-        <v>54.14</v>
+        <v>52.64</v>
       </c>
       <c r="P37" s="0">
         <v>0</v>
       </c>
       <c r="Q37" s="0">
-        <v>0.241</v>
+        <v>0.22961</v>
       </c>
       <c r="R37" s="0">
         <v>0.22689</v>
@@ -5218,49 +5218,49 @@
         <v>0</v>
       </c>
       <c r="T37" s="0">
-        <v>869</v>
+        <v>906</v>
       </c>
       <c r="U37" s="0">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="V37" s="0">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="W37" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="X37" s="0">
-        <v>12.48</v>
+        <v>12.9</v>
       </c>
       <c r="Y37" s="0">
-        <v>12.48</v>
+        <v>12.9</v>
       </c>
       <c r="Z37" s="0">
-        <v>12.48</v>
+        <v>12.9</v>
       </c>
       <c r="AA37" s="0">
-        <v>1.007</v>
+        <v>-1.791</v>
       </c>
       <c r="AB37" s="0">
-        <v>-1.978</v>
+        <v>-4.508</v>
       </c>
       <c r="AC37" s="0">
-        <v>8.27</v>
+        <v>8</v>
       </c>
       <c r="AD37" s="0">
-        <v>8.17</v>
+        <v>7.91</v>
       </c>
       <c r="AE37" s="0">
-        <v>8.17</v>
+        <v>7.91</v>
       </c>
       <c r="AF37" s="0">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="AG37" s="0">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AH37" s="0">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AI37" s="0" t="s">
         <v>62</v>
@@ -5310,64 +5310,64 @@
         <v>345</v>
       </c>
       <c r="O38" s="0">
-        <v>85.28</v>
+        <v>83.8</v>
       </c>
       <c r="P38" s="0">
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0.52387</v>
+        <v>0.50445</v>
       </c>
       <c r="R38" s="0">
         <v>0.52223</v>
       </c>
       <c r="S38" s="0">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T38" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="U38" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="V38" s="0">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="W38" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="X38" s="0">
-        <v>5.34</v>
+        <v>5.48</v>
       </c>
       <c r="Y38" s="0">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="Z38" s="0">
-        <v>6.19</v>
+        <v>6.22</v>
       </c>
       <c r="AA38" s="0">
-        <v>-4.609</v>
+        <v>-4.806</v>
       </c>
       <c r="AB38" s="0">
-        <v>-7.693</v>
+        <v>-7.58</v>
       </c>
       <c r="AC38" s="0">
-        <v>9.68</v>
+        <v>10.14</v>
       </c>
       <c r="AD38" s="0">
-        <v>15.91</v>
+        <v>16.03</v>
       </c>
       <c r="AE38" s="0">
-        <v>15.91</v>
+        <v>16.03</v>
       </c>
       <c r="AF38" s="0">
-        <v>0.05</v>
+        <v>-0.2</v>
       </c>
       <c r="AG38" s="0">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="AH38" s="0">
-        <v>5.18</v>
+        <v>5.19</v>
       </c>
       <c r="AI38" s="0" t="s">
         <v>47</v>
@@ -5417,13 +5417,13 @@
         <v>280</v>
       </c>
       <c r="O39" s="0">
-        <v>75.52</v>
+        <v>79.4</v>
       </c>
       <c r="P39" s="0">
         <v>0</v>
       </c>
       <c r="Q39" s="0">
-        <v>0.37651</v>
+        <v>0.38789</v>
       </c>
       <c r="R39" s="0">
         <v>0.38383</v>
@@ -5432,49 +5432,49 @@
         <v>0</v>
       </c>
       <c r="T39" s="0">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="U39" s="0">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="V39" s="0">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="W39" s="0">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="X39" s="0">
-        <v>5.38</v>
+        <v>4.96</v>
       </c>
       <c r="Y39" s="0">
-        <v>5.91</v>
+        <v>5.63</v>
       </c>
       <c r="Z39" s="0">
-        <v>5.91</v>
+        <v>5.63</v>
       </c>
       <c r="AA39" s="0">
-        <v>-6.719</v>
+        <v>-1.927</v>
       </c>
       <c r="AB39" s="0">
-        <v>-10.478</v>
+        <v>-5.149</v>
       </c>
       <c r="AC39" s="0">
-        <v>12.42</v>
+        <v>12.13</v>
       </c>
       <c r="AD39" s="0">
-        <v>16.66</v>
+        <v>17.3</v>
       </c>
       <c r="AE39" s="0">
-        <v>16.66</v>
+        <v>17.3</v>
       </c>
       <c r="AF39" s="0">
-        <v>1.58</v>
+        <v>0.95</v>
       </c>
       <c r="AG39" s="0">
-        <v>5.21</v>
+        <v>5.55</v>
       </c>
       <c r="AH39" s="0">
-        <v>5.21</v>
+        <v>5.55</v>
       </c>
       <c r="AI39" s="0" t="s">
         <v>56</v>
@@ -5524,13 +5524,13 @@
         <v>400</v>
       </c>
       <c r="O40" s="0">
-        <v>91.16</v>
+        <v>93.8</v>
       </c>
       <c r="P40" s="0">
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>0.64926</v>
+        <v>0.65463</v>
       </c>
       <c r="R40" s="0">
         <v>0.64856</v>
@@ -5539,49 +5539,49 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="U40" s="0">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="V40" s="0">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="W40" s="0">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="X40" s="0">
-        <v>4.24</v>
+        <v>3.89</v>
       </c>
       <c r="Y40" s="0">
-        <v>5.84</v>
+        <v>5.68</v>
       </c>
       <c r="Z40" s="0">
-        <v>5.84</v>
+        <v>5.68</v>
       </c>
       <c r="AA40" s="0">
-        <v>-4.804</v>
+        <v>-2.047</v>
       </c>
       <c r="AB40" s="0">
-        <v>-7.038</v>
+        <v>-4.151</v>
       </c>
       <c r="AC40" s="0">
-        <v>7.47</v>
+        <v>6.7</v>
       </c>
       <c r="AD40" s="0">
-        <v>16.41</v>
+        <v>16.71</v>
       </c>
       <c r="AE40" s="0">
-        <v>16.41</v>
+        <v>16.71</v>
       </c>
       <c r="AF40" s="0">
-        <v>-1.36</v>
+        <v>-2.17</v>
       </c>
       <c r="AG40" s="0">
-        <v>4.94</v>
+        <v>5.09</v>
       </c>
       <c r="AH40" s="0">
-        <v>4.94</v>
+        <v>5.09</v>
       </c>
       <c r="AI40" s="0" t="s">
         <v>56</v>
@@ -5631,13 +5631,13 @@
         <v>500</v>
       </c>
       <c r="O41" s="0">
-        <v>96.6</v>
+        <v>100.2</v>
       </c>
       <c r="P41" s="0">
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>0.86001</v>
+        <v>0.87412</v>
       </c>
       <c r="R41" s="0">
         <v>0.85168</v>
@@ -5646,49 +5646,49 @@
         <v>1.41</v>
       </c>
       <c r="T41" s="0">
-        <v>-32</v>
+        <v>-164</v>
       </c>
       <c r="U41" s="0">
-        <v>116</v>
+        <v>-16</v>
       </c>
       <c r="V41" s="0">
-        <v>25</v>
+        <v>-99</v>
       </c>
       <c r="W41" s="0">
-        <v>107</v>
+        <v>-17</v>
       </c>
       <c r="X41" s="0">
-        <v>3.3</v>
+        <v>2.03</v>
       </c>
       <c r="Y41" s="0">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="Z41" s="0">
-        <v>5.87</v>
+        <v>5.67</v>
       </c>
       <c r="AA41" s="0">
-        <v>-2.578</v>
+        <v>1</v>
       </c>
       <c r="AB41" s="0">
-        <v>-3.964</v>
+        <v>-0.395</v>
       </c>
       <c r="AC41" s="0">
-        <v>4.66</v>
+        <v>2.29</v>
       </c>
       <c r="AD41" s="0">
-        <v>16.28</v>
+        <v>16.69</v>
       </c>
       <c r="AE41" s="0">
-        <v>16.28</v>
+        <v>16.69</v>
       </c>
       <c r="AF41" s="0">
-        <v>-2.18</v>
+        <v>-1.87</v>
       </c>
       <c r="AG41" s="0">
-        <v>4.87</v>
+        <v>5.08</v>
       </c>
       <c r="AH41" s="0">
-        <v>4.87</v>
+        <v>5.08</v>
       </c>
       <c r="AI41" s="0" t="s">
         <v>56</v>
@@ -5738,13 +5738,13 @@
         <v>1000</v>
       </c>
       <c r="O42" s="0">
-        <v>97.64</v>
+        <v>102.44</v>
       </c>
       <c r="P42" s="0">
         <v>0</v>
       </c>
       <c r="Q42" s="0">
-        <v>1.73854</v>
+        <v>1.78732</v>
       </c>
       <c r="R42" s="0">
         <v>1.702</v>
@@ -5753,49 +5753,49 @@
         <v>0</v>
       </c>
       <c r="T42" s="0">
-        <v>-33</v>
+        <v>-185</v>
       </c>
       <c r="U42" s="0">
-        <v>120</v>
+        <v>-32</v>
       </c>
       <c r="V42" s="0">
-        <v>15</v>
+        <v>-143</v>
       </c>
       <c r="W42" s="0">
-        <v>131</v>
+        <v>-27</v>
       </c>
       <c r="X42" s="0">
-        <v>3.26</v>
+        <v>1.73</v>
       </c>
       <c r="Y42" s="0">
-        <v>5.93</v>
+        <v>3.89</v>
       </c>
       <c r="Z42" s="0">
-        <v>5.93</v>
+        <v>5.67</v>
       </c>
       <c r="AA42" s="0">
-        <v>-2.865</v>
+        <v>1.91</v>
       </c>
       <c r="AB42" s="0">
-        <v>-4.585</v>
+        <v>0.226</v>
       </c>
       <c r="AC42" s="0">
-        <v>5.02</v>
+        <v>2.94</v>
       </c>
       <c r="AD42" s="0">
-        <v>16.74</v>
+        <v>1.15</v>
       </c>
       <c r="AE42" s="0">
-        <v>16.74</v>
+        <v>17.49</v>
       </c>
       <c r="AF42" s="0">
-        <v>-1.55</v>
+        <v>-1.33</v>
       </c>
       <c r="AG42" s="0">
-        <v>5.69</v>
+        <v>0.02</v>
       </c>
       <c r="AH42" s="0">
-        <v>5.69</v>
+        <v>6.21</v>
       </c>
       <c r="AI42" s="0" t="s">
         <v>47</v>
@@ -5845,13 +5845,13 @@
         <v>475</v>
       </c>
       <c r="O43" s="0">
-        <v>77.92</v>
+        <v>80</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>0.65902</v>
+        <v>0.663</v>
       </c>
       <c r="R43" s="0">
         <v>0.64792</v>
@@ -5860,49 +5860,49 @@
         <v>1.25</v>
       </c>
       <c r="T43" s="0">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="U43" s="0">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="V43" s="0">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="W43" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="X43" s="0">
-        <v>5.96</v>
+        <v>5.76</v>
       </c>
       <c r="Y43" s="0">
-        <v>6.47</v>
+        <v>6.32</v>
       </c>
       <c r="Z43" s="0">
-        <v>6.47</v>
+        <v>6.32</v>
       </c>
       <c r="AA43" s="0">
-        <v>-1.725</v>
+        <v>0.857</v>
       </c>
       <c r="AB43" s="0">
-        <v>-5.259</v>
+        <v>-2.209</v>
       </c>
       <c r="AC43" s="0">
-        <v>11.24</v>
+        <v>11.13</v>
       </c>
       <c r="AD43" s="0">
-        <v>15.34</v>
+        <v>15.67</v>
       </c>
       <c r="AE43" s="0">
-        <v>15.34</v>
+        <v>15.67</v>
       </c>
       <c r="AF43" s="0">
-        <v>0.87</v>
+        <v>0.56</v>
       </c>
       <c r="AG43" s="0">
-        <v>4.78</v>
+        <v>5</v>
       </c>
       <c r="AH43" s="0">
-        <v>4.78</v>
+        <v>5</v>
       </c>
       <c r="AI43" s="0" t="s">
         <v>56</v>
@@ -5952,13 +5952,13 @@
         <v>325</v>
       </c>
       <c r="O44" s="0">
-        <v>78</v>
+        <v>79.84</v>
       </c>
       <c r="P44" s="0">
         <v>0</v>
       </c>
       <c r="Q44" s="0">
-        <v>0.45137</v>
+        <v>0.45273</v>
       </c>
       <c r="R44" s="0">
         <v>0.44309</v>
@@ -5967,43 +5967,43 @@
         <v>1.34</v>
       </c>
       <c r="T44" s="0">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="U44" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="V44" s="0">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="W44" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="X44" s="0">
-        <v>9.66</v>
+        <v>9.74</v>
       </c>
       <c r="Y44" s="0">
-        <v>16.57</v>
+        <v>15.82</v>
       </c>
       <c r="Z44" s="0">
-        <v>16.57</v>
+        <v>15.82</v>
       </c>
       <c r="AA44" s="0">
-        <v>-1.461</v>
+        <v>0.824</v>
       </c>
       <c r="AB44" s="0">
-        <v>-2.549</v>
+        <v>-0.4</v>
       </c>
       <c r="AC44" s="0">
-        <v>-0.24</v>
+        <v>-0.04</v>
       </c>
       <c r="AD44" s="0">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AE44" s="0">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="AF44" s="0">
-        <v>-0.61</v>
+        <v>-0.53</v>
       </c>
       <c r="AG44" s="0">
         <v>0.06</v>
@@ -6059,13 +6059,13 @@
         <v>300</v>
       </c>
       <c r="O45" s="0">
-        <v>88.28</v>
+        <v>87.4</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
       </c>
       <c r="Q45" s="0">
-        <v>0.47156</v>
+        <v>0.45747</v>
       </c>
       <c r="R45" s="0">
         <v>0.46732</v>
@@ -6074,43 +6074,43 @@
         <v>1.36</v>
       </c>
       <c r="T45" s="0">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="U45" s="0">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="V45" s="0">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="W45" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="X45" s="0">
-        <v>8.91</v>
+        <v>9.29</v>
       </c>
       <c r="Y45" s="0">
-        <v>10.14</v>
+        <v>10.7</v>
       </c>
       <c r="Z45" s="0">
-        <v>10.14</v>
+        <v>10.7</v>
       </c>
       <c r="AA45" s="0">
-        <v>-2.562</v>
+        <v>-3.519</v>
       </c>
       <c r="AB45" s="0">
-        <v>-4.218</v>
+        <v>-5.232</v>
       </c>
       <c r="AC45" s="0">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="AD45" s="0">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AE45" s="0">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="AF45" s="0">
-        <v>-0.21</v>
+        <v>-0.22</v>
       </c>
       <c r="AG45" s="0">
         <v>0.09</v>
@@ -6166,13 +6166,13 @@
         <v>275</v>
       </c>
       <c r="O46" s="0">
-        <v>83.12</v>
+        <v>81.4</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
       </c>
       <c r="Q46" s="0">
-        <v>0.407</v>
+        <v>0.39056</v>
       </c>
       <c r="R46" s="0">
         <v>0.43434</v>
@@ -6181,43 +6181,43 @@
         <v>1.44</v>
       </c>
       <c r="T46" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="U46" s="0">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="V46" s="0">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="W46" s="0">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="X46" s="0">
-        <v>9.31</v>
+        <v>9.88</v>
       </c>
       <c r="Y46" s="0">
-        <v>26.12</v>
+        <v>30.1</v>
       </c>
       <c r="Z46" s="0">
-        <v>26.12</v>
+        <v>30.1</v>
       </c>
       <c r="AA46" s="0">
-        <v>-9.351</v>
+        <v>-11.195</v>
       </c>
       <c r="AB46" s="0">
-        <v>-9.747</v>
+        <v>-11.723</v>
       </c>
       <c r="AC46" s="0">
-        <v>-1.41</v>
+        <v>-1.68</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.87</v>
+        <v>0.81</v>
       </c>
       <c r="AF46" s="0">
-        <v>-0.57</v>
+        <v>-0.61</v>
       </c>
       <c r="AG46" s="0">
         <v>0.01</v>
@@ -6273,13 +6273,13 @@
         <v>600</v>
       </c>
       <c r="O47" s="0">
-        <v>100.92</v>
+        <v>101.36</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
       </c>
       <c r="Q47" s="0">
-        <v>1.07816</v>
+        <v>1.06108</v>
       </c>
       <c r="R47" s="0">
         <v>1.01795</v>
@@ -6300,28 +6300,28 @@
         <v>-342</v>
       </c>
       <c r="X47" s="0">
-        <v>7.88</v>
+        <v>6.01</v>
       </c>
       <c r="Y47" s="0">
-        <v>7.88</v>
+        <v>6.01</v>
       </c>
       <c r="Z47" s="0">
-        <v>7.88</v>
+        <v>6.01</v>
       </c>
       <c r="AA47" s="0">
-        <v>0.719</v>
+        <v>1.158</v>
       </c>
       <c r="AB47" s="0">
-        <v>0.543</v>
+        <v>0.758</v>
       </c>
       <c r="AC47" s="0">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AD47" s="0">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="AE47" s="0">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="AF47" s="0">
         <v>0</v>
@@ -6380,13 +6380,13 @@
         <v>450</v>
       </c>
       <c r="O48" s="0">
-        <v>94.28</v>
+        <v>94.24</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
       </c>
       <c r="Q48" s="0">
-        <v>0.75542</v>
+        <v>0.73991</v>
       </c>
       <c r="R48" s="0">
         <v>0.74243</v>
@@ -6395,43 +6395,43 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="U48" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V48" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="W48" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X48" s="0">
-        <v>9.97</v>
+        <v>10.32</v>
       </c>
       <c r="Y48" s="0">
-        <v>51.15</v>
+        <v>74.72</v>
       </c>
       <c r="Z48" s="0">
-        <v>51.15</v>
+        <v>74.72</v>
       </c>
       <c r="AA48" s="0">
-        <v>-3.243</v>
+        <v>-3.284</v>
       </c>
       <c r="AB48" s="0">
-        <v>-3.325</v>
+        <v>-3.595</v>
       </c>
       <c r="AC48" s="0">
-        <v>-0.83</v>
+        <v>-0.93</v>
       </c>
       <c r="AD48" s="0">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AE48" s="0">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="AF48" s="0">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="AG48" s="0">
         <v>0</v>
@@ -6487,13 +6487,13 @@
         <v>800</v>
       </c>
       <c r="O49" s="0">
-        <v>92.72</v>
+        <v>93.6</v>
       </c>
       <c r="P49" s="0">
         <v>0</v>
       </c>
       <c r="Q49" s="0">
-        <v>1.32075</v>
+        <v>1.30647</v>
       </c>
       <c r="R49" s="0">
         <v>1.31825</v>
@@ -6502,43 +6502,43 @@
         <v>0</v>
       </c>
       <c r="T49" s="0">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="U49" s="0">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="V49" s="0">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="W49" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="X49" s="0">
-        <v>10.6</v>
+        <v>10.78</v>
       </c>
       <c r="Y49" s="0">
-        <v>15.36</v>
+        <v>15.12</v>
       </c>
       <c r="Z49" s="0">
-        <v>15.36</v>
+        <v>15.12</v>
       </c>
       <c r="AA49" s="0">
-        <v>-4.727</v>
+        <v>-3.822</v>
       </c>
       <c r="AB49" s="0">
-        <v>-5.47</v>
+        <v>-4.641</v>
       </c>
       <c r="AC49" s="0">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="AD49" s="0">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AE49" s="0">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AF49" s="0">
-        <v>-0.19</v>
+        <v>-0.18</v>
       </c>
       <c r="AG49" s="0">
         <v>0.02</v>
@@ -6594,13 +6594,13 @@
         <v>445</v>
       </c>
       <c r="O50" s="0">
-        <v>92.56</v>
+        <v>92.72</v>
       </c>
       <c r="P50" s="0">
         <v>0</v>
       </c>
       <c r="Q50" s="0">
-        <v>0.7334</v>
+        <v>0.71989</v>
       </c>
       <c r="R50" s="0">
         <v>0.73237</v>
@@ -6609,40 +6609,40 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U50" s="0">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V50" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="W50" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X50" s="0">
-        <v>10.3</v>
+        <v>10.62</v>
       </c>
       <c r="Y50" s="0">
-        <v>29.67</v>
+        <v>33.24</v>
       </c>
       <c r="Z50" s="0">
-        <v>29.67</v>
+        <v>33.24</v>
       </c>
       <c r="AA50" s="0">
-        <v>-4.774</v>
+        <v>-4.609</v>
       </c>
       <c r="AB50" s="0">
-        <v>-4.988</v>
+        <v>-5.001</v>
       </c>
       <c r="AC50" s="0">
-        <v>-0.7</v>
+        <v>-0.76</v>
       </c>
       <c r="AD50" s="0">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="AE50" s="0">
-        <v>0.36</v>
+        <v>0.32</v>
       </c>
       <c r="AF50" s="0">
         <v>-0.25</v>
@@ -6701,13 +6701,13 @@
         <v>410</v>
       </c>
       <c r="O51" s="0">
-        <v>85.59</v>
+        <v>90.32</v>
       </c>
       <c r="P51" s="0">
         <v>0</v>
       </c>
       <c r="Q51" s="0">
-        <v>0.62484</v>
+        <v>0.6461</v>
       </c>
       <c r="R51" s="0">
         <v>0.62062</v>
@@ -6716,49 +6716,49 @@
         <v>0</v>
       </c>
       <c r="T51" s="0">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="U51" s="0">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="V51" s="0">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="W51" s="0">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="X51" s="0">
-        <v>4.74</v>
+        <v>4.09</v>
       </c>
       <c r="Y51" s="0">
-        <v>5.84</v>
+        <v>5.52</v>
       </c>
       <c r="Z51" s="0">
-        <v>5.84</v>
+        <v>5.52</v>
       </c>
       <c r="AA51" s="0">
-        <v>-4.261</v>
+        <v>1.029</v>
       </c>
       <c r="AB51" s="0">
-        <v>-7.298</v>
+        <v>-1.703</v>
       </c>
       <c r="AC51" s="0">
-        <v>9.52</v>
+        <v>8.31</v>
       </c>
       <c r="AD51" s="0">
-        <v>15.99</v>
+        <v>16.52</v>
       </c>
       <c r="AE51" s="0">
-        <v>15.99</v>
+        <v>16.52</v>
       </c>
       <c r="AF51" s="0">
-        <v>-0.54</v>
+        <v>-1.46</v>
       </c>
       <c r="AG51" s="0">
-        <v>4.41</v>
+        <v>4.65</v>
       </c>
       <c r="AH51" s="0">
-        <v>4.41</v>
+        <v>4.65</v>
       </c>
       <c r="AI51" s="0" t="s">
         <v>233</v>
@@ -6808,13 +6808,13 @@
         <v>270</v>
       </c>
       <c r="O52" s="0">
-        <v>84.48</v>
+        <v>92.6</v>
       </c>
       <c r="P52" s="0">
         <v>0</v>
       </c>
       <c r="Q52" s="0">
-        <v>0.40614</v>
+        <v>0.43622</v>
       </c>
       <c r="R52" s="0">
         <v>0.40889</v>
@@ -6823,49 +6823,49 @@
         <v>0</v>
       </c>
       <c r="T52" s="0">
-        <v>129</v>
+        <v>-1</v>
       </c>
       <c r="U52" s="0">
-        <v>108</v>
+        <v>-22</v>
       </c>
       <c r="V52" s="0">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="W52" s="0">
-        <v>77</v>
+        <v>-13</v>
       </c>
       <c r="X52" s="0">
-        <v>4.92</v>
+        <v>3.66</v>
       </c>
       <c r="Y52" s="0">
-        <v>5.92</v>
+        <v>5.37</v>
       </c>
       <c r="Z52" s="0">
-        <v>5.92</v>
+        <v>5.37</v>
       </c>
       <c r="AA52" s="0">
-        <v>-5.546</v>
+        <v>3.533</v>
       </c>
       <c r="AB52" s="0">
-        <v>-8.578</v>
+        <v>0.804</v>
       </c>
       <c r="AC52" s="0">
-        <v>9.83</v>
+        <v>7.36</v>
       </c>
       <c r="AD52" s="0">
-        <v>15.84</v>
+        <v>16.81</v>
       </c>
       <c r="AE52" s="0">
-        <v>15.84</v>
+        <v>16.81</v>
       </c>
       <c r="AF52" s="0">
-        <v>-0.22</v>
+        <v>-2.07</v>
       </c>
       <c r="AG52" s="0">
-        <v>4.35</v>
+        <v>4.78</v>
       </c>
       <c r="AH52" s="0">
-        <v>4.35</v>
+        <v>4.78</v>
       </c>
       <c r="AI52" s="0" t="s">
         <v>233</v>
@@ -6915,64 +6915,64 @@
         <v>260</v>
       </c>
       <c r="O53" s="0">
-        <v>88.28</v>
+        <v>91.48</v>
       </c>
       <c r="P53" s="0">
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.40869</v>
+        <v>0.41498</v>
       </c>
       <c r="R53" s="0">
         <v>0.40202</v>
       </c>
       <c r="S53" s="0">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T53" s="0">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="U53" s="0">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="V53" s="0">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="W53" s="0">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="X53" s="0">
-        <v>4.47</v>
+        <v>3.84</v>
       </c>
       <c r="Y53" s="0">
-        <v>5.73</v>
+        <v>5.53</v>
       </c>
       <c r="Z53" s="0">
-        <v>5.73</v>
+        <v>5.53</v>
       </c>
       <c r="AA53" s="0">
-        <v>-3.329</v>
+        <v>1.517</v>
       </c>
       <c r="AB53" s="0">
-        <v>-6.231</v>
+        <v>-1.114</v>
       </c>
       <c r="AC53" s="0">
-        <v>8.9</v>
+        <v>7.67</v>
       </c>
       <c r="AD53" s="0">
-        <v>16.02</v>
+        <v>16.36</v>
       </c>
       <c r="AE53" s="0">
-        <v>16.02</v>
+        <v>16.36</v>
       </c>
       <c r="AF53" s="0">
-        <v>-1.07</v>
+        <v>-1.75</v>
       </c>
       <c r="AG53" s="0">
-        <v>4.46</v>
+        <v>4.61</v>
       </c>
       <c r="AH53" s="0">
-        <v>4.46</v>
+        <v>4.61</v>
       </c>
       <c r="AI53" s="0" t="s">
         <v>233</v>
@@ -7022,13 +7022,13 @@
         <v>800</v>
       </c>
       <c r="O54" s="0">
-        <v>89</v>
+        <v>95.08</v>
       </c>
       <c r="P54" s="0">
         <v>0</v>
       </c>
       <c r="Q54" s="0">
-        <v>1.26776</v>
+        <v>1.32712</v>
       </c>
       <c r="R54" s="0">
         <v>1.29658</v>
@@ -7037,49 +7037,49 @@
         <v>0</v>
       </c>
       <c r="T54" s="0">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="U54" s="0">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="V54" s="0">
-        <v>207</v>
+        <v>130</v>
       </c>
       <c r="W54" s="0">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="X54" s="0">
-        <v>5.76</v>
+        <v>4.72</v>
       </c>
       <c r="Y54" s="0">
-        <v>6.89</v>
+        <v>6.43</v>
       </c>
       <c r="Z54" s="0">
-        <v>6.89</v>
+        <v>6.43</v>
       </c>
       <c r="AA54" s="0">
-        <v>-7.02</v>
+        <v>-0.669</v>
       </c>
       <c r="AB54" s="0">
-        <v>-9.515</v>
+        <v>-3.022</v>
       </c>
       <c r="AC54" s="0">
-        <v>8.03</v>
+        <v>6.49</v>
       </c>
       <c r="AD54" s="0">
-        <v>13.41</v>
+        <v>13.97</v>
       </c>
       <c r="AE54" s="0">
-        <v>13.41</v>
+        <v>13.97</v>
       </c>
       <c r="AF54" s="0">
-        <v>-0.6</v>
+        <v>-1.16</v>
       </c>
       <c r="AG54" s="0">
-        <v>3.12</v>
+        <v>3.33</v>
       </c>
       <c r="AH54" s="0">
-        <v>3.12</v>
+        <v>3.33</v>
       </c>
       <c r="AI54" s="0" t="s">
         <v>62</v>
@@ -7129,13 +7129,13 @@
         <v>750</v>
       </c>
       <c r="O55" s="0">
-        <v>89.64</v>
+        <v>96.36</v>
       </c>
       <c r="P55" s="0">
         <v>0</v>
       </c>
       <c r="Q55" s="0">
-        <v>1.19707</v>
+        <v>1.26093</v>
       </c>
       <c r="R55" s="0">
         <v>1.22926</v>
@@ -7144,49 +7144,49 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>225</v>
+        <v>92</v>
       </c>
       <c r="U55" s="0">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="V55" s="0">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="W55" s="0">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="X55" s="0">
-        <v>5.89</v>
+        <v>4.61</v>
       </c>
       <c r="Y55" s="0">
-        <v>7.07</v>
+        <v>6.55</v>
       </c>
       <c r="Z55" s="0">
-        <v>7.07</v>
+        <v>6.55</v>
       </c>
       <c r="AA55" s="0">
-        <v>-7.397</v>
+        <v>-0.455</v>
       </c>
       <c r="AB55" s="0">
-        <v>-9.584</v>
+        <v>-2.544</v>
       </c>
       <c r="AC55" s="0">
-        <v>7.59</v>
+        <v>5.51</v>
       </c>
       <c r="AD55" s="0">
-        <v>13.09</v>
+        <v>13.7</v>
       </c>
       <c r="AE55" s="0">
-        <v>13.09</v>
+        <v>13.7</v>
       </c>
       <c r="AF55" s="0">
-        <v>-0.75</v>
+        <v>-1.64</v>
       </c>
       <c r="AG55" s="0">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AH55" s="0">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="AI55" s="0" t="s">
         <v>62</v>
@@ -7236,13 +7236,13 @@
         <v>600</v>
       </c>
       <c r="O56" s="0">
-        <v>90.68</v>
+        <v>96.08</v>
       </c>
       <c r="P56" s="0">
         <v>0</v>
       </c>
       <c r="Q56" s="0">
-        <v>0.96877</v>
+        <v>1.00581</v>
       </c>
       <c r="R56" s="0">
         <v>0.9956</v>
@@ -7251,49 +7251,49 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="U56" s="0">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="V56" s="0">
-        <v>252</v>
+        <v>200</v>
       </c>
       <c r="W56" s="0">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="X56" s="0">
-        <v>6.33</v>
+        <v>5.59</v>
       </c>
       <c r="Y56" s="0">
-        <v>7.32</v>
+        <v>6.91</v>
       </c>
       <c r="Z56" s="0">
-        <v>7.32</v>
+        <v>6.91</v>
       </c>
       <c r="AA56" s="0">
-        <v>-7.469</v>
+        <v>-1.959</v>
       </c>
       <c r="AB56" s="0">
-        <v>-10.441</v>
+        <v>-4.758</v>
       </c>
       <c r="AC56" s="0">
-        <v>8.63</v>
+        <v>8.02</v>
       </c>
       <c r="AD56" s="0">
-        <v>12.84</v>
+        <v>13.34</v>
       </c>
       <c r="AE56" s="0">
-        <v>12.84</v>
+        <v>13.34</v>
       </c>
       <c r="AF56" s="0">
-        <v>0.12</v>
+        <v>-0.22</v>
       </c>
       <c r="AG56" s="0">
-        <v>2.97</v>
+        <v>3.16</v>
       </c>
       <c r="AH56" s="0">
-        <v>2.97</v>
+        <v>3.16</v>
       </c>
       <c r="AI56" s="0" t="s">
         <v>62</v>
@@ -7349,58 +7349,58 @@
         <v>0</v>
       </c>
       <c r="Q57" s="0">
-        <v>0.34664</v>
+        <v>0.33967</v>
       </c>
       <c r="R57" s="0">
         <v>0.36986</v>
       </c>
       <c r="S57" s="0">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T57" s="0">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="U57" s="0">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="V57" s="0">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="W57" s="0">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="X57" s="0">
-        <v>10.15</v>
+        <v>9.92</v>
       </c>
       <c r="Y57" s="0">
-        <v>10.24</v>
+        <v>10.29</v>
       </c>
       <c r="Z57" s="0">
-        <v>10.24</v>
+        <v>10.29</v>
       </c>
       <c r="AA57" s="0">
-        <v>-10.875</v>
+        <v>-8.658</v>
       </c>
       <c r="AB57" s="0">
-        <v>-13.894</v>
+        <v>-11.418</v>
       </c>
       <c r="AC57" s="0">
-        <v>8.92</v>
+        <v>9.16</v>
       </c>
       <c r="AD57" s="0">
-        <v>9.49</v>
+        <v>9.4</v>
       </c>
       <c r="AE57" s="0">
-        <v>9.49</v>
+        <v>9.4</v>
       </c>
       <c r="AF57" s="0">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AG57" s="0">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AH57" s="0">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AI57" s="0" t="s">
         <v>47</v>
@@ -7447,7 +7447,7 @@
         <v>258</v>
       </c>
       <c r="N58" s="0">
-        <v>584.9</v>
+        <v>0</v>
       </c>
       <c r="O58" s="0">
         <v>139.2</v>
@@ -7456,12 +7456,21 @@
         <v>0</v>
       </c>
       <c r="Q58" s="0">
-        <v>1.4497</v>
+        <v>0</v>
       </c>
       <c r="R58" s="0">
         <v>1.32311</v>
       </c>
       <c r="S58" s="0">
+        <v>1.4</v>
+      </c>
+      <c r="T58" s="0">
+        <v>0</v>
+      </c>
+      <c r="V58" s="0">
+        <v>0</v>
+      </c>
+      <c r="X58" s="0">
         <v>0</v>
       </c>
       <c r="Y58" s="0">
@@ -7471,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>4.192</v>
+        <v>5.24</v>
       </c>
       <c r="AC58" s="0">
         <v>0</v>
@@ -7480,6 +7489,9 @@
         <v>0</v>
       </c>
       <c r="AE58" s="0">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="0">
         <v>0</v>
       </c>
       <c r="AG58" s="0">
@@ -7536,13 +7548,13 @@
         <v>402.5</v>
       </c>
       <c r="O59" s="0">
-        <v>101.76</v>
+        <v>105.38</v>
       </c>
       <c r="P59" s="0">
         <v>0</v>
       </c>
       <c r="Q59" s="0">
-        <v>0.72929</v>
+        <v>0.74004</v>
       </c>
       <c r="R59" s="0">
         <v>0.76166</v>
@@ -7551,22 +7563,22 @@
         <v>0</v>
       </c>
       <c r="Y59" s="0">
-        <v>6.1</v>
+        <v>4.77</v>
       </c>
       <c r="Z59" s="0">
-        <v>6.1</v>
+        <v>4.77</v>
       </c>
       <c r="AA59" s="0">
-        <v>-8.948</v>
+        <v>-5.709</v>
       </c>
       <c r="AC59" s="0">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="AD59" s="0">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AE59" s="0">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="AG59" s="0">
         <v>0.08</v>
@@ -7622,64 +7634,64 @@
         <v>425</v>
       </c>
       <c r="O60" s="0">
-        <v>46.4</v>
+        <v>39.96</v>
       </c>
       <c r="P60" s="0">
         <v>0</v>
       </c>
       <c r="Q60" s="0">
-        <v>0.35113</v>
+        <v>0.29631</v>
       </c>
       <c r="R60" s="0">
         <v>0.40701</v>
       </c>
       <c r="S60" s="0">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T60" s="0">
-        <v>689</v>
+        <v>831</v>
       </c>
       <c r="U60" s="0">
-        <v>225</v>
+        <v>367</v>
       </c>
       <c r="V60" s="0">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="W60" s="0">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="X60" s="0">
-        <v>10.6</v>
+        <v>12.06</v>
       </c>
       <c r="Y60" s="0">
-        <v>10.59</v>
+        <v>12.06</v>
       </c>
       <c r="Z60" s="0">
-        <v>10.59</v>
+        <v>12.06</v>
       </c>
       <c r="AA60" s="0">
-        <v>-17.963</v>
+        <v>-27.25</v>
       </c>
       <c r="AB60" s="0">
-        <v>-21.505</v>
+        <v>-30.272</v>
       </c>
       <c r="AC60" s="0">
-        <v>9.2</v>
+        <v>8.23</v>
       </c>
       <c r="AD60" s="0">
-        <v>9.12</v>
+        <v>8.17</v>
       </c>
       <c r="AE60" s="0">
-        <v>9.12</v>
+        <v>8.17</v>
       </c>
       <c r="AF60" s="0">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AG60" s="0">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AH60" s="0">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="AI60" s="0" t="s">
         <v>47</v>
@@ -7729,13 +7741,13 @@
         <v>262.2</v>
       </c>
       <c r="O61" s="0">
-        <v>80.12</v>
+        <v>81.2</v>
       </c>
       <c r="P61" s="0">
         <v>0</v>
       </c>
       <c r="Q61" s="0">
-        <v>0.37405</v>
+        <v>0.37147</v>
       </c>
       <c r="R61" s="0">
         <v>0.38837</v>
@@ -7744,49 +7756,49 @@
         <v>0</v>
       </c>
       <c r="T61" s="0">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="U61" s="0">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="V61" s="0">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="W61" s="0">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="X61" s="0">
-        <v>6.14</v>
+        <v>6.07</v>
       </c>
       <c r="Y61" s="0">
-        <v>6.68</v>
+        <v>6.61</v>
       </c>
       <c r="Z61" s="0">
-        <v>6.68</v>
+        <v>6.61</v>
       </c>
       <c r="AA61" s="0">
-        <v>-8.413</v>
+        <v>-7.179</v>
       </c>
       <c r="AB61" s="0">
-        <v>-11.59</v>
+        <v>-10.018</v>
       </c>
       <c r="AC61" s="0">
-        <v>10.65</v>
+        <v>10.69</v>
       </c>
       <c r="AD61" s="0">
-        <v>14.69</v>
+        <v>14.81</v>
       </c>
       <c r="AE61" s="0">
-        <v>14.69</v>
+        <v>14.81</v>
       </c>
       <c r="AF61" s="0">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="AG61" s="0">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="AH61" s="0">
-        <v>4.44</v>
+        <v>4.52</v>
       </c>
       <c r="AI61" s="0" t="s">
         <v>47</v>
@@ -7836,13 +7848,13 @@
         <v>327.8</v>
       </c>
       <c r="O62" s="0">
-        <v>68.8</v>
+        <v>63.88</v>
       </c>
       <c r="P62" s="0">
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>0.40156</v>
+        <v>0.36535</v>
       </c>
       <c r="R62" s="0">
         <v>0.45956</v>
@@ -7851,49 +7863,49 @@
         <v>0</v>
       </c>
       <c r="T62" s="0">
-        <v>582</v>
+        <v>660</v>
       </c>
       <c r="U62" s="0">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="V62" s="0">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="W62" s="0">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X62" s="0">
-        <v>9.51</v>
+        <v>10.35</v>
       </c>
       <c r="Y62" s="0">
-        <v>9.48</v>
+        <v>10.26</v>
       </c>
       <c r="Z62" s="0">
-        <v>9.48</v>
+        <v>10.26</v>
       </c>
       <c r="AA62" s="0">
-        <v>-16.908</v>
+        <v>-22.85</v>
       </c>
       <c r="AB62" s="0">
-        <v>-20.162</v>
+        <v>-25.77</v>
       </c>
       <c r="AC62" s="0">
-        <v>9.95</v>
+        <v>9.5</v>
       </c>
       <c r="AD62" s="0">
-        <v>10.51</v>
+        <v>9.66</v>
       </c>
       <c r="AE62" s="0">
-        <v>10.51</v>
+        <v>9.66</v>
       </c>
       <c r="AF62" s="0">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="AG62" s="0">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="AH62" s="0">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="AI62" s="0" t="s">
         <v>47</v>
@@ -7943,13 +7955,13 @@
         <v>275</v>
       </c>
       <c r="O63" s="0">
-        <v>71.8</v>
+        <v>69.16</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
       </c>
       <c r="Q63" s="0">
-        <v>0.35157</v>
+        <v>0.33183</v>
       </c>
       <c r="R63" s="0">
         <v>0.37194</v>
@@ -7958,43 +7970,43 @@
         <v>1.63</v>
       </c>
       <c r="T63" s="0">
-        <v>757</v>
+        <v>801</v>
       </c>
       <c r="U63" s="0">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="V63" s="0">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="W63" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="X63" s="0">
-        <v>13.12</v>
+        <v>14.01</v>
       </c>
       <c r="Y63" s="0">
-        <v>24.95</v>
+        <v>27.86</v>
       </c>
       <c r="Z63" s="0">
-        <v>24.95</v>
+        <v>27.86</v>
       </c>
       <c r="AA63" s="0">
-        <v>-8.081</v>
+        <v>-11.386</v>
       </c>
       <c r="AB63" s="0">
-        <v>-9.027</v>
+        <v>-12.458</v>
       </c>
       <c r="AC63" s="0">
-        <v>-0.6</v>
+        <v>-0.88</v>
       </c>
       <c r="AD63" s="0">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AE63" s="0">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AF63" s="0">
-        <v>-0.44</v>
+        <v>-0.47</v>
       </c>
       <c r="AG63" s="0">
         <v>0.04</v>
@@ -8050,13 +8062,13 @@
         <v>608</v>
       </c>
       <c r="O64" s="0">
-        <v>271.04</v>
+        <v>284.08</v>
       </c>
       <c r="P64" s="0">
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>2.93423</v>
+        <v>3.01354</v>
       </c>
       <c r="R64" s="0">
         <v>2.94797</v>
@@ -8071,16 +8083,16 @@
         <v>-10</v>
       </c>
       <c r="AA64" s="0">
-        <v>-5.35</v>
+        <v>-0.796</v>
       </c>
       <c r="AC64" s="0">
         <v>0.02</v>
       </c>
       <c r="AD64" s="0">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AE64" s="0">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AG64" s="0">
         <v>0</v>
@@ -8136,64 +8148,64 @@
         <v>687.5</v>
       </c>
       <c r="O65" s="0">
-        <v>97</v>
+        <v>102.72</v>
       </c>
       <c r="P65" s="0">
         <v>0</v>
       </c>
       <c r="Q65" s="0">
-        <v>1.18741</v>
+        <v>1.23214</v>
       </c>
       <c r="R65" s="0">
         <v>1.17292</v>
       </c>
       <c r="S65" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T65" s="0">
-        <v>-20</v>
+        <v>-199</v>
       </c>
       <c r="U65" s="0">
-        <v>145</v>
+        <v>-34</v>
       </c>
       <c r="V65" s="0">
-        <v>34</v>
+        <v>-143</v>
       </c>
       <c r="W65" s="0">
-        <v>151</v>
+        <v>-26</v>
       </c>
       <c r="X65" s="0">
-        <v>3.42</v>
+        <v>1.67</v>
       </c>
       <c r="Y65" s="0">
-        <v>5.89</v>
+        <v>3.75</v>
       </c>
       <c r="Z65" s="0">
-        <v>5.89</v>
+        <v>5.56</v>
       </c>
       <c r="AA65" s="0">
-        <v>-3.732</v>
+        <v>1.945</v>
       </c>
       <c r="AB65" s="0">
-        <v>-5.451</v>
+        <v>0.262</v>
       </c>
       <c r="AC65" s="0">
-        <v>5.39</v>
+        <v>2.92</v>
       </c>
       <c r="AD65" s="0">
-        <v>16.22</v>
+        <v>1.33</v>
       </c>
       <c r="AE65" s="0">
-        <v>16.22</v>
+        <v>16.92</v>
       </c>
       <c r="AF65" s="0">
-        <v>-1.73</v>
+        <v>-1.34</v>
       </c>
       <c r="AG65" s="0">
-        <v>4.86</v>
+        <v>0.03</v>
       </c>
       <c r="AH65" s="0">
-        <v>4.86</v>
+        <v>5.22</v>
       </c>
       <c r="AI65" s="0" t="s">
         <v>56</v>
@@ -8243,13 +8255,13 @@
         <v>2000</v>
       </c>
       <c r="O66" s="0">
-        <v>94.45</v>
+        <v>96.95</v>
       </c>
       <c r="P66" s="0">
         <v>0</v>
       </c>
       <c r="Q66" s="0">
-        <v>3.36348</v>
+        <v>3.38306</v>
       </c>
       <c r="R66" s="0">
         <v>3.14088</v>
@@ -8258,22 +8270,22 @@
         <v>0</v>
       </c>
       <c r="Y66" s="0">
-        <v>20.01</v>
+        <v>15.49</v>
       </c>
       <c r="Z66" s="0">
-        <v>20.01</v>
+        <v>15.49</v>
       </c>
       <c r="AA66" s="0">
-        <v>1.833</v>
+        <v>4.528</v>
       </c>
       <c r="AC66" s="0">
         <v>0.01</v>
       </c>
       <c r="AD66" s="0">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AE66" s="0">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -8329,13 +8341,13 @@
         <v>2000</v>
       </c>
       <c r="O67" s="0">
-        <v>89.73</v>
+        <v>91.53</v>
       </c>
       <c r="P67" s="0">
         <v>0</v>
       </c>
       <c r="Q67" s="0">
-        <v>3.19539</v>
+        <v>3.19393</v>
       </c>
       <c r="R67" s="0">
         <v>3.14562</v>
@@ -8344,22 +8356,22 @@
         <v>0</v>
       </c>
       <c r="Y67" s="0">
-        <v>12.09</v>
+        <v>11.41</v>
       </c>
       <c r="Z67" s="0">
-        <v>12.09</v>
+        <v>11.41</v>
       </c>
       <c r="AA67" s="0">
-        <v>-3.402</v>
+        <v>-1.464</v>
       </c>
       <c r="AC67" s="0">
         <v>0.62</v>
       </c>
       <c r="AD67" s="0">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AE67" s="0">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="AG67" s="0">
         <v>0.06</v>
@@ -8415,13 +8427,13 @@
         <v>314.6</v>
       </c>
       <c r="O68" s="0">
-        <v>90.8</v>
+        <v>84</v>
       </c>
       <c r="P68" s="0">
         <v>0</v>
       </c>
       <c r="Q68" s="0">
-        <v>0.50863</v>
+        <v>0.46107</v>
       </c>
       <c r="R68" s="0">
         <v>0.50924</v>
@@ -8451,10 +8463,10 @@
         <v>99.99</v>
       </c>
       <c r="AA68" s="0">
-        <v>-5.021</v>
+        <v>-12.134</v>
       </c>
       <c r="AB68" s="0">
-        <v>-3.305</v>
+        <v>-10.891</v>
       </c>
       <c r="AC68" s="0">
         <v>-4.56</v>
@@ -8522,13 +8534,13 @@
         <v>500</v>
       </c>
       <c r="O69" s="0">
-        <v>96.2</v>
+        <v>97</v>
       </c>
       <c r="P69" s="0">
         <v>0</v>
       </c>
       <c r="Q69" s="0">
-        <v>0.85645</v>
+        <v>0.8462</v>
       </c>
       <c r="R69" s="0">
         <v>0.85032</v>
@@ -8537,49 +8549,49 @@
         <v>0</v>
       </c>
       <c r="T69" s="0">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="U69" s="0">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="V69" s="0">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="W69" s="0">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="X69" s="0">
-        <v>7.14</v>
+        <v>7.05</v>
       </c>
       <c r="Y69" s="0">
-        <v>10.66</v>
+        <v>10.28</v>
       </c>
       <c r="Z69" s="0">
-        <v>10.66</v>
+        <v>10.28</v>
       </c>
       <c r="AA69" s="0">
-        <v>-4.221</v>
+        <v>-3.425</v>
       </c>
       <c r="AB69" s="0">
-        <v>-4.95</v>
+        <v>-4.227</v>
       </c>
       <c r="AC69" s="0">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="AD69" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AE69" s="0">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="AF69" s="0">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="AG69" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AH69" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI69" s="0" t="s">
         <v>47</v>
@@ -8629,13 +8641,13 @@
         <v>862.5</v>
       </c>
       <c r="O70" s="0">
-        <v>102.57</v>
+        <v>103.98</v>
       </c>
       <c r="P70" s="0">
         <v>0</v>
       </c>
       <c r="Q70" s="0">
-        <v>1.5752</v>
+        <v>1.56474</v>
       </c>
       <c r="R70" s="0">
         <v>1.52361</v>
@@ -8644,22 +8656,22 @@
         <v>0</v>
       </c>
       <c r="Y70" s="0">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="Z70" s="0">
-        <v>4.5</v>
+        <v>2.69</v>
       </c>
       <c r="AA70" s="0">
-        <v>-1.687</v>
+        <v>-0.335</v>
       </c>
       <c r="AC70" s="0">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AD70" s="0">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AE70" s="0">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AG70" s="0">
         <v>0.01</v>
@@ -8715,13 +8727,13 @@
         <v>425</v>
       </c>
       <c r="O71" s="0">
-        <v>90.44</v>
+        <v>91.8</v>
       </c>
       <c r="P71" s="0">
         <v>0</v>
       </c>
       <c r="Q71" s="0">
-        <v>0.68439</v>
+        <v>0.68071</v>
       </c>
       <c r="R71" s="0">
         <v>0.70925</v>
@@ -8751,10 +8763,10 @@
         <v>24.48</v>
       </c>
       <c r="AA71" s="0">
-        <v>-8.239</v>
+        <v>-6.859</v>
       </c>
       <c r="AB71" s="0">
-        <v>-8.3</v>
+        <v>-7.179</v>
       </c>
       <c r="AC71" s="0">
         <v>-0.5</v>
@@ -8822,13 +8834,13 @@
         <v>442.5</v>
       </c>
       <c r="O72" s="0">
-        <v>90.4</v>
+        <v>89.96</v>
       </c>
       <c r="P72" s="0">
         <v>0</v>
       </c>
       <c r="Q72" s="0">
-        <v>0.71226</v>
+        <v>0.69454</v>
       </c>
       <c r="R72" s="0">
         <v>0.73126</v>
@@ -8837,43 +8849,43 @@
         <v>0</v>
       </c>
       <c r="T72" s="0">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="U72" s="0">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="V72" s="0">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="W72" s="0">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="X72" s="0">
-        <v>9.53</v>
+        <v>9.92</v>
       </c>
       <c r="Y72" s="0">
-        <v>15.05</v>
+        <v>16.07</v>
       </c>
       <c r="Z72" s="0">
-        <v>15.05</v>
+        <v>16.07</v>
       </c>
       <c r="AA72" s="0">
-        <v>-7.377</v>
+        <v>-7.828</v>
       </c>
       <c r="AB72" s="0">
-        <v>-8.246</v>
+        <v>-8.765</v>
       </c>
       <c r="AC72" s="0">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
       <c r="AD72" s="0">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AE72" s="0">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AF72" s="0">
-        <v>-0.25</v>
+        <v>-0.27</v>
       </c>
       <c r="AG72" s="0">
         <v>0.02</v>
@@ -8929,13 +8941,13 @@
         <v>720</v>
       </c>
       <c r="O73" s="0">
-        <v>94.4</v>
+        <v>96.57</v>
       </c>
       <c r="P73" s="0">
         <v>0</v>
       </c>
       <c r="Q73" s="0">
-        <v>1.21021</v>
+        <v>1.21308</v>
       </c>
       <c r="R73" s="0">
         <v>1.22105</v>
@@ -8965,10 +8977,10 @@
         <v>41.35</v>
       </c>
       <c r="AA73" s="0">
-        <v>-5.751</v>
+        <v>-3.588</v>
       </c>
       <c r="AB73" s="0">
-        <v>-5.746</v>
+        <v>-3.855</v>
       </c>
       <c r="AC73" s="0">
         <v>-0.7</v>
@@ -9036,64 +9048,64 @@
         <v>402.5</v>
       </c>
       <c r="O74" s="0">
-        <v>101.44</v>
+        <v>100.48</v>
       </c>
       <c r="P74" s="0">
         <v>0</v>
       </c>
       <c r="Q74" s="0">
-        <v>0.727</v>
+        <v>0.70563</v>
       </c>
       <c r="R74" s="0">
         <v>0.70605</v>
       </c>
       <c r="S74" s="0">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="T74" s="0">
-        <v>-346</v>
+        <v>-176</v>
       </c>
       <c r="U74" s="0">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="V74" s="0">
-        <v>-501</v>
+        <v>-156</v>
       </c>
       <c r="W74" s="0">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="X74" s="0">
-        <v>1.66</v>
+        <v>3.63</v>
       </c>
       <c r="Y74" s="0">
-        <v>-0.6</v>
+        <v>0.01</v>
       </c>
       <c r="Z74" s="0">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA74" s="0">
-        <v>-2.085</v>
+        <v>-0.221</v>
       </c>
       <c r="AB74" s="0">
-        <v>-2.438</v>
+        <v>-0.739</v>
       </c>
       <c r="AC74" s="0">
-        <v>0.35</v>
+        <v>0.01</v>
       </c>
       <c r="AD74" s="0">
-        <v>0.09</v>
+        <v>19.22</v>
       </c>
       <c r="AE74" s="0">
-        <v>0.09</v>
+        <v>19.22</v>
       </c>
       <c r="AF74" s="0">
-        <v>-0.22</v>
+        <v>-0.06</v>
       </c>
       <c r="AG74" s="0">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AH74" s="0">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="AI74" s="0" t="s">
         <v>86</v>
@@ -9143,13 +9155,13 @@
         <v>385</v>
       </c>
       <c r="O75" s="0">
-        <v>89.6</v>
+        <v>91.08</v>
       </c>
       <c r="P75" s="0">
         <v>0</v>
       </c>
       <c r="Q75" s="0">
-        <v>0.61422</v>
+        <v>0.61181</v>
       </c>
       <c r="R75" s="0">
         <v>0.63389</v>
@@ -9158,43 +9170,43 @@
         <v>0</v>
       </c>
       <c r="T75" s="0">
-        <v>526</v>
+        <v>598</v>
       </c>
       <c r="U75" s="0">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V75" s="0">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="W75" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="X75" s="0">
-        <v>10.47</v>
+        <v>11.8</v>
       </c>
       <c r="Y75" s="0">
-        <v>10.93</v>
+        <v>12.05</v>
       </c>
       <c r="Z75" s="0">
-        <v>10.93</v>
+        <v>12.05</v>
       </c>
       <c r="AA75" s="0">
-        <v>-7.857</v>
+        <v>-6.335</v>
       </c>
       <c r="AB75" s="0">
-        <v>-7.821</v>
+        <v>-6.571</v>
       </c>
       <c r="AC75" s="0">
-        <v>-0.69</v>
+        <v>-1.1</v>
       </c>
       <c r="AD75" s="0">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AE75" s="0">
-        <v>0.04</v>
+        <v>0.18</v>
       </c>
       <c r="AF75" s="0">
-        <v>-0.17</v>
+        <v>-0.26</v>
       </c>
       <c r="AG75" s="0">
         <v>0</v>
@@ -9250,19 +9262,19 @@
         <v>1000</v>
       </c>
       <c r="O76" s="0">
-        <v>28.75</v>
+        <v>30</v>
       </c>
       <c r="P76" s="0">
         <v>0</v>
       </c>
       <c r="Q76" s="0">
-        <v>0.512</v>
+        <v>0.52338</v>
       </c>
       <c r="R76" s="0">
         <v>0.52851</v>
       </c>
       <c r="S76" s="0">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Y76" s="0">
         <v>99.99</v>
@@ -9271,16 +9283,16 @@
         <v>99.99</v>
       </c>
       <c r="AA76" s="0">
-        <v>-7.878</v>
+        <v>0.709</v>
       </c>
       <c r="AC76" s="0">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AD76" s="0">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AE76" s="0">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AG76" s="0">
         <v>0.01</v>
@@ -9336,13 +9348,13 @@
         <v>425</v>
       </c>
       <c r="O77" s="0">
-        <v>71.24</v>
+        <v>61.16</v>
       </c>
       <c r="P77" s="0">
         <v>0</v>
       </c>
       <c r="Q77" s="0">
-        <v>0.5391</v>
+        <v>0.45351</v>
       </c>
       <c r="R77" s="0">
         <v>0.53855</v>
@@ -9351,49 +9363,49 @@
         <v>0</v>
       </c>
       <c r="T77" s="0">
-        <v>640</v>
+        <v>821</v>
       </c>
       <c r="U77" s="0">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c r="V77" s="0">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="W77" s="0">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="X77" s="0">
-        <v>10.18</v>
+        <v>12.03</v>
       </c>
       <c r="Y77" s="0">
-        <v>10.2</v>
+        <v>12.04</v>
       </c>
       <c r="Z77" s="0">
-        <v>10.2</v>
+        <v>12.04</v>
       </c>
       <c r="AA77" s="0">
-        <v>-4.81</v>
+        <v>-18.279</v>
       </c>
       <c r="AB77" s="0">
-        <v>-8.032</v>
+        <v>-21.203</v>
       </c>
       <c r="AC77" s="0">
-        <v>8.96</v>
+        <v>8.23</v>
       </c>
       <c r="AD77" s="0">
-        <v>9.03</v>
+        <v>8.13</v>
       </c>
       <c r="AE77" s="0">
-        <v>9.03</v>
+        <v>8.13</v>
       </c>
       <c r="AF77" s="0">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AG77" s="0">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AH77" s="0">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AI77" s="0" t="s">
         <v>62</v>
@@ -9443,13 +9455,13 @@
         <v>1600</v>
       </c>
       <c r="O78" s="0">
-        <v>137.85</v>
+        <v>139.83</v>
       </c>
       <c r="P78" s="0">
         <v>0</v>
       </c>
       <c r="Q78" s="0">
-        <v>3.92714</v>
+        <v>3.90345</v>
       </c>
       <c r="R78" s="0">
         <v>3.7289</v>
@@ -9464,16 +9476,16 @@
         <v>-10</v>
       </c>
       <c r="AA78" s="0">
-        <v>0.149</v>
+        <v>1.588</v>
       </c>
       <c r="AC78" s="0">
         <v>0</v>
       </c>
       <c r="AD78" s="0">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="AE78" s="0">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="AG78" s="0">
         <v>0</v>
@@ -9529,64 +9541,64 @@
         <v>250</v>
       </c>
       <c r="O79" s="0">
-        <v>69.6</v>
+        <v>66.16</v>
       </c>
       <c r="P79" s="0">
         <v>0</v>
       </c>
       <c r="Q79" s="0">
-        <v>0.30982</v>
+        <v>0.28858</v>
       </c>
       <c r="R79" s="0">
         <v>0.3256</v>
       </c>
       <c r="S79" s="0">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="T79" s="0">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="U79" s="0">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="V79" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="W79" s="0">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X79" s="0">
-        <v>8.29</v>
+        <v>8.63</v>
       </c>
       <c r="Y79" s="0">
-        <v>8.39</v>
+        <v>8.87</v>
       </c>
       <c r="Z79" s="0">
-        <v>8.39</v>
+        <v>8.87</v>
       </c>
       <c r="AA79" s="0">
-        <v>-9.516</v>
+        <v>-12.136</v>
       </c>
       <c r="AB79" s="0">
-        <v>-13.018</v>
+        <v>-15.186</v>
       </c>
       <c r="AC79" s="0">
-        <v>10.87</v>
+        <v>10.95</v>
       </c>
       <c r="AD79" s="0">
-        <v>11.65</v>
+        <v>10.95</v>
       </c>
       <c r="AE79" s="0">
-        <v>11.65</v>
+        <v>10.95</v>
       </c>
       <c r="AF79" s="0">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AG79" s="0">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="AH79" s="0">
-        <v>2.81</v>
+        <v>2.5</v>
       </c>
       <c r="AI79" s="0" t="s">
         <v>47</v>
@@ -9636,13 +9648,13 @@
         <v>250</v>
       </c>
       <c r="O80" s="0">
-        <v>67</v>
+        <v>73.2</v>
       </c>
       <c r="P80" s="0">
         <v>0</v>
       </c>
       <c r="Q80" s="0">
-        <v>0.29824</v>
+        <v>0.31929</v>
       </c>
       <c r="R80" s="0">
         <v>0.33965</v>
@@ -9651,49 +9663,49 @@
         <v>0</v>
       </c>
       <c r="T80" s="0">
-        <v>648</v>
+        <v>553</v>
       </c>
       <c r="U80" s="0">
-        <v>236</v>
+        <v>141</v>
       </c>
       <c r="V80" s="0">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="W80" s="0">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="X80" s="0">
-        <v>10.18</v>
+        <v>9.28</v>
       </c>
       <c r="Y80" s="0">
-        <v>10.2</v>
+        <v>9.37</v>
       </c>
       <c r="Z80" s="0">
-        <v>10.2</v>
+        <v>9.37</v>
       </c>
       <c r="AA80" s="0">
-        <v>-16.5</v>
+        <v>-8.774</v>
       </c>
       <c r="AB80" s="0">
-        <v>-19.753</v>
+        <v>-11.689</v>
       </c>
       <c r="AC80" s="0">
-        <v>9.51</v>
+        <v>9.81</v>
       </c>
       <c r="AD80" s="0">
-        <v>9.69</v>
+        <v>10.51</v>
       </c>
       <c r="AE80" s="0">
-        <v>9.69</v>
+        <v>10.51</v>
       </c>
       <c r="AF80" s="0">
-        <v>1.68</v>
+        <v>1.35</v>
       </c>
       <c r="AG80" s="0">
-        <v>1.92</v>
+        <v>2.27</v>
       </c>
       <c r="AH80" s="0">
-        <v>1.92</v>
+        <v>2.27</v>
       </c>
       <c r="AI80" s="0" t="s">
         <v>47</v>
@@ -9743,64 +9755,64 @@
         <v>282.5</v>
       </c>
       <c r="O81" s="0">
-        <v>67.08</v>
+        <v>71.76</v>
       </c>
       <c r="P81" s="0">
         <v>0</v>
       </c>
       <c r="Q81" s="0">
-        <v>0.33742</v>
+        <v>0.3537</v>
       </c>
       <c r="R81" s="0">
         <v>0.33559</v>
       </c>
       <c r="S81" s="0">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="T81" s="0">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="U81" s="0">
-        <v>64</v>
+        <v>-3</v>
       </c>
       <c r="V81" s="0">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="W81" s="0">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="X81" s="0">
-        <v>5.65</v>
+        <v>5.03</v>
       </c>
       <c r="Y81" s="0">
-        <v>5.89</v>
+        <v>5.44</v>
       </c>
       <c r="Z81" s="0">
-        <v>5.89</v>
+        <v>5.44</v>
       </c>
       <c r="AA81" s="0">
-        <v>-4.39</v>
+        <v>3.661</v>
       </c>
       <c r="AB81" s="0">
-        <v>-8.522</v>
+        <v>0.266</v>
       </c>
       <c r="AC81" s="0">
-        <v>14.09</v>
+        <v>13.88</v>
       </c>
       <c r="AD81" s="0">
-        <v>16.66</v>
+        <v>18.27</v>
       </c>
       <c r="AE81" s="0">
-        <v>16.66</v>
+        <v>18.27</v>
       </c>
       <c r="AF81" s="0">
-        <v>2.59</v>
+        <v>1.68</v>
       </c>
       <c r="AG81" s="0">
-        <v>5.7</v>
+        <v>6.77</v>
       </c>
       <c r="AH81" s="0">
-        <v>5.7</v>
+        <v>6.77</v>
       </c>
       <c r="AI81" s="0" t="s">
         <v>47</v>
@@ -9850,64 +9862,64 @@
         <v>603.8</v>
       </c>
       <c r="O82" s="0">
-        <v>69.84</v>
+        <v>73.48</v>
       </c>
       <c r="P82" s="0">
         <v>0</v>
       </c>
       <c r="Q82" s="0">
-        <v>0.75085</v>
+        <v>0.7741</v>
       </c>
       <c r="R82" s="0">
         <v>0.75163</v>
       </c>
       <c r="S82" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82" s="0">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="U82" s="0">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="V82" s="0">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="W82" s="0">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="X82" s="0">
-        <v>5.54</v>
+        <v>5.03</v>
       </c>
       <c r="Y82" s="0">
-        <v>5.84</v>
+        <v>5.48</v>
       </c>
       <c r="Z82" s="0">
-        <v>5.84</v>
+        <v>5.48</v>
       </c>
       <c r="AA82" s="0">
-        <v>-5.005</v>
+        <v>1.306</v>
       </c>
       <c r="AB82" s="0">
-        <v>-9.043</v>
+        <v>-2.048</v>
       </c>
       <c r="AC82" s="0">
-        <v>13.65</v>
+        <v>13.44</v>
       </c>
       <c r="AD82" s="0">
-        <v>16.81</v>
+        <v>18.13</v>
       </c>
       <c r="AE82" s="0">
-        <v>16.81</v>
+        <v>18.13</v>
       </c>
       <c r="AF82" s="0">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AG82" s="0">
-        <v>5.8</v>
+        <v>6.66</v>
       </c>
       <c r="AH82" s="0">
-        <v>5.8</v>
+        <v>6.66</v>
       </c>
       <c r="AI82" s="0" t="s">
         <v>47</v>
@@ -9957,64 +9969,64 @@
         <v>435</v>
       </c>
       <c r="O83" s="0">
-        <v>68.96</v>
+        <v>72.72</v>
       </c>
       <c r="P83" s="0">
         <v>0</v>
       </c>
       <c r="Q83" s="0">
-        <v>0.53413</v>
+        <v>0.55192</v>
       </c>
       <c r="R83" s="0">
         <v>0.53178</v>
       </c>
       <c r="S83" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T83" s="0">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="U83" s="0">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="V83" s="0">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="W83" s="0">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="X83" s="0">
-        <v>5.65</v>
+        <v>5.12</v>
       </c>
       <c r="Y83" s="0">
-        <v>5.91</v>
+        <v>5.54</v>
       </c>
       <c r="Z83" s="0">
-        <v>5.91</v>
+        <v>5.54</v>
       </c>
       <c r="AA83" s="0">
-        <v>-4.488</v>
+        <v>2.105</v>
       </c>
       <c r="AB83" s="0">
-        <v>-8.552</v>
+        <v>-1.259</v>
       </c>
       <c r="AC83" s="0">
-        <v>13.72</v>
+        <v>13.56</v>
       </c>
       <c r="AD83" s="0">
-        <v>16.59</v>
+        <v>17.94</v>
       </c>
       <c r="AE83" s="0">
-        <v>16.59</v>
+        <v>17.94</v>
       </c>
       <c r="AF83" s="0">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="AG83" s="0">
-        <v>5.65</v>
+        <v>6.52</v>
       </c>
       <c r="AH83" s="0">
-        <v>5.65</v>
+        <v>6.52</v>
       </c>
       <c r="AI83" s="0" t="s">
         <v>47</v>
@@ -10064,64 +10076,64 @@
         <v>250</v>
       </c>
       <c r="O84" s="0">
-        <v>69.36</v>
+        <v>73.28</v>
       </c>
       <c r="P84" s="0">
         <v>0</v>
       </c>
       <c r="Q84" s="0">
-        <v>0.30875</v>
+        <v>0.31964</v>
       </c>
       <c r="R84" s="0">
         <v>0.31036</v>
       </c>
       <c r="S84" s="0">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="T84" s="0">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="U84" s="0">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="V84" s="0">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="W84" s="0">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="X84" s="0">
-        <v>5.77</v>
+        <v>5.21</v>
       </c>
       <c r="Y84" s="0">
-        <v>6.03</v>
+        <v>5.63</v>
       </c>
       <c r="Z84" s="0">
-        <v>6.03</v>
+        <v>5.63</v>
       </c>
       <c r="AA84" s="0">
-        <v>-5.401</v>
+        <v>1.343</v>
       </c>
       <c r="AB84" s="0">
-        <v>-9.416</v>
+        <v>-1.998</v>
       </c>
       <c r="AC84" s="0">
-        <v>13.5</v>
+        <v>13.33</v>
       </c>
       <c r="AD84" s="0">
-        <v>16.27</v>
+        <v>17.63</v>
       </c>
       <c r="AE84" s="0">
-        <v>16.27</v>
+        <v>17.63</v>
       </c>
       <c r="AF84" s="0">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AG84" s="0">
-        <v>5.44</v>
+        <v>6.3</v>
       </c>
       <c r="AH84" s="0">
-        <v>5.44</v>
+        <v>6.3</v>
       </c>
       <c r="AI84" s="0" t="s">
         <v>47</v>
@@ -10171,64 +10183,64 @@
         <v>565</v>
       </c>
       <c r="O85" s="0">
-        <v>77.92</v>
+        <v>83.48</v>
       </c>
       <c r="P85" s="0">
         <v>0</v>
       </c>
       <c r="Q85" s="0">
-        <v>0.78389</v>
+        <v>0.82293</v>
       </c>
       <c r="R85" s="0">
         <v>0.78446</v>
       </c>
       <c r="S85" s="0">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T85" s="0">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="U85" s="0">
-        <v>83</v>
+        <v>-5</v>
       </c>
       <c r="V85" s="0">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="W85" s="0">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="X85" s="0">
-        <v>5.52</v>
+        <v>4.7</v>
       </c>
       <c r="Y85" s="0">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
       <c r="Z85" s="0">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
       <c r="AA85" s="0">
-        <v>-4.976</v>
+        <v>3.215</v>
       </c>
       <c r="AB85" s="0">
-        <v>-8.57</v>
+        <v>0.11</v>
       </c>
       <c r="AC85" s="0">
-        <v>11.68</v>
+        <v>10.84</v>
       </c>
       <c r="AD85" s="0">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="AE85" s="0">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="AF85" s="0">
-        <v>1.08</v>
+        <v>0.05</v>
       </c>
       <c r="AG85" s="0">
-        <v>5.39</v>
+        <v>6.43</v>
       </c>
       <c r="AH85" s="0">
-        <v>5.39</v>
+        <v>6.43</v>
       </c>
       <c r="AI85" s="0" t="s">
         <v>47</v>
@@ -10278,64 +10290,64 @@
         <v>258.8</v>
       </c>
       <c r="O86" s="0">
-        <v>79.56</v>
+        <v>85.4</v>
       </c>
       <c r="P86" s="0">
         <v>0</v>
       </c>
       <c r="Q86" s="0">
-        <v>0.36662</v>
+        <v>0.38562</v>
       </c>
       <c r="R86" s="0">
         <v>0.37159</v>
       </c>
       <c r="S86" s="0">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T86" s="0">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="U86" s="0">
+        <v>7</v>
+      </c>
+      <c r="V86" s="0">
         <v>101</v>
       </c>
-      <c r="V86" s="0">
-        <v>154</v>
-      </c>
       <c r="W86" s="0">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="X86" s="0">
-        <v>5.42</v>
+        <v>4.52</v>
       </c>
       <c r="Y86" s="0">
-        <v>6.02</v>
+        <v>5.54</v>
       </c>
       <c r="Z86" s="0">
-        <v>6.02</v>
+        <v>5.54</v>
       </c>
       <c r="AA86" s="0">
-        <v>-6.179</v>
+        <v>2.093</v>
       </c>
       <c r="AB86" s="0">
-        <v>-9.598</v>
+        <v>-0.897</v>
       </c>
       <c r="AC86" s="0">
-        <v>11.33</v>
+        <v>10.16</v>
       </c>
       <c r="AD86" s="0">
-        <v>16.28</v>
+        <v>17.92</v>
       </c>
       <c r="AE86" s="0">
-        <v>16.28</v>
+        <v>17.92</v>
       </c>
       <c r="AF86" s="0">
-        <v>0.55</v>
+        <v>-0.25</v>
       </c>
       <c r="AG86" s="0">
-        <v>5.44</v>
+        <v>6.51</v>
       </c>
       <c r="AH86" s="0">
-        <v>5.44</v>
+        <v>6.51</v>
       </c>
       <c r="AI86" s="0" t="s">
         <v>47</v>
@@ -10385,64 +10397,64 @@
         <v>316.2</v>
       </c>
       <c r="O87" s="0">
-        <v>81.48</v>
+        <v>86.56</v>
       </c>
       <c r="P87" s="0">
         <v>0</v>
       </c>
       <c r="Q87" s="0">
-        <v>0.45874</v>
+        <v>0.47754</v>
       </c>
       <c r="R87" s="0">
         <v>0.46729</v>
       </c>
       <c r="S87" s="0">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="T87" s="0">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="U87" s="0">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="V87" s="0">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="W87" s="0">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="X87" s="0">
-        <v>5.42</v>
+        <v>4.59</v>
       </c>
       <c r="Y87" s="0">
-        <v>6.1</v>
+        <v>5.67</v>
       </c>
       <c r="Z87" s="0">
-        <v>6.1</v>
+        <v>5.67</v>
       </c>
       <c r="AA87" s="0">
-        <v>-6.645</v>
+        <v>0.571</v>
       </c>
       <c r="AB87" s="0">
-        <v>-9.895</v>
+        <v>-2.309</v>
       </c>
       <c r="AC87" s="0">
-        <v>10.79</v>
+        <v>9.65</v>
       </c>
       <c r="AD87" s="0">
-        <v>16.06</v>
+        <v>17.51</v>
       </c>
       <c r="AE87" s="0">
-        <v>16.06</v>
+        <v>17.51</v>
       </c>
       <c r="AF87" s="0">
-        <v>0.07</v>
+        <v>-0.55</v>
       </c>
       <c r="AG87" s="0">
-        <v>5.3</v>
+        <v>6.22</v>
       </c>
       <c r="AH87" s="0">
-        <v>5.3</v>
+        <v>6.22</v>
       </c>
       <c r="AI87" s="0" t="s">
         <v>47</v>
@@ -10492,64 +10504,64 @@
         <v>300</v>
       </c>
       <c r="O88" s="0">
-        <v>87.68</v>
+        <v>93.52</v>
       </c>
       <c r="P88" s="0">
         <v>0</v>
       </c>
       <c r="Q88" s="0">
-        <v>0.46836</v>
+        <v>0.48951</v>
       </c>
       <c r="R88" s="0">
         <v>0.47118</v>
       </c>
       <c r="S88" s="0">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T88" s="0">
-        <v>110</v>
+        <v>-11</v>
       </c>
       <c r="U88" s="0">
-        <v>116</v>
+        <v>-5</v>
       </c>
       <c r="V88" s="0">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="W88" s="0">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="X88" s="0">
-        <v>4.73</v>
+        <v>3.56</v>
       </c>
       <c r="Y88" s="0">
-        <v>5.87</v>
+        <v>5.44</v>
       </c>
       <c r="Z88" s="0">
-        <v>5.87</v>
+        <v>5.44</v>
       </c>
       <c r="AA88" s="0">
-        <v>-5.476</v>
+        <v>2.18</v>
       </c>
       <c r="AB88" s="0">
-        <v>-8.263</v>
+        <v>-0.362</v>
       </c>
       <c r="AC88" s="0">
-        <v>9.06</v>
+        <v>6.76</v>
       </c>
       <c r="AD88" s="0">
-        <v>16.71</v>
+        <v>18.27</v>
       </c>
       <c r="AE88" s="0">
-        <v>16.71</v>
+        <v>18.27</v>
       </c>
       <c r="AF88" s="0">
-        <v>-0.83</v>
+        <v>-2.29</v>
       </c>
       <c r="AG88" s="0">
-        <v>5.73</v>
+        <v>6.76</v>
       </c>
       <c r="AH88" s="0">
-        <v>5.73</v>
+        <v>6.76</v>
       </c>
       <c r="AI88" s="0" t="s">
         <v>47</v>
@@ -10599,64 +10611,64 @@
         <v>280</v>
       </c>
       <c r="O89" s="0">
-        <v>89.2</v>
+        <v>94.76</v>
       </c>
       <c r="P89" s="0">
         <v>0</v>
       </c>
       <c r="Q89" s="0">
-        <v>0.44471</v>
+        <v>0.46293</v>
       </c>
       <c r="R89" s="0">
         <v>0.44261</v>
       </c>
       <c r="S89" s="0">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="T89" s="0">
-        <v>99</v>
+        <v>-26</v>
       </c>
       <c r="U89" s="0">
-        <v>104</v>
+        <v>-21</v>
       </c>
       <c r="V89" s="0">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="W89" s="0">
-        <v>76</v>
+        <v>-12</v>
       </c>
       <c r="X89" s="0">
-        <v>4.62</v>
+        <v>3.39</v>
       </c>
       <c r="Y89" s="0">
-        <v>5.89</v>
+        <v>5.47</v>
       </c>
       <c r="Z89" s="0">
-        <v>5.89</v>
+        <v>5.47</v>
       </c>
       <c r="AA89" s="0">
-        <v>-4.456</v>
+        <v>2.879</v>
       </c>
       <c r="AB89" s="0">
-        <v>-7.16</v>
+        <v>0.399</v>
       </c>
       <c r="AC89" s="0">
-        <v>8.59</v>
+        <v>6.02</v>
       </c>
       <c r="AD89" s="0">
-        <v>16.67</v>
+        <v>18.15</v>
       </c>
       <c r="AE89" s="0">
-        <v>16.67</v>
+        <v>18.15</v>
       </c>
       <c r="AF89" s="0">
-        <v>-1.26</v>
+        <v>-2.51</v>
       </c>
       <c r="AG89" s="0">
-        <v>5.7</v>
+        <v>6.68</v>
       </c>
       <c r="AH89" s="0">
-        <v>5.7</v>
+        <v>6.68</v>
       </c>
       <c r="AI89" s="0" t="s">
         <v>47</v>
@@ -10706,64 +10718,64 @@
         <v>285</v>
       </c>
       <c r="O90" s="0">
-        <v>95.08</v>
+        <v>100.72</v>
       </c>
       <c r="P90" s="0">
         <v>0</v>
       </c>
       <c r="Q90" s="0">
-        <v>0.48249</v>
+        <v>0.50083</v>
       </c>
       <c r="R90" s="0">
         <v>0.47909</v>
       </c>
       <c r="S90" s="0">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T90" s="0">
-        <v>42</v>
+        <v>-162</v>
       </c>
       <c r="U90" s="0">
-        <v>137</v>
+        <v>-67</v>
       </c>
       <c r="V90" s="0">
-        <v>73</v>
+        <v>-113</v>
       </c>
       <c r="W90" s="0">
-        <v>119</v>
+        <v>-67</v>
       </c>
       <c r="X90" s="0">
-        <v>4.04</v>
+        <v>1.97</v>
       </c>
       <c r="Y90" s="0">
-        <v>6.01</v>
+        <v>4.85</v>
       </c>
       <c r="Z90" s="0">
-        <v>6.01</v>
+        <v>5.6</v>
       </c>
       <c r="AA90" s="0">
-        <v>-4.23</v>
+        <v>2.861</v>
       </c>
       <c r="AB90" s="0">
-        <v>-6.133</v>
+        <v>1.027</v>
       </c>
       <c r="AC90" s="0">
-        <v>6.29</v>
+        <v>3.04</v>
       </c>
       <c r="AD90" s="0">
-        <v>16.33</v>
+        <v>0.9</v>
       </c>
       <c r="AE90" s="0">
-        <v>16.33</v>
+        <v>17.74</v>
       </c>
       <c r="AF90" s="0">
-        <v>-1.5</v>
+        <v>-1.65</v>
       </c>
       <c r="AG90" s="0">
-        <v>5.48</v>
+        <v>0.01</v>
       </c>
       <c r="AH90" s="0">
-        <v>5.48</v>
+        <v>6.38</v>
       </c>
       <c r="AI90" s="0" t="s">
         <v>47</v>
@@ -10813,13 +10825,13 @@
         <v>1266.8</v>
       </c>
       <c r="O91" s="0">
-        <v>40.16</v>
+        <v>27.61</v>
       </c>
       <c r="P91" s="0">
         <v>0</v>
       </c>
       <c r="Q91" s="0">
-        <v>0.90585</v>
+        <v>0.61025</v>
       </c>
       <c r="R91" s="0">
         <v>1.07805</v>
@@ -10828,49 +10840,49 @@
         <v>0</v>
       </c>
       <c r="T91" s="0">
-        <v>2305</v>
+        <v>3381</v>
       </c>
       <c r="U91" s="0">
-        <v>580</v>
+        <v>1656</v>
       </c>
       <c r="V91" s="0">
-        <v>1316</v>
+        <v>1507</v>
       </c>
       <c r="W91" s="0">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="X91" s="0">
-        <v>26.73</v>
+        <v>37.55</v>
       </c>
       <c r="Y91" s="0">
-        <v>26.73</v>
+        <v>37.58</v>
       </c>
       <c r="Z91" s="0">
-        <v>26.73</v>
+        <v>37.58</v>
       </c>
       <c r="AA91" s="0">
-        <v>-20.096</v>
+        <v>-45.066</v>
       </c>
       <c r="AB91" s="0">
-        <v>-22.32</v>
+        <v>-47.359</v>
       </c>
       <c r="AC91" s="0">
-        <v>4.07</v>
+        <v>3.16</v>
       </c>
       <c r="AD91" s="0">
-        <v>4.05</v>
+        <v>3.14</v>
       </c>
       <c r="AE91" s="0">
-        <v>4.05</v>
+        <v>3.14</v>
       </c>
       <c r="AF91" s="0">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AG91" s="0">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="AH91" s="0">
-        <v>0.26</v>
+        <v>0.18</v>
       </c>
       <c r="AI91" s="0" t="s">
         <v>47</v>
@@ -10920,13 +10932,13 @@
         <v>500.2</v>
       </c>
       <c r="O92" s="0">
-        <v>47.04</v>
+        <v>31</v>
       </c>
       <c r="P92" s="0">
         <v>0</v>
       </c>
       <c r="Q92" s="0">
-        <v>0.41896</v>
+        <v>0.27054</v>
       </c>
       <c r="R92" s="0">
         <v>0.48072</v>
@@ -10935,49 +10947,49 @@
         <v>0</v>
       </c>
       <c r="T92" s="0">
-        <v>983</v>
+        <v>1708</v>
       </c>
       <c r="U92" s="0">
-        <v>267</v>
+        <v>992</v>
       </c>
       <c r="V92" s="0">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="W92" s="0">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="X92" s="0">
-        <v>13.54</v>
+        <v>20.85</v>
       </c>
       <c r="Y92" s="0">
-        <v>13.54</v>
+        <v>20.86</v>
       </c>
       <c r="Z92" s="0">
-        <v>13.54</v>
+        <v>20.86</v>
       </c>
       <c r="AA92" s="0">
-        <v>-17.125</v>
+        <v>-45.384</v>
       </c>
       <c r="AB92" s="0">
-        <v>-20.255</v>
+        <v>-48.181</v>
       </c>
       <c r="AC92" s="0">
-        <v>7.42</v>
+        <v>4.69</v>
       </c>
       <c r="AD92" s="0">
-        <v>7.35</v>
+        <v>4.65</v>
       </c>
       <c r="AE92" s="0">
-        <v>7.35</v>
+        <v>4.65</v>
       </c>
       <c r="AF92" s="0">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="AG92" s="0">
-        <v>1.12</v>
+        <v>0.46</v>
       </c>
       <c r="AH92" s="0">
-        <v>1.12</v>
+        <v>0.46</v>
       </c>
       <c r="AI92" s="0" t="s">
         <v>233</v>
@@ -11027,43 +11039,43 @@
         <v>460</v>
       </c>
       <c r="O93" s="0">
-        <v>106.22</v>
+        <v>110.82</v>
       </c>
       <c r="P93" s="0">
         <v>0</v>
       </c>
       <c r="Q93" s="0">
-        <v>0.87001</v>
+        <v>0.88943</v>
       </c>
       <c r="R93" s="0">
         <v>0.87984</v>
       </c>
       <c r="S93" s="0">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Y93" s="0">
-        <v>4.77</v>
+        <v>4.58</v>
       </c>
       <c r="Z93" s="0">
-        <v>4.77</v>
+        <v>4.58</v>
       </c>
       <c r="AA93" s="0">
-        <v>-5.969</v>
+        <v>-0.791</v>
       </c>
       <c r="AC93" s="0">
         <v>-0.05</v>
       </c>
       <c r="AD93" s="0">
-        <v>20.67</v>
+        <v>21.49</v>
       </c>
       <c r="AE93" s="0">
-        <v>20.67</v>
+        <v>21.49</v>
       </c>
       <c r="AG93" s="0">
-        <v>8.69</v>
+        <v>9.41</v>
       </c>
       <c r="AH93" s="0">
-        <v>8.69</v>
+        <v>9.41</v>
       </c>
       <c r="AI93" s="0" t="s">
         <v>47</v>
@@ -11113,13 +11125,13 @@
         <v>398.2</v>
       </c>
       <c r="O94" s="0">
-        <v>71.6</v>
+        <v>73.44</v>
       </c>
       <c r="P94" s="0">
         <v>0</v>
       </c>
       <c r="Q94" s="0">
-        <v>0.50766</v>
+        <v>0.51023</v>
       </c>
       <c r="R94" s="0">
         <v>0.5526</v>
@@ -11128,43 +11140,43 @@
         <v>0</v>
       </c>
       <c r="T94" s="0">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="U94" s="0">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="V94" s="0">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="W94" s="0">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="X94" s="0">
-        <v>12.78</v>
+        <v>12.76</v>
       </c>
       <c r="Y94" s="0">
-        <v>26.81</v>
+        <v>25.94</v>
       </c>
       <c r="Z94" s="0">
-        <v>26.81</v>
+        <v>25.94</v>
       </c>
       <c r="AA94" s="0">
-        <v>-12.64</v>
+        <v>-10.395</v>
       </c>
       <c r="AB94" s="0">
-        <v>-13.565</v>
+        <v>-11.447</v>
       </c>
       <c r="AC94" s="0">
-        <v>-0.96</v>
+        <v>-0.85</v>
       </c>
       <c r="AD94" s="0">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AE94" s="0">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AF94" s="0">
-        <v>-0.49</v>
+        <v>-0.47</v>
       </c>
       <c r="AG94" s="0">
         <v>0.04</v>
@@ -11220,13 +11232,13 @@
         <v>465</v>
       </c>
       <c r="O95" s="0">
-        <v>75</v>
+        <v>77.8</v>
       </c>
       <c r="P95" s="0">
         <v>0</v>
       </c>
       <c r="Q95" s="0">
-        <v>0.62097</v>
+        <v>0.6312</v>
       </c>
       <c r="R95" s="0">
         <v>0.68089</v>
@@ -11235,43 +11247,43 @@
         <v>0</v>
       </c>
       <c r="T95" s="0">
-        <v>776</v>
+        <v>733</v>
       </c>
       <c r="U95" s="0">
-        <v>218</v>
+        <v>175</v>
       </c>
       <c r="V95" s="0">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="W95" s="0">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="X95" s="0">
-        <v>11.65</v>
+        <v>11.21</v>
       </c>
       <c r="Y95" s="0">
-        <v>16.74</v>
+        <v>15.74</v>
       </c>
       <c r="Z95" s="0">
-        <v>16.74</v>
+        <v>15.74</v>
       </c>
       <c r="AA95" s="0">
-        <v>-13.275</v>
+        <v>-10.037</v>
       </c>
       <c r="AB95" s="0">
-        <v>-14.949</v>
+        <v>-11.656</v>
       </c>
       <c r="AC95" s="0">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AD95" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AE95" s="0">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AF95" s="0">
-        <v>-0.2</v>
+        <v>-0.17</v>
       </c>
       <c r="AG95" s="0">
         <v>0.11</v>
@@ -11327,13 +11339,13 @@
         <v>282.5</v>
       </c>
       <c r="O96" s="0">
-        <v>84.16</v>
+        <v>82.2</v>
       </c>
       <c r="P96" s="0">
         <v>0</v>
       </c>
       <c r="Q96" s="0">
-        <v>0.42333</v>
+        <v>0.40516</v>
       </c>
       <c r="R96" s="0">
         <v>0.43738</v>
@@ -11342,43 +11354,43 @@
         <v>0</v>
       </c>
       <c r="T96" s="0">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="U96" s="0">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="V96" s="0">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="W96" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X96" s="0">
-        <v>11.61</v>
+        <v>12.31</v>
       </c>
       <c r="Y96" s="0">
-        <v>21.3</v>
+        <v>24.14</v>
       </c>
       <c r="Z96" s="0">
-        <v>21.3</v>
+        <v>24.14</v>
       </c>
       <c r="AA96" s="0">
-        <v>-7.962</v>
+        <v>-10.105</v>
       </c>
       <c r="AB96" s="0">
-        <v>-8.711</v>
+        <v>-10.951</v>
       </c>
       <c r="AC96" s="0">
-        <v>-0.33</v>
+        <v>-0.54</v>
       </c>
       <c r="AD96" s="0">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AE96" s="0">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AF96" s="0">
-        <v>-0.31</v>
+        <v>-0.34</v>
       </c>
       <c r="AG96" s="0">
         <v>0.02</v>
@@ -11434,43 +11446,43 @@
         <v>322</v>
       </c>
       <c r="O97" s="0">
-        <v>96.47</v>
+        <v>100.4</v>
       </c>
       <c r="P97" s="0">
         <v>0</v>
       </c>
       <c r="Q97" s="0">
-        <v>0.55308</v>
+        <v>0.56406</v>
       </c>
       <c r="R97" s="0">
         <v>0.55284</v>
       </c>
       <c r="S97" s="0">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Y97" s="0">
-        <v>8.25</v>
+        <v>7.95</v>
       </c>
       <c r="Z97" s="0">
-        <v>8.25</v>
+        <v>7.95</v>
       </c>
       <c r="AA97" s="0">
-        <v>-4.865</v>
+        <v>0.937</v>
       </c>
       <c r="AC97" s="0">
-        <v>14</v>
+        <v>13.27</v>
       </c>
       <c r="AD97" s="0">
-        <v>11.88</v>
+        <v>12.3</v>
       </c>
       <c r="AE97" s="0">
-        <v>11.88</v>
+        <v>12.3</v>
       </c>
       <c r="AG97" s="0">
-        <v>2.91</v>
+        <v>3.13</v>
       </c>
       <c r="AH97" s="0">
-        <v>2.91</v>
+        <v>3.13</v>
       </c>
       <c r="AI97" s="0" t="s">
         <v>47</v>
@@ -11520,13 +11532,13 @@
         <v>329</v>
       </c>
       <c r="O98" s="0">
-        <v>61.74</v>
+        <v>59.73</v>
       </c>
       <c r="P98" s="0">
         <v>0</v>
       </c>
       <c r="Q98" s="0">
-        <v>0.36168</v>
+        <v>0.34286</v>
       </c>
       <c r="R98" s="0">
         <v>0.39813</v>
@@ -11541,16 +11553,16 @@
         <v>99.99</v>
       </c>
       <c r="AA98" s="0">
-        <v>-13.614</v>
+        <v>-16.426</v>
       </c>
       <c r="AC98" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AD98" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AE98" s="0">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="AG98" s="0">
         <v>0</v>
@@ -11606,13 +11618,13 @@
         <v>750</v>
       </c>
       <c r="O99" s="0">
-        <v>75.88</v>
+        <v>79.36</v>
       </c>
       <c r="P99" s="0">
         <v>0</v>
       </c>
       <c r="Q99" s="0">
-        <v>1.01332</v>
+        <v>1.03847</v>
       </c>
       <c r="R99" s="0">
         <v>0.98899</v>
@@ -11621,49 +11633,49 @@
         <v>0</v>
       </c>
       <c r="T99" s="0">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="U99" s="0">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="V99" s="0">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="W99" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="X99" s="0">
-        <v>5.32</v>
+        <v>4.94</v>
       </c>
       <c r="Y99" s="0">
-        <v>5.87</v>
+        <v>5.61</v>
       </c>
       <c r="Z99" s="0">
-        <v>5.87</v>
+        <v>5.61</v>
       </c>
       <c r="AA99" s="0">
-        <v>-2.568</v>
+        <v>1.9</v>
       </c>
       <c r="AB99" s="0">
-        <v>-6.294</v>
+        <v>-1.269</v>
       </c>
       <c r="AC99" s="0">
-        <v>12.11</v>
+        <v>11.78</v>
       </c>
       <c r="AD99" s="0">
-        <v>15.75</v>
+        <v>16.13</v>
       </c>
       <c r="AE99" s="0">
-        <v>15.75</v>
+        <v>16.13</v>
       </c>
       <c r="AF99" s="0">
-        <v>1.07</v>
+        <v>0.61</v>
       </c>
       <c r="AG99" s="0">
-        <v>4.12</v>
+        <v>4.27</v>
       </c>
       <c r="AH99" s="0">
-        <v>4.12</v>
+        <v>4.27</v>
       </c>
       <c r="AI99" s="0" t="s">
         <v>56</v>
@@ -11713,13 +11725,13 @@
         <v>1000</v>
       </c>
       <c r="O100" s="0">
-        <v>84.04</v>
+        <v>90.6</v>
       </c>
       <c r="P100" s="0">
         <v>0</v>
       </c>
       <c r="Q100" s="0">
-        <v>1.49638</v>
+        <v>1.58074</v>
       </c>
       <c r="R100" s="0">
         <v>1.48053</v>
@@ -11728,49 +11740,49 @@
         <v>0</v>
       </c>
       <c r="T100" s="0">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="U100" s="0">
-        <v>79</v>
+        <v>-17</v>
       </c>
       <c r="V100" s="0">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="W100" s="0">
-        <v>55</v>
+        <v>-6</v>
       </c>
       <c r="X100" s="0">
-        <v>5.12</v>
+        <v>4.21</v>
       </c>
       <c r="Y100" s="0">
-        <v>6.02</v>
+        <v>5.58</v>
       </c>
       <c r="Z100" s="0">
-        <v>6.02</v>
+        <v>5.58</v>
       </c>
       <c r="AA100" s="0">
-        <v>-3.888</v>
+        <v>3.614</v>
       </c>
       <c r="AB100" s="0">
-        <v>-7.141</v>
+        <v>0.72</v>
       </c>
       <c r="AC100" s="0">
-        <v>10.14</v>
+        <v>8.73</v>
       </c>
       <c r="AD100" s="0">
-        <v>16.09</v>
+        <v>17.06</v>
       </c>
       <c r="AE100" s="0">
-        <v>16.09</v>
+        <v>17.06</v>
       </c>
       <c r="AF100" s="0">
-        <v>0.01</v>
+        <v>-0.89</v>
       </c>
       <c r="AG100" s="0">
-        <v>4.86</v>
+        <v>5.36</v>
       </c>
       <c r="AH100" s="0">
-        <v>4.86</v>
+        <v>5.36</v>
       </c>
       <c r="AI100" s="0" t="s">
         <v>56</v>
@@ -11820,64 +11832,64 @@
         <v>270</v>
       </c>
       <c r="O101" s="0">
-        <v>91.76</v>
+        <v>99.4</v>
       </c>
       <c r="P101" s="0">
         <v>0</v>
       </c>
       <c r="Q101" s="0">
-        <v>0.44114</v>
+        <v>0.46825</v>
       </c>
       <c r="R101" s="0">
         <v>0.42242</v>
       </c>
       <c r="S101" s="0">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T101" s="0">
-        <v>31</v>
+        <v>-226</v>
       </c>
       <c r="U101" s="0">
-        <v>36</v>
+        <v>-221</v>
       </c>
       <c r="V101" s="0">
-        <v>72</v>
+        <v>-143</v>
       </c>
       <c r="W101" s="0">
-        <v>30</v>
+        <v>-185</v>
       </c>
       <c r="X101" s="0">
-        <v>3.94</v>
+        <v>1.4</v>
       </c>
       <c r="Y101" s="0">
-        <v>5.58</v>
+        <v>5.13</v>
       </c>
       <c r="Z101" s="0">
-        <v>5.58</v>
+        <v>5.13</v>
       </c>
       <c r="AA101" s="0">
-        <v>-0.693</v>
+        <v>8.929</v>
       </c>
       <c r="AB101" s="0">
-        <v>-3.507</v>
+        <v>6.365</v>
       </c>
       <c r="AC101" s="0">
-        <v>7.62</v>
+        <v>2</v>
       </c>
       <c r="AD101" s="0">
-        <v>16.92</v>
+        <v>17.95</v>
       </c>
       <c r="AE101" s="0">
-        <v>16.92</v>
+        <v>17.95</v>
       </c>
       <c r="AF101" s="0">
-        <v>-1.38</v>
+        <v>-2.73</v>
       </c>
       <c r="AG101" s="0">
-        <v>5.24</v>
+        <v>5.77</v>
       </c>
       <c r="AH101" s="0">
-        <v>5.24</v>
+        <v>5.77</v>
       </c>
       <c r="AI101" s="0" t="s">
         <v>56</v>
@@ -11927,13 +11939,13 @@
         <v>450</v>
       </c>
       <c r="O102" s="0">
-        <v>92.52</v>
+        <v>97.76</v>
       </c>
       <c r="P102" s="0">
         <v>0</v>
       </c>
       <c r="Q102" s="0">
-        <v>0.74132</v>
+        <v>0.76755</v>
       </c>
       <c r="R102" s="0">
         <v>0.72994</v>
@@ -11942,49 +11954,49 @@
         <v>0</v>
       </c>
       <c r="T102" s="0">
-        <v>32</v>
+        <v>-89</v>
       </c>
       <c r="U102" s="0">
-        <v>100</v>
+        <v>-21</v>
       </c>
       <c r="V102" s="0">
-        <v>75</v>
+        <v>-21</v>
       </c>
       <c r="W102" s="0">
-        <v>85</v>
+        <v>-11</v>
       </c>
       <c r="X102" s="0">
-        <v>3.95</v>
+        <v>2.79</v>
       </c>
       <c r="Y102" s="0">
-        <v>5.75</v>
+        <v>5.44</v>
       </c>
       <c r="Z102" s="0">
-        <v>5.75</v>
+        <v>5.44</v>
       </c>
       <c r="AA102" s="0">
-        <v>-3.424</v>
+        <v>2.046</v>
       </c>
       <c r="AB102" s="0">
-        <v>-5.65</v>
+        <v>-0.052</v>
       </c>
       <c r="AC102" s="0">
-        <v>6.95</v>
+        <v>4.17</v>
       </c>
       <c r="AD102" s="0">
-        <v>16.6</v>
+        <v>17.27</v>
       </c>
       <c r="AE102" s="0">
-        <v>16.6</v>
+        <v>17.27</v>
       </c>
       <c r="AF102" s="0">
-        <v>-1.84</v>
+        <v>-2.88</v>
       </c>
       <c r="AG102" s="0">
-        <v>5.03</v>
+        <v>5.38</v>
       </c>
       <c r="AH102" s="0">
-        <v>5.03</v>
+        <v>5.38</v>
       </c>
       <c r="AI102" s="0" t="s">
         <v>56</v>
@@ -12034,13 +12046,13 @@
         <v>250</v>
       </c>
       <c r="O103" s="0">
-        <v>93</v>
+        <v>95.72</v>
       </c>
       <c r="P103" s="0">
         <v>0</v>
       </c>
       <c r="Q103" s="0">
-        <v>0.41398</v>
+        <v>0.41752</v>
       </c>
       <c r="R103" s="0">
         <v>0.41873</v>
@@ -12049,49 +12061,49 @@
         <v>0</v>
       </c>
       <c r="T103" s="0">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="U103" s="0">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="V103" s="0">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="W103" s="0">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="X103" s="0">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Y103" s="0">
-        <v>6.43</v>
+        <v>6.26</v>
       </c>
       <c r="Z103" s="0">
-        <v>6.43</v>
+        <v>6.26</v>
       </c>
       <c r="AA103" s="0">
-        <v>-5.985</v>
+        <v>-3.235</v>
       </c>
       <c r="AB103" s="0">
-        <v>-8.076</v>
+        <v>-5.243</v>
       </c>
       <c r="AC103" s="0">
-        <v>6.96</v>
+        <v>6.24</v>
       </c>
       <c r="AD103" s="0">
-        <v>15.36</v>
+        <v>15.73</v>
       </c>
       <c r="AE103" s="0">
-        <v>15.36</v>
+        <v>15.73</v>
       </c>
       <c r="AF103" s="0">
-        <v>-1.16</v>
+        <v>-1.52</v>
       </c>
       <c r="AG103" s="0">
-        <v>4.82</v>
+        <v>5.06</v>
       </c>
       <c r="AH103" s="0">
-        <v>4.82</v>
+        <v>5.06</v>
       </c>
       <c r="AI103" s="0" t="s">
         <v>47</v>
@@ -12141,64 +12153,64 @@
         <v>757.5</v>
       </c>
       <c r="O104" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P104" s="0">
         <v>0</v>
       </c>
       <c r="Q104" s="0">
-        <v>1.24087</v>
+        <v>1.29521</v>
       </c>
       <c r="R104" s="0">
         <v>1.23745</v>
       </c>
       <c r="S104" s="0">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="T104" s="0">
-        <v>132</v>
+        <v>-19</v>
       </c>
       <c r="U104" s="0">
-        <v>122</v>
+        <v>-29</v>
       </c>
       <c r="V104" s="0">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="W104" s="0">
-        <v>96</v>
+        <v>-18</v>
       </c>
       <c r="X104" s="0">
-        <v>4.96</v>
+        <v>3.49</v>
       </c>
       <c r="Y104" s="0">
-        <v>6.4</v>
+        <v>5.92</v>
       </c>
       <c r="Z104" s="0">
-        <v>6.4</v>
+        <v>5.92</v>
       </c>
       <c r="AA104" s="0">
-        <v>-4.643</v>
+        <v>3.065</v>
       </c>
       <c r="AB104" s="0">
-        <v>-7.125</v>
+        <v>0.735</v>
       </c>
       <c r="AC104" s="0">
-        <v>7.53</v>
+        <v>5.29</v>
       </c>
       <c r="AD104" s="0">
-        <v>14.98</v>
+        <v>16.18</v>
       </c>
       <c r="AE104" s="0">
-        <v>14.98</v>
+        <v>16.18</v>
       </c>
       <c r="AF104" s="0">
-        <v>-0.78</v>
+        <v>-1.66</v>
       </c>
       <c r="AG104" s="0">
-        <v>4.28</v>
+        <v>4.83</v>
       </c>
       <c r="AH104" s="0">
-        <v>4.28</v>
+        <v>4.83</v>
       </c>
       <c r="AI104" s="0" t="s">
         <v>56</v>
@@ -12248,64 +12260,64 @@
         <v>1750</v>
       </c>
       <c r="O105" s="0">
-        <v>75.16</v>
+        <v>82.68</v>
       </c>
       <c r="P105" s="0">
         <v>0</v>
       </c>
       <c r="Q105" s="0">
-        <v>2.34197</v>
+        <v>2.52447</v>
       </c>
       <c r="R105" s="0">
         <v>2.36455</v>
       </c>
       <c r="S105" s="0">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T105" s="0">
-        <v>237</v>
+        <v>140</v>
       </c>
       <c r="U105" s="0">
-        <v>90</v>
+        <v>-7</v>
       </c>
       <c r="V105" s="0">
-        <v>238</v>
+        <v>135</v>
       </c>
       <c r="W105" s="0">
-        <v>101</v>
+        <v>-2</v>
       </c>
       <c r="X105" s="0">
-        <v>6.03</v>
+        <v>5.1</v>
       </c>
       <c r="Y105" s="0">
-        <v>6.42</v>
+        <v>5.84</v>
       </c>
       <c r="Z105" s="0">
-        <v>6.42</v>
+        <v>5.84</v>
       </c>
       <c r="AA105" s="0">
-        <v>-5.815</v>
+        <v>3.609</v>
       </c>
       <c r="AB105" s="0">
-        <v>-9.437</v>
+        <v>0.487</v>
       </c>
       <c r="AC105" s="0">
-        <v>11.89</v>
+        <v>10.91</v>
       </c>
       <c r="AD105" s="0">
-        <v>15.34</v>
+        <v>16.83</v>
       </c>
       <c r="AE105" s="0">
-        <v>15.34</v>
+        <v>16.83</v>
       </c>
       <c r="AF105" s="0">
-        <v>1.39</v>
+        <v>-0.03</v>
       </c>
       <c r="AG105" s="0">
-        <v>4.82</v>
+        <v>5.8</v>
       </c>
       <c r="AH105" s="0">
-        <v>4.82</v>
+        <v>5.8</v>
       </c>
       <c r="AI105" s="0" t="s">
         <v>47</v>
@@ -12355,13 +12367,13 @@
         <v>1200</v>
       </c>
       <c r="O106" s="0">
-        <v>80.16</v>
+        <v>88.48</v>
       </c>
       <c r="P106" s="0">
         <v>0</v>
       </c>
       <c r="Q106" s="0">
-        <v>1.71276</v>
+        <v>1.8525</v>
       </c>
       <c r="R106" s="0">
         <v>1.71893</v>
@@ -12370,49 +12382,49 @@
         <v>0</v>
       </c>
       <c r="T106" s="0">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="U106" s="0">
-        <v>93</v>
+        <v>-24</v>
       </c>
       <c r="V106" s="0">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="W106" s="0">
-        <v>55</v>
+        <v>-14</v>
       </c>
       <c r="X106" s="0">
-        <v>5.73</v>
+        <v>4.6</v>
       </c>
       <c r="Y106" s="0">
-        <v>6.33</v>
+        <v>5.75</v>
       </c>
       <c r="Z106" s="0">
-        <v>6.33</v>
+        <v>5.75</v>
       </c>
       <c r="AA106" s="0">
-        <v>-5.248</v>
+        <v>4.586</v>
       </c>
       <c r="AB106" s="0">
-        <v>-8.62</v>
+        <v>1.619</v>
       </c>
       <c r="AC106" s="0">
-        <v>10.89</v>
+        <v>9.26</v>
       </c>
       <c r="AD106" s="0">
-        <v>15.55</v>
+        <v>17.12</v>
       </c>
       <c r="AE106" s="0">
-        <v>15.55</v>
+        <v>17.12</v>
       </c>
       <c r="AF106" s="0">
-        <v>0.39</v>
+        <v>-0.79</v>
       </c>
       <c r="AG106" s="0">
-        <v>4.95</v>
+        <v>6</v>
       </c>
       <c r="AH106" s="0">
-        <v>4.95</v>
+        <v>6</v>
       </c>
       <c r="AI106" s="0" t="s">
         <v>47</v>
@@ -12462,13 +12474,13 @@
         <v>1322.5</v>
       </c>
       <c r="O107" s="0">
-        <v>89.68</v>
+        <v>93.52</v>
       </c>
       <c r="P107" s="0">
         <v>0</v>
       </c>
       <c r="Q107" s="0">
-        <v>2.11178</v>
+        <v>2.1579</v>
       </c>
       <c r="R107" s="0">
         <v>2.104</v>
@@ -12477,49 +12489,49 @@
         <v>0</v>
       </c>
       <c r="T107" s="0">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="U107" s="0">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="V107" s="0">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="W107" s="0">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="X107" s="0">
-        <v>4.77</v>
+        <v>4.2</v>
       </c>
       <c r="Y107" s="0">
-        <v>6.11</v>
+        <v>5.86</v>
       </c>
       <c r="Z107" s="0">
-        <v>6.11</v>
+        <v>5.86</v>
       </c>
       <c r="AA107" s="0">
-        <v>-4.555</v>
+        <v>-0.468</v>
       </c>
       <c r="AB107" s="0">
-        <v>-7.102</v>
+        <v>-2.832</v>
       </c>
       <c r="AC107" s="0">
-        <v>8.09</v>
+        <v>6.92</v>
       </c>
       <c r="AD107" s="0">
-        <v>15.22</v>
+        <v>15.62</v>
       </c>
       <c r="AE107" s="0">
-        <v>15.22</v>
+        <v>15.62</v>
       </c>
       <c r="AF107" s="0">
-        <v>-1.09</v>
+        <v>-1.97</v>
       </c>
       <c r="AG107" s="0">
-        <v>4.08</v>
+        <v>4.26</v>
       </c>
       <c r="AH107" s="0">
-        <v>4.08</v>
+        <v>4.26</v>
       </c>
       <c r="AI107" s="0" t="s">
         <v>62</v>
@@ -12569,13 +12581,13 @@
         <v>825</v>
       </c>
       <c r="O108" s="0">
-        <v>95.28</v>
+        <v>98.92</v>
       </c>
       <c r="P108" s="0">
         <v>0</v>
       </c>
       <c r="Q108" s="0">
-        <v>1.39963</v>
+        <v>1.42387</v>
       </c>
       <c r="R108" s="0">
         <v>1.38795</v>
@@ -12584,49 +12596,49 @@
         <v>0</v>
       </c>
       <c r="T108" s="0">
-        <v>28</v>
+        <v>-65</v>
       </c>
       <c r="U108" s="0">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="V108" s="0">
-        <v>69</v>
+        <v>-7</v>
       </c>
       <c r="W108" s="0">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="X108" s="0">
-        <v>3.9</v>
+        <v>3.02</v>
       </c>
       <c r="Y108" s="0">
-        <v>6.02</v>
+        <v>5.79</v>
       </c>
       <c r="Z108" s="0">
-        <v>6.02</v>
+        <v>5.79</v>
       </c>
       <c r="AA108" s="0">
-        <v>-4.106</v>
+        <v>-0.443</v>
       </c>
       <c r="AB108" s="0">
-        <v>-5.584</v>
+        <v>-1.919</v>
       </c>
       <c r="AC108" s="0">
-        <v>5.64</v>
+        <v>3.64</v>
       </c>
       <c r="AD108" s="0">
-        <v>15.33</v>
+        <v>15.68</v>
       </c>
       <c r="AE108" s="0">
-        <v>15.33</v>
+        <v>15.68</v>
       </c>
       <c r="AF108" s="0">
-        <v>-1.99</v>
+        <v>-2.47</v>
       </c>
       <c r="AG108" s="0">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="AH108" s="0">
-        <v>4.14</v>
+        <v>4.3</v>
       </c>
       <c r="AI108" s="0" t="s">
         <v>62</v>
@@ -12676,64 +12688,64 @@
         <v>690</v>
       </c>
       <c r="O109" s="0">
-        <v>59.32</v>
+        <v>54.84</v>
       </c>
       <c r="P109" s="0">
         <v>0</v>
       </c>
       <c r="Q109" s="0">
-        <v>0.7288</v>
+        <v>0.6602</v>
       </c>
       <c r="R109" s="0">
         <v>0.7851</v>
       </c>
       <c r="S109" s="0">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T109" s="0">
-        <v>676</v>
+        <v>734</v>
       </c>
       <c r="U109" s="0">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="V109" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="W109" s="0">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="X109" s="0">
-        <v>10.46</v>
+        <v>11.09</v>
       </c>
       <c r="Y109" s="0">
-        <v>10.46</v>
+        <v>11.09</v>
       </c>
       <c r="Z109" s="0">
-        <v>10.46</v>
+        <v>11.09</v>
       </c>
       <c r="AA109" s="0">
-        <v>-11.726</v>
+        <v>-16.161</v>
       </c>
       <c r="AB109" s="0">
-        <v>-15.077</v>
+        <v>-19.089</v>
       </c>
       <c r="AC109" s="0">
-        <v>9.33</v>
+        <v>8.96</v>
       </c>
       <c r="AD109" s="0">
-        <v>9.24</v>
+        <v>8.9</v>
       </c>
       <c r="AE109" s="0">
-        <v>9.24</v>
+        <v>8.9</v>
       </c>
       <c r="AF109" s="0">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="AG109" s="0">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AH109" s="0">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="AI109" s="0" t="s">
         <v>47</v>
@@ -12783,64 +12795,64 @@
         <v>420</v>
       </c>
       <c r="O110" s="0">
-        <v>67.48</v>
+        <v>60.12</v>
       </c>
       <c r="P110" s="0">
         <v>0</v>
       </c>
       <c r="Q110" s="0">
-        <v>0.50464</v>
+        <v>0.44056</v>
       </c>
       <c r="R110" s="0">
         <v>0.52852</v>
       </c>
       <c r="S110" s="0">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="T110" s="0">
-        <v>643</v>
+        <v>742</v>
       </c>
       <c r="U110" s="0">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="V110" s="0">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="W110" s="0">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="X110" s="0">
-        <v>10.13</v>
+        <v>11.17</v>
       </c>
       <c r="Y110" s="0">
-        <v>10.14</v>
+        <v>11.17</v>
       </c>
       <c r="Z110" s="0">
-        <v>10.14</v>
+        <v>11.17</v>
       </c>
       <c r="AA110" s="0">
-        <v>-9.203</v>
+        <v>-16.878</v>
       </c>
       <c r="AB110" s="0">
-        <v>-12.478</v>
+        <v>-19.775</v>
       </c>
       <c r="AC110" s="0">
-        <v>9.39</v>
+        <v>8.9</v>
       </c>
       <c r="AD110" s="0">
-        <v>9.54</v>
+        <v>8.83</v>
       </c>
       <c r="AE110" s="0">
-        <v>9.54</v>
+        <v>8.83</v>
       </c>
       <c r="AF110" s="0">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AG110" s="0">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AH110" s="0">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AI110" s="0" t="s">
         <v>47</v>
@@ -12890,13 +12902,13 @@
         <v>256</v>
       </c>
       <c r="O111" s="0">
-        <v>85.56</v>
+        <v>86.86</v>
       </c>
       <c r="P111" s="0">
         <v>0</v>
       </c>
       <c r="Q111" s="0">
-        <v>0.39</v>
+        <v>0.38796</v>
       </c>
       <c r="R111" s="0">
         <v>0.37104</v>
@@ -12926,10 +12938,10 @@
         <v>8.15</v>
       </c>
       <c r="AA111" s="0">
-        <v>-0.047</v>
+        <v>1.471</v>
       </c>
       <c r="AB111" s="0">
-        <v>-0.315</v>
+        <v>1.003</v>
       </c>
       <c r="AC111" s="0">
         <v>-0.06</v>
@@ -12997,13 +13009,13 @@
         <v>295</v>
       </c>
       <c r="O112" s="0">
-        <v>81.16</v>
+        <v>79.32</v>
       </c>
       <c r="P112" s="0">
         <v>0</v>
       </c>
       <c r="Q112" s="0">
-        <v>0.42631</v>
+        <v>0.40826</v>
       </c>
       <c r="R112" s="0">
         <v>0.43356</v>
@@ -13012,49 +13024,49 @@
         <v>0</v>
       </c>
       <c r="T112" s="0">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="U112" s="0">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="V112" s="0">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="W112" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X112" s="0">
-        <v>11.35</v>
+        <v>12</v>
       </c>
       <c r="Y112" s="0">
-        <v>20.73</v>
+        <v>22.85</v>
       </c>
       <c r="Z112" s="0">
-        <v>20.73</v>
+        <v>22.85</v>
       </c>
       <c r="AA112" s="0">
-        <v>-6.498</v>
+        <v>-8.618</v>
       </c>
       <c r="AB112" s="0">
-        <v>-7.444</v>
+        <v>-9.681</v>
       </c>
       <c r="AC112" s="0">
-        <v>-0.33</v>
+        <v>-0.53</v>
       </c>
       <c r="AD112" s="0">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AE112" s="0">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="AF112" s="0">
-        <v>-0.38</v>
+        <v>-0.4</v>
       </c>
       <c r="AG112" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AH112" s="0">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AI112" s="0" t="s">
         <v>47</v>
@@ -13104,13 +13116,13 @@
         <v>287.5</v>
       </c>
       <c r="O113" s="0">
-        <v>77.88</v>
+        <v>77.4</v>
       </c>
       <c r="P113" s="0">
         <v>0</v>
       </c>
       <c r="Q113" s="0">
-        <v>0.39868</v>
+        <v>0.38825</v>
       </c>
       <c r="R113" s="0">
         <v>0.41884</v>
@@ -13119,43 +13131,43 @@
         <v>0</v>
       </c>
       <c r="T113" s="0">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="U113" s="0">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="V113" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="W113" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="X113" s="0">
-        <v>11.72</v>
+        <v>12.06</v>
       </c>
       <c r="Y113" s="0">
-        <v>15.2</v>
+        <v>15.59</v>
       </c>
       <c r="Z113" s="0">
-        <v>15.2</v>
+        <v>15.59</v>
       </c>
       <c r="AA113" s="0">
-        <v>-9.484</v>
+        <v>-10.042</v>
       </c>
       <c r="AB113" s="0">
-        <v>-11.295</v>
+        <v>-12.012</v>
       </c>
       <c r="AC113" s="0">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="AD113" s="0">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="AE113" s="0">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="AF113" s="0">
-        <v>-0.24</v>
+        <v>-0.25</v>
       </c>
       <c r="AG113" s="0">
         <v>0.15</v>
@@ -13211,13 +13223,13 @@
         <v>500</v>
       </c>
       <c r="O114" s="0">
-        <v>60.2</v>
+        <v>67.44</v>
       </c>
       <c r="P114" s="0">
         <v>0</v>
       </c>
       <c r="Q114" s="0">
-        <v>0.53595</v>
+        <v>0.58833</v>
       </c>
       <c r="R114" s="0">
         <v>0.55842</v>
@@ -13226,49 +13238,49 @@
         <v>0</v>
       </c>
       <c r="T114" s="0">
-        <v>566</v>
+        <v>457</v>
       </c>
       <c r="U114" s="0">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="V114" s="0">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="W114" s="0">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="X114" s="0">
-        <v>9.35</v>
+        <v>8.3</v>
       </c>
       <c r="Y114" s="0">
-        <v>9.36</v>
+        <v>8.39</v>
       </c>
       <c r="Z114" s="0">
-        <v>9.36</v>
+        <v>8.39</v>
       </c>
       <c r="AA114" s="0">
-        <v>-8.733</v>
+        <v>2.244</v>
       </c>
       <c r="AB114" s="0">
-        <v>-12.275</v>
+        <v>-0.805</v>
       </c>
       <c r="AC114" s="0">
-        <v>10.6</v>
+        <v>11.15</v>
       </c>
       <c r="AD114" s="0">
-        <v>10.7</v>
+        <v>11.83</v>
       </c>
       <c r="AE114" s="0">
-        <v>10.7</v>
+        <v>11.83</v>
       </c>
       <c r="AF114" s="0">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="AG114" s="0">
-        <v>2.28</v>
+        <v>2.73</v>
       </c>
       <c r="AH114" s="0">
-        <v>2.28</v>
+        <v>2.73</v>
       </c>
       <c r="AI114" s="0" t="s">
         <v>62</v>
@@ -13318,13 +13330,13 @@
         <v>500</v>
       </c>
       <c r="O115" s="0">
-        <v>60.28</v>
+        <v>66.76</v>
       </c>
       <c r="P115" s="0">
         <v>0</v>
       </c>
       <c r="Q115" s="0">
-        <v>0.53666</v>
+        <v>0.5824</v>
       </c>
       <c r="R115" s="0">
         <v>0.5574</v>
@@ -13333,49 +13345,49 @@
         <v>0</v>
       </c>
       <c r="T115" s="0">
-        <v>564</v>
+        <v>466</v>
       </c>
       <c r="U115" s="0">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="V115" s="0">
-        <v>407</v>
+        <v>378</v>
       </c>
       <c r="W115" s="0">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="X115" s="0">
-        <v>9.33</v>
+        <v>8.4</v>
       </c>
       <c r="Y115" s="0">
-        <v>9.34</v>
+        <v>8.47</v>
       </c>
       <c r="Z115" s="0">
-        <v>9.34</v>
+        <v>8.47</v>
       </c>
       <c r="AA115" s="0">
-        <v>-8.445</v>
+        <v>1.397</v>
       </c>
       <c r="AB115" s="0">
-        <v>-11.986</v>
+        <v>-1.65</v>
       </c>
       <c r="AC115" s="0">
-        <v>10.61</v>
+        <v>11.13</v>
       </c>
       <c r="AD115" s="0">
-        <v>10.72</v>
+        <v>11.72</v>
       </c>
       <c r="AE115" s="0">
-        <v>10.72</v>
+        <v>11.72</v>
       </c>
       <c r="AF115" s="0">
-        <v>2.18</v>
+        <v>1.73</v>
       </c>
       <c r="AG115" s="0">
-        <v>2.29</v>
+        <v>2.69</v>
       </c>
       <c r="AH115" s="0">
-        <v>2.29</v>
+        <v>2.69</v>
       </c>
       <c r="AI115" s="0" t="s">
         <v>62</v>
@@ -13425,13 +13437,13 @@
         <v>500</v>
       </c>
       <c r="O116" s="0">
-        <v>66</v>
+        <v>74.44</v>
       </c>
       <c r="P116" s="0">
         <v>0</v>
       </c>
       <c r="Q116" s="0">
-        <v>0.58758</v>
+        <v>0.64939</v>
       </c>
       <c r="R116" s="0">
         <v>0.61327</v>
@@ -13440,49 +13452,49 @@
         <v>0</v>
       </c>
       <c r="T116" s="0">
-        <v>595</v>
+        <v>470</v>
       </c>
       <c r="U116" s="0">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="V116" s="0">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="W116" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="X116" s="0">
-        <v>9.65</v>
+        <v>8.44</v>
       </c>
       <c r="Y116" s="0">
-        <v>9.68</v>
+        <v>8.61</v>
       </c>
       <c r="Z116" s="0">
-        <v>9.68</v>
+        <v>8.61</v>
       </c>
       <c r="AA116" s="0">
-        <v>-8.89</v>
+        <v>2.761</v>
       </c>
       <c r="AB116" s="0">
-        <v>-12.297</v>
+        <v>-0.225</v>
       </c>
       <c r="AC116" s="0">
-        <v>10.07</v>
+        <v>10.26</v>
       </c>
       <c r="AD116" s="0">
-        <v>10.27</v>
+        <v>11.43</v>
       </c>
       <c r="AE116" s="0">
-        <v>10.27</v>
+        <v>11.43</v>
       </c>
       <c r="AF116" s="0">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AG116" s="0">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="AH116" s="0">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="AI116" s="0" t="s">
         <v>62</v>
@@ -13532,64 +13544,64 @@
         <v>300</v>
       </c>
       <c r="O117" s="0">
-        <v>51.12</v>
+        <v>43.64</v>
       </c>
       <c r="P117" s="0">
         <v>0</v>
       </c>
       <c r="Q117" s="0">
-        <v>0.27307</v>
+        <v>0.22842</v>
       </c>
       <c r="R117" s="0">
         <v>0.29929</v>
       </c>
       <c r="S117" s="0">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T117" s="0">
-        <v>526</v>
+        <v>657</v>
       </c>
       <c r="U117" s="0">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="V117" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="W117" s="0">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="X117" s="0">
-        <v>8.95</v>
+        <v>10.32</v>
       </c>
       <c r="Y117" s="0">
-        <v>8.96</v>
+        <v>10.33</v>
       </c>
       <c r="Z117" s="0">
-        <v>8.96</v>
+        <v>10.33</v>
       </c>
       <c r="AA117" s="0">
-        <v>-13.238</v>
+        <v>-24.045</v>
       </c>
       <c r="AB117" s="0">
-        <v>-17.05</v>
+        <v>-27.238</v>
       </c>
       <c r="AC117" s="0">
-        <v>10.96</v>
+        <v>9.65</v>
       </c>
       <c r="AD117" s="0">
-        <v>10.85</v>
+        <v>9.56</v>
       </c>
       <c r="AE117" s="0">
-        <v>10.85</v>
+        <v>9.56</v>
       </c>
       <c r="AF117" s="0">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="AG117" s="0">
-        <v>2.45</v>
+        <v>1.88</v>
       </c>
       <c r="AH117" s="0">
-        <v>2.45</v>
+        <v>1.88</v>
       </c>
       <c r="AI117" s="0" t="s">
         <v>47</v>
@@ -13639,64 +13651,64 @@
         <v>300</v>
       </c>
       <c r="O118" s="0">
-        <v>58.36</v>
+        <v>50.92</v>
       </c>
       <c r="P118" s="0">
         <v>0</v>
       </c>
       <c r="Q118" s="0">
-        <v>0.31174</v>
+        <v>0.26653</v>
       </c>
       <c r="R118" s="0">
         <v>0.33038</v>
       </c>
       <c r="S118" s="0">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T118" s="0">
-        <v>557</v>
+        <v>668</v>
       </c>
       <c r="U118" s="0">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="V118" s="0">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="W118" s="0">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="X118" s="0">
-        <v>9.26</v>
+        <v>10.43</v>
       </c>
       <c r="Y118" s="0">
-        <v>9.27</v>
+        <v>10.44</v>
       </c>
       <c r="Z118" s="0">
-        <v>9.27</v>
+        <v>10.44</v>
       </c>
       <c r="AA118" s="0">
-        <v>-10.271</v>
+        <v>-19.692</v>
       </c>
       <c r="AB118" s="0">
-        <v>-13.822</v>
+        <v>-22.735</v>
       </c>
       <c r="AC118" s="0">
-        <v>10.58</v>
+        <v>9.54</v>
       </c>
       <c r="AD118" s="0">
-        <v>10.48</v>
+        <v>9.46</v>
       </c>
       <c r="AE118" s="0">
-        <v>10.48</v>
+        <v>9.46</v>
       </c>
       <c r="AF118" s="0">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="AG118" s="0">
-        <v>2.29</v>
+        <v>1.83</v>
       </c>
       <c r="AH118" s="0">
-        <v>2.29</v>
+        <v>1.83</v>
       </c>
       <c r="AI118" s="0" t="s">
         <v>47</v>
@@ -13746,64 +13758,64 @@
         <v>319.5</v>
       </c>
       <c r="O119" s="0">
-        <v>58.4</v>
+        <v>52.76</v>
       </c>
       <c r="P119" s="0">
         <v>0</v>
       </c>
       <c r="Q119" s="0">
-        <v>0.33223</v>
+        <v>0.29411</v>
       </c>
       <c r="R119" s="0">
         <v>0.35034</v>
       </c>
       <c r="S119" s="0">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T119" s="0">
-        <v>556</v>
+        <v>632</v>
       </c>
       <c r="U119" s="0">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c r="V119" s="0">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="W119" s="0">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="X119" s="0">
-        <v>9.26</v>
+        <v>10.07</v>
       </c>
       <c r="Y119" s="0">
-        <v>9.26</v>
+        <v>10.07</v>
       </c>
       <c r="Z119" s="0">
-        <v>9.26</v>
+        <v>10.07</v>
       </c>
       <c r="AA119" s="0">
-        <v>-9.821</v>
+        <v>-16.503</v>
       </c>
       <c r="AB119" s="0">
-        <v>-13.372</v>
+        <v>-19.547</v>
       </c>
       <c r="AC119" s="0">
-        <v>10.59</v>
+        <v>9.89</v>
       </c>
       <c r="AD119" s="0">
-        <v>10.48</v>
+        <v>9.81</v>
       </c>
       <c r="AE119" s="0">
-        <v>10.48</v>
+        <v>9.81</v>
       </c>
       <c r="AF119" s="0">
-        <v>2.31</v>
+        <v>1.98</v>
       </c>
       <c r="AG119" s="0">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="AH119" s="0">
-        <v>2.29</v>
+        <v>1.97</v>
       </c>
       <c r="AI119" s="0" t="s">
         <v>47</v>
@@ -13853,64 +13865,64 @@
         <v>300</v>
       </c>
       <c r="O120" s="0">
-        <v>60.08</v>
+        <v>54.44</v>
       </c>
       <c r="P120" s="0">
         <v>0</v>
       </c>
       <c r="Q120" s="0">
-        <v>0.32093</v>
+        <v>0.28495</v>
       </c>
       <c r="R120" s="0">
         <v>0.34724</v>
       </c>
       <c r="S120" s="0">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T120" s="0">
-        <v>556</v>
+        <v>628</v>
       </c>
       <c r="U120" s="0">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="V120" s="0">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="W120" s="0">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="X120" s="0">
-        <v>9.25</v>
+        <v>10.03</v>
       </c>
       <c r="Y120" s="0">
-        <v>9.26</v>
+        <v>10.04</v>
       </c>
       <c r="Z120" s="0">
-        <v>9.26</v>
+        <v>10.04</v>
       </c>
       <c r="AA120" s="0">
-        <v>-12.112</v>
+        <v>-18.388</v>
       </c>
       <c r="AB120" s="0">
-        <v>-15.65</v>
+        <v>-21.428</v>
       </c>
       <c r="AC120" s="0">
-        <v>10.56</v>
+        <v>9.93</v>
       </c>
       <c r="AD120" s="0">
-        <v>10.49</v>
+        <v>9.84</v>
       </c>
       <c r="AE120" s="0">
-        <v>10.49</v>
+        <v>9.84</v>
       </c>
       <c r="AF120" s="0">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="AG120" s="0">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="AH120" s="0">
-        <v>2.29</v>
+        <v>1.98</v>
       </c>
       <c r="AI120" s="0" t="s">
         <v>47</v>
@@ -13960,46 +13972,46 @@
         <v>540.3</v>
       </c>
       <c r="O121" s="0">
-        <v>109.32</v>
+        <v>106.32</v>
       </c>
       <c r="P121" s="0">
         <v>0</v>
       </c>
       <c r="Q121" s="0">
-        <v>1.0517</v>
+        <v>1.00226</v>
       </c>
       <c r="R121" s="0">
         <v>1.01254</v>
       </c>
       <c r="S121" s="0">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="T121" s="0">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="U121" s="0">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="V121" s="0">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="W121" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="X121" s="0">
-        <v>6.43</v>
+        <v>6.87</v>
       </c>
       <c r="Y121" s="0">
-        <v>7.26</v>
+        <v>7.59</v>
       </c>
       <c r="Z121" s="0">
-        <v>7.26</v>
+        <v>7.59</v>
       </c>
       <c r="AA121" s="0">
-        <v>-1.229</v>
+        <v>-1.539</v>
       </c>
       <c r="AB121" s="0">
-        <v>-2.691</v>
+        <v>-3.041</v>
       </c>
       <c r="AC121" s="0">
         <v>1.91</v>
